--- a/summary.xlsx
+++ b/summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC919A5-CB40-4D4A-B1B2-7236B7A31200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4322E8-BA59-4D59-B84E-193E0FD2D825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="690" windowWidth="17610" windowHeight="13290" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="675" windowWidth="17610" windowHeight="13290" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="1" r:id="rId1"/>
@@ -1450,7 +1450,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="1053">
   <si>
     <t>максимальное значение переменной</t>
   </si>
@@ -8693,7 +8693,55 @@
     <t>.append()/.prepend()</t>
   </si>
   <si>
-    <t>added content to the end/top</t>
+    <t>.addClass()/.removeClass()</t>
+  </si>
+  <si>
+    <t>.toggleClass()</t>
+  </si>
+  <si>
+    <t>added content to the end/top inside</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>.css()</t>
+  </si>
+  <si>
+    <t>.width()/.height()</t>
+  </si>
+  <si>
+    <t>.parent()</t>
+  </si>
+  <si>
+    <t>.remove()</t>
+  </si>
+  <si>
+    <t>.empty()</t>
+  </si>
+  <si>
+    <t>.click()</t>
+  </si>
+  <si>
+    <t>.dblclick()</t>
+  </si>
+  <si>
+    <t>.mouseenter()</t>
+  </si>
+  <si>
+    <t>.mouseleave()</t>
+  </si>
+  <si>
+    <t>.mouseover()</t>
+  </si>
+  <si>
+    <t>.on("click", func())</t>
+  </si>
+  <si>
+    <t>.off()</t>
+  </si>
+  <si>
+    <t>.trigger()</t>
   </si>
 </sst>
 </file>
@@ -10094,13 +10142,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10154,10 +10202,10 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10169,6 +10217,18 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10176,18 +10236,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11826,6 +11874,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>181187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D16BBE-77A1-4FB5-B99E-BD4C46623750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4705350" y="4714875"/>
+          <a:ext cx="5191125" cy="2514812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14904,10 +14996,10 @@
       <c r="E34" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="F34" s="163" t="s">
+      <c r="F34" s="162" t="s">
         <v>227</v>
       </c>
-      <c r="G34" s="164"/>
+      <c r="G34" s="163"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
@@ -15113,7 +15205,7 @@
     </row>
     <row r="93" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="162" t="s">
+      <c r="B94" s="164" t="s">
         <v>276</v>
       </c>
       <c r="C94" s="43" t="s">
@@ -15125,13 +15217,13 @@
       <c r="E94" s="161"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="162"/>
+      <c r="B95" s="164"/>
       <c r="C95" s="44" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="162"/>
+      <c r="B96" s="164"/>
       <c r="C96" s="44" t="s">
         <v>278</v>
       </c>
@@ -15141,7 +15233,7 @@
       <c r="E96" s="161"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="162"/>
+      <c r="B97" s="164"/>
       <c r="C97" s="44" t="s">
         <v>280</v>
       </c>
@@ -15154,7 +15246,7 @@
       </c>
     </row>
     <row r="98" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="162"/>
+      <c r="B98" s="164"/>
       <c r="C98" s="45" t="s">
         <v>283</v>
       </c>
@@ -15166,18 +15258,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="B94:B98"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="B71:B73"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="B82:B85"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="B94:B98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18905,15 +18997,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00DFD50-30DD-4D86-92C2-189A5C1A8FAA}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18967,12 +19059,90 @@
         <v>1035</v>
       </c>
       <c r="B7" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1034</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1052</v>
       </c>
     </row>
   </sheetData>
@@ -19049,7 +19219,7 @@
       <c r="B2" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="190" t="s">
         <v>300</v>
       </c>
       <c r="D2" s="86"/>
@@ -19062,7 +19232,7 @@
       <c r="B3" s="88" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="183"/>
+      <c r="C3" s="188"/>
       <c r="D3" s="89" t="s">
         <v>308</v>
       </c>
@@ -19077,7 +19247,7 @@
       <c r="B4" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="183" t="s">
+      <c r="C4" s="188" t="s">
         <v>309</v>
       </c>
       <c r="D4" s="89"/>
@@ -19090,7 +19260,7 @@
       <c r="B5" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="183"/>
+      <c r="C5" s="188"/>
       <c r="D5" s="89"/>
       <c r="E5" s="90"/>
     </row>
@@ -19101,7 +19271,7 @@
       <c r="B6" s="91" t="s">
         <v>396</v>
       </c>
-      <c r="C6" s="183"/>
+      <c r="C6" s="188"/>
       <c r="D6" s="89" t="s">
         <v>437</v>
       </c>
@@ -19116,7 +19286,7 @@
       <c r="B7" s="140" t="s">
         <v>437</v>
       </c>
-      <c r="C7" s="183"/>
+      <c r="C7" s="188"/>
       <c r="D7" s="89"/>
       <c r="E7" s="90"/>
     </row>
@@ -19127,7 +19297,7 @@
       <c r="B8" s="142" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="193"/>
+      <c r="C8" s="189"/>
       <c r="D8" s="138"/>
       <c r="E8" s="139"/>
     </row>
@@ -19281,28 +19451,28 @@
       <c r="E20" s="90"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="187">
+      <c r="A21" s="191">
         <v>23</v>
       </c>
       <c r="B21" s="140" t="s">
         <v>532</v>
       </c>
       <c r="C21" s="185"/>
-      <c r="D21" s="190" t="s">
+      <c r="D21" s="182" t="s">
         <v>679</v>
       </c>
-      <c r="E21" s="191" t="s">
+      <c r="E21" s="183" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="187"/>
+      <c r="A22" s="191"/>
       <c r="B22" s="140" t="s">
         <v>497</v>
       </c>
       <c r="C22" s="185"/>
-      <c r="D22" s="190"/>
-      <c r="E22" s="191"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="183"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="83">
@@ -19322,7 +19492,7 @@
       <c r="B24" s="91" t="s">
         <v>639</v>
       </c>
-      <c r="C24" s="188" t="s">
+      <c r="C24" s="192" t="s">
         <v>511</v>
       </c>
       <c r="D24" s="89"/>
@@ -19392,7 +19562,7 @@
       <c r="B30" s="141" t="s">
         <v>686</v>
       </c>
-      <c r="C30" s="189"/>
+      <c r="C30" s="193"/>
       <c r="D30" s="77"/>
       <c r="E30" s="92"/>
     </row>
@@ -19817,7 +19987,7 @@
       <c r="B66" s="91" t="s">
         <v>949</v>
       </c>
-      <c r="C66" s="192" t="s">
+      <c r="C66" s="187" t="s">
         <v>950</v>
       </c>
       <c r="D66" s="89"/>
@@ -19830,7 +20000,7 @@
       <c r="B67" s="91" t="s">
         <v>949</v>
       </c>
-      <c r="C67" s="192"/>
+      <c r="C67" s="187"/>
       <c r="D67" s="89"/>
       <c r="E67" s="90"/>
     </row>
@@ -20442,16 +20612,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C16:C23"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C24:C30"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="C9:C15"/>
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C16:C23"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C24:C30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://ru.hexlet.io/courses/html" xr:uid="{00000000-0004-0000-0700-000000000000}"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4322E8-BA59-4D59-B84E-193E0FD2D825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFB9FAB-1043-46AE-A2E0-8C2A8F2AF84A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="675" windowWidth="17610" windowHeight="13290" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-165" yWindow="1320" windowWidth="11760" windowHeight="13290" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,12 @@
     <sheet name="CSS" sheetId="6" r:id="rId5"/>
     <sheet name="JS" sheetId="9" r:id="rId6"/>
     <sheet name="JQuery" sheetId="13" r:id="rId7"/>
-    <sheet name="PHP" sheetId="10" r:id="rId8"/>
-    <sheet name="reports" sheetId="7" r:id="rId9"/>
-    <sheet name="links" sheetId="8" r:id="rId10"/>
-    <sheet name="Ё" sheetId="11" r:id="rId11"/>
-    <sheet name="settings" sheetId="12" r:id="rId12"/>
+    <sheet name="Linux" sheetId="14" r:id="rId8"/>
+    <sheet name="PHP" sheetId="10" r:id="rId9"/>
+    <sheet name="reports" sheetId="7" r:id="rId10"/>
+    <sheet name="links" sheetId="8" r:id="rId11"/>
+    <sheet name="Ё" sheetId="11" r:id="rId12"/>
+    <sheet name="settings" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1450,7 +1451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="1091">
   <si>
     <t>максимальное значение переменной</t>
   </si>
@@ -8743,6 +8744,120 @@
   <si>
     <t>.trigger()</t>
   </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>выводит полный путь от корневого каталога к текущему рабочему каталогу</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>перемещение по каталогам</t>
+  </si>
+  <si>
+    <t>mkdir/rmdir(rm)</t>
+  </si>
+  <si>
+    <t>создание/удаление каталога (удаление каталога с файлами)</t>
+  </si>
+  <si>
+    <t>rm</t>
+  </si>
+  <si>
+    <t>удаления файлов и каталогов (-r удалить только каталог)</t>
+  </si>
+  <si>
+    <t>touch</t>
+  </si>
+  <si>
+    <t>создание файла</t>
+  </si>
+  <si>
+    <t>справка по командам</t>
+  </si>
+  <si>
+    <t>man */--help</t>
+  </si>
+  <si>
+    <t>cp/mv</t>
+  </si>
+  <si>
+    <t>копирование файлов через командную строку/перемещение(переименование)</t>
+  </si>
+  <si>
+    <t>locate</t>
+  </si>
+  <si>
+    <t>поиск файлов</t>
+  </si>
+  <si>
+    <t>echo</t>
+  </si>
+  <si>
+    <t>помогает нам перемещать некоторые данные, обычно текст, в файл &gt;&gt;</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>отображение содержимого файла</t>
+  </si>
+  <si>
+    <t>nano, vi, jed</t>
+  </si>
+  <si>
+    <t>установленные тестовые редакторы</t>
+  </si>
+  <si>
+    <t>sudo</t>
+  </si>
+  <si>
+    <t>superUser do</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>увидеть доступное дисковое пространство в каждом из разделов вашей системы -m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tar </t>
+  </si>
+  <si>
+    <t>tar для работы с tarballs (или файлами, сжатыми в архиве tarball) -cvf -xvf -tvf</t>
+  </si>
+  <si>
+    <t>uname</t>
+  </si>
+  <si>
+    <t>чтобы показать информацию о системе -</t>
+  </si>
+  <si>
+    <t>apt-get</t>
+  </si>
+  <si>
+    <t>для работы с пакетами</t>
+  </si>
+  <si>
+    <t>узнать, какие файлы находятся в каталоге (-a скрытые файлы, -l права доступа)</t>
+  </si>
+  <si>
+    <t>hostname</t>
+  </si>
+  <si>
+    <t>имя хоста (-I свой IP)</t>
+  </si>
+  <si>
+    <t>ping</t>
+  </si>
+  <si>
+    <t>проверка соединения с сервером</t>
+  </si>
 </sst>
 </file>
 
@@ -8751,7 +8866,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0&quot;р.&quot;"/>
   </numFmts>
-  <fonts count="89" x14ac:knownFonts="1">
+  <fonts count="92" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9407,6 +9522,27 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -9773,7 +9909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10142,13 +10278,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10202,10 +10338,10 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10217,18 +10353,6 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10238,12 +10362,29 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -13231,6 +13372,1451 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I128"/>
+  <sheetViews>
+    <sheetView topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L97" sqref="L97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="78" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="135" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1" s="81"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="132">
+        <v>4</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="182" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="83">
+        <v>5</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="183"/>
+      <c r="D3" s="89" t="s">
+        <v>308</v>
+      </c>
+      <c r="E3" s="90" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="83">
+        <v>6</v>
+      </c>
+      <c r="B4" s="91" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="183" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="89"/>
+      <c r="E4" s="90"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="83">
+        <v>7</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="183"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="90"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="83">
+        <v>8</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>396</v>
+      </c>
+      <c r="C6" s="183"/>
+      <c r="D6" s="89" t="s">
+        <v>437</v>
+      </c>
+      <c r="E6" s="90" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="83">
+        <v>9</v>
+      </c>
+      <c r="B7" s="140" t="s">
+        <v>437</v>
+      </c>
+      <c r="C7" s="183"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="90"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="83">
+        <v>10</v>
+      </c>
+      <c r="B8" s="142" t="s">
+        <v>437</v>
+      </c>
+      <c r="C8" s="193"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="139"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="83">
+        <v>11</v>
+      </c>
+      <c r="B9" s="143" t="s">
+        <v>452</v>
+      </c>
+      <c r="C9" s="184" t="s">
+        <v>511</v>
+      </c>
+      <c r="D9" s="86"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="78">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="83">
+        <v>12</v>
+      </c>
+      <c r="B10" s="93" t="s">
+        <v>452</v>
+      </c>
+      <c r="C10" s="185"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="83">
+        <v>13</v>
+      </c>
+      <c r="B11" s="93" t="s">
+        <v>452</v>
+      </c>
+      <c r="C11" s="185"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="90"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="83">
+        <v>14</v>
+      </c>
+      <c r="B12" s="93" t="s">
+        <v>452</v>
+      </c>
+      <c r="C12" s="185"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="90"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="83">
+        <v>15</v>
+      </c>
+      <c r="B13" s="93" t="s">
+        <v>497</v>
+      </c>
+      <c r="C13" s="185"/>
+      <c r="D13" s="89" t="s">
+        <v>504</v>
+      </c>
+      <c r="E13" s="90"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="83">
+        <v>16</v>
+      </c>
+      <c r="B14" s="140" t="s">
+        <v>504</v>
+      </c>
+      <c r="C14" s="185"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="90"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="83">
+        <v>17</v>
+      </c>
+      <c r="B15" s="142" t="s">
+        <v>527</v>
+      </c>
+      <c r="C15" s="186"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="139"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="83">
+        <v>18</v>
+      </c>
+      <c r="B16" s="143" t="s">
+        <v>532</v>
+      </c>
+      <c r="C16" s="184" t="s">
+        <v>511</v>
+      </c>
+      <c r="D16" s="86" t="s">
+        <v>679</v>
+      </c>
+      <c r="E16" s="87" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="83">
+        <v>19</v>
+      </c>
+      <c r="B17" s="93" t="s">
+        <v>532</v>
+      </c>
+      <c r="C17" s="185"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="83">
+        <v>20</v>
+      </c>
+      <c r="B18" s="93" t="s">
+        <v>532</v>
+      </c>
+      <c r="C18" s="185"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="90"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="83">
+        <v>21</v>
+      </c>
+      <c r="B19" s="93" t="s">
+        <v>532</v>
+      </c>
+      <c r="C19" s="185"/>
+      <c r="D19" s="89" t="s">
+        <v>679</v>
+      </c>
+      <c r="E19" s="90" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="83">
+        <v>22</v>
+      </c>
+      <c r="B20" s="93" t="s">
+        <v>532</v>
+      </c>
+      <c r="C20" s="185"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="90"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="187">
+        <v>23</v>
+      </c>
+      <c r="B21" s="140" t="s">
+        <v>532</v>
+      </c>
+      <c r="C21" s="185"/>
+      <c r="D21" s="190" t="s">
+        <v>679</v>
+      </c>
+      <c r="E21" s="191" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="187"/>
+      <c r="B22" s="140" t="s">
+        <v>497</v>
+      </c>
+      <c r="C22" s="185"/>
+      <c r="D22" s="190"/>
+      <c r="E22" s="191"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="83">
+        <v>24</v>
+      </c>
+      <c r="B23" s="142" t="s">
+        <v>497</v>
+      </c>
+      <c r="C23" s="186"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="139"/>
+    </row>
+    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="83">
+        <v>25</v>
+      </c>
+      <c r="B24" s="91" t="s">
+        <v>639</v>
+      </c>
+      <c r="C24" s="188" t="s">
+        <v>511</v>
+      </c>
+      <c r="D24" s="89"/>
+      <c r="E24" s="90"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="115">
+        <v>26</v>
+      </c>
+      <c r="B25" s="91" t="s">
+        <v>639</v>
+      </c>
+      <c r="C25" s="185"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="90"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="83">
+        <v>27</v>
+      </c>
+      <c r="B26" s="91" t="s">
+        <v>639</v>
+      </c>
+      <c r="C26" s="185"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="90"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="83">
+        <v>28</v>
+      </c>
+      <c r="B27" s="91" t="s">
+        <v>639</v>
+      </c>
+      <c r="C27" s="185"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="90"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="83">
+        <v>29</v>
+      </c>
+      <c r="B28" s="91"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="89" t="s">
+        <v>679</v>
+      </c>
+      <c r="E28" s="90" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="83">
+        <v>30</v>
+      </c>
+      <c r="B29" s="140" t="s">
+        <v>497</v>
+      </c>
+      <c r="C29" s="185"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="90"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="84">
+        <v>31</v>
+      </c>
+      <c r="B30" s="141" t="s">
+        <v>686</v>
+      </c>
+      <c r="C30" s="189"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="92"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="135" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="84">
+        <v>1</v>
+      </c>
+      <c r="B33" s="136" t="s">
+        <v>686</v>
+      </c>
+      <c r="C33" s="184" t="s">
+        <v>511</v>
+      </c>
+      <c r="D33" s="86"/>
+      <c r="E33" s="87"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="134">
+        <v>2</v>
+      </c>
+      <c r="B34" s="91" t="s">
+        <v>686</v>
+      </c>
+      <c r="C34" s="185"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="90"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="134">
+        <v>3</v>
+      </c>
+      <c r="B35" s="91" t="s">
+        <v>686</v>
+      </c>
+      <c r="C35" s="185"/>
+      <c r="D35" s="89" t="s">
+        <v>497</v>
+      </c>
+      <c r="E35" s="90" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="134">
+        <v>4</v>
+      </c>
+      <c r="B36" s="91" t="s">
+        <v>704</v>
+      </c>
+      <c r="C36" s="185"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="90"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="134">
+        <v>5</v>
+      </c>
+      <c r="B37" s="91" t="s">
+        <v>704</v>
+      </c>
+      <c r="C37" s="185"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="90"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="134">
+        <v>6</v>
+      </c>
+      <c r="B38" s="140" t="s">
+        <v>704</v>
+      </c>
+      <c r="C38" s="185"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="90"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="134">
+        <v>7</v>
+      </c>
+      <c r="B39" s="142" t="s">
+        <v>497</v>
+      </c>
+      <c r="C39" s="186"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="139"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="134">
+        <v>8</v>
+      </c>
+      <c r="B40" s="91" t="s">
+        <v>497</v>
+      </c>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="90"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="134">
+        <v>9</v>
+      </c>
+      <c r="B41" s="91" t="s">
+        <v>497</v>
+      </c>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="90"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="134">
+        <v>10</v>
+      </c>
+      <c r="B42" s="91" t="s">
+        <v>497</v>
+      </c>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89" t="s">
+        <v>679</v>
+      </c>
+      <c r="E42" s="90" t="s">
+        <v>543</v>
+      </c>
+      <c r="F42" s="78" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="134">
+        <v>11</v>
+      </c>
+      <c r="B43" s="91"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="89" t="s">
+        <v>679</v>
+      </c>
+      <c r="E43" s="90" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="134">
+        <v>12</v>
+      </c>
+      <c r="B44" s="91"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="89" t="s">
+        <v>679</v>
+      </c>
+      <c r="E44" s="90" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="134">
+        <v>13</v>
+      </c>
+      <c r="B45" s="140"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="89" t="s">
+        <v>679</v>
+      </c>
+      <c r="E45" s="90" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="134">
+        <v>14</v>
+      </c>
+      <c r="B46" s="142" t="s">
+        <v>739</v>
+      </c>
+      <c r="C46" s="147" t="s">
+        <v>300</v>
+      </c>
+      <c r="D46" s="138"/>
+      <c r="E46" s="139"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="134">
+        <v>15</v>
+      </c>
+      <c r="B47" s="89" t="s">
+        <v>679</v>
+      </c>
+      <c r="C47" s="89" t="s">
+        <v>543</v>
+      </c>
+      <c r="D47" s="89"/>
+      <c r="E47" s="87"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="134">
+        <v>16</v>
+      </c>
+      <c r="B48" s="89" t="s">
+        <v>679</v>
+      </c>
+      <c r="C48" s="89" t="s">
+        <v>543</v>
+      </c>
+      <c r="D48" s="89"/>
+      <c r="E48" s="90"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="134">
+        <v>17</v>
+      </c>
+      <c r="B49" s="89" t="s">
+        <v>679</v>
+      </c>
+      <c r="C49" s="89" t="s">
+        <v>543</v>
+      </c>
+      <c r="D49" s="89"/>
+      <c r="E49" s="90"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="134">
+        <v>18</v>
+      </c>
+      <c r="B50" s="89" t="s">
+        <v>679</v>
+      </c>
+      <c r="C50" s="89" t="s">
+        <v>543</v>
+      </c>
+      <c r="D50" s="89"/>
+      <c r="E50" s="90"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="134">
+        <v>19</v>
+      </c>
+      <c r="B51" s="91"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="89" t="s">
+        <v>749</v>
+      </c>
+      <c r="E51" s="90" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="134">
+        <v>20</v>
+      </c>
+      <c r="B52" s="140" t="s">
+        <v>679</v>
+      </c>
+      <c r="C52" s="89" t="s">
+        <v>543</v>
+      </c>
+      <c r="D52" s="89"/>
+      <c r="E52" s="90"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="134">
+        <v>21</v>
+      </c>
+      <c r="B53" s="142" t="s">
+        <v>679</v>
+      </c>
+      <c r="C53" s="138" t="s">
+        <v>543</v>
+      </c>
+      <c r="D53" s="138"/>
+      <c r="E53" s="139"/>
+      <c r="I53" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="84">
+        <v>22</v>
+      </c>
+      <c r="B54" s="89" t="s">
+        <v>679</v>
+      </c>
+      <c r="C54" s="89" t="s">
+        <v>543</v>
+      </c>
+      <c r="D54" s="86"/>
+      <c r="E54" s="87"/>
+      <c r="I54" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="134">
+        <v>23</v>
+      </c>
+      <c r="B55" s="89" t="s">
+        <v>679</v>
+      </c>
+      <c r="C55" s="89" t="s">
+        <v>543</v>
+      </c>
+      <c r="D55" s="89"/>
+      <c r="E55" s="90"/>
+      <c r="I55" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="134">
+        <v>24</v>
+      </c>
+      <c r="B56" s="91" t="s">
+        <v>762</v>
+      </c>
+      <c r="C56" s="145" t="s">
+        <v>763</v>
+      </c>
+      <c r="D56" s="89"/>
+      <c r="E56" s="90"/>
+      <c r="I56" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="134">
+        <v>25</v>
+      </c>
+      <c r="B57" s="91" t="s">
+        <v>762</v>
+      </c>
+      <c r="C57" s="145" t="s">
+        <v>763</v>
+      </c>
+      <c r="D57" s="89"/>
+      <c r="E57" s="90"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="134">
+        <v>26</v>
+      </c>
+      <c r="B58" s="91" t="s">
+        <v>762</v>
+      </c>
+      <c r="C58" s="145" t="s">
+        <v>763</v>
+      </c>
+      <c r="D58" s="89"/>
+      <c r="E58" s="90"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="134">
+        <v>27</v>
+      </c>
+      <c r="B59" s="140" t="s">
+        <v>934</v>
+      </c>
+      <c r="C59" s="89"/>
+      <c r="D59" s="89"/>
+      <c r="E59" s="90"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="134">
+        <v>28</v>
+      </c>
+      <c r="B60" s="142" t="s">
+        <v>762</v>
+      </c>
+      <c r="C60" s="138" t="s">
+        <v>300</v>
+      </c>
+      <c r="D60" s="138" t="s">
+        <v>938</v>
+      </c>
+      <c r="E60" s="139"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="134">
+        <v>29</v>
+      </c>
+      <c r="B61" s="91" t="s">
+        <v>947</v>
+      </c>
+      <c r="C61" s="89"/>
+      <c r="D61" s="89"/>
+      <c r="E61" s="90"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="134">
+        <v>30</v>
+      </c>
+      <c r="B62" s="137" t="s">
+        <v>797</v>
+      </c>
+      <c r="C62" s="138"/>
+      <c r="D62" s="138"/>
+      <c r="E62" s="139"/>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="135" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="84">
+        <v>1</v>
+      </c>
+      <c r="B65" s="136" t="s">
+        <v>949</v>
+      </c>
+      <c r="C65" s="154"/>
+      <c r="D65" s="86"/>
+      <c r="E65" s="87"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="134">
+        <v>2</v>
+      </c>
+      <c r="B66" s="91" t="s">
+        <v>949</v>
+      </c>
+      <c r="C66" s="192" t="s">
+        <v>950</v>
+      </c>
+      <c r="D66" s="89"/>
+      <c r="E66" s="90"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="134">
+        <v>3</v>
+      </c>
+      <c r="B67" s="91" t="s">
+        <v>949</v>
+      </c>
+      <c r="C67" s="192"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="90"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="134">
+        <v>4</v>
+      </c>
+      <c r="B68" s="140"/>
+      <c r="C68" s="155"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="90"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="134">
+        <v>5</v>
+      </c>
+      <c r="B69" s="142"/>
+      <c r="C69" s="156"/>
+      <c r="D69" s="138"/>
+      <c r="E69" s="139"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="134">
+        <v>6</v>
+      </c>
+      <c r="B70" s="91"/>
+      <c r="C70" s="89"/>
+      <c r="D70" s="89"/>
+      <c r="E70" s="90"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="134">
+        <v>7</v>
+      </c>
+      <c r="B71" s="91" t="s">
+        <v>949</v>
+      </c>
+      <c r="C71" s="89" t="s">
+        <v>950</v>
+      </c>
+      <c r="D71" s="89"/>
+      <c r="E71" s="90"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="134">
+        <v>8</v>
+      </c>
+      <c r="B72" s="91"/>
+      <c r="C72" s="89"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="90"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="134">
+        <v>9</v>
+      </c>
+      <c r="B73" s="91"/>
+      <c r="C73" s="89"/>
+      <c r="D73" s="89"/>
+      <c r="E73" s="90"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="134">
+        <v>10</v>
+      </c>
+      <c r="B74" s="128" t="s">
+        <v>951</v>
+      </c>
+      <c r="C74" s="89" t="s">
+        <v>952</v>
+      </c>
+      <c r="D74" s="89"/>
+      <c r="E74" s="90"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="134">
+        <v>11</v>
+      </c>
+      <c r="B75" s="157" t="s">
+        <v>951</v>
+      </c>
+      <c r="C75" s="89" t="s">
+        <v>952</v>
+      </c>
+      <c r="D75" s="89"/>
+      <c r="E75" s="90"/>
+      <c r="F75" s="78" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="134">
+        <v>12</v>
+      </c>
+      <c r="B76" s="142"/>
+      <c r="C76" s="147"/>
+      <c r="D76" s="138"/>
+      <c r="E76" s="139"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="134">
+        <v>13</v>
+      </c>
+      <c r="B77" s="128" t="s">
+        <v>951</v>
+      </c>
+      <c r="C77" s="89" t="s">
+        <v>952</v>
+      </c>
+      <c r="D77" s="89"/>
+      <c r="E77" s="87"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="134">
+        <v>14</v>
+      </c>
+      <c r="B78" s="89"/>
+      <c r="C78" s="89"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="90"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="134">
+        <v>15</v>
+      </c>
+      <c r="B79" s="89"/>
+      <c r="C79" s="89"/>
+      <c r="D79" s="89"/>
+      <c r="E79" s="90"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="134">
+        <v>16</v>
+      </c>
+      <c r="B80" s="89"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="90"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="134">
+        <v>17</v>
+      </c>
+      <c r="B81" s="91"/>
+      <c r="C81" s="89"/>
+      <c r="D81" s="89"/>
+      <c r="E81" s="90"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="134">
+        <v>18</v>
+      </c>
+      <c r="B82" s="157" t="s">
+        <v>951</v>
+      </c>
+      <c r="C82" s="89" t="s">
+        <v>952</v>
+      </c>
+      <c r="D82" s="89"/>
+      <c r="E82" s="90"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="134">
+        <v>19</v>
+      </c>
+      <c r="B83" s="140"/>
+      <c r="C83" s="89"/>
+      <c r="D83" s="89"/>
+      <c r="E83" s="90"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="134">
+        <v>20</v>
+      </c>
+      <c r="B84" s="136"/>
+      <c r="C84" s="86"/>
+      <c r="D84" s="86"/>
+      <c r="E84" s="87"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="134">
+        <v>21</v>
+      </c>
+      <c r="B85" s="91"/>
+      <c r="C85" s="89"/>
+      <c r="D85" s="89"/>
+      <c r="E85" s="90"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="134">
+        <v>22</v>
+      </c>
+      <c r="B86" s="91"/>
+      <c r="C86" s="145"/>
+      <c r="D86" s="89"/>
+      <c r="E86" s="90"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="134">
+        <v>23</v>
+      </c>
+      <c r="B87" s="128" t="s">
+        <v>951</v>
+      </c>
+      <c r="C87" s="89" t="s">
+        <v>952</v>
+      </c>
+      <c r="D87" s="89"/>
+      <c r="E87" s="90"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="134">
+        <v>24</v>
+      </c>
+      <c r="B88" s="91"/>
+      <c r="C88" s="145"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="90"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="134">
+        <v>25</v>
+      </c>
+      <c r="B89" s="140"/>
+      <c r="C89" s="89"/>
+      <c r="D89" s="89"/>
+      <c r="E89" s="90"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="134">
+        <v>26</v>
+      </c>
+      <c r="B90" s="142" t="s">
+        <v>965</v>
+      </c>
+      <c r="C90" s="138" t="s">
+        <v>702</v>
+      </c>
+      <c r="D90" s="138"/>
+      <c r="E90" s="139"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="134">
+        <v>27</v>
+      </c>
+      <c r="B91" s="136" t="s">
+        <v>965</v>
+      </c>
+      <c r="C91" s="86" t="s">
+        <v>702</v>
+      </c>
+      <c r="D91" s="86"/>
+      <c r="E91" s="87"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="134">
+        <v>28</v>
+      </c>
+      <c r="B92" s="91" t="s">
+        <v>965</v>
+      </c>
+      <c r="C92" s="89" t="s">
+        <v>702</v>
+      </c>
+      <c r="D92" s="89"/>
+      <c r="E92" s="90"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="134">
+        <v>29</v>
+      </c>
+      <c r="B93" s="91" t="s">
+        <v>965</v>
+      </c>
+      <c r="C93" s="89" t="s">
+        <v>702</v>
+      </c>
+      <c r="D93" s="89"/>
+      <c r="E93" s="90"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="134">
+        <v>30</v>
+      </c>
+      <c r="B94" s="91" t="s">
+        <v>965</v>
+      </c>
+      <c r="C94" s="89" t="s">
+        <v>702</v>
+      </c>
+      <c r="D94" s="89"/>
+      <c r="E94" s="90"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="134">
+        <v>31</v>
+      </c>
+      <c r="B95" s="137"/>
+      <c r="C95" s="138" t="s">
+        <v>702</v>
+      </c>
+      <c r="D95" s="138"/>
+      <c r="E95" s="139"/>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="135" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="84">
+        <v>1</v>
+      </c>
+      <c r="B98" s="158" t="s">
+        <v>972</v>
+      </c>
+      <c r="C98" s="86" t="s">
+        <v>702</v>
+      </c>
+      <c r="D98" s="86"/>
+      <c r="E98" s="87"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="134">
+        <v>2</v>
+      </c>
+      <c r="B99" s="142"/>
+      <c r="C99" s="156"/>
+      <c r="D99" s="138"/>
+      <c r="E99" s="139"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="134">
+        <v>3</v>
+      </c>
+      <c r="B100" s="91" t="s">
+        <v>975</v>
+      </c>
+      <c r="C100" s="86" t="s">
+        <v>702</v>
+      </c>
+      <c r="D100" s="89"/>
+      <c r="E100" s="90"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="134">
+        <v>4</v>
+      </c>
+      <c r="B101" s="91"/>
+      <c r="C101" s="89"/>
+      <c r="D101" s="89"/>
+      <c r="E101" s="90"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="134">
+        <v>5</v>
+      </c>
+      <c r="B102" s="91"/>
+      <c r="C102" s="89"/>
+      <c r="D102" s="89"/>
+      <c r="E102" s="90"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="134">
+        <v>6</v>
+      </c>
+      <c r="B103" s="128"/>
+      <c r="C103" s="89"/>
+      <c r="D103" s="89"/>
+      <c r="E103" s="90"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="134">
+        <v>7</v>
+      </c>
+      <c r="B104" s="128"/>
+      <c r="C104" s="89"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="90"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="134">
+        <v>8</v>
+      </c>
+      <c r="B105" s="157" t="s">
+        <v>977</v>
+      </c>
+      <c r="C105" s="89" t="s">
+        <v>702</v>
+      </c>
+      <c r="D105" s="89"/>
+      <c r="E105" s="90"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="134">
+        <v>9</v>
+      </c>
+      <c r="B106" s="160" t="s">
+        <v>990</v>
+      </c>
+      <c r="C106" s="138" t="s">
+        <v>702</v>
+      </c>
+      <c r="D106" s="138"/>
+      <c r="E106" s="139"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="134">
+        <v>10</v>
+      </c>
+      <c r="B107" s="128" t="s">
+        <v>991</v>
+      </c>
+      <c r="C107" s="86" t="s">
+        <v>702</v>
+      </c>
+      <c r="D107" s="89"/>
+      <c r="E107" s="87"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="134">
+        <v>11</v>
+      </c>
+      <c r="B108" s="91"/>
+      <c r="C108" s="89"/>
+      <c r="D108" s="89"/>
+      <c r="E108" s="90"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="134">
+        <v>12</v>
+      </c>
+      <c r="B109" s="91"/>
+      <c r="C109" s="89"/>
+      <c r="D109" s="89"/>
+      <c r="E109" s="90"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="134">
+        <v>13</v>
+      </c>
+      <c r="B110" s="91"/>
+      <c r="C110" s="89"/>
+      <c r="D110" s="89"/>
+      <c r="E110" s="90"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="134">
+        <v>14</v>
+      </c>
+      <c r="B111" s="91"/>
+      <c r="C111" s="89"/>
+      <c r="D111" s="89"/>
+      <c r="E111" s="90"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="134">
+        <v>15</v>
+      </c>
+      <c r="B112" s="157"/>
+      <c r="C112" s="89"/>
+      <c r="D112" s="89"/>
+      <c r="E112" s="90"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="134">
+        <v>16</v>
+      </c>
+      <c r="B113" s="140"/>
+      <c r="C113" s="89"/>
+      <c r="D113" s="89"/>
+      <c r="E113" s="90"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="134">
+        <v>17</v>
+      </c>
+      <c r="B114" s="136"/>
+      <c r="C114" s="86"/>
+      <c r="D114" s="86"/>
+      <c r="E114" s="87"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="134">
+        <v>18</v>
+      </c>
+      <c r="B115" s="91"/>
+      <c r="C115" s="89"/>
+      <c r="D115" s="89"/>
+      <c r="E115" s="90"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="134">
+        <v>19</v>
+      </c>
+      <c r="B116" s="91"/>
+      <c r="C116" s="145"/>
+      <c r="D116" s="89"/>
+      <c r="E116" s="90"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="134">
+        <v>20</v>
+      </c>
+      <c r="B117" s="128"/>
+      <c r="C117" s="89"/>
+      <c r="D117" s="89"/>
+      <c r="E117" s="90"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="134">
+        <v>21</v>
+      </c>
+      <c r="B118" s="91"/>
+      <c r="C118" s="145"/>
+      <c r="D118" s="89"/>
+      <c r="E118" s="90"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="134">
+        <v>22</v>
+      </c>
+      <c r="B119" s="140"/>
+      <c r="C119" s="89"/>
+      <c r="D119" s="89"/>
+      <c r="E119" s="90"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="134">
+        <v>23</v>
+      </c>
+      <c r="B120" s="142"/>
+      <c r="C120" s="138"/>
+      <c r="D120" s="138"/>
+      <c r="E120" s="139"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="134">
+        <v>24</v>
+      </c>
+      <c r="B121" s="136"/>
+      <c r="C121" s="86"/>
+      <c r="D121" s="86"/>
+      <c r="E121" s="87"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="134">
+        <v>25</v>
+      </c>
+      <c r="B122" s="91"/>
+      <c r="C122" s="89"/>
+      <c r="D122" s="89"/>
+      <c r="E122" s="90"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="134">
+        <v>26</v>
+      </c>
+      <c r="B123" s="91"/>
+      <c r="C123" s="89"/>
+      <c r="D123" s="89"/>
+      <c r="E123" s="90"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="134">
+        <v>27</v>
+      </c>
+      <c r="B124" s="91"/>
+      <c r="C124" s="89"/>
+      <c r="D124" s="89"/>
+      <c r="E124" s="90"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="134">
+        <v>28</v>
+      </c>
+      <c r="B125" s="91"/>
+      <c r="C125" s="89"/>
+      <c r="D125" s="89"/>
+      <c r="E125" s="90"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="134">
+        <v>29</v>
+      </c>
+      <c r="B126" s="140"/>
+      <c r="C126" s="89"/>
+      <c r="D126" s="89"/>
+      <c r="E126" s="90"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="134">
+        <v>30</v>
+      </c>
+      <c r="B127" s="142"/>
+      <c r="C127" s="138"/>
+      <c r="D127" s="138"/>
+      <c r="E127" s="139"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="134">
+        <v>31</v>
+      </c>
+      <c r="B128" s="137"/>
+      <c r="C128" s="138"/>
+      <c r="D128" s="138"/>
+      <c r="E128" s="139"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C16:C23"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C24:C30"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://ru.hexlet.io/courses/html" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://ru.hexlet.io/courses/html" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
@@ -13578,7 +15164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -13790,7 +15376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -14996,10 +16582,10 @@
       <c r="E34" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="F34" s="162" t="s">
+      <c r="F34" s="163" t="s">
         <v>227</v>
       </c>
-      <c r="G34" s="163"/>
+      <c r="G34" s="164"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
@@ -15205,7 +16791,7 @@
     </row>
     <row r="93" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="164" t="s">
+      <c r="B94" s="162" t="s">
         <v>276</v>
       </c>
       <c r="C94" s="43" t="s">
@@ -15217,13 +16803,13 @@
       <c r="E94" s="161"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="164"/>
+      <c r="B95" s="162"/>
       <c r="C95" s="44" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="164"/>
+      <c r="B96" s="162"/>
       <c r="C96" s="44" t="s">
         <v>278</v>
       </c>
@@ -15233,7 +16819,7 @@
       <c r="E96" s="161"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="164"/>
+      <c r="B97" s="162"/>
       <c r="C97" s="44" t="s">
         <v>280</v>
       </c>
@@ -15246,7 +16832,7 @@
       </c>
     </row>
     <row r="98" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="164"/>
+      <c r="B98" s="162"/>
       <c r="C98" s="45" t="s">
         <v>283</v>
       </c>
@@ -15258,18 +16844,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="B82:B85"/>
     <mergeCell ref="D94:E94"/>
     <mergeCell ref="B88:B92"/>
     <mergeCell ref="D96:E96"/>
     <mergeCell ref="D97:E97"/>
     <mergeCell ref="D98:F98"/>
     <mergeCell ref="B94:B98"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="B82:B85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18999,7 +20585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00DFD50-30DD-4D86-92C2-189A5C1A8FAA}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -19153,6 +20739,178 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1317179D-331E-469B-86FC-C038BF68F0D9}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" style="197" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85" style="198" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="197" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B1" s="196" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="197" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B2" s="198" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="197" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B3" s="198" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="197" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B4" s="198" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="197" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B5" s="198" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="197" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B6" s="198" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="197" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B7" s="198" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="197" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B8" s="198" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="197" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B9" s="198" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="197" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B11" s="198" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="197" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B12" s="198" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="197" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B13" s="198" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="197" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B14" s="198" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="197" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B15" s="198" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="197" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B16" s="198" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="197" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B17" s="198" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="197" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B18" s="198" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="197" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B19" s="198" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B20" s="198" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -19186,1449 +20944,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I128"/>
-  <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L97" sqref="L97"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.7109375" style="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="78" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="135" t="s">
-        <v>533</v>
-      </c>
-      <c r="B1" s="81"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="132">
-        <v>4</v>
-      </c>
-      <c r="B2" s="85" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2" s="190" t="s">
-        <v>300</v>
-      </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="83">
-        <v>5</v>
-      </c>
-      <c r="B3" s="88" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="89" t="s">
-        <v>308</v>
-      </c>
-      <c r="E3" s="90" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="83">
-        <v>6</v>
-      </c>
-      <c r="B4" s="91" t="s">
-        <v>308</v>
-      </c>
-      <c r="C4" s="188" t="s">
-        <v>309</v>
-      </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="90"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="83">
-        <v>7</v>
-      </c>
-      <c r="B5" s="91" t="s">
-        <v>308</v>
-      </c>
-      <c r="C5" s="188"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="90"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="83">
-        <v>8</v>
-      </c>
-      <c r="B6" s="91" t="s">
-        <v>396</v>
-      </c>
-      <c r="C6" s="188"/>
-      <c r="D6" s="89" t="s">
-        <v>437</v>
-      </c>
-      <c r="E6" s="90" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="83">
-        <v>9</v>
-      </c>
-      <c r="B7" s="140" t="s">
-        <v>437</v>
-      </c>
-      <c r="C7" s="188"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="90"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="83">
-        <v>10</v>
-      </c>
-      <c r="B8" s="142" t="s">
-        <v>437</v>
-      </c>
-      <c r="C8" s="189"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="139"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="83">
-        <v>11</v>
-      </c>
-      <c r="B9" s="143" t="s">
-        <v>452</v>
-      </c>
-      <c r="C9" s="184" t="s">
-        <v>511</v>
-      </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="78">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="83">
-        <v>12</v>
-      </c>
-      <c r="B10" s="93" t="s">
-        <v>452</v>
-      </c>
-      <c r="C10" s="185"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="83">
-        <v>13</v>
-      </c>
-      <c r="B11" s="93" t="s">
-        <v>452</v>
-      </c>
-      <c r="C11" s="185"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="90"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="83">
-        <v>14</v>
-      </c>
-      <c r="B12" s="93" t="s">
-        <v>452</v>
-      </c>
-      <c r="C12" s="185"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="90"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="83">
-        <v>15</v>
-      </c>
-      <c r="B13" s="93" t="s">
-        <v>497</v>
-      </c>
-      <c r="C13" s="185"/>
-      <c r="D13" s="89" t="s">
-        <v>504</v>
-      </c>
-      <c r="E13" s="90"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="83">
-        <v>16</v>
-      </c>
-      <c r="B14" s="140" t="s">
-        <v>504</v>
-      </c>
-      <c r="C14" s="185"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="83">
-        <v>17</v>
-      </c>
-      <c r="B15" s="142" t="s">
-        <v>527</v>
-      </c>
-      <c r="C15" s="186"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="139"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="83">
-        <v>18</v>
-      </c>
-      <c r="B16" s="143" t="s">
-        <v>532</v>
-      </c>
-      <c r="C16" s="184" t="s">
-        <v>511</v>
-      </c>
-      <c r="D16" s="86" t="s">
-        <v>679</v>
-      </c>
-      <c r="E16" s="87" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="83">
-        <v>19</v>
-      </c>
-      <c r="B17" s="93" t="s">
-        <v>532</v>
-      </c>
-      <c r="C17" s="185"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="90"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="83">
-        <v>20</v>
-      </c>
-      <c r="B18" s="93" t="s">
-        <v>532</v>
-      </c>
-      <c r="C18" s="185"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="83">
-        <v>21</v>
-      </c>
-      <c r="B19" s="93" t="s">
-        <v>532</v>
-      </c>
-      <c r="C19" s="185"/>
-      <c r="D19" s="89" t="s">
-        <v>679</v>
-      </c>
-      <c r="E19" s="90" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="83">
-        <v>22</v>
-      </c>
-      <c r="B20" s="93" t="s">
-        <v>532</v>
-      </c>
-      <c r="C20" s="185"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="90"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="191">
-        <v>23</v>
-      </c>
-      <c r="B21" s="140" t="s">
-        <v>532</v>
-      </c>
-      <c r="C21" s="185"/>
-      <c r="D21" s="182" t="s">
-        <v>679</v>
-      </c>
-      <c r="E21" s="183" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="191"/>
-      <c r="B22" s="140" t="s">
-        <v>497</v>
-      </c>
-      <c r="C22" s="185"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="183"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="83">
-        <v>24</v>
-      </c>
-      <c r="B23" s="142" t="s">
-        <v>497</v>
-      </c>
-      <c r="C23" s="186"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="139"/>
-    </row>
-    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="83">
-        <v>25</v>
-      </c>
-      <c r="B24" s="91" t="s">
-        <v>639</v>
-      </c>
-      <c r="C24" s="192" t="s">
-        <v>511</v>
-      </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="90"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="115">
-        <v>26</v>
-      </c>
-      <c r="B25" s="91" t="s">
-        <v>639</v>
-      </c>
-      <c r="C25" s="185"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="90"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="83">
-        <v>27</v>
-      </c>
-      <c r="B26" s="91" t="s">
-        <v>639</v>
-      </c>
-      <c r="C26" s="185"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="90"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="83">
-        <v>28</v>
-      </c>
-      <c r="B27" s="91" t="s">
-        <v>639</v>
-      </c>
-      <c r="C27" s="185"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="90"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="83">
-        <v>29</v>
-      </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="185"/>
-      <c r="D28" s="89" t="s">
-        <v>679</v>
-      </c>
-      <c r="E28" s="90" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="83">
-        <v>30</v>
-      </c>
-      <c r="B29" s="140" t="s">
-        <v>497</v>
-      </c>
-      <c r="C29" s="185"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="90"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="84">
-        <v>31</v>
-      </c>
-      <c r="B30" s="141" t="s">
-        <v>686</v>
-      </c>
-      <c r="C30" s="193"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="92"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="135" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="84">
-        <v>1</v>
-      </c>
-      <c r="B33" s="136" t="s">
-        <v>686</v>
-      </c>
-      <c r="C33" s="184" t="s">
-        <v>511</v>
-      </c>
-      <c r="D33" s="86"/>
-      <c r="E33" s="87"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="134">
-        <v>2</v>
-      </c>
-      <c r="B34" s="91" t="s">
-        <v>686</v>
-      </c>
-      <c r="C34" s="185"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="90"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="134">
-        <v>3</v>
-      </c>
-      <c r="B35" s="91" t="s">
-        <v>686</v>
-      </c>
-      <c r="C35" s="185"/>
-      <c r="D35" s="89" t="s">
-        <v>497</v>
-      </c>
-      <c r="E35" s="90" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="134">
-        <v>4</v>
-      </c>
-      <c r="B36" s="91" t="s">
-        <v>704</v>
-      </c>
-      <c r="C36" s="185"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="90"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="134">
-        <v>5</v>
-      </c>
-      <c r="B37" s="91" t="s">
-        <v>704</v>
-      </c>
-      <c r="C37" s="185"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="90"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="134">
-        <v>6</v>
-      </c>
-      <c r="B38" s="140" t="s">
-        <v>704</v>
-      </c>
-      <c r="C38" s="185"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="90"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="134">
-        <v>7</v>
-      </c>
-      <c r="B39" s="142" t="s">
-        <v>497</v>
-      </c>
-      <c r="C39" s="186"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="139"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="134">
-        <v>8</v>
-      </c>
-      <c r="B40" s="91" t="s">
-        <v>497</v>
-      </c>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="90"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="134">
-        <v>9</v>
-      </c>
-      <c r="B41" s="91" t="s">
-        <v>497</v>
-      </c>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="90"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="134">
-        <v>10</v>
-      </c>
-      <c r="B42" s="91" t="s">
-        <v>497</v>
-      </c>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89" t="s">
-        <v>679</v>
-      </c>
-      <c r="E42" s="90" t="s">
-        <v>543</v>
-      </c>
-      <c r="F42" s="78" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="134">
-        <v>11</v>
-      </c>
-      <c r="B43" s="91"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="89" t="s">
-        <v>679</v>
-      </c>
-      <c r="E43" s="90" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="134">
-        <v>12</v>
-      </c>
-      <c r="B44" s="91"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="89" t="s">
-        <v>679</v>
-      </c>
-      <c r="E44" s="90" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="134">
-        <v>13</v>
-      </c>
-      <c r="B45" s="140"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89" t="s">
-        <v>679</v>
-      </c>
-      <c r="E45" s="90" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="134">
-        <v>14</v>
-      </c>
-      <c r="B46" s="142" t="s">
-        <v>739</v>
-      </c>
-      <c r="C46" s="147" t="s">
-        <v>300</v>
-      </c>
-      <c r="D46" s="138"/>
-      <c r="E46" s="139"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="134">
-        <v>15</v>
-      </c>
-      <c r="B47" s="89" t="s">
-        <v>679</v>
-      </c>
-      <c r="C47" s="89" t="s">
-        <v>543</v>
-      </c>
-      <c r="D47" s="89"/>
-      <c r="E47" s="87"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="134">
-        <v>16</v>
-      </c>
-      <c r="B48" s="89" t="s">
-        <v>679</v>
-      </c>
-      <c r="C48" s="89" t="s">
-        <v>543</v>
-      </c>
-      <c r="D48" s="89"/>
-      <c r="E48" s="90"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="134">
-        <v>17</v>
-      </c>
-      <c r="B49" s="89" t="s">
-        <v>679</v>
-      </c>
-      <c r="C49" s="89" t="s">
-        <v>543</v>
-      </c>
-      <c r="D49" s="89"/>
-      <c r="E49" s="90"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="134">
-        <v>18</v>
-      </c>
-      <c r="B50" s="89" t="s">
-        <v>679</v>
-      </c>
-      <c r="C50" s="89" t="s">
-        <v>543</v>
-      </c>
-      <c r="D50" s="89"/>
-      <c r="E50" s="90"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="134">
-        <v>19</v>
-      </c>
-      <c r="B51" s="91"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="89" t="s">
-        <v>749</v>
-      </c>
-      <c r="E51" s="90" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="134">
-        <v>20</v>
-      </c>
-      <c r="B52" s="140" t="s">
-        <v>679</v>
-      </c>
-      <c r="C52" s="89" t="s">
-        <v>543</v>
-      </c>
-      <c r="D52" s="89"/>
-      <c r="E52" s="90"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="134">
-        <v>21</v>
-      </c>
-      <c r="B53" s="142" t="s">
-        <v>679</v>
-      </c>
-      <c r="C53" s="138" t="s">
-        <v>543</v>
-      </c>
-      <c r="D53" s="138"/>
-      <c r="E53" s="139"/>
-      <c r="I53" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="84">
-        <v>22</v>
-      </c>
-      <c r="B54" s="89" t="s">
-        <v>679</v>
-      </c>
-      <c r="C54" s="89" t="s">
-        <v>543</v>
-      </c>
-      <c r="D54" s="86"/>
-      <c r="E54" s="87"/>
-      <c r="I54" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="134">
-        <v>23</v>
-      </c>
-      <c r="B55" s="89" t="s">
-        <v>679</v>
-      </c>
-      <c r="C55" s="89" t="s">
-        <v>543</v>
-      </c>
-      <c r="D55" s="89"/>
-      <c r="E55" s="90"/>
-      <c r="I55" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="134">
-        <v>24</v>
-      </c>
-      <c r="B56" s="91" t="s">
-        <v>762</v>
-      </c>
-      <c r="C56" s="145" t="s">
-        <v>763</v>
-      </c>
-      <c r="D56" s="89"/>
-      <c r="E56" s="90"/>
-      <c r="I56" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="134">
-        <v>25</v>
-      </c>
-      <c r="B57" s="91" t="s">
-        <v>762</v>
-      </c>
-      <c r="C57" s="145" t="s">
-        <v>763</v>
-      </c>
-      <c r="D57" s="89"/>
-      <c r="E57" s="90"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="134">
-        <v>26</v>
-      </c>
-      <c r="B58" s="91" t="s">
-        <v>762</v>
-      </c>
-      <c r="C58" s="145" t="s">
-        <v>763</v>
-      </c>
-      <c r="D58" s="89"/>
-      <c r="E58" s="90"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="134">
-        <v>27</v>
-      </c>
-      <c r="B59" s="140" t="s">
-        <v>934</v>
-      </c>
-      <c r="C59" s="89"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="90"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="134">
-        <v>28</v>
-      </c>
-      <c r="B60" s="142" t="s">
-        <v>762</v>
-      </c>
-      <c r="C60" s="138" t="s">
-        <v>300</v>
-      </c>
-      <c r="D60" s="138" t="s">
-        <v>938</v>
-      </c>
-      <c r="E60" s="139"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="134">
-        <v>29</v>
-      </c>
-      <c r="B61" s="91" t="s">
-        <v>947</v>
-      </c>
-      <c r="C61" s="89"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="90"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="134">
-        <v>30</v>
-      </c>
-      <c r="B62" s="137" t="s">
-        <v>797</v>
-      </c>
-      <c r="C62" s="138"/>
-      <c r="D62" s="138"/>
-      <c r="E62" s="139"/>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="135" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="84">
-        <v>1</v>
-      </c>
-      <c r="B65" s="136" t="s">
-        <v>949</v>
-      </c>
-      <c r="C65" s="154"/>
-      <c r="D65" s="86"/>
-      <c r="E65" s="87"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="134">
-        <v>2</v>
-      </c>
-      <c r="B66" s="91" t="s">
-        <v>949</v>
-      </c>
-      <c r="C66" s="187" t="s">
-        <v>950</v>
-      </c>
-      <c r="D66" s="89"/>
-      <c r="E66" s="90"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="134">
-        <v>3</v>
-      </c>
-      <c r="B67" s="91" t="s">
-        <v>949</v>
-      </c>
-      <c r="C67" s="187"/>
-      <c r="D67" s="89"/>
-      <c r="E67" s="90"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="134">
-        <v>4</v>
-      </c>
-      <c r="B68" s="140"/>
-      <c r="C68" s="155"/>
-      <c r="D68" s="89"/>
-      <c r="E68" s="90"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="134">
-        <v>5</v>
-      </c>
-      <c r="B69" s="142"/>
-      <c r="C69" s="156"/>
-      <c r="D69" s="138"/>
-      <c r="E69" s="139"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="134">
-        <v>6</v>
-      </c>
-      <c r="B70" s="91"/>
-      <c r="C70" s="89"/>
-      <c r="D70" s="89"/>
-      <c r="E70" s="90"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="134">
-        <v>7</v>
-      </c>
-      <c r="B71" s="91" t="s">
-        <v>949</v>
-      </c>
-      <c r="C71" s="89" t="s">
-        <v>950</v>
-      </c>
-      <c r="D71" s="89"/>
-      <c r="E71" s="90"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="134">
-        <v>8</v>
-      </c>
-      <c r="B72" s="91"/>
-      <c r="C72" s="89"/>
-      <c r="D72" s="89"/>
-      <c r="E72" s="90"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="134">
-        <v>9</v>
-      </c>
-      <c r="B73" s="91"/>
-      <c r="C73" s="89"/>
-      <c r="D73" s="89"/>
-      <c r="E73" s="90"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="134">
-        <v>10</v>
-      </c>
-      <c r="B74" s="128" t="s">
-        <v>951</v>
-      </c>
-      <c r="C74" s="89" t="s">
-        <v>952</v>
-      </c>
-      <c r="D74" s="89"/>
-      <c r="E74" s="90"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="134">
-        <v>11</v>
-      </c>
-      <c r="B75" s="157" t="s">
-        <v>951</v>
-      </c>
-      <c r="C75" s="89" t="s">
-        <v>952</v>
-      </c>
-      <c r="D75" s="89"/>
-      <c r="E75" s="90"/>
-      <c r="F75" s="78" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="134">
-        <v>12</v>
-      </c>
-      <c r="B76" s="142"/>
-      <c r="C76" s="147"/>
-      <c r="D76" s="138"/>
-      <c r="E76" s="139"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="134">
-        <v>13</v>
-      </c>
-      <c r="B77" s="128" t="s">
-        <v>951</v>
-      </c>
-      <c r="C77" s="89" t="s">
-        <v>952</v>
-      </c>
-      <c r="D77" s="89"/>
-      <c r="E77" s="87"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="134">
-        <v>14</v>
-      </c>
-      <c r="B78" s="89"/>
-      <c r="C78" s="89"/>
-      <c r="D78" s="89"/>
-      <c r="E78" s="90"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="134">
-        <v>15</v>
-      </c>
-      <c r="B79" s="89"/>
-      <c r="C79" s="89"/>
-      <c r="D79" s="89"/>
-      <c r="E79" s="90"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="134">
-        <v>16</v>
-      </c>
-      <c r="B80" s="89"/>
-      <c r="C80" s="89"/>
-      <c r="D80" s="89"/>
-      <c r="E80" s="90"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="134">
-        <v>17</v>
-      </c>
-      <c r="B81" s="91"/>
-      <c r="C81" s="89"/>
-      <c r="D81" s="89"/>
-      <c r="E81" s="90"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="134">
-        <v>18</v>
-      </c>
-      <c r="B82" s="157" t="s">
-        <v>951</v>
-      </c>
-      <c r="C82" s="89" t="s">
-        <v>952</v>
-      </c>
-      <c r="D82" s="89"/>
-      <c r="E82" s="90"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="134">
-        <v>19</v>
-      </c>
-      <c r="B83" s="140"/>
-      <c r="C83" s="89"/>
-      <c r="D83" s="89"/>
-      <c r="E83" s="90"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="134">
-        <v>20</v>
-      </c>
-      <c r="B84" s="136"/>
-      <c r="C84" s="86"/>
-      <c r="D84" s="86"/>
-      <c r="E84" s="87"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="134">
-        <v>21</v>
-      </c>
-      <c r="B85" s="91"/>
-      <c r="C85" s="89"/>
-      <c r="D85" s="89"/>
-      <c r="E85" s="90"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="134">
-        <v>22</v>
-      </c>
-      <c r="B86" s="91"/>
-      <c r="C86" s="145"/>
-      <c r="D86" s="89"/>
-      <c r="E86" s="90"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="134">
-        <v>23</v>
-      </c>
-      <c r="B87" s="128" t="s">
-        <v>951</v>
-      </c>
-      <c r="C87" s="89" t="s">
-        <v>952</v>
-      </c>
-      <c r="D87" s="89"/>
-      <c r="E87" s="90"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="134">
-        <v>24</v>
-      </c>
-      <c r="B88" s="91"/>
-      <c r="C88" s="145"/>
-      <c r="D88" s="89"/>
-      <c r="E88" s="90"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="134">
-        <v>25</v>
-      </c>
-      <c r="B89" s="140"/>
-      <c r="C89" s="89"/>
-      <c r="D89" s="89"/>
-      <c r="E89" s="90"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="134">
-        <v>26</v>
-      </c>
-      <c r="B90" s="142" t="s">
-        <v>965</v>
-      </c>
-      <c r="C90" s="138" t="s">
-        <v>702</v>
-      </c>
-      <c r="D90" s="138"/>
-      <c r="E90" s="139"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="134">
-        <v>27</v>
-      </c>
-      <c r="B91" s="136" t="s">
-        <v>965</v>
-      </c>
-      <c r="C91" s="86" t="s">
-        <v>702</v>
-      </c>
-      <c r="D91" s="86"/>
-      <c r="E91" s="87"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="134">
-        <v>28</v>
-      </c>
-      <c r="B92" s="91" t="s">
-        <v>965</v>
-      </c>
-      <c r="C92" s="89" t="s">
-        <v>702</v>
-      </c>
-      <c r="D92" s="89"/>
-      <c r="E92" s="90"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="134">
-        <v>29</v>
-      </c>
-      <c r="B93" s="91" t="s">
-        <v>965</v>
-      </c>
-      <c r="C93" s="89" t="s">
-        <v>702</v>
-      </c>
-      <c r="D93" s="89"/>
-      <c r="E93" s="90"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="134">
-        <v>30</v>
-      </c>
-      <c r="B94" s="91" t="s">
-        <v>965</v>
-      </c>
-      <c r="C94" s="89" t="s">
-        <v>702</v>
-      </c>
-      <c r="D94" s="89"/>
-      <c r="E94" s="90"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="134">
-        <v>31</v>
-      </c>
-      <c r="B95" s="137"/>
-      <c r="C95" s="138" t="s">
-        <v>702</v>
-      </c>
-      <c r="D95" s="138"/>
-      <c r="E95" s="139"/>
-    </row>
-    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="135" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="84">
-        <v>1</v>
-      </c>
-      <c r="B98" s="158" t="s">
-        <v>972</v>
-      </c>
-      <c r="C98" s="86" t="s">
-        <v>702</v>
-      </c>
-      <c r="D98" s="86"/>
-      <c r="E98" s="87"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="134">
-        <v>2</v>
-      </c>
-      <c r="B99" s="142"/>
-      <c r="C99" s="156"/>
-      <c r="D99" s="138"/>
-      <c r="E99" s="139"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="134">
-        <v>3</v>
-      </c>
-      <c r="B100" s="91" t="s">
-        <v>975</v>
-      </c>
-      <c r="C100" s="86" t="s">
-        <v>702</v>
-      </c>
-      <c r="D100" s="89"/>
-      <c r="E100" s="90"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="134">
-        <v>4</v>
-      </c>
-      <c r="B101" s="91"/>
-      <c r="C101" s="89"/>
-      <c r="D101" s="89"/>
-      <c r="E101" s="90"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="134">
-        <v>5</v>
-      </c>
-      <c r="B102" s="91"/>
-      <c r="C102" s="89"/>
-      <c r="D102" s="89"/>
-      <c r="E102" s="90"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="134">
-        <v>6</v>
-      </c>
-      <c r="B103" s="128"/>
-      <c r="C103" s="89"/>
-      <c r="D103" s="89"/>
-      <c r="E103" s="90"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="134">
-        <v>7</v>
-      </c>
-      <c r="B104" s="128"/>
-      <c r="C104" s="89"/>
-      <c r="D104" s="89"/>
-      <c r="E104" s="90"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="134">
-        <v>8</v>
-      </c>
-      <c r="B105" s="157" t="s">
-        <v>977</v>
-      </c>
-      <c r="C105" s="89" t="s">
-        <v>702</v>
-      </c>
-      <c r="D105" s="89"/>
-      <c r="E105" s="90"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="134">
-        <v>9</v>
-      </c>
-      <c r="B106" s="160" t="s">
-        <v>990</v>
-      </c>
-      <c r="C106" s="138" t="s">
-        <v>702</v>
-      </c>
-      <c r="D106" s="138"/>
-      <c r="E106" s="139"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="134">
-        <v>10</v>
-      </c>
-      <c r="B107" s="128" t="s">
-        <v>991</v>
-      </c>
-      <c r="C107" s="86" t="s">
-        <v>702</v>
-      </c>
-      <c r="D107" s="89"/>
-      <c r="E107" s="87"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="134">
-        <v>11</v>
-      </c>
-      <c r="B108" s="91"/>
-      <c r="C108" s="89"/>
-      <c r="D108" s="89"/>
-      <c r="E108" s="90"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="134">
-        <v>12</v>
-      </c>
-      <c r="B109" s="91"/>
-      <c r="C109" s="89"/>
-      <c r="D109" s="89"/>
-      <c r="E109" s="90"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="134">
-        <v>13</v>
-      </c>
-      <c r="B110" s="91"/>
-      <c r="C110" s="89"/>
-      <c r="D110" s="89"/>
-      <c r="E110" s="90"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="134">
-        <v>14</v>
-      </c>
-      <c r="B111" s="91"/>
-      <c r="C111" s="89"/>
-      <c r="D111" s="89"/>
-      <c r="E111" s="90"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="134">
-        <v>15</v>
-      </c>
-      <c r="B112" s="157"/>
-      <c r="C112" s="89"/>
-      <c r="D112" s="89"/>
-      <c r="E112" s="90"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="134">
-        <v>16</v>
-      </c>
-      <c r="B113" s="140"/>
-      <c r="C113" s="89"/>
-      <c r="D113" s="89"/>
-      <c r="E113" s="90"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="134">
-        <v>17</v>
-      </c>
-      <c r="B114" s="136"/>
-      <c r="C114" s="86"/>
-      <c r="D114" s="86"/>
-      <c r="E114" s="87"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="134">
-        <v>18</v>
-      </c>
-      <c r="B115" s="91"/>
-      <c r="C115" s="89"/>
-      <c r="D115" s="89"/>
-      <c r="E115" s="90"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="134">
-        <v>19</v>
-      </c>
-      <c r="B116" s="91"/>
-      <c r="C116" s="145"/>
-      <c r="D116" s="89"/>
-      <c r="E116" s="90"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="134">
-        <v>20</v>
-      </c>
-      <c r="B117" s="128"/>
-      <c r="C117" s="89"/>
-      <c r="D117" s="89"/>
-      <c r="E117" s="90"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="134">
-        <v>21</v>
-      </c>
-      <c r="B118" s="91"/>
-      <c r="C118" s="145"/>
-      <c r="D118" s="89"/>
-      <c r="E118" s="90"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="134">
-        <v>22</v>
-      </c>
-      <c r="B119" s="140"/>
-      <c r="C119" s="89"/>
-      <c r="D119" s="89"/>
-      <c r="E119" s="90"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="134">
-        <v>23</v>
-      </c>
-      <c r="B120" s="142"/>
-      <c r="C120" s="138"/>
-      <c r="D120" s="138"/>
-      <c r="E120" s="139"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="134">
-        <v>24</v>
-      </c>
-      <c r="B121" s="136"/>
-      <c r="C121" s="86"/>
-      <c r="D121" s="86"/>
-      <c r="E121" s="87"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="134">
-        <v>25</v>
-      </c>
-      <c r="B122" s="91"/>
-      <c r="C122" s="89"/>
-      <c r="D122" s="89"/>
-      <c r="E122" s="90"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="134">
-        <v>26</v>
-      </c>
-      <c r="B123" s="91"/>
-      <c r="C123" s="89"/>
-      <c r="D123" s="89"/>
-      <c r="E123" s="90"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="134">
-        <v>27</v>
-      </c>
-      <c r="B124" s="91"/>
-      <c r="C124" s="89"/>
-      <c r="D124" s="89"/>
-      <c r="E124" s="90"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="134">
-        <v>28</v>
-      </c>
-      <c r="B125" s="91"/>
-      <c r="C125" s="89"/>
-      <c r="D125" s="89"/>
-      <c r="E125" s="90"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="134">
-        <v>29</v>
-      </c>
-      <c r="B126" s="140"/>
-      <c r="C126" s="89"/>
-      <c r="D126" s="89"/>
-      <c r="E126" s="90"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="134">
-        <v>30</v>
-      </c>
-      <c r="B127" s="142"/>
-      <c r="C127" s="138"/>
-      <c r="D127" s="138"/>
-      <c r="E127" s="139"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="134">
-        <v>31</v>
-      </c>
-      <c r="B128" s="137"/>
-      <c r="C128" s="138"/>
-      <c r="D128" s="138"/>
-      <c r="E128" s="139"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C16:C23"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C4:C8"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://ru.hexlet.io/courses/html" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://ru.hexlet.io/courses/html" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
-</worksheet>
 </file>
--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFB9FAB-1043-46AE-A2E0-8C2A8F2AF84A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="1320" windowWidth="11760" windowHeight="13290" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-168" yWindow="1320" windowWidth="11760" windowHeight="13176" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="1" r:id="rId1"/>
@@ -27,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,12 +66,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="C4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -269,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="H4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
+    <comment ref="H6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -321,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+    <comment ref="H8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -362,7 +361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
+    <comment ref="B22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -376,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
+    <comment ref="D28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -391,7 +390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
+    <comment ref="E29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -406,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
+    <comment ref="F29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -517,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
+    <comment ref="C30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -543,7 +542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
+    <comment ref="D30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -569,7 +568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
+    <comment ref="E30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -584,7 +583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
+    <comment ref="C33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -599,7 +598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
+    <comment ref="D33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -625,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
+    <comment ref="D35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -645,7 +644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
+    <comment ref="E35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -665,7 +664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
+    <comment ref="C39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -691,7 +690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
+    <comment ref="C40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -705,7 +704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
+    <comment ref="C41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -731,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
+    <comment ref="C97" authorId="0">
       <text>
         <r>
           <rPr>
@@ -751,12 +750,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="A27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -796,7 +795,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="B34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -813,7 +812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="A36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -860,7 +859,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="B37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -894,7 +893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="A47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -927,12 +926,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="B5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -949,7 +948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1062,7 +1061,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1087,7 +1086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="B30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1109,7 +1108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="B33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1132,7 +1131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="A38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1154,7 +1153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+    <comment ref="B54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1173,7 +1172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+    <comment ref="B57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1330,7 +1329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+    <comment ref="B58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1349,7 +1348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B95" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
+    <comment ref="B95" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1367,7 +1366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B107" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
+    <comment ref="B107" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1451,7 +1450,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="1093">
   <si>
     <t>максимальное значение переменной</t>
   </si>
@@ -8858,11 +8857,17 @@
   <si>
     <t>проверка соединения с сервером</t>
   </si>
+  <si>
+    <t>arr.join(' ')</t>
+  </si>
+  <si>
+    <t>prompt()/confirm()/alert()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0&quot;р.&quot;"/>
   </numFmts>
@@ -10275,16 +10280,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10338,10 +10348,10 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10353,6 +10363,18 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10362,29 +10384,12 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -10423,7 +10428,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10467,7 +10472,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10516,7 +10521,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10565,7 +10570,7 @@
         <xdr:cNvPr id="10" name="Рисунок 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10615,7 +10620,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10665,7 +10670,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10715,7 +10720,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10765,7 +10770,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10815,7 +10820,7 @@
         <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10865,7 +10870,7 @@
         <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10915,7 +10920,7 @@
         <xdr:cNvPr id="8" name="Рисунок 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10965,7 +10970,7 @@
         <xdr:cNvPr id="9" name="Рисунок 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11015,7 +11020,7 @@
         <xdr:cNvPr id="11" name="Рисунок 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11065,7 +11070,7 @@
         <xdr:cNvPr id="12" name="Рисунок 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11120,7 +11125,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11164,7 +11169,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11208,7 +11213,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11252,7 +11257,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11296,7 +11301,7 @@
         <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11340,7 +11345,7 @@
         <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11384,7 +11389,7 @@
         <xdr:cNvPr id="8" name="Рисунок 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11428,7 +11433,7 @@
         <xdr:cNvPr id="10" name="Рисунок 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7B343C-A3ED-4FC7-9C61-E2FAC866C9AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D7B343C-A3ED-4FC7-9C61-E2FAC866C9AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11483,7 +11488,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11533,7 +11538,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11577,7 +11582,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11621,7 +11626,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11671,7 +11676,7 @@
         <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11715,7 +11720,7 @@
         <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11759,7 +11764,7 @@
         <xdr:cNvPr id="8" name="Рисунок 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11803,7 +11808,7 @@
         <xdr:cNvPr id="9" name="Рисунок 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11852,7 +11857,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11896,7 +11901,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11940,7 +11945,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11989,7 +11994,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{054E37CF-64A3-416F-807D-1909E1878560}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{054E37CF-64A3-416F-807D-1909E1878560}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12033,7 +12038,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D16BBE-77A1-4FB5-B99E-BD4C46623750}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46D16BBE-77A1-4FB5-B99E-BD4C46623750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12082,7 +12087,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12131,7 +12136,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12175,7 +12180,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12219,7 +12224,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12263,7 +12268,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12312,7 +12317,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12356,7 +12361,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12400,7 +12405,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12472,7 +12477,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12505,26 +12510,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12557,23 +12545,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -12749,21 +12720,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -12771,7 +12742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -12782,7 +12753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -12793,7 +12764,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -12801,7 +12772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -12809,7 +12780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -12817,7 +12788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -12825,7 +12796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -12836,7 +12807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -12844,7 +12815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -12852,7 +12823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
@@ -12860,7 +12831,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
@@ -12868,7 +12839,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
@@ -12876,7 +12847,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
@@ -12884,7 +12855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -12892,7 +12863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -12900,7 +12871,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -12908,7 +12879,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -12916,7 +12887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -12924,7 +12895,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -12932,7 +12903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -12940,7 +12911,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -12948,7 +12919,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -12956,7 +12927,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
@@ -12967,7 +12938,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -12975,7 +12946,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -12983,7 +12954,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -12991,7 +12962,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -12999,7 +12970,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
@@ -13007,7 +12978,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
@@ -13015,7 +12986,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -13023,7 +12994,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
@@ -13034,7 +13005,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
@@ -13042,7 +13013,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
@@ -13050,7 +13021,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>71</v>
       </c>
@@ -13058,7 +13029,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
@@ -13066,7 +13037,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>76</v>
       </c>
@@ -13074,7 +13045,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
@@ -13082,7 +13053,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
@@ -13090,7 +13061,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>83</v>
       </c>
@@ -13101,7 +13072,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>85</v>
       </c>
@@ -13109,7 +13080,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>86</v>
       </c>
@@ -13117,12 +13088,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>90</v>
       </c>
@@ -13130,7 +13101,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>93</v>
       </c>
@@ -13138,7 +13109,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>94</v>
       </c>
@@ -13146,7 +13117,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>96</v>
       </c>
@@ -13154,7 +13125,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>98</v>
       </c>
@@ -13162,7 +13133,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>100</v>
       </c>
@@ -13170,7 +13141,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>102</v>
       </c>
@@ -13178,7 +13149,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>104</v>
       </c>
@@ -13186,7 +13157,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>106</v>
       </c>
@@ -13194,7 +13165,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>108</v>
       </c>
@@ -13202,7 +13173,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>111</v>
       </c>
@@ -13210,7 +13181,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>113</v>
       </c>
@@ -13218,12 +13189,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>115</v>
       </c>
@@ -13231,7 +13202,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>117</v>
       </c>
@@ -13239,7 +13210,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>126</v>
       </c>
@@ -13247,17 +13218,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>130</v>
       </c>
@@ -13265,32 +13236,32 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>137</v>
       </c>
@@ -13298,12 +13269,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>140</v>
       </c>
@@ -13311,59 +13282,59 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
     </row>
-    <row r="89" spans="1:2" ht="52.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="51" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="8"/>
     </row>
-    <row r="91" spans="1:2" ht="42" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="8"/>
     </row>
-    <row r="93" spans="1:2" ht="52.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="51" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="8"/>
     </row>
-    <row r="95" spans="1:2" ht="42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="8"/>
     </row>
-    <row r="97" spans="1:1" ht="42" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C27" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -13372,50 +13343,50 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="135" t="s">
         <v>533</v>
       </c>
       <c r="B1" s="81"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="132">
         <v>4</v>
       </c>
       <c r="B2" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="193" t="s">
         <v>300</v>
       </c>
       <c r="D2" s="86"/>
       <c r="E2" s="87"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="83">
         <v>5</v>
       </c>
       <c r="B3" s="88" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="183"/>
+      <c r="C3" s="191"/>
       <c r="D3" s="89" t="s">
         <v>308</v>
       </c>
@@ -13423,38 +13394,38 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="83">
         <v>6</v>
       </c>
       <c r="B4" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="183" t="s">
+      <c r="C4" s="191" t="s">
         <v>309</v>
       </c>
       <c r="D4" s="89"/>
       <c r="E4" s="90"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="83">
         <v>7</v>
       </c>
       <c r="B5" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="183"/>
+      <c r="C5" s="191"/>
       <c r="D5" s="89"/>
       <c r="E5" s="90"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="83">
         <v>8</v>
       </c>
       <c r="B6" s="91" t="s">
         <v>396</v>
       </c>
-      <c r="C6" s="183"/>
+      <c r="C6" s="191"/>
       <c r="D6" s="89" t="s">
         <v>437</v>
       </c>
@@ -13462,36 +13433,36 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="83">
         <v>9</v>
       </c>
       <c r="B7" s="140" t="s">
         <v>437</v>
       </c>
-      <c r="C7" s="183"/>
+      <c r="C7" s="191"/>
       <c r="D7" s="89"/>
       <c r="E7" s="90"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="83">
         <v>10</v>
       </c>
       <c r="B8" s="142" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="193"/>
+      <c r="C8" s="192"/>
       <c r="D8" s="138"/>
       <c r="E8" s="139"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="83">
         <v>11</v>
       </c>
       <c r="B9" s="143" t="s">
         <v>452</v>
       </c>
-      <c r="C9" s="184" t="s">
+      <c r="C9" s="187" t="s">
         <v>511</v>
       </c>
       <c r="D9" s="86"/>
@@ -13500,82 +13471,82 @@
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="83">
         <v>12</v>
       </c>
       <c r="B10" s="93" t="s">
         <v>452</v>
       </c>
-      <c r="C10" s="185"/>
+      <c r="C10" s="188"/>
       <c r="D10" s="89"/>
       <c r="E10" s="90"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="83">
         <v>13</v>
       </c>
       <c r="B11" s="93" t="s">
         <v>452</v>
       </c>
-      <c r="C11" s="185"/>
+      <c r="C11" s="188"/>
       <c r="D11" s="89"/>
       <c r="E11" s="90"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="83">
         <v>14</v>
       </c>
       <c r="B12" s="93" t="s">
         <v>452</v>
       </c>
-      <c r="C12" s="185"/>
+      <c r="C12" s="188"/>
       <c r="D12" s="89"/>
       <c r="E12" s="90"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="83">
         <v>15</v>
       </c>
       <c r="B13" s="93" t="s">
         <v>497</v>
       </c>
-      <c r="C13" s="185"/>
+      <c r="C13" s="188"/>
       <c r="D13" s="89" t="s">
         <v>504</v>
       </c>
       <c r="E13" s="90"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="83">
         <v>16</v>
       </c>
       <c r="B14" s="140" t="s">
         <v>504</v>
       </c>
-      <c r="C14" s="185"/>
+      <c r="C14" s="188"/>
       <c r="D14" s="89"/>
       <c r="E14" s="90"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="83">
         <v>17</v>
       </c>
       <c r="B15" s="142" t="s">
         <v>527</v>
       </c>
-      <c r="C15" s="186"/>
+      <c r="C15" s="189"/>
       <c r="D15" s="138"/>
       <c r="E15" s="139"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="83">
         <v>18</v>
       </c>
       <c r="B16" s="143" t="s">
         <v>532</v>
       </c>
-      <c r="C16" s="184" t="s">
+      <c r="C16" s="187" t="s">
         <v>511</v>
       </c>
       <c r="D16" s="86" t="s">
@@ -13585,36 +13556,36 @@
         <v>543</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="83">
         <v>19</v>
       </c>
       <c r="B17" s="93" t="s">
         <v>532</v>
       </c>
-      <c r="C17" s="185"/>
+      <c r="C17" s="188"/>
       <c r="D17" s="89"/>
       <c r="E17" s="90"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="83">
         <v>20</v>
       </c>
       <c r="B18" s="93" t="s">
         <v>532</v>
       </c>
-      <c r="C18" s="185"/>
+      <c r="C18" s="188"/>
       <c r="D18" s="89"/>
       <c r="E18" s="90"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="83">
         <v>21</v>
       </c>
       <c r="B19" s="93" t="s">
         <v>532</v>
       </c>
-      <c r="C19" s="185"/>
+      <c r="C19" s="188"/>
       <c r="D19" s="89" t="s">
         <v>679</v>
       </c>
@@ -13622,104 +13593,104 @@
         <v>543</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="83">
         <v>22</v>
       </c>
       <c r="B20" s="93" t="s">
         <v>532</v>
       </c>
-      <c r="C20" s="185"/>
+      <c r="C20" s="188"/>
       <c r="D20" s="89"/>
       <c r="E20" s="90"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="187">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="194">
         <v>23</v>
       </c>
       <c r="B21" s="140" t="s">
         <v>532</v>
       </c>
-      <c r="C21" s="185"/>
-      <c r="D21" s="190" t="s">
+      <c r="C21" s="188"/>
+      <c r="D21" s="185" t="s">
         <v>679</v>
       </c>
-      <c r="E21" s="191" t="s">
+      <c r="E21" s="186" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="187"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="194"/>
       <c r="B22" s="140" t="s">
         <v>497</v>
       </c>
-      <c r="C22" s="185"/>
-      <c r="D22" s="190"/>
-      <c r="E22" s="191"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="188"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="186"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="83">
         <v>24</v>
       </c>
       <c r="B23" s="142" t="s">
         <v>497</v>
       </c>
-      <c r="C23" s="186"/>
+      <c r="C23" s="189"/>
       <c r="D23" s="138"/>
       <c r="E23" s="139"/>
     </row>
-    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="83">
         <v>25</v>
       </c>
       <c r="B24" s="91" t="s">
         <v>639</v>
       </c>
-      <c r="C24" s="188" t="s">
+      <c r="C24" s="195" t="s">
         <v>511</v>
       </c>
       <c r="D24" s="89"/>
       <c r="E24" s="90"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="115">
         <v>26</v>
       </c>
       <c r="B25" s="91" t="s">
         <v>639</v>
       </c>
-      <c r="C25" s="185"/>
+      <c r="C25" s="188"/>
       <c r="D25" s="89"/>
       <c r="E25" s="90"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="83">
         <v>27</v>
       </c>
       <c r="B26" s="91" t="s">
         <v>639</v>
       </c>
-      <c r="C26" s="185"/>
+      <c r="C26" s="188"/>
       <c r="D26" s="89"/>
       <c r="E26" s="90"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="83">
         <v>28</v>
       </c>
       <c r="B27" s="91" t="s">
         <v>639</v>
       </c>
-      <c r="C27" s="185"/>
+      <c r="C27" s="188"/>
       <c r="D27" s="89"/>
       <c r="E27" s="90"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="83">
         <v>29</v>
       </c>
       <c r="B28" s="91"/>
-      <c r="C28" s="185"/>
+      <c r="C28" s="188"/>
       <c r="D28" s="89" t="s">
         <v>679</v>
       </c>
@@ -13727,66 +13698,66 @@
         <v>543</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="83">
         <v>30</v>
       </c>
       <c r="B29" s="140" t="s">
         <v>497</v>
       </c>
-      <c r="C29" s="185"/>
+      <c r="C29" s="188"/>
       <c r="D29" s="89"/>
       <c r="E29" s="90"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="84">
         <v>31</v>
       </c>
       <c r="B30" s="141" t="s">
         <v>686</v>
       </c>
-      <c r="C30" s="189"/>
+      <c r="C30" s="196"/>
       <c r="D30" s="77"/>
       <c r="E30" s="92"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="135" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="84">
         <v>1</v>
       </c>
       <c r="B33" s="136" t="s">
         <v>686</v>
       </c>
-      <c r="C33" s="184" t="s">
+      <c r="C33" s="187" t="s">
         <v>511</v>
       </c>
       <c r="D33" s="86"/>
       <c r="E33" s="87"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="134">
         <v>2</v>
       </c>
       <c r="B34" s="91" t="s">
         <v>686</v>
       </c>
-      <c r="C34" s="185"/>
+      <c r="C34" s="188"/>
       <c r="D34" s="89"/>
       <c r="E34" s="90"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="134">
         <v>3</v>
       </c>
       <c r="B35" s="91" t="s">
         <v>686</v>
       </c>
-      <c r="C35" s="185"/>
+      <c r="C35" s="188"/>
       <c r="D35" s="89" t="s">
         <v>497</v>
       </c>
@@ -13794,51 +13765,51 @@
         <v>702</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="134">
         <v>4</v>
       </c>
       <c r="B36" s="91" t="s">
         <v>704</v>
       </c>
-      <c r="C36" s="185"/>
+      <c r="C36" s="188"/>
       <c r="D36" s="89"/>
       <c r="E36" s="90"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="134">
         <v>5</v>
       </c>
       <c r="B37" s="91" t="s">
         <v>704</v>
       </c>
-      <c r="C37" s="185"/>
+      <c r="C37" s="188"/>
       <c r="D37" s="89"/>
       <c r="E37" s="90"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="134">
         <v>6</v>
       </c>
       <c r="B38" s="140" t="s">
         <v>704</v>
       </c>
-      <c r="C38" s="185"/>
+      <c r="C38" s="188"/>
       <c r="D38" s="89"/>
       <c r="E38" s="90"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="134">
         <v>7</v>
       </c>
       <c r="B39" s="142" t="s">
         <v>497</v>
       </c>
-      <c r="C39" s="186"/>
+      <c r="C39" s="189"/>
       <c r="D39" s="138"/>
       <c r="E39" s="139"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="134">
         <v>8</v>
       </c>
@@ -13849,7 +13820,7 @@
       <c r="D40" s="89"/>
       <c r="E40" s="90"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="134">
         <v>9</v>
       </c>
@@ -13860,7 +13831,7 @@
       <c r="D41" s="89"/>
       <c r="E41" s="90"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="134">
         <v>10</v>
       </c>
@@ -13878,7 +13849,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="134">
         <v>11</v>
       </c>
@@ -13891,7 +13862,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="134">
         <v>12</v>
       </c>
@@ -13904,7 +13875,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="134">
         <v>13</v>
       </c>
@@ -13917,7 +13888,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="134">
         <v>14</v>
       </c>
@@ -13930,7 +13901,7 @@
       <c r="D46" s="138"/>
       <c r="E46" s="139"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="134">
         <v>15</v>
       </c>
@@ -13943,7 +13914,7 @@
       <c r="D47" s="89"/>
       <c r="E47" s="87"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="134">
         <v>16</v>
       </c>
@@ -13956,7 +13927,7 @@
       <c r="D48" s="89"/>
       <c r="E48" s="90"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="134">
         <v>17</v>
       </c>
@@ -13969,7 +13940,7 @@
       <c r="D49" s="89"/>
       <c r="E49" s="90"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="134">
         <v>18</v>
       </c>
@@ -13982,7 +13953,7 @@
       <c r="D50" s="89"/>
       <c r="E50" s="90"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="134">
         <v>19</v>
       </c>
@@ -13995,7 +13966,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="134">
         <v>20</v>
       </c>
@@ -14008,7 +13979,7 @@
       <c r="D52" s="89"/>
       <c r="E52" s="90"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="134">
         <v>21</v>
       </c>
@@ -14024,7 +13995,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="84">
         <v>22</v>
       </c>
@@ -14040,7 +14011,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="134">
         <v>23</v>
       </c>
@@ -14056,7 +14027,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="134">
         <v>24</v>
       </c>
@@ -14072,7 +14043,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="134">
         <v>25</v>
       </c>
@@ -14085,7 +14056,7 @@
       <c r="D57" s="89"/>
       <c r="E57" s="90"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="134">
         <v>26</v>
       </c>
@@ -14098,7 +14069,7 @@
       <c r="D58" s="89"/>
       <c r="E58" s="90"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="134">
         <v>27</v>
       </c>
@@ -14109,7 +14080,7 @@
       <c r="D59" s="89"/>
       <c r="E59" s="90"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="134">
         <v>28</v>
       </c>
@@ -14124,7 +14095,7 @@
       </c>
       <c r="E60" s="139"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="134">
         <v>29</v>
       </c>
@@ -14135,7 +14106,7 @@
       <c r="D61" s="89"/>
       <c r="E61" s="90"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="134">
         <v>30</v>
       </c>
@@ -14146,13 +14117,13 @@
       <c r="D62" s="138"/>
       <c r="E62" s="139"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="135" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="84">
         <v>1</v>
       </c>
@@ -14163,31 +14134,31 @@
       <c r="D65" s="86"/>
       <c r="E65" s="87"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="134">
         <v>2</v>
       </c>
       <c r="B66" s="91" t="s">
         <v>949</v>
       </c>
-      <c r="C66" s="192" t="s">
+      <c r="C66" s="190" t="s">
         <v>950</v>
       </c>
       <c r="D66" s="89"/>
       <c r="E66" s="90"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="134">
         <v>3</v>
       </c>
       <c r="B67" s="91" t="s">
         <v>949</v>
       </c>
-      <c r="C67" s="192"/>
+      <c r="C67" s="190"/>
       <c r="D67" s="89"/>
       <c r="E67" s="90"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="134">
         <v>4</v>
       </c>
@@ -14196,7 +14167,7 @@
       <c r="D68" s="89"/>
       <c r="E68" s="90"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="134">
         <v>5</v>
       </c>
@@ -14205,7 +14176,7 @@
       <c r="D69" s="138"/>
       <c r="E69" s="139"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="134">
         <v>6</v>
       </c>
@@ -14214,7 +14185,7 @@
       <c r="D70" s="89"/>
       <c r="E70" s="90"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="134">
         <v>7</v>
       </c>
@@ -14227,7 +14198,7 @@
       <c r="D71" s="89"/>
       <c r="E71" s="90"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="134">
         <v>8</v>
       </c>
@@ -14236,7 +14207,7 @@
       <c r="D72" s="89"/>
       <c r="E72" s="90"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="134">
         <v>9</v>
       </c>
@@ -14245,7 +14216,7 @@
       <c r="D73" s="89"/>
       <c r="E73" s="90"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="134">
         <v>10</v>
       </c>
@@ -14258,7 +14229,7 @@
       <c r="D74" s="89"/>
       <c r="E74" s="90"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="134">
         <v>11</v>
       </c>
@@ -14274,7 +14245,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="134">
         <v>12</v>
       </c>
@@ -14283,7 +14254,7 @@
       <c r="D76" s="138"/>
       <c r="E76" s="139"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="134">
         <v>13</v>
       </c>
@@ -14296,7 +14267,7 @@
       <c r="D77" s="89"/>
       <c r="E77" s="87"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="134">
         <v>14</v>
       </c>
@@ -14305,7 +14276,7 @@
       <c r="D78" s="89"/>
       <c r="E78" s="90"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="134">
         <v>15</v>
       </c>
@@ -14314,7 +14285,7 @@
       <c r="D79" s="89"/>
       <c r="E79" s="90"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="134">
         <v>16</v>
       </c>
@@ -14323,7 +14294,7 @@
       <c r="D80" s="89"/>
       <c r="E80" s="90"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="134">
         <v>17</v>
       </c>
@@ -14332,7 +14303,7 @@
       <c r="D81" s="89"/>
       <c r="E81" s="90"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="134">
         <v>18</v>
       </c>
@@ -14345,7 +14316,7 @@
       <c r="D82" s="89"/>
       <c r="E82" s="90"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="134">
         <v>19</v>
       </c>
@@ -14354,7 +14325,7 @@
       <c r="D83" s="89"/>
       <c r="E83" s="90"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="134">
         <v>20</v>
       </c>
@@ -14363,7 +14334,7 @@
       <c r="D84" s="86"/>
       <c r="E84" s="87"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="134">
         <v>21</v>
       </c>
@@ -14372,7 +14343,7 @@
       <c r="D85" s="89"/>
       <c r="E85" s="90"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="134">
         <v>22</v>
       </c>
@@ -14381,7 +14352,7 @@
       <c r="D86" s="89"/>
       <c r="E86" s="90"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="134">
         <v>23</v>
       </c>
@@ -14394,7 +14365,7 @@
       <c r="D87" s="89"/>
       <c r="E87" s="90"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="134">
         <v>24</v>
       </c>
@@ -14403,7 +14374,7 @@
       <c r="D88" s="89"/>
       <c r="E88" s="90"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="134">
         <v>25</v>
       </c>
@@ -14412,7 +14383,7 @@
       <c r="D89" s="89"/>
       <c r="E89" s="90"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="134">
         <v>26</v>
       </c>
@@ -14425,7 +14396,7 @@
       <c r="D90" s="138"/>
       <c r="E90" s="139"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="134">
         <v>27</v>
       </c>
@@ -14438,7 +14409,7 @@
       <c r="D91" s="86"/>
       <c r="E91" s="87"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="134">
         <v>28</v>
       </c>
@@ -14451,7 +14422,7 @@
       <c r="D92" s="89"/>
       <c r="E92" s="90"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="134">
         <v>29</v>
       </c>
@@ -14464,7 +14435,7 @@
       <c r="D93" s="89"/>
       <c r="E93" s="90"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="134">
         <v>30</v>
       </c>
@@ -14477,7 +14448,7 @@
       <c r="D94" s="89"/>
       <c r="E94" s="90"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="134">
         <v>31</v>
       </c>
@@ -14488,13 +14459,13 @@
       <c r="D95" s="138"/>
       <c r="E95" s="139"/>
     </row>
-    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="97" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="135" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="84">
         <v>1</v>
       </c>
@@ -14507,7 +14478,7 @@
       <c r="D98" s="86"/>
       <c r="E98" s="87"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="134">
         <v>2</v>
       </c>
@@ -14516,7 +14487,7 @@
       <c r="D99" s="138"/>
       <c r="E99" s="139"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="134">
         <v>3</v>
       </c>
@@ -14529,7 +14500,7 @@
       <c r="D100" s="89"/>
       <c r="E100" s="90"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="134">
         <v>4</v>
       </c>
@@ -14538,7 +14509,7 @@
       <c r="D101" s="89"/>
       <c r="E101" s="90"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="134">
         <v>5</v>
       </c>
@@ -14547,7 +14518,7 @@
       <c r="D102" s="89"/>
       <c r="E102" s="90"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="134">
         <v>6</v>
       </c>
@@ -14556,7 +14527,7 @@
       <c r="D103" s="89"/>
       <c r="E103" s="90"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="134">
         <v>7</v>
       </c>
@@ -14565,7 +14536,7 @@
       <c r="D104" s="89"/>
       <c r="E104" s="90"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="134">
         <v>8</v>
       </c>
@@ -14578,7 +14549,7 @@
       <c r="D105" s="89"/>
       <c r="E105" s="90"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="134">
         <v>9</v>
       </c>
@@ -14591,7 +14562,7 @@
       <c r="D106" s="138"/>
       <c r="E106" s="139"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="134">
         <v>10</v>
       </c>
@@ -14604,7 +14575,7 @@
       <c r="D107" s="89"/>
       <c r="E107" s="87"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="134">
         <v>11</v>
       </c>
@@ -14613,7 +14584,7 @@
       <c r="D108" s="89"/>
       <c r="E108" s="90"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="134">
         <v>12</v>
       </c>
@@ -14622,7 +14593,7 @@
       <c r="D109" s="89"/>
       <c r="E109" s="90"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="134">
         <v>13</v>
       </c>
@@ -14631,7 +14602,7 @@
       <c r="D110" s="89"/>
       <c r="E110" s="90"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="134">
         <v>14</v>
       </c>
@@ -14640,7 +14611,7 @@
       <c r="D111" s="89"/>
       <c r="E111" s="90"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="134">
         <v>15</v>
       </c>
@@ -14649,7 +14620,7 @@
       <c r="D112" s="89"/>
       <c r="E112" s="90"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="134">
         <v>16</v>
       </c>
@@ -14658,7 +14629,7 @@
       <c r="D113" s="89"/>
       <c r="E113" s="90"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="134">
         <v>17</v>
       </c>
@@ -14667,7 +14638,7 @@
       <c r="D114" s="86"/>
       <c r="E114" s="87"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="134">
         <v>18</v>
       </c>
@@ -14676,7 +14647,7 @@
       <c r="D115" s="89"/>
       <c r="E115" s="90"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="134">
         <v>19</v>
       </c>
@@ -14685,7 +14656,7 @@
       <c r="D116" s="89"/>
       <c r="E116" s="90"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="134">
         <v>20</v>
       </c>
@@ -14694,7 +14665,7 @@
       <c r="D117" s="89"/>
       <c r="E117" s="90"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="134">
         <v>21</v>
       </c>
@@ -14703,7 +14674,7 @@
       <c r="D118" s="89"/>
       <c r="E118" s="90"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="134">
         <v>22</v>
       </c>
@@ -14712,7 +14683,7 @@
       <c r="D119" s="89"/>
       <c r="E119" s="90"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="134">
         <v>23</v>
       </c>
@@ -14721,7 +14692,7 @@
       <c r="D120" s="138"/>
       <c r="E120" s="139"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="134">
         <v>24</v>
       </c>
@@ -14730,7 +14701,7 @@
       <c r="D121" s="86"/>
       <c r="E121" s="87"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="134">
         <v>25</v>
       </c>
@@ -14739,7 +14710,7 @@
       <c r="D122" s="89"/>
       <c r="E122" s="90"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="134">
         <v>26</v>
       </c>
@@ -14748,7 +14719,7 @@
       <c r="D123" s="89"/>
       <c r="E123" s="90"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="134">
         <v>27</v>
       </c>
@@ -14757,7 +14728,7 @@
       <c r="D124" s="89"/>
       <c r="E124" s="90"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="134">
         <v>28</v>
       </c>
@@ -14766,7 +14737,7 @@
       <c r="D125" s="89"/>
       <c r="E125" s="90"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="134">
         <v>29</v>
       </c>
@@ -14775,7 +14746,7 @@
       <c r="D126" s="89"/>
       <c r="E126" s="90"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="134">
         <v>30</v>
       </c>
@@ -14784,7 +14755,7 @@
       <c r="D127" s="138"/>
       <c r="E127" s="139"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="134">
         <v>31</v>
       </c>
@@ -14795,20 +14766,20 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C16:C23"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C24:C30"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="C9:C15"/>
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C16:C23"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C24:C30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://ru.hexlet.io/courses/html" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://ru.hexlet.io/courses/html" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://ru.hexlet.io/courses/html"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://ru.hexlet.io/courses/html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -14817,29 +14788,29 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="149" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.33203125" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="149" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>304</v>
       </c>
@@ -14856,7 +14827,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>306</v>
       </c>
@@ -14873,7 +14844,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>336</v>
       </c>
@@ -14890,7 +14861,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>363</v>
       </c>
@@ -14907,7 +14878,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>382</v>
       </c>
@@ -14927,7 +14898,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>384</v>
       </c>
@@ -14947,7 +14918,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>386</v>
       </c>
@@ -14964,7 +14935,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>407</v>
       </c>
@@ -14984,11 +14955,11 @@
         <v>760</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="B10" s="194" t="s">
+      <c r="B10" s="197" t="s">
         <v>424</v>
       </c>
       <c r="E10" t="s">
@@ -14998,13 +14969,13 @@
         <v>962</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="B11" s="194"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="197"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>434</v>
       </c>
@@ -15012,7 +14983,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>438</v>
       </c>
@@ -15020,7 +14991,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>444</v>
       </c>
@@ -15028,21 +14999,21 @@
         <v>445</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="B15" s="195" t="s">
+      <c r="B15" s="198" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>966</v>
       </c>
-      <c r="B16" s="195"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="198"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>484</v>
       </c>
@@ -15050,7 +15021,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>486</v>
       </c>
@@ -15058,7 +15029,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>494</v>
       </c>
@@ -15066,7 +15037,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>541</v>
       </c>
@@ -15074,26 +15045,26 @@
         <v>542</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="B22" s="194" t="s">
+      <c r="B22" s="197" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>703</v>
       </c>
-      <c r="B23" s="194"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="197"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>740</v>
       </c>
@@ -15101,12 +15072,12 @@
         <v>405</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>963</v>
       </c>
@@ -15114,12 +15085,12 @@
         <v>964</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1022</v>
       </c>
@@ -15134,30 +15105,30 @@
     <mergeCell ref="B15:B16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" location="textarea" display="https://validator.w3.org/nu/ - textarea" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
-    <hyperlink ref="A7" r:id="rId7" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
-    <hyperlink ref="A8" r:id="rId8" xr:uid="{00000000-0004-0000-0800-000007000000}"/>
-    <hyperlink ref="A9" r:id="rId9" xr:uid="{00000000-0004-0000-0800-000008000000}"/>
-    <hyperlink ref="A10" r:id="rId10" xr:uid="{00000000-0004-0000-0800-000009000000}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0800-00000A000000}"/>
-    <hyperlink ref="A13" r:id="rId12" location="комментарии" xr:uid="{00000000-0004-0000-0800-00000B000000}"/>
-    <hyperlink ref="B13" r:id="rId13" display="https://github.com/airbnb/javascript/" xr:uid="{00000000-0004-0000-0800-00000C000000}"/>
-    <hyperlink ref="A14" r:id="rId14" xr:uid="{00000000-0004-0000-0800-00000D000000}"/>
-    <hyperlink ref="A15" r:id="rId15" xr:uid="{00000000-0004-0000-0800-00000E000000}"/>
-    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0800-00000F000000}"/>
-    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0800-000010000000}"/>
-    <hyperlink ref="A19" r:id="rId18" location="svg-color" xr:uid="{00000000-0004-0000-0800-000011000000}"/>
-    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0800-000012000000}"/>
-    <hyperlink ref="A21" r:id="rId20" xr:uid="{00000000-0004-0000-0800-000013000000}"/>
-    <hyperlink ref="A22" r:id="rId21" xr:uid="{00000000-0004-0000-0800-000014000000}"/>
-    <hyperlink ref="A24" r:id="rId22" xr:uid="{00000000-0004-0000-0800-000015000000}"/>
-    <hyperlink ref="A26" r:id="rId23" xr:uid="{00000000-0004-0000-0800-000016000000}"/>
-    <hyperlink ref="A27" r:id="rId24" xr:uid="{00000000-0004-0000-0800-000017000000}"/>
+    <hyperlink ref="A1" r:id="rId1" location="textarea" display="https://validator.w3.org/nu/ - textarea"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
+    <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12" location="комментарии"/>
+    <hyperlink ref="B13" r:id="rId13" display="https://github.com/airbnb/javascript/"/>
+    <hyperlink ref="A14" r:id="rId14"/>
+    <hyperlink ref="A15" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18" location="svg-color"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A24" r:id="rId22"/>
+    <hyperlink ref="A26" r:id="rId23"/>
+    <hyperlink ref="A27" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
@@ -15165,20 +15136,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -15189,7 +15160,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -15197,7 +15168,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -15205,7 +15176,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -15213,7 +15184,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -15221,7 +15192,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -15229,7 +15200,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -15237,7 +15208,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -15245,7 +15216,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -15253,7 +15224,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -15261,7 +15232,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -15269,7 +15240,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -15277,7 +15248,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -15285,7 +15256,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -15293,7 +15264,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -15301,7 +15272,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -15309,7 +15280,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -15317,7 +15288,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -15325,7 +15296,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -15333,7 +15304,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -15341,7 +15312,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -15349,22 +15320,22 @@
         <v>731</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -15377,21 +15348,21 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>797</v>
       </c>
@@ -15406,20 +15377,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>765</v>
       </c>
@@ -15430,7 +15401,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>766</v>
       </c>
@@ -15441,7 +15412,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>768</v>
       </c>
@@ -15452,7 +15423,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="150" t="s">
         <v>786</v>
       </c>
@@ -15460,7 +15431,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="151" t="s">
         <v>770</v>
       </c>
@@ -15471,7 +15442,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>926</v>
       </c>
@@ -15482,7 +15453,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>772</v>
       </c>
@@ -15493,7 +15464,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>774</v>
       </c>
@@ -15504,7 +15475,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="152" t="s">
         <v>775</v>
       </c>
@@ -15515,7 +15486,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>777</v>
       </c>
@@ -15526,7 +15497,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="148" t="s">
         <v>802</v>
       </c>
@@ -15537,7 +15508,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="153" t="s">
         <v>917</v>
       </c>
@@ -15545,7 +15516,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>778</v>
       </c>
@@ -15556,7 +15527,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="152" t="s">
         <v>913</v>
       </c>
@@ -15567,7 +15538,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="152" t="s">
         <v>780</v>
       </c>
@@ -15578,7 +15549,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>782</v>
       </c>
@@ -15589,7 +15560,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>784</v>
       </c>
@@ -15600,7 +15571,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>789</v>
       </c>
@@ -15611,7 +15582,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>790</v>
       </c>
@@ -15622,7 +15593,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="152" t="s">
         <v>793</v>
       </c>
@@ -15633,7 +15604,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>795</v>
       </c>
@@ -15644,7 +15615,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>800</v>
       </c>
@@ -15655,7 +15626,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" s="150" t="s">
         <v>935</v>
       </c>
@@ -15663,7 +15634,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>915</v>
       </c>
@@ -15674,7 +15645,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>909</v>
       </c>
@@ -15685,7 +15656,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="150" t="s">
         <v>912</v>
       </c>
@@ -15693,7 +15664,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>919</v>
       </c>
@@ -15704,7 +15675,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>924</v>
       </c>
@@ -15715,7 +15686,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="150" t="s">
         <v>925</v>
       </c>
@@ -15723,7 +15694,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" s="150" t="s">
         <v>927</v>
       </c>
@@ -15731,7 +15702,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>928</v>
       </c>
@@ -15742,7 +15713,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>931</v>
       </c>
@@ -15753,7 +15724,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" s="150" t="s">
         <v>933</v>
       </c>
@@ -15761,42 +15732,42 @@
         <v>834</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>922</v>
       </c>
@@ -15804,7 +15775,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>799</v>
       </c>
@@ -15812,7 +15783,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>920</v>
       </c>
@@ -15820,7 +15791,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>921</v>
       </c>
@@ -15828,307 +15799,307 @@
         <v>845</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
         <v>906</v>
       </c>
@@ -16141,27 +16112,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="30.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>158</v>
       </c>
@@ -16184,7 +16155,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>159</v>
       </c>
@@ -16207,7 +16178,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="177" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="177" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
       <c r="B3" s="12"/>
       <c r="C3" s="11"/>
@@ -16218,7 +16189,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="48"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>160</v>
       </c>
@@ -16239,7 +16210,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>161</v>
       </c>
@@ -16253,12 +16224,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H6" s="19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>173</v>
       </c>
@@ -16269,7 +16240,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>171</v>
       </c>
@@ -16286,7 +16257,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>175</v>
       </c>
@@ -16300,7 +16271,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>176</v>
       </c>
@@ -16310,15 +16281,15 @@
       <c r="C10" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E10" s="161" t="s">
+      <c r="E10" s="164" t="s">
         <v>258</v>
       </c>
-      <c r="F10" s="161"/>
+      <c r="F10" s="164"/>
       <c r="H10" s="18" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>180</v>
       </c>
@@ -16329,7 +16300,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>182</v>
       </c>
@@ -16340,7 +16311,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="21" t="s">
         <v>183</v>
@@ -16352,7 +16323,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="B14" s="21" t="s">
         <v>184</v>
@@ -16361,19 +16332,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
       <c r="B15" s="21" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="21" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="21" t="s">
         <v>189</v>
@@ -16388,7 +16359,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
         <v>190</v>
@@ -16397,7 +16368,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>191</v>
       </c>
@@ -16408,19 +16379,19 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="23"/>
       <c r="B20" s="21" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="21" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>198</v>
       </c>
@@ -16428,7 +16399,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="24"/>
       <c r="B23" s="21" t="s">
         <v>259</v>
@@ -16440,7 +16411,7 @@
       <c r="G23" s="46"/>
       <c r="I23" s="46"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="51" t="s">
         <v>287</v>
       </c>
@@ -16460,7 +16431,7 @@
       <c r="G24" s="50"/>
       <c r="I24" s="50"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="51"/>
       <c r="B25" s="21" t="s">
         <v>292</v>
@@ -16474,7 +16445,7 @@
       <c r="G25" s="50"/>
       <c r="I25" s="50"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="51"/>
       <c r="B26" s="21" t="s">
         <v>294</v>
@@ -16486,13 +16457,13 @@
       <c r="G26" s="50"/>
       <c r="I26" s="50"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20"/>
       <c r="G27" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
         <v>195</v>
       </c>
@@ -16506,7 +16477,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
       <c r="C29" s="27" t="s">
         <v>202</v>
@@ -16521,7 +16492,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="30" t="s">
         <v>206</v>
       </c>
@@ -16533,7 +16504,7 @@
       </c>
       <c r="F30" s="32"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="27" t="s">
         <v>209</v>
       </c>
@@ -16544,7 +16515,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C32" s="33" t="s">
         <v>212</v>
       </c>
@@ -16558,7 +16529,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="9" t="s">
         <v>217</v>
       </c>
@@ -16569,7 +16540,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="9" t="s">
         <v>223</v>
       </c>
@@ -16582,12 +16553,12 @@
       <c r="E34" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="F34" s="163" t="s">
+      <c r="F34" s="165" t="s">
         <v>227</v>
       </c>
-      <c r="G34" s="164"/>
-    </row>
-    <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="166"/>
+    </row>
+    <row r="35" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="9" t="s">
         <v>228</v>
       </c>
@@ -16603,7 +16574,7 @@
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="47"/>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
@@ -16612,7 +16583,7 @@
       <c r="G36" s="36"/>
       <c r="I36" s="47"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>260</v>
       </c>
@@ -16625,7 +16596,7 @@
       <c r="G37" s="36"/>
       <c r="I37" s="47"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D38" s="9" t="s">
         <v>129</v>
       </c>
@@ -16633,17 +16604,17 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C39" s="9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C40" s="9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C41" s="9" t="s">
         <v>222</v>
       </c>
@@ -16651,8 +16622,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="9" t="s">
         <v>232</v>
       </c>
@@ -16669,9 +16640,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="161" t="s">
+    <row r="70" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="164" t="s">
         <v>239</v>
       </c>
       <c r="C71" s="27" t="s">
@@ -16684,8 +16655,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="161"/>
+    <row r="72" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="164"/>
       <c r="C72" s="33" t="s">
         <v>243</v>
       </c>
@@ -16699,13 +16670,13 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="161"/>
+    <row r="73" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="164"/>
       <c r="C73" s="41" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="49"/>
       <c r="C79" s="49"/>
       <c r="D79" s="49"/>
@@ -16714,9 +16685,9 @@
       <c r="G79" s="49"/>
       <c r="I79" s="49"/>
     </row>
-    <row r="81" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="161" t="s">
+    <row r="81" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B82" s="164" t="s">
         <v>249</v>
       </c>
       <c r="C82" s="43" t="s">
@@ -16724,55 +16695,55 @@
       </c>
       <c r="E82" s="42"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="161"/>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B83" s="164"/>
       <c r="C83" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="D83" s="161" t="s">
+      <c r="D83" s="164" t="s">
         <v>254</v>
       </c>
-      <c r="E83" s="161"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="161"/>
+      <c r="E83" s="164"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B84" s="164"/>
       <c r="C84" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="D84" s="161" t="s">
+      <c r="D84" s="164" t="s">
         <v>255</v>
       </c>
-      <c r="E84" s="161"/>
-    </row>
-    <row r="85" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="161"/>
+      <c r="E84" s="164"/>
+    </row>
+    <row r="85" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="164"/>
       <c r="C85" s="45" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="161" t="s">
+    <row r="87" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B88" s="164" t="s">
         <v>262</v>
       </c>
       <c r="C88" s="43" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="161"/>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B89" s="164"/>
       <c r="C89" s="44" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="161"/>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B90" s="164"/>
       <c r="C90" s="44" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="161"/>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B91" s="164"/>
       <c r="C91" s="44" t="s">
         <v>266</v>
       </c>
@@ -16783,79 +16754,79 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="161"/>
+    <row r="92" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="164"/>
       <c r="C92" s="45" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="93" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="162" t="s">
+    <row r="93" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B94" s="167" t="s">
         <v>276</v>
       </c>
       <c r="C94" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="D94" s="161" t="s">
+      <c r="D94" s="164" t="s">
         <v>275</v>
       </c>
-      <c r="E94" s="161"/>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="162"/>
+      <c r="E94" s="164"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B95" s="167"/>
       <c r="C95" s="44" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="162"/>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B96" s="167"/>
       <c r="C96" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="D96" s="161" t="s">
+      <c r="D96" s="164" t="s">
         <v>279</v>
       </c>
-      <c r="E96" s="161"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="162"/>
+      <c r="E96" s="164"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B97" s="167"/>
       <c r="C97" s="44" t="s">
         <v>280</v>
       </c>
-      <c r="D97" s="161" t="s">
+      <c r="D97" s="164" t="s">
         <v>281</v>
       </c>
-      <c r="E97" s="161"/>
+      <c r="E97" s="164"/>
       <c r="F97" s="9" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="162"/>
+    <row r="98" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="167"/>
       <c r="C98" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="D98" s="161" t="s">
+      <c r="D98" s="164" t="s">
         <v>284</v>
       </c>
-      <c r="E98" s="161"/>
-      <c r="F98" s="161"/>
+      <c r="E98" s="164"/>
+      <c r="F98" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="B94:B98"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="B71:B73"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="B82:B85"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="B94:B98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16865,29 +16836,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="54" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="122" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="53" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="53" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="66.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="53" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="53" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="66.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
         <v>318</v>
       </c>
@@ -16903,14 +16874,14 @@
         <v>556</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54" t="s">
         <v>368</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>343</v>
       </c>
-      <c r="E2" s="166" t="s">
+      <c r="E2" s="169" t="s">
         <v>595</v>
       </c>
       <c r="F2" s="103"/>
@@ -16924,14 +16895,14 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="54" t="s">
         <v>337</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>498</v>
       </c>
-      <c r="E3" s="166"/>
+      <c r="E3" s="169"/>
       <c r="F3" s="104" t="s">
         <v>372</v>
       </c>
@@ -16942,14 +16913,14 @@
         <v>559</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="54" t="s">
         <v>346</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>361</v>
       </c>
-      <c r="E4" s="166"/>
+      <c r="E4" s="169"/>
       <c r="F4" s="104"/>
       <c r="G4" s="106" t="s">
         <v>560</v>
@@ -16961,14 +16932,14 @@
         <v>562</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="54" t="s">
         <v>350</v>
       </c>
       <c r="B5" s="53" t="s">
         <v>349</v>
       </c>
-      <c r="E5" s="166"/>
+      <c r="E5" s="169"/>
       <c r="F5" s="104"/>
       <c r="G5" s="106" t="s">
         <v>563</v>
@@ -16977,14 +16948,14 @@
         <v>564</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="54" t="s">
         <v>339</v>
       </c>
       <c r="B6" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="E6" s="166"/>
+      <c r="E6" s="169"/>
       <c r="F6" s="104"/>
       <c r="G6" s="106" t="s">
         <v>565</v>
@@ -16996,14 +16967,14 @@
         <v>566</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="54" t="s">
         <v>302</v>
       </c>
       <c r="B7" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="E7" s="166"/>
+      <c r="E7" s="169"/>
       <c r="F7" s="104"/>
       <c r="G7" s="106" t="s">
         <v>143</v>
@@ -17015,14 +16986,14 @@
         <v>570</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="54" t="s">
         <v>319</v>
       </c>
       <c r="B8" s="53" t="s">
         <v>321</v>
       </c>
-      <c r="E8" s="166"/>
+      <c r="E8" s="169"/>
       <c r="F8" s="104"/>
       <c r="G8" s="106" t="s">
         <v>568</v>
@@ -17031,14 +17002,14 @@
         <v>569</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="54" t="s">
         <v>322</v>
       </c>
       <c r="B9" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="E9" s="166"/>
+      <c r="E9" s="169"/>
       <c r="F9" s="104"/>
       <c r="G9" s="106" t="s">
         <v>571</v>
@@ -17047,14 +17018,14 @@
         <v>572</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="54" t="s">
         <v>347</v>
       </c>
       <c r="B10" s="53" t="s">
         <v>348</v>
       </c>
-      <c r="E10" s="166"/>
+      <c r="E10" s="169"/>
       <c r="F10" s="104"/>
       <c r="G10" s="106" t="s">
         <v>573</v>
@@ -17063,14 +17034,14 @@
         <v>569</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="54" t="s">
         <v>354</v>
       </c>
       <c r="B11" s="53" t="s">
         <v>353</v>
       </c>
-      <c r="E11" s="166"/>
+      <c r="E11" s="169"/>
       <c r="F11" s="104" t="s">
         <v>372</v>
       </c>
@@ -17081,14 +17052,14 @@
         <v>569</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="54" t="s">
         <v>342</v>
       </c>
       <c r="B12" s="53" t="s">
         <v>478</v>
       </c>
-      <c r="E12" s="166"/>
+      <c r="E12" s="169"/>
       <c r="G12" s="106" t="s">
         <v>576</v>
       </c>
@@ -17096,14 +17067,14 @@
         <v>569</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="54" t="s">
         <v>315</v>
       </c>
       <c r="B13" s="53" t="s">
         <v>316</v>
       </c>
-      <c r="E13" s="166"/>
+      <c r="E13" s="169"/>
       <c r="G13" s="107" t="s">
         <v>577</v>
       </c>
@@ -17111,14 +17082,14 @@
         <v>578</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="54" t="s">
         <v>324</v>
       </c>
       <c r="B14" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="E14" s="166"/>
+      <c r="E14" s="169"/>
       <c r="G14" s="106" t="s">
         <v>576</v>
       </c>
@@ -17126,7 +17097,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="54" t="s">
         <v>310</v>
       </c>
@@ -17137,7 +17108,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="54" t="s">
         <v>338</v>
       </c>
@@ -17148,7 +17119,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="54" t="s">
         <v>344</v>
       </c>
@@ -17162,7 +17133,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="54" t="s">
         <v>303</v>
       </c>
@@ -17173,7 +17144,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="54" t="s">
         <v>320</v>
       </c>
@@ -17184,7 +17155,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="54" t="s">
         <v>326</v>
       </c>
@@ -17195,7 +17166,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="54" t="s">
         <v>330</v>
       </c>
@@ -17206,7 +17177,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="54" t="s">
         <v>333</v>
       </c>
@@ -17217,7 +17188,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="54" t="s">
         <v>332</v>
       </c>
@@ -17228,7 +17199,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="54" t="s">
         <v>329</v>
       </c>
@@ -17239,7 +17210,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="54" t="s">
         <v>352</v>
       </c>
@@ -17247,7 +17218,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="54" t="s">
         <v>331</v>
       </c>
@@ -17255,7 +17226,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="54" t="s">
         <v>314</v>
       </c>
@@ -17263,51 +17234,51 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="165" t="s">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="168" t="s">
         <v>355</v>
       </c>
       <c r="B28" s="53" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="165"/>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="168"/>
       <c r="B29" s="53" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="165"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="168"/>
       <c r="B30" s="53" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="165"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="168"/>
       <c r="B31" s="53" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="165"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="168"/>
       <c r="B32" s="53" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="165"/>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="168"/>
       <c r="B33" s="53" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="165"/>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="168"/>
       <c r="B34" s="59" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="25.2" x14ac:dyDescent="0.35">
       <c r="A35" s="57" t="s">
         <v>359</v>
       </c>
@@ -17315,7 +17286,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="22.2" x14ac:dyDescent="0.35">
       <c r="A36" s="101" t="s">
         <v>364</v>
       </c>
@@ -17323,7 +17294,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="25.2" x14ac:dyDescent="0.35">
       <c r="A37" s="60" t="s">
         <v>365</v>
       </c>
@@ -17331,7 +17302,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="62" t="s">
         <v>366</v>
       </c>
@@ -17339,7 +17310,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="62" t="s">
         <v>369</v>
       </c>
@@ -17347,7 +17318,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="62" t="s">
         <v>370</v>
       </c>
@@ -17355,7 +17326,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="62" t="s">
         <v>371</v>
       </c>
@@ -17363,7 +17334,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="64" t="s">
         <v>372</v>
       </c>
@@ -17371,7 +17342,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="54" t="s">
         <v>373</v>
       </c>
@@ -17379,7 +17350,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="57" t="s">
         <v>375</v>
       </c>
@@ -17387,7 +17358,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="54" t="s">
         <v>377</v>
       </c>
@@ -17395,7 +17366,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="54" t="s">
         <v>379</v>
       </c>
@@ -17403,7 +17374,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="54" t="s">
         <v>381</v>
       </c>
@@ -17411,7 +17382,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="54" t="s">
         <v>388</v>
       </c>
@@ -17419,7 +17390,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="54" t="s">
         <v>391</v>
       </c>
@@ -17427,7 +17398,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="54" t="s">
         <v>392</v>
       </c>
@@ -17435,7 +17406,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="54" t="s">
         <v>394</v>
       </c>
@@ -17443,7 +17414,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="54" t="s">
         <v>401</v>
       </c>
@@ -17451,7 +17422,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="54" t="s">
         <v>458</v>
       </c>
@@ -17459,7 +17430,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="54" t="s">
         <v>459</v>
       </c>
@@ -17467,7 +17438,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="54" t="s">
         <v>460</v>
       </c>
@@ -17475,7 +17446,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="25.2" x14ac:dyDescent="0.35">
       <c r="A56" s="57" t="s">
         <v>467</v>
       </c>
@@ -17483,7 +17454,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="54" t="s">
         <v>468</v>
       </c>
@@ -17491,7 +17462,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="54" t="s">
         <v>471</v>
       </c>
@@ -17499,7 +17470,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="54" t="s">
         <v>474</v>
       </c>
@@ -17507,7 +17478,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="54" t="s">
         <v>475</v>
       </c>
@@ -17515,7 +17486,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="54" t="s">
         <v>479</v>
       </c>
@@ -17523,7 +17494,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="54" t="s">
         <v>582</v>
       </c>
@@ -17531,7 +17502,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="54" t="s">
         <v>589</v>
       </c>
@@ -17539,7 +17510,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="54" t="s">
         <v>592</v>
       </c>
@@ -17547,380 +17518,380 @@
         <v>593</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="168" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="171" t="s">
         <v>974</v>
       </c>
-      <c r="B65" s="167" t="s">
+      <c r="B65" s="170" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="168"/>
-      <c r="B66" s="167"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="171"/>
+      <c r="B66" s="170"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="54" t="s">
         <v>313</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B27">
+  <sortState ref="A2:B27">
     <sortCondition ref="A2"/>
   </sortState>
   <mergeCells count="4">
@@ -17937,24 +17908,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI245"/>
   <sheetViews>
     <sheetView topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="96" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="68" customWidth="1"/>
-    <col min="3" max="3" width="100.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="96" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="68" customWidth="1"/>
+    <col min="3" max="3" width="100.5546875" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AE1" t="s">
         <v>796</v>
       </c>
@@ -17962,8 +17933,8 @@
         <v>797</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="175" t="s">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A2" s="178" t="s">
         <v>658</v>
       </c>
       <c r="B2" s="69" t="s">
@@ -17979,8 +17950,8 @@
         <v>957</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="176"/>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A3" s="179"/>
       <c r="B3" s="69" t="s">
         <v>421</v>
       </c>
@@ -18000,8 +17971,8 @@
         <v>960</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="176"/>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A4" s="179"/>
       <c r="B4" s="69" t="s">
         <v>297</v>
       </c>
@@ -18012,8 +17983,8 @@
         <v>939</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="176"/>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A5" s="179"/>
       <c r="B5" s="69" t="s">
         <v>642</v>
       </c>
@@ -18027,8 +17998,8 @@
         <v>942</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="176"/>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A6" s="179"/>
       <c r="B6" s="69" t="s">
         <v>644</v>
       </c>
@@ -18039,7 +18010,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B7" s="69"/>
       <c r="AE7" s="5" t="s">
         <v>943</v>
@@ -18048,7 +18019,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B8" s="70" t="s">
         <v>398</v>
       </c>
@@ -18059,7 +18030,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B9" s="70" t="s">
         <v>680</v>
       </c>
@@ -18067,7 +18038,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B10" s="70" t="s">
         <v>681</v>
       </c>
@@ -18075,7 +18046,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B11" s="70" t="s">
         <v>685</v>
       </c>
@@ -18083,7 +18054,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B12" s="70" t="s">
         <v>691</v>
       </c>
@@ -18091,8 +18062,8 @@
         <v>692</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="180" t="s">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A13" s="183" t="s">
         <v>984</v>
       </c>
       <c r="B13" s="70" t="s">
@@ -18102,8 +18073,8 @@
         <v>983</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="181"/>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A14" s="184"/>
       <c r="B14" s="70" t="s">
         <v>988</v>
       </c>
@@ -18111,8 +18082,8 @@
         <v>978</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="181"/>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A15" s="184"/>
       <c r="B15" s="70" t="s">
         <v>987</v>
       </c>
@@ -18120,8 +18091,8 @@
         <v>979</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="181"/>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A16" s="184"/>
       <c r="B16" s="70" t="s">
         <v>986</v>
       </c>
@@ -18129,8 +18100,8 @@
         <v>980</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="181"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="184"/>
       <c r="B17" s="70" t="s">
         <v>985</v>
       </c>
@@ -18138,8 +18109,8 @@
         <v>981</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="172" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="175" t="s">
         <v>400</v>
       </c>
       <c r="B18" s="70" t="s">
@@ -18149,8 +18120,8 @@
         <v>546</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="172"/>
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="175"/>
       <c r="B19" s="71" t="s">
         <v>482</v>
       </c>
@@ -18158,8 +18129,8 @@
         <v>483</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="172"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="175"/>
       <c r="B20" s="71" t="s">
         <v>544</v>
       </c>
@@ -18167,8 +18138,8 @@
         <v>545</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="172"/>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="175"/>
       <c r="B21" s="71" t="s">
         <v>1020</v>
       </c>
@@ -18176,8 +18147,8 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="172"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="175"/>
       <c r="B22" s="71" t="s">
         <v>548</v>
       </c>
@@ -18185,7 +18156,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="159"/>
       <c r="B23" s="71" t="s">
         <v>1016</v>
@@ -18194,7 +18165,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="159"/>
       <c r="B24" s="71" t="s">
         <v>1018</v>
@@ -18203,7 +18174,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="98"/>
       <c r="B25" s="71" t="s">
         <v>550</v>
@@ -18212,7 +18183,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26" s="70" t="s">
         <v>403</v>
       </c>
@@ -18220,7 +18191,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" s="70" t="s">
         <v>405</v>
       </c>
@@ -18231,7 +18202,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" s="70" t="s">
         <v>409</v>
       </c>
@@ -18242,7 +18213,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="70" t="s">
         <v>491</v>
       </c>
@@ -18253,7 +18224,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="70" t="s">
         <v>410</v>
       </c>
@@ -18261,7 +18232,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" s="70" t="s">
         <v>412</v>
       </c>
@@ -18269,7 +18240,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" s="70" t="s">
         <v>414</v>
       </c>
@@ -18277,7 +18248,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B33" s="71" t="s">
         <v>416</v>
       </c>
@@ -18285,7 +18256,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" s="70" t="s">
         <v>419</v>
       </c>
@@ -18293,7 +18264,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35" s="70" t="s">
         <v>422</v>
       </c>
@@ -18301,7 +18272,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36" s="70" t="s">
         <v>425</v>
       </c>
@@ -18309,13 +18280,13 @@
         <v>426</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B37" s="70" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="173" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="176" t="s">
         <v>610</v>
       </c>
       <c r="B38" s="113" t="s">
@@ -18325,8 +18296,8 @@
         <v>427</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="174"/>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="177"/>
       <c r="B39" s="113" t="s">
         <v>577</v>
       </c>
@@ -18334,8 +18305,8 @@
         <v>493</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="174"/>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="177"/>
       <c r="B40" s="113" t="s">
         <v>611</v>
       </c>
@@ -18343,8 +18314,8 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="174"/>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="177"/>
       <c r="B41" s="113" t="s">
         <v>436</v>
       </c>
@@ -18352,8 +18323,8 @@
         <v>608</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="174"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="177"/>
       <c r="B42" s="113" t="s">
         <v>1010</v>
       </c>
@@ -18361,8 +18332,8 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="174"/>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="177"/>
       <c r="B43" s="113" t="s">
         <v>1012</v>
       </c>
@@ -18370,8 +18341,8 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="174"/>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="177"/>
       <c r="B44" s="113" t="s">
         <v>708</v>
       </c>
@@ -18379,8 +18350,8 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="174"/>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="177"/>
       <c r="B45" s="113" t="s">
         <v>612</v>
       </c>
@@ -18388,7 +18359,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="117"/>
       <c r="B46" s="70" t="s">
         <v>683</v>
@@ -18397,14 +18368,14 @@
         <v>695</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="117"/>
       <c r="B47" s="116" t="s">
         <v>684</v>
       </c>
       <c r="C47" s="112"/>
     </row>
-    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B48" s="71" t="s">
         <v>428</v>
       </c>
@@ -18412,7 +18383,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B49" s="71" t="s">
         <v>429</v>
       </c>
@@ -18420,7 +18391,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B50" s="71" t="s">
         <v>431</v>
       </c>
@@ -18428,11 +18399,11 @@
         <v>432</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B51" s="71"/>
     </row>
-    <row r="52" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="171" t="s">
+    <row r="52" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="174" t="s">
         <v>538</v>
       </c>
       <c r="B52" s="71" t="s">
@@ -18442,8 +18413,8 @@
         <v>540</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="171"/>
+    <row r="53" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="174"/>
       <c r="B53" s="71" t="s">
         <v>537</v>
       </c>
@@ -18451,8 +18422,8 @@
         <v>989</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="171"/>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="174"/>
       <c r="B54" s="71" t="s">
         <v>535</v>
       </c>
@@ -18460,11 +18431,11 @@
         <v>539</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B55" s="71"/>
       <c r="C55" s="66"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B56" s="71" t="s">
         <v>436</v>
       </c>
@@ -18472,7 +18443,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B57" s="71" t="s">
         <v>453</v>
       </c>
@@ -18480,7 +18451,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B58" s="70" t="s">
         <v>489</v>
       </c>
@@ -18488,7 +18459,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="B59" s="71" t="s">
         <v>495</v>
       </c>
@@ -18496,7 +18467,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B60" s="70" t="s">
         <v>521</v>
       </c>
@@ -18504,11 +18475,11 @@
         <v>520</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B61" s="70"/>
       <c r="C61" s="109"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B62" s="70" t="s">
         <v>601</v>
       </c>
@@ -18516,7 +18487,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B63" s="70" t="s">
         <v>602</v>
       </c>
@@ -18524,7 +18495,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B64" s="70" t="s">
         <v>604</v>
       </c>
@@ -18532,7 +18503,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="70" t="s">
         <v>606</v>
       </c>
@@ -18540,7 +18511,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="70" t="s">
         <v>615</v>
       </c>
@@ -18548,7 +18519,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="70" t="s">
         <v>617</v>
       </c>
@@ -18556,7 +18527,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="70" t="s">
         <v>619</v>
       </c>
@@ -18564,7 +18535,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="70" t="s">
         <v>621</v>
       </c>
@@ -18572,27 +18543,27 @@
         <v>622</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="70" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="70" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="70" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="70" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="70" t="s">
         <v>1009</v>
       </c>
@@ -18600,17 +18571,17 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="70" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="70" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="70" t="s">
         <v>992</v>
       </c>
@@ -18618,7 +18589,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="70" t="s">
         <v>994</v>
       </c>
@@ -18626,7 +18597,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="70" t="s">
         <v>996</v>
       </c>
@@ -18634,7 +18605,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" s="70" t="s">
         <v>998</v>
       </c>
@@ -18642,7 +18613,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B81" s="70" t="s">
         <v>1000</v>
       </c>
@@ -18650,10 +18621,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B82" s="70"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B83" s="70" t="s">
         <v>640</v>
       </c>
@@ -18661,7 +18632,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B84" s="70" t="s">
         <v>646</v>
       </c>
@@ -18669,8 +18640,8 @@
         <v>647</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="177" t="s">
+    <row r="85" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="180" t="s">
         <v>661</v>
       </c>
       <c r="B85" s="118" t="s">
@@ -18680,8 +18651,8 @@
         <v>649</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="178"/>
+    <row r="86" spans="1:3" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="181"/>
       <c r="B86" s="120" t="s">
         <v>650</v>
       </c>
@@ -18689,8 +18660,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="178"/>
+    <row r="87" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="181"/>
       <c r="B87" s="120" t="s">
         <v>656</v>
       </c>
@@ -18698,8 +18669,8 @@
         <v>657</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="178"/>
+    <row r="88" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="181"/>
       <c r="B88" s="123" t="s">
         <v>653</v>
       </c>
@@ -18707,8 +18678,8 @@
         <v>652</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="178"/>
+    <row r="89" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="181"/>
       <c r="B89" s="120" t="s">
         <v>654</v>
       </c>
@@ -18716,8 +18687,8 @@
         <v>655</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="178"/>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="181"/>
       <c r="B90" s="120" t="s">
         <v>742</v>
       </c>
@@ -18725,8 +18696,8 @@
         <v>743</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="178"/>
+    <row r="91" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="181"/>
       <c r="B91" s="124" t="s">
         <v>659</v>
       </c>
@@ -18734,8 +18705,8 @@
         <v>660</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="178"/>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="181"/>
       <c r="B92" s="124" t="s">
         <v>662</v>
       </c>
@@ -18743,8 +18714,8 @@
         <v>663</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="178"/>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="181"/>
       <c r="B93" s="124" t="s">
         <v>664</v>
       </c>
@@ -18752,8 +18723,8 @@
         <v>665</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="178"/>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="181"/>
       <c r="B94" s="124" t="s">
         <v>666</v>
       </c>
@@ -18761,8 +18732,8 @@
         <v>667</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="179"/>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="182"/>
       <c r="B95" s="125" t="s">
         <v>668</v>
       </c>
@@ -18770,23 +18741,23 @@
         <v>669</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="127"/>
       <c r="B96" s="118" t="s">
         <v>670</v>
       </c>
-      <c r="C96" s="169" t="s">
+      <c r="C96" s="172" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="128"/>
       <c r="B97" s="124" t="s">
         <v>671</v>
       </c>
-      <c r="C97" s="170"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="173"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="128"/>
       <c r="B98" s="124" t="s">
         <v>734</v>
@@ -18795,7 +18766,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="128"/>
       <c r="B99" s="124" t="s">
         <v>736</v>
@@ -18804,7 +18775,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="128"/>
       <c r="B100" s="124" t="s">
         <v>672</v>
@@ -18813,7 +18784,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="128"/>
       <c r="B101" s="124" t="s">
         <v>675</v>
@@ -18822,7 +18793,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="128"/>
       <c r="B102" s="123" t="s">
         <v>677</v>
@@ -18831,7 +18802,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="130"/>
       <c r="B103" s="125" t="s">
         <v>732</v>
@@ -18840,7 +18811,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B104" s="70" t="s">
         <v>696</v>
       </c>
@@ -18849,7 +18820,7 @@
       </c>
       <c r="D104" s="89"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B105" s="70" t="s">
         <v>705</v>
       </c>
@@ -18857,7 +18828,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B106" s="70" t="s">
         <v>708</v>
       </c>
@@ -18865,12 +18836,12 @@
         <v>707</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B107" s="70" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B108" s="70" t="s">
         <v>744</v>
       </c>
@@ -18878,400 +18849,400 @@
         <v>745</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B109" s="70"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" s="70"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="70"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="70"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" s="70"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" s="70"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" s="70"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" s="70"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" s="70"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" s="70"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124" s="70"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" s="70"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" s="70"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" s="70"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128" s="70"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" s="70"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" s="70"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" s="70"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" s="70"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" s="70"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" s="70"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" s="70"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" s="70"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" s="70"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" s="70"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" s="70"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" s="70"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" s="70"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" s="70"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" s="70"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" s="70"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" s="70"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" s="70"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" s="70"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" s="70"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" s="70"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" s="70"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" s="70"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" s="70"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" s="70"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" s="70"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" s="70"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" s="70"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" s="70"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" s="70"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" s="70"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" s="70"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" s="70"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162" s="70"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163" s="70"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164" s="70"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165" s="70"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" s="70"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167" s="70"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168" s="70"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169" s="70"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170" s="70"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171" s="70"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B172" s="70"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173" s="70"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B174" s="70"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175" s="70"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B176" s="70"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177" s="70"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" s="70"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" s="70"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180" s="70"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" s="70"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" s="70"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" s="70"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" s="70"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185" s="70"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186" s="70"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" s="70"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188" s="70"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189" s="70"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190" s="70"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191" s="70"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192" s="70"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" s="70"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" s="70"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" s="70"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" s="70"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" s="70"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" s="70"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" s="70"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" s="70"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201" s="70"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B202" s="70"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" s="70"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B204" s="70"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B205" s="70"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B206" s="70"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B207" s="70"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B208" s="70"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" s="70"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B210" s="70"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" s="70"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212" s="70"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" s="70"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B214" s="70"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215" s="70"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216" s="70"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B217" s="70"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218" s="70"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219" s="70"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B220" s="70"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221" s="70"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B222" s="70"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B223" s="70"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B224" s="70"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" s="70"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B226" s="70"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" s="70"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" s="70"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" s="70"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" s="70"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" s="70"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B232" s="70"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B233" s="70"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B234" s="70"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B235" s="70"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B236" s="70"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B237" s="70"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B238" s="70"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B239" s="70"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B240" s="70"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B241" s="70"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B242" s="70"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B243" s="70"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B244" s="70"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B245" s="70"/>
     </row>
   </sheetData>
@@ -19285,9 +19256,9 @@
     <mergeCell ref="A13:A17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AE6" r:id="rId1" display="/@import" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="AE7" r:id="rId2" display="/@import" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="AF7" r:id="rId3" display="/@import" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="AE6" r:id="rId1" display="/@import"/>
+    <hyperlink ref="AE7" r:id="rId2" display="/@import"/>
+    <hyperlink ref="AF7" r:id="rId3" display="/@import"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -19297,20 +19268,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B387"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="76" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" style="76" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="74" t="s">
         <v>443</v>
       </c>
@@ -19318,7 +19289,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
         <v>441</v>
       </c>
@@ -19326,7 +19297,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="75" t="s">
         <v>446</v>
       </c>
@@ -19334,7 +19305,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="75" t="s">
         <v>448</v>
       </c>
@@ -19342,7 +19313,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="75" t="s">
         <v>450</v>
       </c>
@@ -19350,7 +19321,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="76" t="s">
         <v>971</v>
       </c>
@@ -19358,64 +19329,68 @@
         <v>968</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="75" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="75" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="75"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="75"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="75" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="75" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="75"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="75"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="75"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="75"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="75"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="75"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="75"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="75"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="75"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="75"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="75"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="75"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="75" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="75" t="s">
         <v>524</v>
       </c>
@@ -19423,7 +19398,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="75" t="s">
         <v>700</v>
       </c>
@@ -19431,7 +19406,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="75" t="s">
         <v>698</v>
       </c>
@@ -19439,27 +19414,27 @@
         <v>699</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="75" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="75" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="75" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="75" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="75" t="s">
         <v>501</v>
       </c>
@@ -19467,7 +19442,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="75" t="s">
         <v>505</v>
       </c>
@@ -19475,12 +19450,12 @@
         <v>503</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="75" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="75" t="s">
         <v>508</v>
       </c>
@@ -19488,12 +19463,12 @@
         <v>510</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="75" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="75" t="s">
         <v>514</v>
       </c>
@@ -19501,12 +19476,12 @@
         <v>515</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="75" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="75" t="s">
         <v>518</v>
       </c>
@@ -19514,17 +19489,17 @@
         <v>517</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="75" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="75" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="75" t="s">
         <v>525</v>
       </c>
@@ -19532,1048 +19507,1048 @@
         <v>526</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="75"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="75"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="75"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="75"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="75"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="75"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="75"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="75"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="75"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="75"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="75"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="75"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="75"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="75"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="75"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="75"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="75"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="75"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="75"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="75"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="75"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="75"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="75"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="75"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="75"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="75"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="75"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="75"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="75"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="75"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="75"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="75"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="75"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="75"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="75"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="75"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="75"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="75"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="75"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="75"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="75"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="75"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="75"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="75"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="75"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="75"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="75"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="75"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="75"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="75"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="75"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="75"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="75"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="75"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="75"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="75"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="75"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="75"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="75"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="75"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="75"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="75"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="75"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="75"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="75"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="75"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="75"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="75"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="75"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="75"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="75"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="75"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="75"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="75"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="75"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="75"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="75"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="75"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="75"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="75"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="75"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="75"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="75"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="75"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="75"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="75"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="75"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="75"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="75"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="75"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="75"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="75"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="75"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="75"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="75"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="75"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="75"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="75"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="75"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="75"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="75"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="75"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="75"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="75"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="75"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="75"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="75"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="75"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="75"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="75"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="75"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="75"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="75"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="75"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="75"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="75"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="75"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="75"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="75"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="75"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="75"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="75"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="75"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="75"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="75"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="75"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="75"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="75"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="75"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="75"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="75"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="75"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="75"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="75"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="75"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="75"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="75"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="75"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="75"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="75"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="75"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="75"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="75"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="75"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="75"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="75"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="75"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="75"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="75"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="75"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="75"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="75"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="75"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="75"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="75"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="75"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="75"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="75"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="75"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="75"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="75"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="75"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="75"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="75"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="75"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="75"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="75"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="75"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="75"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="75"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="75"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="75"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="75"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="75"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="75"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="75"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="75"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="75"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="75"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="75"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="75"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="75"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="75"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="75"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="75"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="75"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="75"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="75"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="75"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="75"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="75"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="75"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="75"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="75"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="75"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="75"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="75"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="75"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="75"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="75"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="75"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="75"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="75"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="75"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="75"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="75"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="75"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="75"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="75"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="75"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="75"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="75"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="75"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="75"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="75"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="75"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="75"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="75"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="75"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="75"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="75"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="75"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="75"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="75"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="75"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="75"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="75"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="75"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="75"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="75"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="75"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="75"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="75"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="75"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="75"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="75"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="75"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="75"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="75"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="75"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="75"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="75"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="75"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="75"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="75"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="75"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="75"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="75"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="75"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="75"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="75"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="75"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="75"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="75"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="75"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="75"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="75"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="75"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="75"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="75"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" s="75"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" s="75"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" s="75"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" s="75"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" s="75"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" s="75"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" s="75"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" s="75"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" s="75"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" s="75"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" s="75"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" s="75"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" s="75"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" s="75"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" s="75"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" s="75"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" s="75"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" s="75"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" s="75"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" s="75"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" s="75"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" s="75"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" s="75"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" s="75"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" s="75"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" s="75"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" s="75"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" s="75"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" s="75"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" s="75"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" s="75"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" s="75"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" s="75"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" s="75"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" s="75"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" s="75"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" s="75"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" s="75"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" s="75"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" s="75"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" s="75"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" s="75"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" s="75"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" s="75"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" s="75"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347" s="75"/>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348" s="75"/>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349" s="75"/>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350" s="75"/>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351" s="75"/>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352" s="75"/>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" s="75"/>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354" s="75"/>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355" s="75"/>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356" s="75"/>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357" s="75"/>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358" s="75"/>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359" s="75"/>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360" s="75"/>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361" s="75"/>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" s="75"/>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363" s="75"/>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364" s="75"/>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" s="75"/>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366" s="75"/>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367" s="75"/>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368" s="75"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369" s="75"/>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370" s="75"/>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371" s="75"/>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372" s="75"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373" s="75"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374" s="75"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375" s="75"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376" s="75"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377" s="75"/>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378" s="75"/>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379" s="75"/>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380" s="75"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381" s="75"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382" s="75"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383" s="75"/>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384" s="75"/>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385" s="75"/>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386" s="75"/>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387" s="75"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Global_Objects/String/slice" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Global_Objects/String/padStart" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Global_Objects/String/slice"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Global_Objects/String/padStart"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -20582,20 +20557,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00DFD50-30DD-4D86-92C2-189A5C1A8FAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1025</v>
       </c>
@@ -20603,7 +20578,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1026</v>
       </c>
@@ -20611,7 +20586,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1033</v>
       </c>
@@ -20619,12 +20594,12 @@
         <v>569</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1028</v>
       </c>
@@ -20632,7 +20607,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1029</v>
       </c>
@@ -20640,7 +20615,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1035</v>
       </c>
@@ -20648,7 +20623,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>1034</v>
       </c>
@@ -20656,77 +20631,77 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>1052</v>
       </c>
@@ -20739,168 +20714,168 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1317179D-331E-469B-86FC-C038BF68F0D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="197" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85" style="198" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" style="162" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85" style="163" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="162" t="s">
         <v>1053</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="161" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="197" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="162" t="s">
         <v>1055</v>
       </c>
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="163" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="197" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="162" t="s">
         <v>1056</v>
       </c>
-      <c r="B3" s="198" t="s">
+      <c r="B3" s="163" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="197" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="162" t="s">
         <v>1058</v>
       </c>
-      <c r="B4" s="198" t="s">
+      <c r="B4" s="163" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="197" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="162" t="s">
         <v>1060</v>
       </c>
-      <c r="B5" s="198" t="s">
+      <c r="B5" s="163" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="197" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="162" t="s">
         <v>1062</v>
       </c>
-      <c r="B6" s="198" t="s">
+      <c r="B6" s="163" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="197" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="162" t="s">
         <v>1065</v>
       </c>
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="163" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="197" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="162" t="s">
         <v>1066</v>
       </c>
-      <c r="B8" s="198" t="s">
+      <c r="B8" s="163" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="197" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="162" t="s">
         <v>1068</v>
       </c>
-      <c r="B9" s="198" t="s">
+      <c r="B9" s="163" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="197" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="162" t="s">
         <v>1070</v>
       </c>
-      <c r="B11" s="198" t="s">
+      <c r="B11" s="163" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="197" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="162" t="s">
         <v>1072</v>
       </c>
-      <c r="B12" s="198" t="s">
+      <c r="B12" s="163" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="197" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="162" t="s">
         <v>1074</v>
       </c>
-      <c r="B13" s="198" t="s">
+      <c r="B13" s="163" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="197" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="162" t="s">
         <v>1076</v>
       </c>
-      <c r="B14" s="198" t="s">
+      <c r="B14" s="163" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="197" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="162" t="s">
         <v>1078</v>
       </c>
-      <c r="B15" s="198" t="s">
+      <c r="B15" s="163" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="197" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="162" t="s">
         <v>1080</v>
       </c>
-      <c r="B16" s="198" t="s">
+      <c r="B16" s="163" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="197" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="162" t="s">
         <v>1082</v>
       </c>
-      <c r="B17" s="198" t="s">
+      <c r="B17" s="163" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="197" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="162" t="s">
         <v>1084</v>
       </c>
-      <c r="B18" s="198" t="s">
+      <c r="B18" s="163" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="197" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="162" t="s">
         <v>1087</v>
       </c>
-      <c r="B19" s="198" t="s">
+      <c r="B19" s="163" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="197" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="162" t="s">
         <v>1089</v>
       </c>
-      <c r="B20" s="198" t="s">
+      <c r="B20" s="163" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -20911,20 +20886,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="75"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="75"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="75" t="s">
         <v>528</v>
       </c>
@@ -20932,7 +20907,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
         <v>531</v>
       </c>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC47AF6-EA1C-41EB-A83C-F354354C58F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-168" yWindow="1320" windowWidth="11760" windowHeight="13176" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="7410" yWindow="855" windowWidth="14880" windowHeight="13005" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="1" r:id="rId1"/>
@@ -26,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="0">
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -66,12 +67,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -146,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -176,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -201,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -268,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -294,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -320,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -335,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0">
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -361,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0">
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -375,7 +376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0">
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -390,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E29" authorId="0">
+    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -405,7 +406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F29" authorId="0">
+    <comment ref="F29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
@@ -516,7 +517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0">
+    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
         <r>
           <rPr>
@@ -542,7 +543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
         <r>
           <rPr>
@@ -568,7 +569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0">
+    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
           <rPr>
@@ -583,7 +584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C33" authorId="0">
+    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
       <text>
         <r>
           <rPr>
@@ -598,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D33" authorId="0">
+    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
       <text>
         <r>
           <rPr>
@@ -624,7 +625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D35" authorId="0">
+    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
       <text>
         <r>
           <rPr>
@@ -644,7 +645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E35" authorId="0">
+    <comment ref="E35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
       <text>
         <r>
           <rPr>
@@ -664,7 +665,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="0">
+    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
       <text>
         <r>
           <rPr>
@@ -690,7 +691,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C40" authorId="0">
+    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -704,7 +705,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C41" authorId="0">
+    <comment ref="C41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -730,7 +731,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C97" authorId="0">
+    <comment ref="C97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -750,12 +751,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A27" authorId="0">
+    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -795,7 +796,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0">
+    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -812,7 +813,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A36" authorId="0">
+    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -859,7 +860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0">
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -893,7 +894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A47" authorId="0">
+    <comment ref="A47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -926,12 +927,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -948,7 +949,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1061,7 +1062,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1086,7 +1087,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0">
+    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1108,7 +1109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="0">
+    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1131,7 +1132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="0">
+    <comment ref="A38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1153,7 +1154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B54" authorId="0">
+    <comment ref="B54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1172,7 +1173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B57" authorId="0">
+    <comment ref="B57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1329,7 +1330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B58" authorId="0">
+    <comment ref="B58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1348,7 +1349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B95" authorId="0">
+    <comment ref="B95" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1366,7 +1367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B107" authorId="0">
+    <comment ref="B107" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1450,7 +1451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="1098">
   <si>
     <t>максимальное значение переменной</t>
   </si>
@@ -8660,9 +8661,6 @@
     <t>hides all elements</t>
   </si>
   <si>
-    <t>$("p/./#").hide()</t>
-  </si>
-  <si>
     <t>$("p/./#").html()</t>
   </si>
   <si>
@@ -8862,12 +8860,30 @@
   </si>
   <si>
     <t>prompt()/confirm()/alert()</t>
+  </si>
+  <si>
+    <t>.shift()/.unshift()/.join()</t>
+  </si>
+  <si>
+    <t>.slideUp/.slideDown</t>
+  </si>
+  <si>
+    <t>fade занимает место</t>
+  </si>
+  <si>
+    <t>элементы исчезают, уплывая вверх - не занимает</t>
+  </si>
+  <si>
+    <t>$("p/./#").hide()/.show()</t>
+  </si>
+  <si>
+    <t>.fadeOut(ms)/.fadeIn(ms)/.fadeTo(ms, 0-1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0&quot;р.&quot;"/>
   </numFmts>
@@ -10288,13 +10304,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10348,10 +10364,10 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10363,18 +10379,6 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10382,6 +10386,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10428,7 +10444,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10472,7 +10488,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10521,7 +10537,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10570,7 +10586,7 @@
         <xdr:cNvPr id="10" name="Рисунок 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10620,7 +10636,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10670,7 +10686,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10720,7 +10736,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10770,7 +10786,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10820,7 +10836,7 @@
         <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10870,7 +10886,7 @@
         <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10920,7 +10936,7 @@
         <xdr:cNvPr id="8" name="Рисунок 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10970,7 +10986,7 @@
         <xdr:cNvPr id="9" name="Рисунок 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11020,7 +11036,7 @@
         <xdr:cNvPr id="11" name="Рисунок 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11070,7 +11086,7 @@
         <xdr:cNvPr id="12" name="Рисунок 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11125,7 +11141,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11169,7 +11185,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11213,7 +11229,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11257,7 +11273,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11301,7 +11317,7 @@
         <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11345,7 +11361,7 @@
         <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11389,7 +11405,7 @@
         <xdr:cNvPr id="8" name="Рисунок 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11433,7 +11449,7 @@
         <xdr:cNvPr id="10" name="Рисунок 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D7B343C-A3ED-4FC7-9C61-E2FAC866C9AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7B343C-A3ED-4FC7-9C61-E2FAC866C9AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11488,7 +11504,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11538,7 +11554,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11582,7 +11598,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11626,7 +11642,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11676,7 +11692,7 @@
         <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11720,7 +11736,7 @@
         <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11764,7 +11780,7 @@
         <xdr:cNvPr id="8" name="Рисунок 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11808,7 +11824,7 @@
         <xdr:cNvPr id="9" name="Рисунок 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11857,7 +11873,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11901,7 +11917,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11936,7 +11952,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4874425</xdr:colOff>
+      <xdr:colOff>4560100</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
@@ -11945,7 +11961,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11994,7 +12010,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{054E37CF-64A3-416F-807D-1909E1878560}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{054E37CF-64A3-416F-807D-1909E1878560}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12038,7 +12054,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46D16BBE-77A1-4FB5-B99E-BD4C46623750}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D16BBE-77A1-4FB5-B99E-BD4C46623750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12087,7 +12103,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12136,7 +12152,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12180,7 +12196,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12224,7 +12240,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12268,7 +12284,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12317,7 +12333,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12361,7 +12377,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12405,7 +12421,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12477,7 +12493,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12510,9 +12526,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12545,6 +12578,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -12720,21 +12770,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -12742,7 +12792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -12753,7 +12803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -12764,7 +12814,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -12772,7 +12822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -12780,7 +12830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -12788,7 +12838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -12796,7 +12846,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -12807,7 +12857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -12815,7 +12865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -12823,7 +12873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
@@ -12831,7 +12881,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
@@ -12839,7 +12889,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
@@ -12847,7 +12897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
@@ -12855,7 +12905,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -12863,7 +12913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -12871,7 +12921,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -12879,7 +12929,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -12887,7 +12937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -12895,7 +12945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -12903,7 +12953,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -12911,7 +12961,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -12919,7 +12969,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -12927,7 +12977,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
@@ -12938,7 +12988,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -12946,7 +12996,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -12954,7 +13004,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -12962,7 +13012,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -12970,7 +13020,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
@@ -12978,7 +13028,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
@@ -12986,7 +13036,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -12994,7 +13044,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
@@ -13005,7 +13055,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
@@ -13013,7 +13063,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
@@ -13021,7 +13071,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>71</v>
       </c>
@@ -13029,7 +13079,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
@@ -13037,7 +13087,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>76</v>
       </c>
@@ -13045,7 +13095,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
@@ -13053,7 +13103,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
@@ -13061,7 +13111,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>83</v>
       </c>
@@ -13072,7 +13122,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>85</v>
       </c>
@@ -13080,7 +13130,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>86</v>
       </c>
@@ -13088,12 +13138,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>90</v>
       </c>
@@ -13101,7 +13151,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>93</v>
       </c>
@@ -13109,7 +13159,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>94</v>
       </c>
@@ -13117,7 +13167,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>96</v>
       </c>
@@ -13125,7 +13175,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>98</v>
       </c>
@@ -13133,7 +13183,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>100</v>
       </c>
@@ -13141,7 +13191,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>102</v>
       </c>
@@ -13149,7 +13199,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>104</v>
       </c>
@@ -13157,7 +13207,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>106</v>
       </c>
@@ -13165,7 +13215,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>108</v>
       </c>
@@ -13173,7 +13223,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>111</v>
       </c>
@@ -13181,7 +13231,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>113</v>
       </c>
@@ -13189,12 +13239,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>115</v>
       </c>
@@ -13202,7 +13252,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>117</v>
       </c>
@@ -13210,7 +13260,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>126</v>
       </c>
@@ -13218,17 +13268,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>130</v>
       </c>
@@ -13236,32 +13286,32 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>137</v>
       </c>
@@ -13269,12 +13319,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>140</v>
       </c>
@@ -13282,59 +13332,59 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="42" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
     </row>
-    <row r="89" spans="1:2" ht="51" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="52.5" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
     </row>
-    <row r="91" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="42" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
     </row>
-    <row r="93" spans="1:2" ht="51" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="52.5" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
     </row>
-    <row r="95" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="42" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
     </row>
-    <row r="97" spans="1:1" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" ht="42" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C27" r:id="rId1"/>
+    <hyperlink ref="C27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -13343,50 +13393,50 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="135" t="s">
         <v>533</v>
       </c>
       <c r="B1" s="81"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="132">
         <v>4</v>
       </c>
       <c r="B2" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="193" t="s">
+      <c r="C2" s="185" t="s">
         <v>300</v>
       </c>
       <c r="D2" s="86"/>
       <c r="E2" s="87"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="83">
         <v>5</v>
       </c>
       <c r="B3" s="88" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="191"/>
+      <c r="C3" s="186"/>
       <c r="D3" s="89" t="s">
         <v>308</v>
       </c>
@@ -13394,38 +13444,38 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="83">
         <v>6</v>
       </c>
       <c r="B4" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="191" t="s">
+      <c r="C4" s="186" t="s">
         <v>309</v>
       </c>
       <c r="D4" s="89"/>
       <c r="E4" s="90"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="83">
         <v>7</v>
       </c>
       <c r="B5" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="191"/>
+      <c r="C5" s="186"/>
       <c r="D5" s="89"/>
       <c r="E5" s="90"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="83">
         <v>8</v>
       </c>
       <c r="B6" s="91" t="s">
         <v>396</v>
       </c>
-      <c r="C6" s="191"/>
+      <c r="C6" s="186"/>
       <c r="D6" s="89" t="s">
         <v>437</v>
       </c>
@@ -13433,29 +13483,29 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="83">
         <v>9</v>
       </c>
       <c r="B7" s="140" t="s">
         <v>437</v>
       </c>
-      <c r="C7" s="191"/>
+      <c r="C7" s="186"/>
       <c r="D7" s="89"/>
       <c r="E7" s="90"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="83">
         <v>10</v>
       </c>
       <c r="B8" s="142" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="192"/>
+      <c r="C8" s="196"/>
       <c r="D8" s="138"/>
       <c r="E8" s="139"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="83">
         <v>11</v>
       </c>
@@ -13471,7 +13521,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="83">
         <v>12</v>
       </c>
@@ -13482,7 +13532,7 @@
       <c r="D10" s="89"/>
       <c r="E10" s="90"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="83">
         <v>13</v>
       </c>
@@ -13493,7 +13543,7 @@
       <c r="D11" s="89"/>
       <c r="E11" s="90"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="83">
         <v>14</v>
       </c>
@@ -13504,7 +13554,7 @@
       <c r="D12" s="89"/>
       <c r="E12" s="90"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="83">
         <v>15</v>
       </c>
@@ -13517,7 +13567,7 @@
       </c>
       <c r="E13" s="90"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="83">
         <v>16</v>
       </c>
@@ -13528,7 +13578,7 @@
       <c r="D14" s="89"/>
       <c r="E14" s="90"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="83">
         <v>17</v>
       </c>
@@ -13539,7 +13589,7 @@
       <c r="D15" s="138"/>
       <c r="E15" s="139"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="83">
         <v>18</v>
       </c>
@@ -13556,7 +13606,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="83">
         <v>19</v>
       </c>
@@ -13567,7 +13617,7 @@
       <c r="D17" s="89"/>
       <c r="E17" s="90"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="83">
         <v>20</v>
       </c>
@@ -13578,7 +13628,7 @@
       <c r="D18" s="89"/>
       <c r="E18" s="90"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="83">
         <v>21</v>
       </c>
@@ -13593,7 +13643,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="83">
         <v>22</v>
       </c>
@@ -13604,31 +13654,31 @@
       <c r="D20" s="89"/>
       <c r="E20" s="90"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="194">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="190">
         <v>23</v>
       </c>
       <c r="B21" s="140" t="s">
         <v>532</v>
       </c>
       <c r="C21" s="188"/>
-      <c r="D21" s="185" t="s">
+      <c r="D21" s="193" t="s">
         <v>679</v>
       </c>
-      <c r="E21" s="186" t="s">
+      <c r="E21" s="194" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="194"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="190"/>
       <c r="B22" s="140" t="s">
         <v>497</v>
       </c>
       <c r="C22" s="188"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="186"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="193"/>
+      <c r="E22" s="194"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="83">
         <v>24</v>
       </c>
@@ -13639,20 +13689,20 @@
       <c r="D23" s="138"/>
       <c r="E23" s="139"/>
     </row>
-    <row r="24" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="83">
         <v>25</v>
       </c>
       <c r="B24" s="91" t="s">
         <v>639</v>
       </c>
-      <c r="C24" s="195" t="s">
+      <c r="C24" s="191" t="s">
         <v>511</v>
       </c>
       <c r="D24" s="89"/>
       <c r="E24" s="90"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="115">
         <v>26</v>
       </c>
@@ -13663,7 +13713,7 @@
       <c r="D25" s="89"/>
       <c r="E25" s="90"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="83">
         <v>27</v>
       </c>
@@ -13674,7 +13724,7 @@
       <c r="D26" s="89"/>
       <c r="E26" s="90"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="83">
         <v>28</v>
       </c>
@@ -13685,7 +13735,7 @@
       <c r="D27" s="89"/>
       <c r="E27" s="90"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="83">
         <v>29</v>
       </c>
@@ -13698,7 +13748,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="83">
         <v>30</v>
       </c>
@@ -13709,24 +13759,24 @@
       <c r="D29" s="89"/>
       <c r="E29" s="90"/>
     </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="84">
         <v>31</v>
       </c>
       <c r="B30" s="141" t="s">
         <v>686</v>
       </c>
-      <c r="C30" s="196"/>
+      <c r="C30" s="192"/>
       <c r="D30" s="77"/>
       <c r="E30" s="92"/>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="135" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="84">
         <v>1</v>
       </c>
@@ -13739,7 +13789,7 @@
       <c r="D33" s="86"/>
       <c r="E33" s="87"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="134">
         <v>2</v>
       </c>
@@ -13750,7 +13800,7 @@
       <c r="D34" s="89"/>
       <c r="E34" s="90"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="134">
         <v>3</v>
       </c>
@@ -13765,7 +13815,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="134">
         <v>4</v>
       </c>
@@ -13776,7 +13826,7 @@
       <c r="D36" s="89"/>
       <c r="E36" s="90"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="134">
         <v>5</v>
       </c>
@@ -13787,7 +13837,7 @@
       <c r="D37" s="89"/>
       <c r="E37" s="90"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="134">
         <v>6</v>
       </c>
@@ -13798,7 +13848,7 @@
       <c r="D38" s="89"/>
       <c r="E38" s="90"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="134">
         <v>7</v>
       </c>
@@ -13809,7 +13859,7 @@
       <c r="D39" s="138"/>
       <c r="E39" s="139"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="134">
         <v>8</v>
       </c>
@@ -13820,7 +13870,7 @@
       <c r="D40" s="89"/>
       <c r="E40" s="90"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="134">
         <v>9</v>
       </c>
@@ -13831,7 +13881,7 @@
       <c r="D41" s="89"/>
       <c r="E41" s="90"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="134">
         <v>10</v>
       </c>
@@ -13849,7 +13899,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="134">
         <v>11</v>
       </c>
@@ -13862,7 +13912,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="134">
         <v>12</v>
       </c>
@@ -13875,7 +13925,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="134">
         <v>13</v>
       </c>
@@ -13888,7 +13938,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="134">
         <v>14</v>
       </c>
@@ -13901,7 +13951,7 @@
       <c r="D46" s="138"/>
       <c r="E46" s="139"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="134">
         <v>15</v>
       </c>
@@ -13914,7 +13964,7 @@
       <c r="D47" s="89"/>
       <c r="E47" s="87"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="134">
         <v>16</v>
       </c>
@@ -13927,7 +13977,7 @@
       <c r="D48" s="89"/>
       <c r="E48" s="90"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="134">
         <v>17</v>
       </c>
@@ -13940,7 +13990,7 @@
       <c r="D49" s="89"/>
       <c r="E49" s="90"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="134">
         <v>18</v>
       </c>
@@ -13953,7 +14003,7 @@
       <c r="D50" s="89"/>
       <c r="E50" s="90"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="134">
         <v>19</v>
       </c>
@@ -13966,7 +14016,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="134">
         <v>20</v>
       </c>
@@ -13979,7 +14029,7 @@
       <c r="D52" s="89"/>
       <c r="E52" s="90"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="134">
         <v>21</v>
       </c>
@@ -13995,7 +14045,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="84">
         <v>22</v>
       </c>
@@ -14011,7 +14061,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="134">
         <v>23</v>
       </c>
@@ -14027,7 +14077,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="134">
         <v>24</v>
       </c>
@@ -14043,7 +14093,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="134">
         <v>25</v>
       </c>
@@ -14056,7 +14106,7 @@
       <c r="D57" s="89"/>
       <c r="E57" s="90"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="134">
         <v>26</v>
       </c>
@@ -14069,7 +14119,7 @@
       <c r="D58" s="89"/>
       <c r="E58" s="90"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="134">
         <v>27</v>
       </c>
@@ -14080,7 +14130,7 @@
       <c r="D59" s="89"/>
       <c r="E59" s="90"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="134">
         <v>28</v>
       </c>
@@ -14095,7 +14145,7 @@
       </c>
       <c r="E60" s="139"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="134">
         <v>29</v>
       </c>
@@ -14106,7 +14156,7 @@
       <c r="D61" s="89"/>
       <c r="E61" s="90"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="134">
         <v>30</v>
       </c>
@@ -14117,13 +14167,13 @@
       <c r="D62" s="138"/>
       <c r="E62" s="139"/>
     </row>
-    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="135" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="84">
         <v>1</v>
       </c>
@@ -14134,31 +14184,31 @@
       <c r="D65" s="86"/>
       <c r="E65" s="87"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="134">
         <v>2</v>
       </c>
       <c r="B66" s="91" t="s">
         <v>949</v>
       </c>
-      <c r="C66" s="190" t="s">
+      <c r="C66" s="195" t="s">
         <v>950</v>
       </c>
       <c r="D66" s="89"/>
       <c r="E66" s="90"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="134">
         <v>3</v>
       </c>
       <c r="B67" s="91" t="s">
         <v>949</v>
       </c>
-      <c r="C67" s="190"/>
+      <c r="C67" s="195"/>
       <c r="D67" s="89"/>
       <c r="E67" s="90"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="134">
         <v>4</v>
       </c>
@@ -14167,7 +14217,7 @@
       <c r="D68" s="89"/>
       <c r="E68" s="90"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="134">
         <v>5</v>
       </c>
@@ -14176,7 +14226,7 @@
       <c r="D69" s="138"/>
       <c r="E69" s="139"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="134">
         <v>6</v>
       </c>
@@ -14185,7 +14235,7 @@
       <c r="D70" s="89"/>
       <c r="E70" s="90"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="134">
         <v>7</v>
       </c>
@@ -14198,7 +14248,7 @@
       <c r="D71" s="89"/>
       <c r="E71" s="90"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="134">
         <v>8</v>
       </c>
@@ -14207,7 +14257,7 @@
       <c r="D72" s="89"/>
       <c r="E72" s="90"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="134">
         <v>9</v>
       </c>
@@ -14216,7 +14266,7 @@
       <c r="D73" s="89"/>
       <c r="E73" s="90"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="134">
         <v>10</v>
       </c>
@@ -14229,7 +14279,7 @@
       <c r="D74" s="89"/>
       <c r="E74" s="90"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="134">
         <v>11</v>
       </c>
@@ -14245,7 +14295,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="134">
         <v>12</v>
       </c>
@@ -14254,7 +14304,7 @@
       <c r="D76" s="138"/>
       <c r="E76" s="139"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="134">
         <v>13</v>
       </c>
@@ -14267,7 +14317,7 @@
       <c r="D77" s="89"/>
       <c r="E77" s="87"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="134">
         <v>14</v>
       </c>
@@ -14276,7 +14326,7 @@
       <c r="D78" s="89"/>
       <c r="E78" s="90"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="134">
         <v>15</v>
       </c>
@@ -14285,7 +14335,7 @@
       <c r="D79" s="89"/>
       <c r="E79" s="90"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="134">
         <v>16</v>
       </c>
@@ -14294,7 +14344,7 @@
       <c r="D80" s="89"/>
       <c r="E80" s="90"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="134">
         <v>17</v>
       </c>
@@ -14303,7 +14353,7 @@
       <c r="D81" s="89"/>
       <c r="E81" s="90"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="134">
         <v>18</v>
       </c>
@@ -14316,7 +14366,7 @@
       <c r="D82" s="89"/>
       <c r="E82" s="90"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="134">
         <v>19</v>
       </c>
@@ -14325,7 +14375,7 @@
       <c r="D83" s="89"/>
       <c r="E83" s="90"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="134">
         <v>20</v>
       </c>
@@ -14334,7 +14384,7 @@
       <c r="D84" s="86"/>
       <c r="E84" s="87"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="134">
         <v>21</v>
       </c>
@@ -14343,7 +14393,7 @@
       <c r="D85" s="89"/>
       <c r="E85" s="90"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="134">
         <v>22</v>
       </c>
@@ -14352,7 +14402,7 @@
       <c r="D86" s="89"/>
       <c r="E86" s="90"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="134">
         <v>23</v>
       </c>
@@ -14365,7 +14415,7 @@
       <c r="D87" s="89"/>
       <c r="E87" s="90"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="134">
         <v>24</v>
       </c>
@@ -14374,7 +14424,7 @@
       <c r="D88" s="89"/>
       <c r="E88" s="90"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="134">
         <v>25</v>
       </c>
@@ -14383,7 +14433,7 @@
       <c r="D89" s="89"/>
       <c r="E89" s="90"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="134">
         <v>26</v>
       </c>
@@ -14396,7 +14446,7 @@
       <c r="D90" s="138"/>
       <c r="E90" s="139"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="134">
         <v>27</v>
       </c>
@@ -14409,7 +14459,7 @@
       <c r="D91" s="86"/>
       <c r="E91" s="87"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="134">
         <v>28</v>
       </c>
@@ -14422,7 +14472,7 @@
       <c r="D92" s="89"/>
       <c r="E92" s="90"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="134">
         <v>29</v>
       </c>
@@ -14435,7 +14485,7 @@
       <c r="D93" s="89"/>
       <c r="E93" s="90"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="134">
         <v>30</v>
       </c>
@@ -14448,7 +14498,7 @@
       <c r="D94" s="89"/>
       <c r="E94" s="90"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="134">
         <v>31</v>
       </c>
@@ -14459,13 +14509,13 @@
       <c r="D95" s="138"/>
       <c r="E95" s="139"/>
     </row>
-    <row r="96" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="97" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="135" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="84">
         <v>1</v>
       </c>
@@ -14478,7 +14528,7 @@
       <c r="D98" s="86"/>
       <c r="E98" s="87"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="134">
         <v>2</v>
       </c>
@@ -14487,7 +14537,7 @@
       <c r="D99" s="138"/>
       <c r="E99" s="139"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="134">
         <v>3</v>
       </c>
@@ -14500,7 +14550,7 @@
       <c r="D100" s="89"/>
       <c r="E100" s="90"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="134">
         <v>4</v>
       </c>
@@ -14509,7 +14559,7 @@
       <c r="D101" s="89"/>
       <c r="E101" s="90"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="134">
         <v>5</v>
       </c>
@@ -14518,7 +14568,7 @@
       <c r="D102" s="89"/>
       <c r="E102" s="90"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="134">
         <v>6</v>
       </c>
@@ -14527,7 +14577,7 @@
       <c r="D103" s="89"/>
       <c r="E103" s="90"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="134">
         <v>7</v>
       </c>
@@ -14536,7 +14586,7 @@
       <c r="D104" s="89"/>
       <c r="E104" s="90"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="134">
         <v>8</v>
       </c>
@@ -14549,7 +14599,7 @@
       <c r="D105" s="89"/>
       <c r="E105" s="90"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="134">
         <v>9</v>
       </c>
@@ -14562,7 +14612,7 @@
       <c r="D106" s="138"/>
       <c r="E106" s="139"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="134">
         <v>10</v>
       </c>
@@ -14575,7 +14625,7 @@
       <c r="D107" s="89"/>
       <c r="E107" s="87"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="134">
         <v>11</v>
       </c>
@@ -14584,7 +14634,7 @@
       <c r="D108" s="89"/>
       <c r="E108" s="90"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="134">
         <v>12</v>
       </c>
@@ -14593,7 +14643,7 @@
       <c r="D109" s="89"/>
       <c r="E109" s="90"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="134">
         <v>13</v>
       </c>
@@ -14602,7 +14652,7 @@
       <c r="D110" s="89"/>
       <c r="E110" s="90"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="134">
         <v>14</v>
       </c>
@@ -14611,7 +14661,7 @@
       <c r="D111" s="89"/>
       <c r="E111" s="90"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="134">
         <v>15</v>
       </c>
@@ -14620,7 +14670,7 @@
       <c r="D112" s="89"/>
       <c r="E112" s="90"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="134">
         <v>16</v>
       </c>
@@ -14629,7 +14679,7 @@
       <c r="D113" s="89"/>
       <c r="E113" s="90"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="134">
         <v>17</v>
       </c>
@@ -14638,7 +14688,7 @@
       <c r="D114" s="86"/>
       <c r="E114" s="87"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="134">
         <v>18</v>
       </c>
@@ -14647,7 +14697,7 @@
       <c r="D115" s="89"/>
       <c r="E115" s="90"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="134">
         <v>19</v>
       </c>
@@ -14656,7 +14706,7 @@
       <c r="D116" s="89"/>
       <c r="E116" s="90"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="134">
         <v>20</v>
       </c>
@@ -14665,7 +14715,7 @@
       <c r="D117" s="89"/>
       <c r="E117" s="90"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="134">
         <v>21</v>
       </c>
@@ -14674,7 +14724,7 @@
       <c r="D118" s="89"/>
       <c r="E118" s="90"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="134">
         <v>22</v>
       </c>
@@ -14683,7 +14733,7 @@
       <c r="D119" s="89"/>
       <c r="E119" s="90"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="134">
         <v>23</v>
       </c>
@@ -14692,7 +14742,7 @@
       <c r="D120" s="138"/>
       <c r="E120" s="139"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="134">
         <v>24</v>
       </c>
@@ -14701,7 +14751,7 @@
       <c r="D121" s="86"/>
       <c r="E121" s="87"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="134">
         <v>25</v>
       </c>
@@ -14710,7 +14760,7 @@
       <c r="D122" s="89"/>
       <c r="E122" s="90"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="134">
         <v>26</v>
       </c>
@@ -14719,7 +14769,7 @@
       <c r="D123" s="89"/>
       <c r="E123" s="90"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="134">
         <v>27</v>
       </c>
@@ -14728,7 +14778,7 @@
       <c r="D124" s="89"/>
       <c r="E124" s="90"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="134">
         <v>28</v>
       </c>
@@ -14737,7 +14787,7 @@
       <c r="D125" s="89"/>
       <c r="E125" s="90"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="134">
         <v>29</v>
       </c>
@@ -14746,7 +14796,7 @@
       <c r="D126" s="89"/>
       <c r="E126" s="90"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="134">
         <v>30</v>
       </c>
@@ -14755,7 +14805,7 @@
       <c r="D127" s="138"/>
       <c r="E127" s="139"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="134">
         <v>31</v>
       </c>
@@ -14766,20 +14816,20 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C4:C8"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C16:C23"/>
     <mergeCell ref="C33:C39"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="C24:C30"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C4:C8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://ru.hexlet.io/courses/html"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://ru.hexlet.io/courses/html"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://ru.hexlet.io/courses/html" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://ru.hexlet.io/courses/html" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -14788,29 +14838,29 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.33203125" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" style="149" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="149" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>304</v>
       </c>
@@ -14827,7 +14877,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>306</v>
       </c>
@@ -14844,7 +14894,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>336</v>
       </c>
@@ -14861,7 +14911,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>363</v>
       </c>
@@ -14878,7 +14928,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>382</v>
       </c>
@@ -14898,7 +14948,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>384</v>
       </c>
@@ -14918,7 +14968,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>386</v>
       </c>
@@ -14935,7 +14985,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>407</v>
       </c>
@@ -14955,7 +15005,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>423</v>
       </c>
@@ -14969,13 +15019,13 @@
         <v>962</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>534</v>
       </c>
       <c r="B11" s="197"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>434</v>
       </c>
@@ -14983,7 +15033,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>438</v>
       </c>
@@ -14991,7 +15041,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>444</v>
       </c>
@@ -14999,7 +15049,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>465</v>
       </c>
@@ -15007,13 +15057,13 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>966</v>
       </c>
       <c r="B16" s="198"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>484</v>
       </c>
@@ -15021,7 +15071,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>486</v>
       </c>
@@ -15029,7 +15079,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>494</v>
       </c>
@@ -15037,7 +15087,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>541</v>
       </c>
@@ -15045,12 +15095,12 @@
         <v>542</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>613</v>
       </c>
@@ -15058,13 +15108,13 @@
         <v>614</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>703</v>
       </c>
       <c r="B23" s="197"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>740</v>
       </c>
@@ -15072,12 +15122,12 @@
         <v>405</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>963</v>
       </c>
@@ -15085,12 +15135,12 @@
         <v>964</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1022</v>
       </c>
@@ -15105,30 +15155,30 @@
     <mergeCell ref="B15:B16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" location="textarea" display="https://validator.w3.org/nu/ - textarea"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A12" r:id="rId11"/>
-    <hyperlink ref="A13" r:id="rId12" location="комментарии"/>
-    <hyperlink ref="B13" r:id="rId13" display="https://github.com/airbnb/javascript/"/>
-    <hyperlink ref="A14" r:id="rId14"/>
-    <hyperlink ref="A15" r:id="rId15"/>
-    <hyperlink ref="A17" r:id="rId16"/>
-    <hyperlink ref="A18" r:id="rId17"/>
-    <hyperlink ref="A19" r:id="rId18" location="svg-color"/>
-    <hyperlink ref="A20" r:id="rId19"/>
-    <hyperlink ref="A21" r:id="rId20"/>
-    <hyperlink ref="A22" r:id="rId21"/>
-    <hyperlink ref="A24" r:id="rId22"/>
-    <hyperlink ref="A26" r:id="rId23"/>
-    <hyperlink ref="A27" r:id="rId24"/>
+    <hyperlink ref="A1" r:id="rId1" location="textarea" display="https://validator.w3.org/nu/ - textarea" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{00000000-0004-0000-0A00-000005000000}"/>
+    <hyperlink ref="A7" r:id="rId7" xr:uid="{00000000-0004-0000-0A00-000006000000}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{00000000-0004-0000-0A00-000007000000}"/>
+    <hyperlink ref="A9" r:id="rId9" xr:uid="{00000000-0004-0000-0A00-000008000000}"/>
+    <hyperlink ref="A10" r:id="rId10" xr:uid="{00000000-0004-0000-0A00-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0A00-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" location="комментарии" xr:uid="{00000000-0004-0000-0A00-00000B000000}"/>
+    <hyperlink ref="B13" r:id="rId13" display="https://github.com/airbnb/javascript/" xr:uid="{00000000-0004-0000-0A00-00000C000000}"/>
+    <hyperlink ref="A14" r:id="rId14" xr:uid="{00000000-0004-0000-0A00-00000D000000}"/>
+    <hyperlink ref="A15" r:id="rId15" xr:uid="{00000000-0004-0000-0A00-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0A00-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0A00-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" location="svg-color" xr:uid="{00000000-0004-0000-0A00-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0A00-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{00000000-0004-0000-0A00-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{00000000-0004-0000-0A00-000014000000}"/>
+    <hyperlink ref="A24" r:id="rId22" xr:uid="{00000000-0004-0000-0A00-000015000000}"/>
+    <hyperlink ref="A26" r:id="rId23" xr:uid="{00000000-0004-0000-0A00-000016000000}"/>
+    <hyperlink ref="A27" r:id="rId24" xr:uid="{00000000-0004-0000-0A00-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
@@ -15136,20 +15186,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -15160,7 +15210,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -15168,7 +15218,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -15176,7 +15226,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -15184,7 +15234,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -15192,7 +15242,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -15200,7 +15250,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -15208,7 +15258,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -15216,7 +15266,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -15224,7 +15274,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -15232,7 +15282,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -15240,7 +15290,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -15248,7 +15298,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -15256,7 +15306,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -15264,7 +15314,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -15272,7 +15322,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -15280,7 +15330,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -15288,7 +15338,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -15296,7 +15346,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -15304,7 +15354,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -15312,7 +15362,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -15320,22 +15370,22 @@
         <v>731</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -15348,21 +15398,21 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>797</v>
       </c>
@@ -15377,20 +15427,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>765</v>
       </c>
@@ -15401,7 +15451,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>766</v>
       </c>
@@ -15412,7 +15462,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>768</v>
       </c>
@@ -15423,7 +15473,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="150" t="s">
         <v>786</v>
       </c>
@@ -15431,7 +15481,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="151" t="s">
         <v>770</v>
       </c>
@@ -15442,7 +15492,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>926</v>
       </c>
@@ -15453,7 +15503,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>772</v>
       </c>
@@ -15464,7 +15514,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>774</v>
       </c>
@@ -15475,7 +15525,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="152" t="s">
         <v>775</v>
       </c>
@@ -15486,7 +15536,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>777</v>
       </c>
@@ -15497,7 +15547,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="148" t="s">
         <v>802</v>
       </c>
@@ -15508,7 +15558,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="153" t="s">
         <v>917</v>
       </c>
@@ -15516,7 +15566,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>778</v>
       </c>
@@ -15527,7 +15577,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="152" t="s">
         <v>913</v>
       </c>
@@ -15538,7 +15588,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="152" t="s">
         <v>780</v>
       </c>
@@ -15549,7 +15599,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>782</v>
       </c>
@@ -15560,7 +15610,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>784</v>
       </c>
@@ -15571,7 +15621,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>789</v>
       </c>
@@ -15582,7 +15632,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>790</v>
       </c>
@@ -15593,7 +15643,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="152" t="s">
         <v>793</v>
       </c>
@@ -15604,7 +15654,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>795</v>
       </c>
@@ -15615,7 +15665,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>800</v>
       </c>
@@ -15626,7 +15676,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="150" t="s">
         <v>935</v>
       </c>
@@ -15634,7 +15684,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>915</v>
       </c>
@@ -15645,7 +15695,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>909</v>
       </c>
@@ -15656,7 +15706,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="150" t="s">
         <v>912</v>
       </c>
@@ -15664,7 +15714,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>919</v>
       </c>
@@ -15675,7 +15725,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>924</v>
       </c>
@@ -15686,7 +15736,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="150" t="s">
         <v>925</v>
       </c>
@@ -15694,7 +15744,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="150" t="s">
         <v>927</v>
       </c>
@@ -15702,7 +15752,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>928</v>
       </c>
@@ -15713,7 +15763,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>931</v>
       </c>
@@ -15724,7 +15774,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" s="150" t="s">
         <v>933</v>
       </c>
@@ -15732,42 +15782,42 @@
         <v>834</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>922</v>
       </c>
@@ -15775,7 +15825,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>799</v>
       </c>
@@ -15783,7 +15833,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>920</v>
       </c>
@@ -15791,7 +15841,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>921</v>
       </c>
@@ -15799,307 +15849,307 @@
         <v>845</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>906</v>
       </c>
@@ -16112,27 +16162,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.6640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="30.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>158</v>
       </c>
@@ -16155,7 +16205,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>159</v>
       </c>
@@ -16178,7 +16228,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="177" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="177" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="12"/>
       <c r="C3" s="11"/>
@@ -16189,7 +16239,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="48"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>160</v>
       </c>
@@ -16210,7 +16260,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>161</v>
       </c>
@@ -16224,12 +16274,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H6" s="19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>173</v>
       </c>
@@ -16240,7 +16290,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>171</v>
       </c>
@@ -16257,7 +16307,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>175</v>
       </c>
@@ -16271,7 +16321,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>176</v>
       </c>
@@ -16289,7 +16339,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>180</v>
       </c>
@@ -16300,7 +16350,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>182</v>
       </c>
@@ -16311,7 +16361,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="21" t="s">
         <v>183</v>
@@ -16323,7 +16373,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="21" t="s">
         <v>184</v>
@@ -16332,19 +16382,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="21" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="21" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="21" t="s">
         <v>189</v>
@@ -16359,7 +16409,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
         <v>190</v>
@@ -16368,7 +16418,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>191</v>
       </c>
@@ -16379,19 +16429,19 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="21" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="21" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>198</v>
       </c>
@@ -16399,7 +16449,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="21" t="s">
         <v>259</v>
@@ -16411,7 +16461,7 @@
       <c r="G23" s="46"/>
       <c r="I23" s="46"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="51" t="s">
         <v>287</v>
       </c>
@@ -16431,7 +16481,7 @@
       <c r="G24" s="50"/>
       <c r="I24" s="50"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="51"/>
       <c r="B25" s="21" t="s">
         <v>292</v>
@@ -16445,7 +16495,7 @@
       <c r="G25" s="50"/>
       <c r="I25" s="50"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="51"/>
       <c r="B26" s="21" t="s">
         <v>294</v>
@@ -16457,13 +16507,13 @@
       <c r="G26" s="50"/>
       <c r="I26" s="50"/>
     </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="G27" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>195</v>
       </c>
@@ -16477,7 +16527,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="C29" s="27" t="s">
         <v>202</v>
@@ -16492,7 +16542,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="30" t="s">
         <v>206</v>
       </c>
@@ -16504,7 +16554,7 @@
       </c>
       <c r="F30" s="32"/>
     </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="27" t="s">
         <v>209</v>
       </c>
@@ -16515,7 +16565,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="33" t="s">
         <v>212</v>
       </c>
@@ -16529,7 +16579,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
         <v>217</v>
       </c>
@@ -16540,7 +16590,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
         <v>223</v>
       </c>
@@ -16553,12 +16603,12 @@
       <c r="E34" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="F34" s="165" t="s">
+      <c r="F34" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="G34" s="166"/>
-    </row>
-    <row r="35" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G34" s="167"/>
+    </row>
+    <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
         <v>228</v>
       </c>
@@ -16574,7 +16624,7 @@
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="47"/>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
@@ -16583,7 +16633,7 @@
       <c r="G36" s="36"/>
       <c r="I36" s="47"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>260</v>
       </c>
@@ -16596,7 +16646,7 @@
       <c r="G37" s="36"/>
       <c r="I37" s="47"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D38" s="9" t="s">
         <v>129</v>
       </c>
@@ -16604,17 +16654,17 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C39" s="9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C40" s="9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C41" s="9" t="s">
         <v>222</v>
       </c>
@@ -16622,8 +16672,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="69" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="9" t="s">
         <v>232</v>
       </c>
@@ -16640,8 +16690,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="71" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="164" t="s">
         <v>239</v>
       </c>
@@ -16655,7 +16705,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="164"/>
       <c r="C72" s="33" t="s">
         <v>243</v>
@@ -16670,13 +16720,13 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="164"/>
       <c r="C73" s="41" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="49"/>
       <c r="C79" s="49"/>
       <c r="D79" s="49"/>
@@ -16685,8 +16735,8 @@
       <c r="G79" s="49"/>
       <c r="I79" s="49"/>
     </row>
-    <row r="81" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="164" t="s">
         <v>249</v>
       </c>
@@ -16695,7 +16745,7 @@
       </c>
       <c r="E82" s="42"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="164"/>
       <c r="C83" s="44" t="s">
         <v>251</v>
@@ -16705,7 +16755,7 @@
       </c>
       <c r="E83" s="164"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="164"/>
       <c r="C84" s="44" t="s">
         <v>252</v>
@@ -16715,14 +16765,14 @@
       </c>
       <c r="E84" s="164"/>
     </row>
-    <row r="85" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="164"/>
       <c r="C85" s="45" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="164" t="s">
         <v>262</v>
       </c>
@@ -16730,19 +16780,19 @@
         <v>263</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="164"/>
       <c r="C89" s="44" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="164"/>
       <c r="C90" s="44" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="164"/>
       <c r="C91" s="44" t="s">
         <v>266</v>
@@ -16754,15 +16804,15 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="164"/>
       <c r="C92" s="45" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="93" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B94" s="167" t="s">
+    <row r="93" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="165" t="s">
         <v>276</v>
       </c>
       <c r="C94" s="43" t="s">
@@ -16773,14 +16823,14 @@
       </c>
       <c r="E94" s="164"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B95" s="167"/>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="165"/>
       <c r="C95" s="44" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B96" s="167"/>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="165"/>
       <c r="C96" s="44" t="s">
         <v>278</v>
       </c>
@@ -16789,8 +16839,8 @@
       </c>
       <c r="E96" s="164"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B97" s="167"/>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="165"/>
       <c r="C97" s="44" t="s">
         <v>280</v>
       </c>
@@ -16802,8 +16852,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="167"/>
+    <row r="98" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="165"/>
       <c r="C98" s="45" t="s">
         <v>283</v>
       </c>
@@ -16815,18 +16865,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="B82:B85"/>
     <mergeCell ref="D94:E94"/>
     <mergeCell ref="B88:B92"/>
     <mergeCell ref="D96:E96"/>
     <mergeCell ref="D97:E97"/>
     <mergeCell ref="D98:F98"/>
     <mergeCell ref="B94:B98"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="B82:B85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16836,29 +16886,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="54" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="122" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="53" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="53" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="66.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="53" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="53" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="106" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>318</v>
       </c>
@@ -16874,7 +16924,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
         <v>368</v>
       </c>
@@ -16895,7 +16945,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>337</v>
       </c>
@@ -16913,7 +16963,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
         <v>346</v>
       </c>
@@ -16932,7 +16982,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
         <v>350</v>
       </c>
@@ -16948,7 +16998,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>339</v>
       </c>
@@ -16967,7 +17017,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
         <v>302</v>
       </c>
@@ -16986,7 +17036,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
         <v>319</v>
       </c>
@@ -17002,7 +17052,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
         <v>322</v>
       </c>
@@ -17018,7 +17068,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>347</v>
       </c>
@@ -17034,7 +17084,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>354</v>
       </c>
@@ -17052,7 +17102,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
         <v>342</v>
       </c>
@@ -17067,7 +17117,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>315</v>
       </c>
@@ -17082,7 +17132,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
         <v>324</v>
       </c>
@@ -17097,7 +17147,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
         <v>310</v>
       </c>
@@ -17108,7 +17158,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>338</v>
       </c>
@@ -17119,7 +17169,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
         <v>344</v>
       </c>
@@ -17133,7 +17183,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
         <v>303</v>
       </c>
@@ -17144,7 +17194,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
         <v>320</v>
       </c>
@@ -17155,7 +17205,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
         <v>326</v>
       </c>
@@ -17166,7 +17216,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
         <v>330</v>
       </c>
@@ -17177,7 +17227,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
         <v>333</v>
       </c>
@@ -17188,7 +17238,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
         <v>332</v>
       </c>
@@ -17199,7 +17249,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
         <v>329</v>
       </c>
@@ -17210,7 +17260,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
         <v>352</v>
       </c>
@@ -17218,7 +17268,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
         <v>331</v>
       </c>
@@ -17226,7 +17276,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
         <v>314</v>
       </c>
@@ -17234,7 +17284,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="168" t="s">
         <v>355</v>
       </c>
@@ -17242,43 +17292,43 @@
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="168"/>
       <c r="B29" s="53" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="168"/>
       <c r="B30" s="53" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="168"/>
       <c r="B31" s="53" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="168"/>
       <c r="B32" s="53" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="168"/>
       <c r="B33" s="53" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="168"/>
       <c r="B34" s="59" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="25.2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A35" s="57" t="s">
         <v>359</v>
       </c>
@@ -17286,7 +17336,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="22.2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A36" s="101" t="s">
         <v>364</v>
       </c>
@@ -17294,7 +17344,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="25.2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
         <v>365</v>
       </c>
@@ -17302,7 +17352,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="62" t="s">
         <v>366</v>
       </c>
@@ -17310,7 +17360,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="62" t="s">
         <v>369</v>
       </c>
@@ -17318,7 +17368,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="62" t="s">
         <v>370</v>
       </c>
@@ -17326,7 +17376,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="62" t="s">
         <v>371</v>
       </c>
@@ -17334,7 +17384,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="64" t="s">
         <v>372</v>
       </c>
@@ -17342,7 +17392,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="54" t="s">
         <v>373</v>
       </c>
@@ -17350,7 +17400,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="57" t="s">
         <v>375</v>
       </c>
@@ -17358,7 +17408,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
         <v>377</v>
       </c>
@@ -17366,7 +17416,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="s">
         <v>379</v>
       </c>
@@ -17374,7 +17424,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
         <v>381</v>
       </c>
@@ -17382,7 +17432,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="54" t="s">
         <v>388</v>
       </c>
@@ -17390,7 +17440,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="54" t="s">
         <v>391</v>
       </c>
@@ -17398,7 +17448,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="54" t="s">
         <v>392</v>
       </c>
@@ -17406,7 +17456,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="54" t="s">
         <v>394</v>
       </c>
@@ -17414,7 +17464,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="54" t="s">
         <v>401</v>
       </c>
@@ -17422,7 +17472,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="54" t="s">
         <v>458</v>
       </c>
@@ -17430,7 +17480,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="54" t="s">
         <v>459</v>
       </c>
@@ -17438,7 +17488,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="54" t="s">
         <v>460</v>
       </c>
@@ -17446,7 +17496,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="25.2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A56" s="57" t="s">
         <v>467</v>
       </c>
@@ -17454,7 +17504,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="54" t="s">
         <v>468</v>
       </c>
@@ -17462,7 +17512,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="54" t="s">
         <v>471</v>
       </c>
@@ -17470,7 +17520,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="54" t="s">
         <v>474</v>
       </c>
@@ -17478,7 +17528,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="54" t="s">
         <v>475</v>
       </c>
@@ -17486,7 +17536,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="54" t="s">
         <v>479</v>
       </c>
@@ -17494,7 +17544,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="54" t="s">
         <v>582</v>
       </c>
@@ -17502,7 +17552,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="54" t="s">
         <v>589</v>
       </c>
@@ -17510,7 +17560,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="54" t="s">
         <v>592</v>
       </c>
@@ -17518,7 +17568,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="171" t="s">
         <v>974</v>
       </c>
@@ -17526,372 +17576,372 @@
         <v>976</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="171"/>
       <c r="B66" s="170"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="54" t="s">
         <v>313</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B27">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B27">
     <sortCondition ref="A2"/>
   </sortState>
   <mergeCells count="4">
@@ -17908,24 +17958,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AI245"/>
   <sheetViews>
     <sheetView topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="96" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="68" customWidth="1"/>
-    <col min="3" max="3" width="100.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="96" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="100.5703125" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AE1" t="s">
         <v>796</v>
       </c>
@@ -17933,7 +17983,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="178" t="s">
         <v>658</v>
       </c>
@@ -17950,7 +18000,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="179"/>
       <c r="B3" s="69" t="s">
         <v>421</v>
@@ -17971,7 +18021,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="179"/>
       <c r="B4" s="69" t="s">
         <v>297</v>
@@ -17983,7 +18033,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="179"/>
       <c r="B5" s="69" t="s">
         <v>642</v>
@@ -17998,7 +18048,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="179"/>
       <c r="B6" s="69" t="s">
         <v>644</v>
@@ -18010,7 +18060,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B7" s="69"/>
       <c r="AE7" s="5" t="s">
         <v>943</v>
@@ -18019,7 +18069,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B8" s="70" t="s">
         <v>398</v>
       </c>
@@ -18030,7 +18080,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B9" s="70" t="s">
         <v>680</v>
       </c>
@@ -18038,7 +18088,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B10" s="70" t="s">
         <v>681</v>
       </c>
@@ -18046,7 +18096,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B11" s="70" t="s">
         <v>685</v>
       </c>
@@ -18054,7 +18104,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B12" s="70" t="s">
         <v>691</v>
       </c>
@@ -18062,7 +18112,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="183" t="s">
         <v>984</v>
       </c>
@@ -18073,7 +18123,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="184"/>
       <c r="B14" s="70" t="s">
         <v>988</v>
@@ -18082,7 +18132,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="184"/>
       <c r="B15" s="70" t="s">
         <v>987</v>
@@ -18091,7 +18141,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="184"/>
       <c r="B16" s="70" t="s">
         <v>986</v>
@@ -18100,7 +18150,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="184"/>
       <c r="B17" s="70" t="s">
         <v>985</v>
@@ -18109,7 +18159,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="175" t="s">
         <v>400</v>
       </c>
@@ -18120,7 +18170,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="175"/>
       <c r="B19" s="71" t="s">
         <v>482</v>
@@ -18129,7 +18179,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="175"/>
       <c r="B20" s="71" t="s">
         <v>544</v>
@@ -18138,7 +18188,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="175"/>
       <c r="B21" s="71" t="s">
         <v>1020</v>
@@ -18147,7 +18197,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="175"/>
       <c r="B22" s="71" t="s">
         <v>548</v>
@@ -18156,7 +18206,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="159"/>
       <c r="B23" s="71" t="s">
         <v>1016</v>
@@ -18165,7 +18215,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="159"/>
       <c r="B24" s="71" t="s">
         <v>1018</v>
@@ -18174,7 +18224,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="98"/>
       <c r="B25" s="71" t="s">
         <v>550</v>
@@ -18183,7 +18233,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="70" t="s">
         <v>403</v>
       </c>
@@ -18191,7 +18241,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="70" t="s">
         <v>405</v>
       </c>
@@ -18202,7 +18252,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="70" t="s">
         <v>409</v>
       </c>
@@ -18213,7 +18263,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="70" t="s">
         <v>491</v>
       </c>
@@ -18224,7 +18274,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="70" t="s">
         <v>410</v>
       </c>
@@ -18232,7 +18282,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="70" t="s">
         <v>412</v>
       </c>
@@ -18240,7 +18290,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="70" t="s">
         <v>414</v>
       </c>
@@ -18248,7 +18298,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="71" t="s">
         <v>416</v>
       </c>
@@ -18256,7 +18306,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="70" t="s">
         <v>419</v>
       </c>
@@ -18264,7 +18314,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="70" t="s">
         <v>422</v>
       </c>
@@ -18272,7 +18322,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="70" t="s">
         <v>425</v>
       </c>
@@ -18280,12 +18330,12 @@
         <v>426</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="70" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="176" t="s">
         <v>610</v>
       </c>
@@ -18296,7 +18346,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="177"/>
       <c r="B39" s="113" t="s">
         <v>577</v>
@@ -18305,7 +18355,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="177"/>
       <c r="B40" s="113" t="s">
         <v>611</v>
@@ -18314,7 +18364,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="177"/>
       <c r="B41" s="113" t="s">
         <v>436</v>
@@ -18323,7 +18373,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="177"/>
       <c r="B42" s="113" t="s">
         <v>1010</v>
@@ -18332,7 +18382,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="177"/>
       <c r="B43" s="113" t="s">
         <v>1012</v>
@@ -18341,7 +18391,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="177"/>
       <c r="B44" s="113" t="s">
         <v>708</v>
@@ -18350,7 +18400,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="177"/>
       <c r="B45" s="113" t="s">
         <v>612</v>
@@ -18359,7 +18409,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="117"/>
       <c r="B46" s="70" t="s">
         <v>683</v>
@@ -18368,14 +18418,14 @@
         <v>695</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="117"/>
       <c r="B47" s="116" t="s">
         <v>684</v>
       </c>
       <c r="C47" s="112"/>
     </row>
-    <row r="48" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B48" s="71" t="s">
         <v>428</v>
       </c>
@@ -18383,7 +18433,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" s="71" t="s">
         <v>429</v>
       </c>
@@ -18391,7 +18441,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" s="71" t="s">
         <v>431</v>
       </c>
@@ -18399,10 +18449,10 @@
         <v>432</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="71"/>
     </row>
-    <row r="52" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A52" s="174" t="s">
         <v>538</v>
       </c>
@@ -18413,7 +18463,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="174"/>
       <c r="B53" s="71" t="s">
         <v>537</v>
@@ -18422,7 +18472,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="174"/>
       <c r="B54" s="71" t="s">
         <v>535</v>
@@ -18431,11 +18481,11 @@
         <v>539</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" s="71"/>
       <c r="C55" s="66"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" s="71" t="s">
         <v>436</v>
       </c>
@@ -18443,7 +18493,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="71" t="s">
         <v>453</v>
       </c>
@@ -18451,7 +18501,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" s="70" t="s">
         <v>489</v>
       </c>
@@ -18459,7 +18509,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="45.75" x14ac:dyDescent="0.25">
       <c r="B59" s="71" t="s">
         <v>495</v>
       </c>
@@ -18467,7 +18517,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" s="70" t="s">
         <v>521</v>
       </c>
@@ -18475,11 +18525,11 @@
         <v>520</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61" s="70"/>
       <c r="C61" s="109"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" s="70" t="s">
         <v>601</v>
       </c>
@@ -18487,7 +18537,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" s="70" t="s">
         <v>602</v>
       </c>
@@ -18495,7 +18545,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" s="70" t="s">
         <v>604</v>
       </c>
@@ -18503,7 +18553,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="70" t="s">
         <v>606</v>
       </c>
@@ -18511,7 +18561,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="70" t="s">
         <v>615</v>
       </c>
@@ -18519,7 +18569,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="70" t="s">
         <v>617</v>
       </c>
@@ -18527,7 +18577,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="70" t="s">
         <v>619</v>
       </c>
@@ -18535,7 +18585,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="70" t="s">
         <v>621</v>
       </c>
@@ -18543,27 +18593,27 @@
         <v>622</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="70" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="70" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="70" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="70" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="70" t="s">
         <v>1009</v>
       </c>
@@ -18571,17 +18621,17 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="70" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="70" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="70" t="s">
         <v>992</v>
       </c>
@@ -18589,7 +18639,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="70" t="s">
         <v>994</v>
       </c>
@@ -18597,7 +18647,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="70" t="s">
         <v>996</v>
       </c>
@@ -18605,7 +18655,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="70" t="s">
         <v>998</v>
       </c>
@@ -18613,7 +18663,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B81" s="70" t="s">
         <v>1000</v>
       </c>
@@ -18621,10 +18671,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B82" s="70"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B83" s="70" t="s">
         <v>640</v>
       </c>
@@ -18632,7 +18682,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B84" s="70" t="s">
         <v>646</v>
       </c>
@@ -18640,7 +18690,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="180" t="s">
         <v>661</v>
       </c>
@@ -18651,7 +18701,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A86" s="181"/>
       <c r="B86" s="120" t="s">
         <v>650</v>
@@ -18660,7 +18710,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="181"/>
       <c r="B87" s="120" t="s">
         <v>656</v>
@@ -18669,7 +18719,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="181"/>
       <c r="B88" s="123" t="s">
         <v>653</v>
@@ -18678,7 +18728,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="181"/>
       <c r="B89" s="120" t="s">
         <v>654</v>
@@ -18687,7 +18737,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="181"/>
       <c r="B90" s="120" t="s">
         <v>742</v>
@@ -18696,7 +18746,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="181"/>
       <c r="B91" s="124" t="s">
         <v>659</v>
@@ -18705,7 +18755,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="181"/>
       <c r="B92" s="124" t="s">
         <v>662</v>
@@ -18714,7 +18764,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="181"/>
       <c r="B93" s="124" t="s">
         <v>664</v>
@@ -18723,7 +18773,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="181"/>
       <c r="B94" s="124" t="s">
         <v>666</v>
@@ -18732,7 +18782,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="182"/>
       <c r="B95" s="125" t="s">
         <v>668</v>
@@ -18741,7 +18791,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="127"/>
       <c r="B96" s="118" t="s">
         <v>670</v>
@@ -18750,14 +18800,14 @@
         <v>674</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="128"/>
       <c r="B97" s="124" t="s">
         <v>671</v>
       </c>
       <c r="C97" s="173"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="128"/>
       <c r="B98" s="124" t="s">
         <v>734</v>
@@ -18766,7 +18816,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="128"/>
       <c r="B99" s="124" t="s">
         <v>736</v>
@@ -18775,7 +18825,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="128"/>
       <c r="B100" s="124" t="s">
         <v>672</v>
@@ -18784,7 +18834,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="128"/>
       <c r="B101" s="124" t="s">
         <v>675</v>
@@ -18793,7 +18843,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="128"/>
       <c r="B102" s="123" t="s">
         <v>677</v>
@@ -18802,7 +18852,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="130"/>
       <c r="B103" s="125" t="s">
         <v>732</v>
@@ -18811,7 +18861,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B104" s="70" t="s">
         <v>696</v>
       </c>
@@ -18820,7 +18870,7 @@
       </c>
       <c r="D104" s="89"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B105" s="70" t="s">
         <v>705</v>
       </c>
@@ -18828,7 +18878,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106" s="70" t="s">
         <v>708</v>
       </c>
@@ -18836,12 +18886,12 @@
         <v>707</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B107" s="70" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108" s="70" t="s">
         <v>744</v>
       </c>
@@ -18849,400 +18899,400 @@
         <v>745</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B109" s="70"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="70"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="70"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="70"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="70"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="70"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="70"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="70"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="70"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="70"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="70"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="70"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="70"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="70"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" s="70"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" s="70"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="70"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="70"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="70"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="70"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="70"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="70"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="70"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="70"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="70"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="70"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" s="70"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" s="70"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" s="70"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="70"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="70"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" s="70"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" s="70"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="70"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" s="70"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" s="70"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" s="70"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" s="70"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" s="70"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="70"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" s="70"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" s="70"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" s="70"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" s="70"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" s="70"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" s="70"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" s="70"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" s="70"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="70"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" s="70"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" s="70"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" s="70"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" s="70"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" s="70"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" s="70"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" s="70"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" s="70"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" s="70"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" s="70"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" s="70"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" s="70"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" s="70"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" s="70"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" s="70"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" s="70"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" s="70"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" s="70"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" s="70"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" s="70"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" s="70"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" s="70"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" s="70"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" s="70"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" s="70"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" s="70"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" s="70"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" s="70"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" s="70"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" s="70"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" s="70"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" s="70"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" s="70"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" s="70"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" s="70"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" s="70"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" s="70"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" s="70"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" s="70"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" s="70"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" s="70"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" s="70"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" s="70"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" s="70"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" s="70"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" s="70"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" s="70"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" s="70"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" s="70"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" s="70"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" s="70"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" s="70"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" s="70"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" s="70"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" s="70"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" s="70"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" s="70"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" s="70"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" s="70"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" s="70"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" s="70"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" s="70"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" s="70"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" s="70"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" s="70"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" s="70"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" s="70"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" s="70"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" s="70"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" s="70"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" s="70"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" s="70"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" s="70"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" s="70"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" s="70"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" s="70"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" s="70"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" s="70"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" s="70"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" s="70"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" s="70"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" s="70"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" s="70"/>
     </row>
   </sheetData>
@@ -19256,9 +19306,9 @@
     <mergeCell ref="A13:A17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AE6" r:id="rId1" display="/@import"/>
-    <hyperlink ref="AE7" r:id="rId2" display="/@import"/>
-    <hyperlink ref="AF7" r:id="rId3" display="/@import"/>
+    <hyperlink ref="AE6" r:id="rId1" display="/@import" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="AE7" r:id="rId2" display="/@import" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="AF7" r:id="rId3" display="/@import" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -19268,20 +19318,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B387"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" style="76" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" style="76" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>443</v>
       </c>
@@ -19289,7 +19339,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
         <v>441</v>
       </c>
@@ -19297,7 +19347,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
         <v>446</v>
       </c>
@@ -19305,7 +19355,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="75" t="s">
         <v>448</v>
       </c>
@@ -19313,7 +19363,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="75" t="s">
         <v>450</v>
       </c>
@@ -19321,7 +19371,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
         <v>971</v>
       </c>
@@ -19329,68 +19379,70 @@
         <v>968</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="75" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="75" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="75" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="75" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="75" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="75" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="75"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="75"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="75"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="75"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="75"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="75"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="75"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="75"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="75"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="75"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="75"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="75" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="75" t="s">
         <v>524</v>
       </c>
@@ -19398,7 +19450,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="75" t="s">
         <v>700</v>
       </c>
@@ -19406,7 +19458,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="75" t="s">
         <v>698</v>
       </c>
@@ -19414,27 +19466,27 @@
         <v>699</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="75" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="75" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="75" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="75" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="75" t="s">
         <v>501</v>
       </c>
@@ -19442,7 +19494,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="75" t="s">
         <v>505</v>
       </c>
@@ -19450,12 +19502,12 @@
         <v>503</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="75" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="75" t="s">
         <v>508</v>
       </c>
@@ -19463,12 +19515,12 @@
         <v>510</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="75" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="75" t="s">
         <v>514</v>
       </c>
@@ -19476,12 +19528,12 @@
         <v>515</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="75" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="75" t="s">
         <v>518</v>
       </c>
@@ -19489,17 +19541,17 @@
         <v>517</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="75" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="75" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="75" t="s">
         <v>525</v>
       </c>
@@ -19507,1048 +19559,1048 @@
         <v>526</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="75"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="75"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="75"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="75"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="75"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="75"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="75"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="75"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="75"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="75"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="75"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="75"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="75"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="75"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="75"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="75"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="75"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="75"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="75"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="75"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="75"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="75"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="75"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="75"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="75"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="75"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="75"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="75"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="75"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="75"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="75"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="75"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="75"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="75"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="75"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="75"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="75"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="75"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="75"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="75"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="75"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="75"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="75"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="75"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="75"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="75"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="75"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="75"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="75"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="75"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="75"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="75"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="75"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="75"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="75"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="75"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="75"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="75"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="75"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="75"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="75"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="75"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="75"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="75"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="75"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="75"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="75"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="75"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="75"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="75"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="75"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="75"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="75"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="75"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="75"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="75"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="75"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="75"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="75"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="75"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="75"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="75"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="75"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="75"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="75"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="75"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="75"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="75"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="75"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="75"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="75"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="75"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="75"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="75"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="75"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="75"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="75"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="75"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="75"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="75"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="75"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="75"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="75"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="75"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="75"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="75"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="75"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="75"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="75"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="75"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="75"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="75"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="75"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="75"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="75"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="75"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="75"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="75"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="75"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="75"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="75"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="75"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="75"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="75"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="75"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="75"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="75"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="75"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="75"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="75"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="75"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="75"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="75"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="75"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="75"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="75"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="75"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="75"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="75"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="75"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="75"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="75"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="75"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="75"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="75"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="75"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="75"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="75"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="75"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="75"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="75"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="75"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="75"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="75"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="75"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="75"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="75"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="75"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="75"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="75"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="75"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="75"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="75"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="75"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="75"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="75"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="75"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="75"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="75"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="75"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="75"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="75"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="75"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="75"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="75"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="75"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="75"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="75"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="75"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="75"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="75"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="75"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="75"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="75"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="75"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="75"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="75"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="75"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="75"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="75"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="75"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="75"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="75"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="75"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="75"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="75"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="75"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="75"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="75"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="75"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="75"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="75"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="75"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="75"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="75"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="75"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="75"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="75"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="75"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="75"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="75"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="75"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="75"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="75"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="75"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="75"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="75"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="75"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="75"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="75"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="75"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="75"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="75"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="75"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="75"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="75"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="75"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="75"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="75"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="75"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="75"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="75"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="75"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="75"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="75"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="75"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="75"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="75"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="75"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="75"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="75"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="75"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="75"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="75"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="75"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="75"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="75"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="75"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="75"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="75"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="75"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="75"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="75"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="75"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="75"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="75"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="75"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="75"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="75"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="75"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="75"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="75"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="75"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="75"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="75"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="75"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="75"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="75"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="75"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="75"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="75"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="75"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="75"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="75"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="75"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="75"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="75"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="75"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="75"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="75"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="75"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="75"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="75"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="75"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="75"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="75"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="75"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="75"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="75"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="75"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="75"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="75"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="75"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="75"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="75"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="75"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="75"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="75"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="75"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="75"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="75"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="75"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="75"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="75"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="75"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="75"/>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="75"/>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="75"/>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="75"/>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="75"/>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="75"/>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="75"/>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="75"/>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="75"/>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="75"/>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="75"/>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="75"/>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="75"/>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="75"/>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="75"/>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="75"/>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="75"/>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="75"/>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="75"/>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="75"/>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="75"/>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="75"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="75"/>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="75"/>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="75"/>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="75"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="75"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="75"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="75"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="75"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="75"/>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="75"/>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="75"/>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="75"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="75"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="75"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="75"/>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="75"/>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="75"/>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="75"/>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="75"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Global_Objects/String/slice"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Global_Objects/String/padStart"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Global_Objects/String/slice" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Global_Objects/String/padStart" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -20557,153 +20609,169 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1025</v>
+        <v>1096</v>
       </c>
       <c r="B1" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B2" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B3" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="B5" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B6" t="s">
         <v>1029</v>
       </c>
-      <c r="B6" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="B7" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>1052</v>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1095</v>
       </c>
     </row>
   </sheetData>
@@ -20714,169 +20782,169 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="162" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="162" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="85" style="163" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="162" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B1" s="161" t="s">
         <v>1053</v>
       </c>
-      <c r="B1" s="161" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="162" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="162" t="s">
+      <c r="B2" s="163" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="162" t="s">
         <v>1055</v>
       </c>
-      <c r="B2" s="163" t="s">
+      <c r="B3" s="163" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="162" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B4" s="163" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="162" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B5" s="163" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="162" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B6" s="163" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="162" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B7" s="163" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="162" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B8" s="163" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="162" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B9" s="163" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="162" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B11" s="163" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="162" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B12" s="163" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="162" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B13" s="163" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="162" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B14" s="163" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="162" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B15" s="163" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="162" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B16" s="163" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="162" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B17" s="163" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="162" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B18" s="163" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="162" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="162" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B3" s="163" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="162" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B4" s="163" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="162" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B5" s="163" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="162" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B6" s="163" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="162" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B7" s="163" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="162" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B8" s="163" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="162" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B9" s="163" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="162" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B11" s="163" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="162" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B12" s="163" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="162" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B13" s="163" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="162" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B14" s="163" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="162" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B15" s="163" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="162" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B16" s="163" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="162" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B17" s="163" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="162" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B18" s="163" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="162" t="s">
+      <c r="B19" s="163" t="s">
         <v>1087</v>
       </c>
-      <c r="B19" s="163" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="162" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="162" t="s">
+      <c r="B20" s="163" t="s">
         <v>1089</v>
-      </c>
-      <c r="B20" s="163" t="s">
-        <v>1090</v>
       </c>
     </row>
   </sheetData>
@@ -20886,20 +20954,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="75"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="75"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
         <v>528</v>
       </c>
@@ -20907,7 +20975,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
         <v>531</v>
       </c>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC47AF6-EA1C-41EB-A83C-F354354C58F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="855" windowWidth="14880" windowHeight="13005" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7416" yWindow="852" windowWidth="14880" windowHeight="13008" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="1" r:id="rId1"/>
@@ -27,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,12 +66,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="C4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -269,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="H4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
+    <comment ref="H6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -321,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+    <comment ref="H8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -362,7 +361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
+    <comment ref="B22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -376,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
+    <comment ref="D28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -391,7 +390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
+    <comment ref="E29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -406,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
+    <comment ref="F29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -517,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
+    <comment ref="C30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -543,7 +542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
+    <comment ref="D30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -569,7 +568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
+    <comment ref="E30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -584,7 +583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
+    <comment ref="C33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -599,7 +598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
+    <comment ref="D33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -625,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
+    <comment ref="D35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -645,7 +644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
+    <comment ref="E35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -665,7 +664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
+    <comment ref="C39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -691,7 +690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
+    <comment ref="C40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -705,7 +704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
+    <comment ref="C41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -731,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
+    <comment ref="C97" authorId="0">
       <text>
         <r>
           <rPr>
@@ -751,12 +750,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="A27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -796,7 +795,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="B34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -813,7 +812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="A36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -860,7 +859,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="B37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -894,7 +893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="A47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -927,12 +926,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="B5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -949,7 +948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1062,7 +1061,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1087,7 +1086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="B30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1109,7 +1108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="B33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1132,7 +1131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="A38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1154,7 +1153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+    <comment ref="B54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1173,7 +1172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+    <comment ref="B57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1330,7 +1329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+    <comment ref="B58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1349,7 +1348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B95" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
+    <comment ref="B95" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1367,7 +1366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B107" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
+    <comment ref="B107" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1451,7 +1450,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="1101">
   <si>
     <t>максимальное значение переменной</t>
   </si>
@@ -8879,11 +8878,20 @@
   <si>
     <t>.fadeOut(ms)/.fadeIn(ms)/.fadeTo(ms, 0-1)</t>
   </si>
+  <si>
+    <t>setTimeout(func, time) / clearTimeout()</t>
+  </si>
+  <si>
+    <t>setInterval(func, interval)</t>
+  </si>
+  <si>
+    <t>.mousemove()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0&quot;р.&quot;"/>
   </numFmts>
@@ -10304,13 +10312,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10364,10 +10372,10 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10379,6 +10387,18 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10386,18 +10406,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10444,7 +10452,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10488,7 +10496,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10537,7 +10545,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10586,7 +10594,7 @@
         <xdr:cNvPr id="10" name="Рисунок 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10636,7 +10644,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10686,7 +10694,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10736,7 +10744,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10786,7 +10794,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10836,7 +10844,7 @@
         <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10886,7 +10894,7 @@
         <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10936,7 +10944,7 @@
         <xdr:cNvPr id="8" name="Рисунок 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10986,7 +10994,7 @@
         <xdr:cNvPr id="9" name="Рисунок 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11036,7 +11044,7 @@
         <xdr:cNvPr id="11" name="Рисунок 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11086,7 +11094,7 @@
         <xdr:cNvPr id="12" name="Рисунок 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11141,7 +11149,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11185,7 +11193,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11229,7 +11237,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11273,7 +11281,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11317,7 +11325,7 @@
         <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11361,7 +11369,7 @@
         <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11405,7 +11413,7 @@
         <xdr:cNvPr id="8" name="Рисунок 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11449,7 +11457,7 @@
         <xdr:cNvPr id="10" name="Рисунок 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7B343C-A3ED-4FC7-9C61-E2FAC866C9AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D7B343C-A3ED-4FC7-9C61-E2FAC866C9AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11504,7 +11512,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11554,7 +11562,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11598,7 +11606,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11642,7 +11650,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11692,7 +11700,7 @@
         <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11736,7 +11744,7 @@
         <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11780,7 +11788,7 @@
         <xdr:cNvPr id="8" name="Рисунок 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11824,7 +11832,7 @@
         <xdr:cNvPr id="9" name="Рисунок 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11873,7 +11881,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11917,7 +11925,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11961,7 +11969,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12002,15 +12010,15 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>294629</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>189905</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2991</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{054E37CF-64A3-416F-807D-1909E1878560}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{054E37CF-64A3-416F-807D-1909E1878560}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12040,21 +12048,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>181187</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1892</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D16BBE-77A1-4FB5-B99E-BD4C46623750}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46D16BBE-77A1-4FB5-B99E-BD4C46623750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12103,7 +12111,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12152,7 +12160,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12196,7 +12204,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12240,7 +12248,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12284,7 +12292,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12333,7 +12341,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12377,7 +12385,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12421,7 +12429,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12493,7 +12501,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12526,26 +12534,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12578,23 +12569,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -12770,21 +12744,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -12792,7 +12766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -12803,7 +12777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -12814,7 +12788,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -12822,7 +12796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -12830,7 +12804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -12838,7 +12812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -12846,7 +12820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -12857,7 +12831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -12865,7 +12839,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -12873,7 +12847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
@@ -12881,7 +12855,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
@@ -12889,7 +12863,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
@@ -12897,7 +12871,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
@@ -12905,7 +12879,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -12913,7 +12887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -12921,7 +12895,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -12929,7 +12903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -12937,7 +12911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -12945,7 +12919,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -12953,7 +12927,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -12961,7 +12935,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -12969,7 +12943,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -12977,7 +12951,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
@@ -12988,7 +12962,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -12996,7 +12970,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -13004,7 +12978,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -13012,7 +12986,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -13020,7 +12994,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
@@ -13028,7 +13002,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
@@ -13036,7 +13010,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -13044,7 +13018,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
@@ -13055,7 +13029,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
@@ -13063,7 +13037,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
@@ -13071,7 +13045,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>71</v>
       </c>
@@ -13079,7 +13053,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
@@ -13087,7 +13061,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>76</v>
       </c>
@@ -13095,7 +13069,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
@@ -13103,7 +13077,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
@@ -13111,7 +13085,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>83</v>
       </c>
@@ -13122,7 +13096,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>85</v>
       </c>
@@ -13130,7 +13104,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>86</v>
       </c>
@@ -13138,12 +13112,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>90</v>
       </c>
@@ -13151,7 +13125,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>93</v>
       </c>
@@ -13159,7 +13133,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>94</v>
       </c>
@@ -13167,7 +13141,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>96</v>
       </c>
@@ -13175,7 +13149,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>98</v>
       </c>
@@ -13183,7 +13157,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>100</v>
       </c>
@@ -13191,7 +13165,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>102</v>
       </c>
@@ -13199,7 +13173,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>104</v>
       </c>
@@ -13207,7 +13181,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>106</v>
       </c>
@@ -13215,7 +13189,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>108</v>
       </c>
@@ -13223,7 +13197,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>111</v>
       </c>
@@ -13231,7 +13205,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>113</v>
       </c>
@@ -13239,12 +13213,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>115</v>
       </c>
@@ -13252,7 +13226,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>117</v>
       </c>
@@ -13260,7 +13234,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>126</v>
       </c>
@@ -13268,17 +13242,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>130</v>
       </c>
@@ -13286,32 +13260,32 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>137</v>
       </c>
@@ -13319,12 +13293,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>140</v>
       </c>
@@ -13332,59 +13306,59 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
     </row>
-    <row r="89" spans="1:2" ht="52.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="51" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="8"/>
     </row>
-    <row r="91" spans="1:2" ht="42" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="8"/>
     </row>
-    <row r="93" spans="1:2" ht="52.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="51" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="8"/>
     </row>
-    <row r="95" spans="1:2" ht="42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="8"/>
     </row>
-    <row r="97" spans="1:1" ht="42" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C27" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -13393,50 +13367,50 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="135" t="s">
         <v>533</v>
       </c>
       <c r="B1" s="81"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="132">
         <v>4</v>
       </c>
       <c r="B2" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="193" t="s">
         <v>300</v>
       </c>
       <c r="D2" s="86"/>
       <c r="E2" s="87"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="83">
         <v>5</v>
       </c>
       <c r="B3" s="88" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="186"/>
+      <c r="C3" s="191"/>
       <c r="D3" s="89" t="s">
         <v>308</v>
       </c>
@@ -13444,38 +13418,38 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="83">
         <v>6</v>
       </c>
       <c r="B4" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="191" t="s">
         <v>309</v>
       </c>
       <c r="D4" s="89"/>
       <c r="E4" s="90"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="83">
         <v>7</v>
       </c>
       <c r="B5" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="186"/>
+      <c r="C5" s="191"/>
       <c r="D5" s="89"/>
       <c r="E5" s="90"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="83">
         <v>8</v>
       </c>
       <c r="B6" s="91" t="s">
         <v>396</v>
       </c>
-      <c r="C6" s="186"/>
+      <c r="C6" s="191"/>
       <c r="D6" s="89" t="s">
         <v>437</v>
       </c>
@@ -13483,29 +13457,29 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="83">
         <v>9</v>
       </c>
       <c r="B7" s="140" t="s">
         <v>437</v>
       </c>
-      <c r="C7" s="186"/>
+      <c r="C7" s="191"/>
       <c r="D7" s="89"/>
       <c r="E7" s="90"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="83">
         <v>10</v>
       </c>
       <c r="B8" s="142" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="196"/>
+      <c r="C8" s="192"/>
       <c r="D8" s="138"/>
       <c r="E8" s="139"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="83">
         <v>11</v>
       </c>
@@ -13521,7 +13495,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="83">
         <v>12</v>
       </c>
@@ -13532,7 +13506,7 @@
       <c r="D10" s="89"/>
       <c r="E10" s="90"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="83">
         <v>13</v>
       </c>
@@ -13543,7 +13517,7 @@
       <c r="D11" s="89"/>
       <c r="E11" s="90"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="83">
         <v>14</v>
       </c>
@@ -13554,7 +13528,7 @@
       <c r="D12" s="89"/>
       <c r="E12" s="90"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="83">
         <v>15</v>
       </c>
@@ -13567,7 +13541,7 @@
       </c>
       <c r="E13" s="90"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="83">
         <v>16</v>
       </c>
@@ -13578,7 +13552,7 @@
       <c r="D14" s="89"/>
       <c r="E14" s="90"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="83">
         <v>17</v>
       </c>
@@ -13589,7 +13563,7 @@
       <c r="D15" s="138"/>
       <c r="E15" s="139"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="83">
         <v>18</v>
       </c>
@@ -13606,7 +13580,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="83">
         <v>19</v>
       </c>
@@ -13617,7 +13591,7 @@
       <c r="D17" s="89"/>
       <c r="E17" s="90"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="83">
         <v>20</v>
       </c>
@@ -13628,7 +13602,7 @@
       <c r="D18" s="89"/>
       <c r="E18" s="90"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="83">
         <v>21</v>
       </c>
@@ -13643,7 +13617,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="83">
         <v>22</v>
       </c>
@@ -13654,31 +13628,31 @@
       <c r="D20" s="89"/>
       <c r="E20" s="90"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="190">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="194">
         <v>23</v>
       </c>
       <c r="B21" s="140" t="s">
         <v>532</v>
       </c>
       <c r="C21" s="188"/>
-      <c r="D21" s="193" t="s">
+      <c r="D21" s="185" t="s">
         <v>679</v>
       </c>
-      <c r="E21" s="194" t="s">
+      <c r="E21" s="186" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="190"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="194"/>
       <c r="B22" s="140" t="s">
         <v>497</v>
       </c>
       <c r="C22" s="188"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="194"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="185"/>
+      <c r="E22" s="186"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="83">
         <v>24</v>
       </c>
@@ -13689,20 +13663,20 @@
       <c r="D23" s="138"/>
       <c r="E23" s="139"/>
     </row>
-    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="83">
         <v>25</v>
       </c>
       <c r="B24" s="91" t="s">
         <v>639</v>
       </c>
-      <c r="C24" s="191" t="s">
+      <c r="C24" s="195" t="s">
         <v>511</v>
       </c>
       <c r="D24" s="89"/>
       <c r="E24" s="90"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="115">
         <v>26</v>
       </c>
@@ -13713,7 +13687,7 @@
       <c r="D25" s="89"/>
       <c r="E25" s="90"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="83">
         <v>27</v>
       </c>
@@ -13724,7 +13698,7 @@
       <c r="D26" s="89"/>
       <c r="E26" s="90"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="83">
         <v>28</v>
       </c>
@@ -13735,7 +13709,7 @@
       <c r="D27" s="89"/>
       <c r="E27" s="90"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="83">
         <v>29</v>
       </c>
@@ -13748,7 +13722,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="83">
         <v>30</v>
       </c>
@@ -13759,24 +13733,24 @@
       <c r="D29" s="89"/>
       <c r="E29" s="90"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="84">
         <v>31</v>
       </c>
       <c r="B30" s="141" t="s">
         <v>686</v>
       </c>
-      <c r="C30" s="192"/>
+      <c r="C30" s="196"/>
       <c r="D30" s="77"/>
       <c r="E30" s="92"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="135" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="84">
         <v>1</v>
       </c>
@@ -13789,7 +13763,7 @@
       <c r="D33" s="86"/>
       <c r="E33" s="87"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="134">
         <v>2</v>
       </c>
@@ -13800,7 +13774,7 @@
       <c r="D34" s="89"/>
       <c r="E34" s="90"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="134">
         <v>3</v>
       </c>
@@ -13815,7 +13789,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="134">
         <v>4</v>
       </c>
@@ -13826,7 +13800,7 @@
       <c r="D36" s="89"/>
       <c r="E36" s="90"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="134">
         <v>5</v>
       </c>
@@ -13837,7 +13811,7 @@
       <c r="D37" s="89"/>
       <c r="E37" s="90"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="134">
         <v>6</v>
       </c>
@@ -13848,7 +13822,7 @@
       <c r="D38" s="89"/>
       <c r="E38" s="90"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="134">
         <v>7</v>
       </c>
@@ -13859,7 +13833,7 @@
       <c r="D39" s="138"/>
       <c r="E39" s="139"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="134">
         <v>8</v>
       </c>
@@ -13870,7 +13844,7 @@
       <c r="D40" s="89"/>
       <c r="E40" s="90"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="134">
         <v>9</v>
       </c>
@@ -13881,7 +13855,7 @@
       <c r="D41" s="89"/>
       <c r="E41" s="90"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="134">
         <v>10</v>
       </c>
@@ -13899,7 +13873,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="134">
         <v>11</v>
       </c>
@@ -13912,7 +13886,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="134">
         <v>12</v>
       </c>
@@ -13925,7 +13899,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="134">
         <v>13</v>
       </c>
@@ -13938,7 +13912,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="134">
         <v>14</v>
       </c>
@@ -13951,7 +13925,7 @@
       <c r="D46" s="138"/>
       <c r="E46" s="139"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="134">
         <v>15</v>
       </c>
@@ -13964,7 +13938,7 @@
       <c r="D47" s="89"/>
       <c r="E47" s="87"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="134">
         <v>16</v>
       </c>
@@ -13977,7 +13951,7 @@
       <c r="D48" s="89"/>
       <c r="E48" s="90"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="134">
         <v>17</v>
       </c>
@@ -13990,7 +13964,7 @@
       <c r="D49" s="89"/>
       <c r="E49" s="90"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="134">
         <v>18</v>
       </c>
@@ -14003,7 +13977,7 @@
       <c r="D50" s="89"/>
       <c r="E50" s="90"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="134">
         <v>19</v>
       </c>
@@ -14016,7 +13990,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="134">
         <v>20</v>
       </c>
@@ -14029,7 +14003,7 @@
       <c r="D52" s="89"/>
       <c r="E52" s="90"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="134">
         <v>21</v>
       </c>
@@ -14045,7 +14019,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="84">
         <v>22</v>
       </c>
@@ -14061,7 +14035,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="134">
         <v>23</v>
       </c>
@@ -14077,7 +14051,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="134">
         <v>24</v>
       </c>
@@ -14093,7 +14067,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="134">
         <v>25</v>
       </c>
@@ -14106,7 +14080,7 @@
       <c r="D57" s="89"/>
       <c r="E57" s="90"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="134">
         <v>26</v>
       </c>
@@ -14119,7 +14093,7 @@
       <c r="D58" s="89"/>
       <c r="E58" s="90"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="134">
         <v>27</v>
       </c>
@@ -14130,7 +14104,7 @@
       <c r="D59" s="89"/>
       <c r="E59" s="90"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="134">
         <v>28</v>
       </c>
@@ -14145,7 +14119,7 @@
       </c>
       <c r="E60" s="139"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="134">
         <v>29</v>
       </c>
@@ -14156,7 +14130,7 @@
       <c r="D61" s="89"/>
       <c r="E61" s="90"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="134">
         <v>30</v>
       </c>
@@ -14167,13 +14141,13 @@
       <c r="D62" s="138"/>
       <c r="E62" s="139"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="135" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="84">
         <v>1</v>
       </c>
@@ -14184,31 +14158,31 @@
       <c r="D65" s="86"/>
       <c r="E65" s="87"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="134">
         <v>2</v>
       </c>
       <c r="B66" s="91" t="s">
         <v>949</v>
       </c>
-      <c r="C66" s="195" t="s">
+      <c r="C66" s="190" t="s">
         <v>950</v>
       </c>
       <c r="D66" s="89"/>
       <c r="E66" s="90"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="134">
         <v>3</v>
       </c>
       <c r="B67" s="91" t="s">
         <v>949</v>
       </c>
-      <c r="C67" s="195"/>
+      <c r="C67" s="190"/>
       <c r="D67" s="89"/>
       <c r="E67" s="90"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="134">
         <v>4</v>
       </c>
@@ -14217,7 +14191,7 @@
       <c r="D68" s="89"/>
       <c r="E68" s="90"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="134">
         <v>5</v>
       </c>
@@ -14226,7 +14200,7 @@
       <c r="D69" s="138"/>
       <c r="E69" s="139"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="134">
         <v>6</v>
       </c>
@@ -14235,7 +14209,7 @@
       <c r="D70" s="89"/>
       <c r="E70" s="90"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="134">
         <v>7</v>
       </c>
@@ -14248,7 +14222,7 @@
       <c r="D71" s="89"/>
       <c r="E71" s="90"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="134">
         <v>8</v>
       </c>
@@ -14257,7 +14231,7 @@
       <c r="D72" s="89"/>
       <c r="E72" s="90"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="134">
         <v>9</v>
       </c>
@@ -14266,7 +14240,7 @@
       <c r="D73" s="89"/>
       <c r="E73" s="90"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="134">
         <v>10</v>
       </c>
@@ -14279,7 +14253,7 @@
       <c r="D74" s="89"/>
       <c r="E74" s="90"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="134">
         <v>11</v>
       </c>
@@ -14295,7 +14269,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="134">
         <v>12</v>
       </c>
@@ -14304,7 +14278,7 @@
       <c r="D76" s="138"/>
       <c r="E76" s="139"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="134">
         <v>13</v>
       </c>
@@ -14317,7 +14291,7 @@
       <c r="D77" s="89"/>
       <c r="E77" s="87"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="134">
         <v>14</v>
       </c>
@@ -14326,7 +14300,7 @@
       <c r="D78" s="89"/>
       <c r="E78" s="90"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="134">
         <v>15</v>
       </c>
@@ -14335,7 +14309,7 @@
       <c r="D79" s="89"/>
       <c r="E79" s="90"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="134">
         <v>16</v>
       </c>
@@ -14344,7 +14318,7 @@
       <c r="D80" s="89"/>
       <c r="E80" s="90"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="134">
         <v>17</v>
       </c>
@@ -14353,7 +14327,7 @@
       <c r="D81" s="89"/>
       <c r="E81" s="90"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="134">
         <v>18</v>
       </c>
@@ -14366,7 +14340,7 @@
       <c r="D82" s="89"/>
       <c r="E82" s="90"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="134">
         <v>19</v>
       </c>
@@ -14375,7 +14349,7 @@
       <c r="D83" s="89"/>
       <c r="E83" s="90"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="134">
         <v>20</v>
       </c>
@@ -14384,7 +14358,7 @@
       <c r="D84" s="86"/>
       <c r="E84" s="87"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="134">
         <v>21</v>
       </c>
@@ -14393,7 +14367,7 @@
       <c r="D85" s="89"/>
       <c r="E85" s="90"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="134">
         <v>22</v>
       </c>
@@ -14402,7 +14376,7 @@
       <c r="D86" s="89"/>
       <c r="E86" s="90"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="134">
         <v>23</v>
       </c>
@@ -14415,7 +14389,7 @@
       <c r="D87" s="89"/>
       <c r="E87" s="90"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="134">
         <v>24</v>
       </c>
@@ -14424,7 +14398,7 @@
       <c r="D88" s="89"/>
       <c r="E88" s="90"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="134">
         <v>25</v>
       </c>
@@ -14433,7 +14407,7 @@
       <c r="D89" s="89"/>
       <c r="E89" s="90"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="134">
         <v>26</v>
       </c>
@@ -14446,7 +14420,7 @@
       <c r="D90" s="138"/>
       <c r="E90" s="139"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="134">
         <v>27</v>
       </c>
@@ -14459,7 +14433,7 @@
       <c r="D91" s="86"/>
       <c r="E91" s="87"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="134">
         <v>28</v>
       </c>
@@ -14472,7 +14446,7 @@
       <c r="D92" s="89"/>
       <c r="E92" s="90"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="134">
         <v>29</v>
       </c>
@@ -14485,7 +14459,7 @@
       <c r="D93" s="89"/>
       <c r="E93" s="90"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="134">
         <v>30</v>
       </c>
@@ -14498,7 +14472,7 @@
       <c r="D94" s="89"/>
       <c r="E94" s="90"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="134">
         <v>31</v>
       </c>
@@ -14509,13 +14483,13 @@
       <c r="D95" s="138"/>
       <c r="E95" s="139"/>
     </row>
-    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="97" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="135" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="84">
         <v>1</v>
       </c>
@@ -14528,7 +14502,7 @@
       <c r="D98" s="86"/>
       <c r="E98" s="87"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="134">
         <v>2</v>
       </c>
@@ -14537,7 +14511,7 @@
       <c r="D99" s="138"/>
       <c r="E99" s="139"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="134">
         <v>3</v>
       </c>
@@ -14550,7 +14524,7 @@
       <c r="D100" s="89"/>
       <c r="E100" s="90"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="134">
         <v>4</v>
       </c>
@@ -14559,7 +14533,7 @@
       <c r="D101" s="89"/>
       <c r="E101" s="90"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="134">
         <v>5</v>
       </c>
@@ -14568,7 +14542,7 @@
       <c r="D102" s="89"/>
       <c r="E102" s="90"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="134">
         <v>6</v>
       </c>
@@ -14577,7 +14551,7 @@
       <c r="D103" s="89"/>
       <c r="E103" s="90"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="134">
         <v>7</v>
       </c>
@@ -14586,7 +14560,7 @@
       <c r="D104" s="89"/>
       <c r="E104" s="90"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="134">
         <v>8</v>
       </c>
@@ -14599,7 +14573,7 @@
       <c r="D105" s="89"/>
       <c r="E105" s="90"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="134">
         <v>9</v>
       </c>
@@ -14612,7 +14586,7 @@
       <c r="D106" s="138"/>
       <c r="E106" s="139"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="134">
         <v>10</v>
       </c>
@@ -14625,7 +14599,7 @@
       <c r="D107" s="89"/>
       <c r="E107" s="87"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="134">
         <v>11</v>
       </c>
@@ -14634,7 +14608,7 @@
       <c r="D108" s="89"/>
       <c r="E108" s="90"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="134">
         <v>12</v>
       </c>
@@ -14643,7 +14617,7 @@
       <c r="D109" s="89"/>
       <c r="E109" s="90"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="134">
         <v>13</v>
       </c>
@@ -14652,7 +14626,7 @@
       <c r="D110" s="89"/>
       <c r="E110" s="90"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="134">
         <v>14</v>
       </c>
@@ -14661,7 +14635,7 @@
       <c r="D111" s="89"/>
       <c r="E111" s="90"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="134">
         <v>15</v>
       </c>
@@ -14670,7 +14644,7 @@
       <c r="D112" s="89"/>
       <c r="E112" s="90"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="134">
         <v>16</v>
       </c>
@@ -14679,7 +14653,7 @@
       <c r="D113" s="89"/>
       <c r="E113" s="90"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="134">
         <v>17</v>
       </c>
@@ -14688,7 +14662,7 @@
       <c r="D114" s="86"/>
       <c r="E114" s="87"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="134">
         <v>18</v>
       </c>
@@ -14697,7 +14671,7 @@
       <c r="D115" s="89"/>
       <c r="E115" s="90"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="134">
         <v>19</v>
       </c>
@@ -14706,7 +14680,7 @@
       <c r="D116" s="89"/>
       <c r="E116" s="90"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="134">
         <v>20</v>
       </c>
@@ -14715,7 +14689,7 @@
       <c r="D117" s="89"/>
       <c r="E117" s="90"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="134">
         <v>21</v>
       </c>
@@ -14724,7 +14698,7 @@
       <c r="D118" s="89"/>
       <c r="E118" s="90"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="134">
         <v>22</v>
       </c>
@@ -14733,7 +14707,7 @@
       <c r="D119" s="89"/>
       <c r="E119" s="90"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="134">
         <v>23</v>
       </c>
@@ -14742,7 +14716,7 @@
       <c r="D120" s="138"/>
       <c r="E120" s="139"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="134">
         <v>24</v>
       </c>
@@ -14751,7 +14725,7 @@
       <c r="D121" s="86"/>
       <c r="E121" s="87"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="134">
         <v>25</v>
       </c>
@@ -14760,7 +14734,7 @@
       <c r="D122" s="89"/>
       <c r="E122" s="90"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="134">
         <v>26</v>
       </c>
@@ -14769,7 +14743,7 @@
       <c r="D123" s="89"/>
       <c r="E123" s="90"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="134">
         <v>27</v>
       </c>
@@ -14778,7 +14752,7 @@
       <c r="D124" s="89"/>
       <c r="E124" s="90"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="134">
         <v>28</v>
       </c>
@@ -14787,7 +14761,7 @@
       <c r="D125" s="89"/>
       <c r="E125" s="90"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="134">
         <v>29</v>
       </c>
@@ -14796,7 +14770,7 @@
       <c r="D126" s="89"/>
       <c r="E126" s="90"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="134">
         <v>30</v>
       </c>
@@ -14805,7 +14779,7 @@
       <c r="D127" s="138"/>
       <c r="E127" s="139"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="134">
         <v>31</v>
       </c>
@@ -14816,20 +14790,20 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C16:C23"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C24:C30"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="C9:C15"/>
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C16:C23"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C24:C30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://ru.hexlet.io/courses/html" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://ru.hexlet.io/courses/html" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://ru.hexlet.io/courses/html"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://ru.hexlet.io/courses/html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -14838,29 +14812,29 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="149" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.33203125" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="149" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>304</v>
       </c>
@@ -14877,7 +14851,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>306</v>
       </c>
@@ -14894,7 +14868,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>336</v>
       </c>
@@ -14911,7 +14885,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>363</v>
       </c>
@@ -14928,7 +14902,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>382</v>
       </c>
@@ -14948,7 +14922,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>384</v>
       </c>
@@ -14968,7 +14942,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>386</v>
       </c>
@@ -14985,7 +14959,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>407</v>
       </c>
@@ -15005,7 +14979,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>423</v>
       </c>
@@ -15019,13 +14993,13 @@
         <v>962</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>534</v>
       </c>
       <c r="B11" s="197"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>434</v>
       </c>
@@ -15033,7 +15007,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>438</v>
       </c>
@@ -15041,7 +15015,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>444</v>
       </c>
@@ -15049,7 +15023,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>465</v>
       </c>
@@ -15057,13 +15031,13 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>966</v>
       </c>
       <c r="B16" s="198"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>484</v>
       </c>
@@ -15071,7 +15045,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>486</v>
       </c>
@@ -15079,7 +15053,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>494</v>
       </c>
@@ -15087,7 +15061,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>541</v>
       </c>
@@ -15095,12 +15069,12 @@
         <v>542</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>613</v>
       </c>
@@ -15108,13 +15082,13 @@
         <v>614</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>703</v>
       </c>
       <c r="B23" s="197"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>740</v>
       </c>
@@ -15122,12 +15096,12 @@
         <v>405</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>963</v>
       </c>
@@ -15135,12 +15109,12 @@
         <v>964</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1022</v>
       </c>
@@ -15155,30 +15129,30 @@
     <mergeCell ref="B15:B16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" location="textarea" display="https://validator.w3.org/nu/ - textarea" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{00000000-0004-0000-0A00-000005000000}"/>
-    <hyperlink ref="A7" r:id="rId7" xr:uid="{00000000-0004-0000-0A00-000006000000}"/>
-    <hyperlink ref="A8" r:id="rId8" xr:uid="{00000000-0004-0000-0A00-000007000000}"/>
-    <hyperlink ref="A9" r:id="rId9" xr:uid="{00000000-0004-0000-0A00-000008000000}"/>
-    <hyperlink ref="A10" r:id="rId10" xr:uid="{00000000-0004-0000-0A00-000009000000}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0A00-00000A000000}"/>
-    <hyperlink ref="A13" r:id="rId12" location="комментарии" xr:uid="{00000000-0004-0000-0A00-00000B000000}"/>
-    <hyperlink ref="B13" r:id="rId13" display="https://github.com/airbnb/javascript/" xr:uid="{00000000-0004-0000-0A00-00000C000000}"/>
-    <hyperlink ref="A14" r:id="rId14" xr:uid="{00000000-0004-0000-0A00-00000D000000}"/>
-    <hyperlink ref="A15" r:id="rId15" xr:uid="{00000000-0004-0000-0A00-00000E000000}"/>
-    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0A00-00000F000000}"/>
-    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0A00-000010000000}"/>
-    <hyperlink ref="A19" r:id="rId18" location="svg-color" xr:uid="{00000000-0004-0000-0A00-000011000000}"/>
-    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0A00-000012000000}"/>
-    <hyperlink ref="A21" r:id="rId20" xr:uid="{00000000-0004-0000-0A00-000013000000}"/>
-    <hyperlink ref="A22" r:id="rId21" xr:uid="{00000000-0004-0000-0A00-000014000000}"/>
-    <hyperlink ref="A24" r:id="rId22" xr:uid="{00000000-0004-0000-0A00-000015000000}"/>
-    <hyperlink ref="A26" r:id="rId23" xr:uid="{00000000-0004-0000-0A00-000016000000}"/>
-    <hyperlink ref="A27" r:id="rId24" xr:uid="{00000000-0004-0000-0A00-000017000000}"/>
+    <hyperlink ref="A1" r:id="rId1" location="textarea" display="https://validator.w3.org/nu/ - textarea"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
+    <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12" location="комментарии"/>
+    <hyperlink ref="B13" r:id="rId13" display="https://github.com/airbnb/javascript/"/>
+    <hyperlink ref="A14" r:id="rId14"/>
+    <hyperlink ref="A15" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18" location="svg-color"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A24" r:id="rId22"/>
+    <hyperlink ref="A26" r:id="rId23"/>
+    <hyperlink ref="A27" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
@@ -15186,20 +15160,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -15210,7 +15184,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -15218,7 +15192,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -15226,7 +15200,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -15234,7 +15208,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -15242,7 +15216,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -15250,7 +15224,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -15258,7 +15232,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -15266,7 +15240,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -15274,7 +15248,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -15282,7 +15256,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -15290,7 +15264,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -15298,7 +15272,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -15306,7 +15280,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -15314,7 +15288,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -15322,7 +15296,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -15330,7 +15304,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -15338,7 +15312,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -15346,7 +15320,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -15354,7 +15328,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -15362,7 +15336,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -15370,22 +15344,22 @@
         <v>731</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -15398,21 +15372,21 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>797</v>
       </c>
@@ -15427,20 +15401,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>765</v>
       </c>
@@ -15451,7 +15425,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>766</v>
       </c>
@@ -15462,7 +15436,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>768</v>
       </c>
@@ -15473,7 +15447,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="150" t="s">
         <v>786</v>
       </c>
@@ -15481,7 +15455,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="151" t="s">
         <v>770</v>
       </c>
@@ -15492,7 +15466,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>926</v>
       </c>
@@ -15503,7 +15477,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>772</v>
       </c>
@@ -15514,7 +15488,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>774</v>
       </c>
@@ -15525,7 +15499,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="152" t="s">
         <v>775</v>
       </c>
@@ -15536,7 +15510,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>777</v>
       </c>
@@ -15547,7 +15521,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="148" t="s">
         <v>802</v>
       </c>
@@ -15558,7 +15532,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="153" t="s">
         <v>917</v>
       </c>
@@ -15566,7 +15540,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>778</v>
       </c>
@@ -15577,7 +15551,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="152" t="s">
         <v>913</v>
       </c>
@@ -15588,7 +15562,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="152" t="s">
         <v>780</v>
       </c>
@@ -15599,7 +15573,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>782</v>
       </c>
@@ -15610,7 +15584,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>784</v>
       </c>
@@ -15621,7 +15595,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>789</v>
       </c>
@@ -15632,7 +15606,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>790</v>
       </c>
@@ -15643,7 +15617,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="152" t="s">
         <v>793</v>
       </c>
@@ -15654,7 +15628,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>795</v>
       </c>
@@ -15665,7 +15639,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>800</v>
       </c>
@@ -15676,7 +15650,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" s="150" t="s">
         <v>935</v>
       </c>
@@ -15684,7 +15658,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>915</v>
       </c>
@@ -15695,7 +15669,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>909</v>
       </c>
@@ -15706,7 +15680,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="150" t="s">
         <v>912</v>
       </c>
@@ -15714,7 +15688,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>919</v>
       </c>
@@ -15725,7 +15699,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>924</v>
       </c>
@@ -15736,7 +15710,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="150" t="s">
         <v>925</v>
       </c>
@@ -15744,7 +15718,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" s="150" t="s">
         <v>927</v>
       </c>
@@ -15752,7 +15726,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>928</v>
       </c>
@@ -15763,7 +15737,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>931</v>
       </c>
@@ -15774,7 +15748,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" s="150" t="s">
         <v>933</v>
       </c>
@@ -15782,42 +15756,42 @@
         <v>834</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>922</v>
       </c>
@@ -15825,7 +15799,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>799</v>
       </c>
@@ -15833,7 +15807,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>920</v>
       </c>
@@ -15841,7 +15815,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>921</v>
       </c>
@@ -15849,307 +15823,307 @@
         <v>845</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
         <v>906</v>
       </c>
@@ -16162,27 +16136,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="30.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>158</v>
       </c>
@@ -16205,7 +16179,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>159</v>
       </c>
@@ -16228,7 +16202,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="177" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="177" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
       <c r="B3" s="12"/>
       <c r="C3" s="11"/>
@@ -16239,7 +16213,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="48"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>160</v>
       </c>
@@ -16260,7 +16234,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>161</v>
       </c>
@@ -16274,12 +16248,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H6" s="19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>173</v>
       </c>
@@ -16290,7 +16264,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>171</v>
       </c>
@@ -16307,7 +16281,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>175</v>
       </c>
@@ -16321,7 +16295,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>176</v>
       </c>
@@ -16339,7 +16313,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>180</v>
       </c>
@@ -16350,7 +16324,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>182</v>
       </c>
@@ -16361,7 +16335,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="21" t="s">
         <v>183</v>
@@ -16373,7 +16347,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="B14" s="21" t="s">
         <v>184</v>
@@ -16382,19 +16356,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
       <c r="B15" s="21" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="21" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="21" t="s">
         <v>189</v>
@@ -16409,7 +16383,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
         <v>190</v>
@@ -16418,7 +16392,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>191</v>
       </c>
@@ -16429,19 +16403,19 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="23"/>
       <c r="B20" s="21" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="21" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>198</v>
       </c>
@@ -16449,7 +16423,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="24"/>
       <c r="B23" s="21" t="s">
         <v>259</v>
@@ -16461,7 +16435,7 @@
       <c r="G23" s="46"/>
       <c r="I23" s="46"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="51" t="s">
         <v>287</v>
       </c>
@@ -16481,7 +16455,7 @@
       <c r="G24" s="50"/>
       <c r="I24" s="50"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="51"/>
       <c r="B25" s="21" t="s">
         <v>292</v>
@@ -16495,7 +16469,7 @@
       <c r="G25" s="50"/>
       <c r="I25" s="50"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="51"/>
       <c r="B26" s="21" t="s">
         <v>294</v>
@@ -16507,13 +16481,13 @@
       <c r="G26" s="50"/>
       <c r="I26" s="50"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20"/>
       <c r="G27" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
         <v>195</v>
       </c>
@@ -16527,7 +16501,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
       <c r="C29" s="27" t="s">
         <v>202</v>
@@ -16542,7 +16516,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="30" t="s">
         <v>206</v>
       </c>
@@ -16554,7 +16528,7 @@
       </c>
       <c r="F30" s="32"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="27" t="s">
         <v>209</v>
       </c>
@@ -16565,7 +16539,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C32" s="33" t="s">
         <v>212</v>
       </c>
@@ -16579,7 +16553,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="9" t="s">
         <v>217</v>
       </c>
@@ -16590,7 +16564,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="9" t="s">
         <v>223</v>
       </c>
@@ -16603,12 +16577,12 @@
       <c r="E34" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="F34" s="166" t="s">
+      <c r="F34" s="165" t="s">
         <v>227</v>
       </c>
-      <c r="G34" s="167"/>
-    </row>
-    <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="166"/>
+    </row>
+    <row r="35" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="9" t="s">
         <v>228</v>
       </c>
@@ -16624,7 +16598,7 @@
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="47"/>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
@@ -16633,7 +16607,7 @@
       <c r="G36" s="36"/>
       <c r="I36" s="47"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>260</v>
       </c>
@@ -16646,7 +16620,7 @@
       <c r="G37" s="36"/>
       <c r="I37" s="47"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D38" s="9" t="s">
         <v>129</v>
       </c>
@@ -16654,17 +16628,17 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C39" s="9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C40" s="9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C41" s="9" t="s">
         <v>222</v>
       </c>
@@ -16672,8 +16646,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="9" t="s">
         <v>232</v>
       </c>
@@ -16690,8 +16664,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="164" t="s">
         <v>239</v>
       </c>
@@ -16705,7 +16679,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="164"/>
       <c r="C72" s="33" t="s">
         <v>243</v>
@@ -16720,13 +16694,13 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="164"/>
       <c r="C73" s="41" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="49"/>
       <c r="C79" s="49"/>
       <c r="D79" s="49"/>
@@ -16735,8 +16709,8 @@
       <c r="G79" s="49"/>
       <c r="I79" s="49"/>
     </row>
-    <row r="81" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="164" t="s">
         <v>249</v>
       </c>
@@ -16745,7 +16719,7 @@
       </c>
       <c r="E82" s="42"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="164"/>
       <c r="C83" s="44" t="s">
         <v>251</v>
@@ -16755,7 +16729,7 @@
       </c>
       <c r="E83" s="164"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="164"/>
       <c r="C84" s="44" t="s">
         <v>252</v>
@@ -16765,14 +16739,14 @@
       </c>
       <c r="E84" s="164"/>
     </row>
-    <row r="85" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B85" s="164"/>
       <c r="C85" s="45" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="164" t="s">
         <v>262</v>
       </c>
@@ -16780,19 +16754,19 @@
         <v>263</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="164"/>
       <c r="C89" s="44" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="164"/>
       <c r="C90" s="44" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="164"/>
       <c r="C91" s="44" t="s">
         <v>266</v>
@@ -16804,15 +16778,15 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B92" s="164"/>
       <c r="C92" s="45" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="93" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="165" t="s">
+    <row r="93" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B94" s="167" t="s">
         <v>276</v>
       </c>
       <c r="C94" s="43" t="s">
@@ -16823,14 +16797,14 @@
       </c>
       <c r="E94" s="164"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="165"/>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B95" s="167"/>
       <c r="C95" s="44" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="165"/>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B96" s="167"/>
       <c r="C96" s="44" t="s">
         <v>278</v>
       </c>
@@ -16839,8 +16813,8 @@
       </c>
       <c r="E96" s="164"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="165"/>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B97" s="167"/>
       <c r="C97" s="44" t="s">
         <v>280</v>
       </c>
@@ -16852,8 +16826,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="165"/>
+    <row r="98" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="167"/>
       <c r="C98" s="45" t="s">
         <v>283</v>
       </c>
@@ -16865,18 +16839,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="B94:B98"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="B71:B73"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="B82:B85"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="B94:B98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16886,29 +16860,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="54" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="122" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="53" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="53" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="66.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="53" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="53" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="66.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
         <v>318</v>
       </c>
@@ -16924,7 +16898,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54" t="s">
         <v>368</v>
       </c>
@@ -16945,7 +16919,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="54" t="s">
         <v>337</v>
       </c>
@@ -16963,7 +16937,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="54" t="s">
         <v>346</v>
       </c>
@@ -16982,7 +16956,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="54" t="s">
         <v>350</v>
       </c>
@@ -16998,7 +16972,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="54" t="s">
         <v>339</v>
       </c>
@@ -17017,7 +16991,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="54" t="s">
         <v>302</v>
       </c>
@@ -17036,7 +17010,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="54" t="s">
         <v>319</v>
       </c>
@@ -17052,7 +17026,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="54" t="s">
         <v>322</v>
       </c>
@@ -17068,7 +17042,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="54" t="s">
         <v>347</v>
       </c>
@@ -17084,7 +17058,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="54" t="s">
         <v>354</v>
       </c>
@@ -17102,7 +17076,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="54" t="s">
         <v>342</v>
       </c>
@@ -17117,7 +17091,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="54" t="s">
         <v>315</v>
       </c>
@@ -17132,7 +17106,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="54" t="s">
         <v>324</v>
       </c>
@@ -17147,7 +17121,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="54" t="s">
         <v>310</v>
       </c>
@@ -17158,7 +17132,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="54" t="s">
         <v>338</v>
       </c>
@@ -17169,7 +17143,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="54" t="s">
         <v>344</v>
       </c>
@@ -17183,7 +17157,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="54" t="s">
         <v>303</v>
       </c>
@@ -17194,7 +17168,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="54" t="s">
         <v>320</v>
       </c>
@@ -17205,7 +17179,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="54" t="s">
         <v>326</v>
       </c>
@@ -17216,7 +17190,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="54" t="s">
         <v>330</v>
       </c>
@@ -17227,7 +17201,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="54" t="s">
         <v>333</v>
       </c>
@@ -17238,7 +17212,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="54" t="s">
         <v>332</v>
       </c>
@@ -17249,7 +17223,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="54" t="s">
         <v>329</v>
       </c>
@@ -17260,7 +17234,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="54" t="s">
         <v>352</v>
       </c>
@@ -17268,7 +17242,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="54" t="s">
         <v>331</v>
       </c>
@@ -17276,7 +17250,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="54" t="s">
         <v>314</v>
       </c>
@@ -17284,7 +17258,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="168" t="s">
         <v>355</v>
       </c>
@@ -17292,43 +17266,43 @@
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="168"/>
       <c r="B29" s="53" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="168"/>
       <c r="B30" s="53" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="168"/>
       <c r="B31" s="53" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="168"/>
       <c r="B32" s="53" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="168"/>
       <c r="B33" s="53" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="168"/>
       <c r="B34" s="59" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="25.2" x14ac:dyDescent="0.35">
       <c r="A35" s="57" t="s">
         <v>359</v>
       </c>
@@ -17336,7 +17310,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="22.2" x14ac:dyDescent="0.35">
       <c r="A36" s="101" t="s">
         <v>364</v>
       </c>
@@ -17344,7 +17318,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="25.2" x14ac:dyDescent="0.35">
       <c r="A37" s="60" t="s">
         <v>365</v>
       </c>
@@ -17352,7 +17326,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="62" t="s">
         <v>366</v>
       </c>
@@ -17360,7 +17334,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="62" t="s">
         <v>369</v>
       </c>
@@ -17368,7 +17342,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="62" t="s">
         <v>370</v>
       </c>
@@ -17376,7 +17350,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="62" t="s">
         <v>371</v>
       </c>
@@ -17384,7 +17358,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="64" t="s">
         <v>372</v>
       </c>
@@ -17392,7 +17366,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="54" t="s">
         <v>373</v>
       </c>
@@ -17400,7 +17374,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="57" t="s">
         <v>375</v>
       </c>
@@ -17408,7 +17382,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="54" t="s">
         <v>377</v>
       </c>
@@ -17416,7 +17390,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="54" t="s">
         <v>379</v>
       </c>
@@ -17424,7 +17398,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="54" t="s">
         <v>381</v>
       </c>
@@ -17432,7 +17406,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="54" t="s">
         <v>388</v>
       </c>
@@ -17440,7 +17414,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="54" t="s">
         <v>391</v>
       </c>
@@ -17448,7 +17422,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="54" t="s">
         <v>392</v>
       </c>
@@ -17456,7 +17430,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="54" t="s">
         <v>394</v>
       </c>
@@ -17464,7 +17438,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="54" t="s">
         <v>401</v>
       </c>
@@ -17472,7 +17446,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="54" t="s">
         <v>458</v>
       </c>
@@ -17480,7 +17454,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="54" t="s">
         <v>459</v>
       </c>
@@ -17488,7 +17462,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="54" t="s">
         <v>460</v>
       </c>
@@ -17496,7 +17470,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="25.2" x14ac:dyDescent="0.35">
       <c r="A56" s="57" t="s">
         <v>467</v>
       </c>
@@ -17504,7 +17478,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="54" t="s">
         <v>468</v>
       </c>
@@ -17512,7 +17486,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="54" t="s">
         <v>471</v>
       </c>
@@ -17520,7 +17494,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="54" t="s">
         <v>474</v>
       </c>
@@ -17528,7 +17502,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="54" t="s">
         <v>475</v>
       </c>
@@ -17536,7 +17510,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="54" t="s">
         <v>479</v>
       </c>
@@ -17544,7 +17518,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="54" t="s">
         <v>582</v>
       </c>
@@ -17552,7 +17526,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="54" t="s">
         <v>589</v>
       </c>
@@ -17560,7 +17534,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="54" t="s">
         <v>592</v>
       </c>
@@ -17568,7 +17542,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="171" t="s">
         <v>974</v>
       </c>
@@ -17576,372 +17550,372 @@
         <v>976</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="171"/>
       <c r="B66" s="170"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="54" t="s">
         <v>313</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B27">
+  <sortState ref="A2:B27">
     <sortCondition ref="A2"/>
   </sortState>
   <mergeCells count="4">
@@ -17958,24 +17932,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI245"/>
   <sheetViews>
     <sheetView topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="96" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="68" customWidth="1"/>
-    <col min="3" max="3" width="100.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="96" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="68" customWidth="1"/>
+    <col min="3" max="3" width="100.5546875" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AE1" t="s">
         <v>796</v>
       </c>
@@ -17983,7 +17957,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="178" t="s">
         <v>658</v>
       </c>
@@ -18000,7 +17974,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="179"/>
       <c r="B3" s="69" t="s">
         <v>421</v>
@@ -18021,7 +17995,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="179"/>
       <c r="B4" s="69" t="s">
         <v>297</v>
@@ -18033,7 +18007,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="179"/>
       <c r="B5" s="69" t="s">
         <v>642</v>
@@ -18048,7 +18022,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="179"/>
       <c r="B6" s="69" t="s">
         <v>644</v>
@@ -18060,7 +18034,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B7" s="69"/>
       <c r="AE7" s="5" t="s">
         <v>943</v>
@@ -18069,7 +18043,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B8" s="70" t="s">
         <v>398</v>
       </c>
@@ -18080,7 +18054,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B9" s="70" t="s">
         <v>680</v>
       </c>
@@ -18088,7 +18062,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B10" s="70" t="s">
         <v>681</v>
       </c>
@@ -18096,7 +18070,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B11" s="70" t="s">
         <v>685</v>
       </c>
@@ -18104,7 +18078,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B12" s="70" t="s">
         <v>691</v>
       </c>
@@ -18112,7 +18086,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="183" t="s">
         <v>984</v>
       </c>
@@ -18123,7 +18097,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="184"/>
       <c r="B14" s="70" t="s">
         <v>988</v>
@@ -18132,7 +18106,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="184"/>
       <c r="B15" s="70" t="s">
         <v>987</v>
@@ -18141,7 +18115,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="184"/>
       <c r="B16" s="70" t="s">
         <v>986</v>
@@ -18150,7 +18124,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="184"/>
       <c r="B17" s="70" t="s">
         <v>985</v>
@@ -18159,7 +18133,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="175" t="s">
         <v>400</v>
       </c>
@@ -18170,7 +18144,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="175"/>
       <c r="B19" s="71" t="s">
         <v>482</v>
@@ -18179,7 +18153,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="175"/>
       <c r="B20" s="71" t="s">
         <v>544</v>
@@ -18188,7 +18162,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="175"/>
       <c r="B21" s="71" t="s">
         <v>1020</v>
@@ -18197,7 +18171,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="175"/>
       <c r="B22" s="71" t="s">
         <v>548</v>
@@ -18206,7 +18180,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="159"/>
       <c r="B23" s="71" t="s">
         <v>1016</v>
@@ -18215,7 +18189,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="159"/>
       <c r="B24" s="71" t="s">
         <v>1018</v>
@@ -18224,7 +18198,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="98"/>
       <c r="B25" s="71" t="s">
         <v>550</v>
@@ -18233,7 +18207,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26" s="70" t="s">
         <v>403</v>
       </c>
@@ -18241,7 +18215,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" s="70" t="s">
         <v>405</v>
       </c>
@@ -18252,7 +18226,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" s="70" t="s">
         <v>409</v>
       </c>
@@ -18263,7 +18237,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="70" t="s">
         <v>491</v>
       </c>
@@ -18274,7 +18248,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="70" t="s">
         <v>410</v>
       </c>
@@ -18282,7 +18256,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" s="70" t="s">
         <v>412</v>
       </c>
@@ -18290,7 +18264,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" s="70" t="s">
         <v>414</v>
       </c>
@@ -18298,7 +18272,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B33" s="71" t="s">
         <v>416</v>
       </c>
@@ -18306,7 +18280,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" s="70" t="s">
         <v>419</v>
       </c>
@@ -18314,7 +18288,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35" s="70" t="s">
         <v>422</v>
       </c>
@@ -18322,7 +18296,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36" s="70" t="s">
         <v>425</v>
       </c>
@@ -18330,12 +18304,12 @@
         <v>426</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B37" s="70" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="176" t="s">
         <v>610</v>
       </c>
@@ -18346,7 +18320,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="177"/>
       <c r="B39" s="113" t="s">
         <v>577</v>
@@ -18355,7 +18329,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="177"/>
       <c r="B40" s="113" t="s">
         <v>611</v>
@@ -18364,7 +18338,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="177"/>
       <c r="B41" s="113" t="s">
         <v>436</v>
@@ -18373,7 +18347,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="177"/>
       <c r="B42" s="113" t="s">
         <v>1010</v>
@@ -18382,7 +18356,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="177"/>
       <c r="B43" s="113" t="s">
         <v>1012</v>
@@ -18391,7 +18365,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="177"/>
       <c r="B44" s="113" t="s">
         <v>708</v>
@@ -18400,7 +18374,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="177"/>
       <c r="B45" s="113" t="s">
         <v>612</v>
@@ -18409,7 +18383,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="117"/>
       <c r="B46" s="70" t="s">
         <v>683</v>
@@ -18418,14 +18392,14 @@
         <v>695</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="117"/>
       <c r="B47" s="116" t="s">
         <v>684</v>
       </c>
       <c r="C47" s="112"/>
     </row>
-    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B48" s="71" t="s">
         <v>428</v>
       </c>
@@ -18433,7 +18407,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B49" s="71" t="s">
         <v>429</v>
       </c>
@@ -18441,7 +18415,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B50" s="71" t="s">
         <v>431</v>
       </c>
@@ -18449,10 +18423,10 @@
         <v>432</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B51" s="71"/>
     </row>
-    <row r="52" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A52" s="174" t="s">
         <v>538</v>
       </c>
@@ -18463,7 +18437,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="174"/>
       <c r="B53" s="71" t="s">
         <v>537</v>
@@ -18472,7 +18446,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="174"/>
       <c r="B54" s="71" t="s">
         <v>535</v>
@@ -18481,11 +18455,11 @@
         <v>539</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B55" s="71"/>
       <c r="C55" s="66"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B56" s="71" t="s">
         <v>436</v>
       </c>
@@ -18493,7 +18467,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B57" s="71" t="s">
         <v>453</v>
       </c>
@@ -18501,7 +18475,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B58" s="70" t="s">
         <v>489</v>
       </c>
@@ -18509,7 +18483,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="B59" s="71" t="s">
         <v>495</v>
       </c>
@@ -18517,7 +18491,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B60" s="70" t="s">
         <v>521</v>
       </c>
@@ -18525,11 +18499,11 @@
         <v>520</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B61" s="70"/>
       <c r="C61" s="109"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B62" s="70" t="s">
         <v>601</v>
       </c>
@@ -18537,7 +18511,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B63" s="70" t="s">
         <v>602</v>
       </c>
@@ -18545,7 +18519,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B64" s="70" t="s">
         <v>604</v>
       </c>
@@ -18553,7 +18527,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="70" t="s">
         <v>606</v>
       </c>
@@ -18561,7 +18535,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="70" t="s">
         <v>615</v>
       </c>
@@ -18569,7 +18543,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="70" t="s">
         <v>617</v>
       </c>
@@ -18577,7 +18551,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="70" t="s">
         <v>619</v>
       </c>
@@ -18585,7 +18559,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="70" t="s">
         <v>621</v>
       </c>
@@ -18593,27 +18567,27 @@
         <v>622</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="70" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="70" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="70" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="70" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="70" t="s">
         <v>1009</v>
       </c>
@@ -18621,17 +18595,17 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="70" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="70" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="70" t="s">
         <v>992</v>
       </c>
@@ -18639,7 +18613,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="70" t="s">
         <v>994</v>
       </c>
@@ -18647,7 +18621,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="70" t="s">
         <v>996</v>
       </c>
@@ -18655,7 +18629,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" s="70" t="s">
         <v>998</v>
       </c>
@@ -18663,7 +18637,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B81" s="70" t="s">
         <v>1000</v>
       </c>
@@ -18671,10 +18645,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B82" s="70"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B83" s="70" t="s">
         <v>640</v>
       </c>
@@ -18682,7 +18656,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B84" s="70" t="s">
         <v>646</v>
       </c>
@@ -18690,7 +18664,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="180" t="s">
         <v>661</v>
       </c>
@@ -18701,7 +18675,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A86" s="181"/>
       <c r="B86" s="120" t="s">
         <v>650</v>
@@ -18710,7 +18684,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="181"/>
       <c r="B87" s="120" t="s">
         <v>656</v>
@@ -18719,7 +18693,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="181"/>
       <c r="B88" s="123" t="s">
         <v>653</v>
@@ -18728,7 +18702,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="181"/>
       <c r="B89" s="120" t="s">
         <v>654</v>
@@ -18737,7 +18711,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="181"/>
       <c r="B90" s="120" t="s">
         <v>742</v>
@@ -18746,7 +18720,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="181"/>
       <c r="B91" s="124" t="s">
         <v>659</v>
@@ -18755,7 +18729,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="181"/>
       <c r="B92" s="124" t="s">
         <v>662</v>
@@ -18764,7 +18738,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="181"/>
       <c r="B93" s="124" t="s">
         <v>664</v>
@@ -18773,7 +18747,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="181"/>
       <c r="B94" s="124" t="s">
         <v>666</v>
@@ -18782,7 +18756,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="182"/>
       <c r="B95" s="125" t="s">
         <v>668</v>
@@ -18791,7 +18765,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="127"/>
       <c r="B96" s="118" t="s">
         <v>670</v>
@@ -18800,14 +18774,14 @@
         <v>674</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="128"/>
       <c r="B97" s="124" t="s">
         <v>671</v>
       </c>
       <c r="C97" s="173"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="128"/>
       <c r="B98" s="124" t="s">
         <v>734</v>
@@ -18816,7 +18790,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="128"/>
       <c r="B99" s="124" t="s">
         <v>736</v>
@@ -18825,7 +18799,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="128"/>
       <c r="B100" s="124" t="s">
         <v>672</v>
@@ -18834,7 +18808,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="128"/>
       <c r="B101" s="124" t="s">
         <v>675</v>
@@ -18843,7 +18817,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="128"/>
       <c r="B102" s="123" t="s">
         <v>677</v>
@@ -18852,7 +18826,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="130"/>
       <c r="B103" s="125" t="s">
         <v>732</v>
@@ -18861,7 +18835,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B104" s="70" t="s">
         <v>696</v>
       </c>
@@ -18870,7 +18844,7 @@
       </c>
       <c r="D104" s="89"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B105" s="70" t="s">
         <v>705</v>
       </c>
@@ -18878,7 +18852,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B106" s="70" t="s">
         <v>708</v>
       </c>
@@ -18886,12 +18860,12 @@
         <v>707</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B107" s="70" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B108" s="70" t="s">
         <v>744</v>
       </c>
@@ -18899,400 +18873,400 @@
         <v>745</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B109" s="70"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" s="70"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="70"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="70"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" s="70"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" s="70"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" s="70"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" s="70"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" s="70"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" s="70"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124" s="70"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" s="70"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" s="70"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" s="70"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128" s="70"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" s="70"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" s="70"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" s="70"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" s="70"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" s="70"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" s="70"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" s="70"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" s="70"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" s="70"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" s="70"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" s="70"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" s="70"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" s="70"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" s="70"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" s="70"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" s="70"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" s="70"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" s="70"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" s="70"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" s="70"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" s="70"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" s="70"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" s="70"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" s="70"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" s="70"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" s="70"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" s="70"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" s="70"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" s="70"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" s="70"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" s="70"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" s="70"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" s="70"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162" s="70"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163" s="70"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164" s="70"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165" s="70"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" s="70"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167" s="70"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168" s="70"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169" s="70"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170" s="70"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171" s="70"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B172" s="70"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173" s="70"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B174" s="70"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175" s="70"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B176" s="70"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177" s="70"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" s="70"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" s="70"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180" s="70"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" s="70"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" s="70"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" s="70"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" s="70"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185" s="70"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186" s="70"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" s="70"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188" s="70"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189" s="70"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190" s="70"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191" s="70"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192" s="70"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" s="70"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" s="70"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" s="70"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" s="70"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" s="70"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" s="70"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" s="70"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" s="70"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201" s="70"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B202" s="70"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" s="70"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B204" s="70"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B205" s="70"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B206" s="70"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B207" s="70"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B208" s="70"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" s="70"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B210" s="70"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" s="70"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212" s="70"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" s="70"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B214" s="70"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215" s="70"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216" s="70"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B217" s="70"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218" s="70"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219" s="70"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B220" s="70"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221" s="70"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B222" s="70"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B223" s="70"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B224" s="70"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" s="70"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B226" s="70"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" s="70"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" s="70"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" s="70"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" s="70"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" s="70"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B232" s="70"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B233" s="70"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B234" s="70"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B235" s="70"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B236" s="70"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B237" s="70"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B238" s="70"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B239" s="70"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B240" s="70"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B241" s="70"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B242" s="70"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B243" s="70"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B244" s="70"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B245" s="70"/>
     </row>
   </sheetData>
@@ -19306,9 +19280,9 @@
     <mergeCell ref="A13:A17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AE6" r:id="rId1" display="/@import" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="AE7" r:id="rId2" display="/@import" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="AF7" r:id="rId3" display="/@import" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="AE6" r:id="rId1" display="/@import"/>
+    <hyperlink ref="AE7" r:id="rId2" display="/@import"/>
+    <hyperlink ref="AF7" r:id="rId3" display="/@import"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -19318,20 +19292,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B387"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="76" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" style="76" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="74" t="s">
         <v>443</v>
       </c>
@@ -19339,7 +19313,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
         <v>441</v>
       </c>
@@ -19347,7 +19321,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="75" t="s">
         <v>446</v>
       </c>
@@ -19355,7 +19329,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="75" t="s">
         <v>448</v>
       </c>
@@ -19363,7 +19337,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="75" t="s">
         <v>450</v>
       </c>
@@ -19371,7 +19345,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="76" t="s">
         <v>971</v>
       </c>
@@ -19379,70 +19353,74 @@
         <v>968</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="75" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="75" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="75" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="75" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="75" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="75"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="75" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="75" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="75"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="75"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="75"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="75"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="75"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="75"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="75"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="75"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="75"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="75" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="75" t="s">
         <v>524</v>
       </c>
@@ -19450,7 +19428,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="75" t="s">
         <v>700</v>
       </c>
@@ -19458,7 +19436,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="75" t="s">
         <v>698</v>
       </c>
@@ -19466,27 +19444,27 @@
         <v>699</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="75" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="75" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="75" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="75" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="75" t="s">
         <v>501</v>
       </c>
@@ -19494,7 +19472,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="75" t="s">
         <v>505</v>
       </c>
@@ -19502,12 +19480,12 @@
         <v>503</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="75" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="75" t="s">
         <v>508</v>
       </c>
@@ -19515,12 +19493,12 @@
         <v>510</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="75" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="75" t="s">
         <v>514</v>
       </c>
@@ -19528,12 +19506,12 @@
         <v>515</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="75" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="75" t="s">
         <v>518</v>
       </c>
@@ -19541,17 +19519,17 @@
         <v>517</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="75" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="75" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="75" t="s">
         <v>525</v>
       </c>
@@ -19559,1048 +19537,1048 @@
         <v>526</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="75"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="75"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="75"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="75"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="75"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="75"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="75"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="75"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="75"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="75"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="75"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="75"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="75"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="75"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="75"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="75"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="75"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="75"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="75"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="75"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="75"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="75"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="75"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="75"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="75"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="75"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="75"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="75"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="75"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="75"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="75"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="75"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="75"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="75"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="75"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="75"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="75"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="75"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="75"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="75"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="75"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="75"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="75"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="75"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="75"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="75"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="75"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="75"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="75"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="75"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="75"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="75"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="75"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="75"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="75"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="75"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="75"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="75"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="75"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="75"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="75"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="75"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="75"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="75"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="75"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="75"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="75"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="75"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="75"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="75"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="75"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="75"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="75"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="75"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="75"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="75"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="75"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="75"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="75"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="75"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="75"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="75"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="75"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="75"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="75"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="75"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="75"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="75"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="75"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="75"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="75"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="75"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="75"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="75"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="75"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="75"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="75"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="75"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="75"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="75"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="75"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="75"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="75"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="75"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="75"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="75"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="75"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="75"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="75"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="75"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="75"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="75"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="75"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="75"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="75"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="75"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="75"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="75"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="75"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="75"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="75"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="75"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="75"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="75"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="75"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="75"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="75"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="75"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="75"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="75"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="75"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="75"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="75"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="75"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="75"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="75"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="75"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="75"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="75"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="75"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="75"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="75"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="75"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="75"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="75"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="75"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="75"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="75"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="75"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="75"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="75"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="75"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="75"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="75"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="75"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="75"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="75"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="75"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="75"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="75"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="75"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="75"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="75"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="75"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="75"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="75"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="75"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="75"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="75"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="75"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="75"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="75"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="75"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="75"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="75"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="75"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="75"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="75"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="75"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="75"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="75"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="75"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="75"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="75"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="75"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="75"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="75"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="75"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="75"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="75"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="75"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="75"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="75"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="75"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="75"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="75"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="75"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="75"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="75"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="75"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="75"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="75"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="75"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="75"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="75"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="75"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="75"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="75"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="75"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="75"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="75"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="75"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="75"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="75"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="75"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="75"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="75"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="75"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="75"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="75"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="75"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="75"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="75"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="75"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="75"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="75"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="75"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="75"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="75"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="75"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="75"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="75"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="75"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="75"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="75"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="75"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="75"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="75"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="75"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="75"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="75"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="75"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="75"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="75"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="75"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="75"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="75"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="75"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="75"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="75"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="75"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="75"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="75"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="75"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="75"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="75"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="75"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="75"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="75"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="75"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" s="75"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" s="75"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" s="75"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" s="75"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" s="75"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" s="75"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" s="75"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" s="75"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" s="75"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" s="75"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" s="75"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" s="75"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" s="75"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" s="75"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" s="75"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" s="75"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" s="75"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" s="75"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" s="75"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" s="75"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" s="75"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" s="75"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" s="75"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" s="75"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" s="75"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" s="75"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" s="75"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" s="75"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" s="75"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" s="75"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" s="75"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" s="75"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" s="75"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" s="75"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" s="75"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" s="75"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" s="75"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" s="75"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" s="75"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" s="75"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" s="75"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" s="75"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" s="75"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" s="75"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" s="75"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347" s="75"/>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348" s="75"/>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349" s="75"/>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350" s="75"/>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351" s="75"/>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352" s="75"/>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" s="75"/>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354" s="75"/>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355" s="75"/>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356" s="75"/>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357" s="75"/>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358" s="75"/>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359" s="75"/>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360" s="75"/>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361" s="75"/>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" s="75"/>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363" s="75"/>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364" s="75"/>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" s="75"/>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366" s="75"/>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367" s="75"/>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368" s="75"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369" s="75"/>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370" s="75"/>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371" s="75"/>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372" s="75"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373" s="75"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374" s="75"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375" s="75"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376" s="75"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377" s="75"/>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378" s="75"/>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379" s="75"/>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380" s="75"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381" s="75"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382" s="75"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383" s="75"/>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384" s="75"/>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385" s="75"/>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386" s="75"/>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387" s="75"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Global_Objects/String/slice" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Global_Objects/String/padStart" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Global_Objects/String/slice"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Global_Objects/String/padStart"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -20609,20 +20587,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1096</v>
       </c>
@@ -20630,7 +20608,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1025</v>
       </c>
@@ -20638,7 +20616,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1032</v>
       </c>
@@ -20646,12 +20624,12 @@
         <v>569</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1027</v>
       </c>
@@ -20659,7 +20637,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1028</v>
       </c>
@@ -20667,7 +20645,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1034</v>
       </c>
@@ -20675,7 +20653,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>1033</v>
       </c>
@@ -20683,94 +20661,99 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>1095</v>
       </c>
     </row>
@@ -20782,20 +20765,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="162" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" style="162" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="85" style="163" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="162" t="s">
         <v>1052</v>
       </c>
@@ -20803,7 +20786,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="162" t="s">
         <v>1054</v>
       </c>
@@ -20811,7 +20794,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="162" t="s">
         <v>1055</v>
       </c>
@@ -20819,7 +20802,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="162" t="s">
         <v>1057</v>
       </c>
@@ -20827,7 +20810,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="162" t="s">
         <v>1059</v>
       </c>
@@ -20835,7 +20818,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="162" t="s">
         <v>1061</v>
       </c>
@@ -20843,7 +20826,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="162" t="s">
         <v>1064</v>
       </c>
@@ -20851,7 +20834,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="162" t="s">
         <v>1065</v>
       </c>
@@ -20859,7 +20842,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="162" t="s">
         <v>1067</v>
       </c>
@@ -20867,7 +20850,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="162" t="s">
         <v>1069</v>
       </c>
@@ -20875,7 +20858,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="162" t="s">
         <v>1071</v>
       </c>
@@ -20883,7 +20866,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="162" t="s">
         <v>1073</v>
       </c>
@@ -20891,7 +20874,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="162" t="s">
         <v>1075</v>
       </c>
@@ -20899,7 +20882,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="162" t="s">
         <v>1077</v>
       </c>
@@ -20907,7 +20890,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="162" t="s">
         <v>1079</v>
       </c>
@@ -20915,7 +20898,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="162" t="s">
         <v>1081</v>
       </c>
@@ -20923,7 +20906,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="162" t="s">
         <v>1083</v>
       </c>
@@ -20931,7 +20914,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="162" t="s">
         <v>1086</v>
       </c>
@@ -20939,7 +20922,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="162" t="s">
         <v>1088</v>
       </c>
@@ -20954,20 +20937,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="75"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="75"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="75" t="s">
         <v>528</v>
       </c>
@@ -20975,7 +20958,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
         <v>531</v>
       </c>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F757AD-1895-4216-9BAE-1A08B83D4FC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7416" yWindow="852" windowWidth="14880" windowHeight="13008" activeTab="6"/>
+    <workbookView xWindow="45" yWindow="525" windowWidth="14880" windowHeight="13005" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="1" r:id="rId1"/>
@@ -26,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="0">
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -66,12 +67,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -146,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -176,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -201,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -268,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -294,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -320,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -335,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0">
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -361,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0">
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -375,7 +376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0">
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -390,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E29" authorId="0">
+    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -405,7 +406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F29" authorId="0">
+    <comment ref="F29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
@@ -516,7 +517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0">
+    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
         <r>
           <rPr>
@@ -542,7 +543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
         <r>
           <rPr>
@@ -568,7 +569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0">
+    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
           <rPr>
@@ -583,7 +584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C33" authorId="0">
+    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
       <text>
         <r>
           <rPr>
@@ -598,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D33" authorId="0">
+    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
       <text>
         <r>
           <rPr>
@@ -624,7 +625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D35" authorId="0">
+    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
       <text>
         <r>
           <rPr>
@@ -644,7 +645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E35" authorId="0">
+    <comment ref="E35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
       <text>
         <r>
           <rPr>
@@ -664,7 +665,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="0">
+    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
       <text>
         <r>
           <rPr>
@@ -690,7 +691,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C40" authorId="0">
+    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -704,7 +705,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C41" authorId="0">
+    <comment ref="C41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -730,7 +731,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C97" authorId="0">
+    <comment ref="C97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -750,12 +751,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A27" authorId="0">
+    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -795,7 +796,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0">
+    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -812,7 +813,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A36" authorId="0">
+    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -859,7 +860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0">
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -893,7 +894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A47" authorId="0">
+    <comment ref="A47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -926,12 +927,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -948,7 +949,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1061,7 +1062,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1086,7 +1087,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0">
+    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1108,7 +1109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="0">
+    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1131,7 +1132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="0">
+    <comment ref="A38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1153,7 +1154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B54" authorId="0">
+    <comment ref="B54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1172,7 +1173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B57" authorId="0">
+    <comment ref="B57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1329,7 +1330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B58" authorId="0">
+    <comment ref="B58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1348,7 +1349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B95" authorId="0">
+    <comment ref="B95" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1366,7 +1367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B107" authorId="0">
+    <comment ref="B107" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -8891,7 +8892,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0&quot;р.&quot;"/>
   </numFmts>
@@ -10312,13 +10313,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10372,10 +10373,10 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10387,18 +10388,6 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10406,6 +10395,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10452,7 +10453,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10496,7 +10497,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10545,7 +10546,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10594,7 +10595,7 @@
         <xdr:cNvPr id="10" name="Рисунок 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10644,7 +10645,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10694,7 +10695,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10744,7 +10745,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10794,7 +10795,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10844,7 +10845,7 @@
         <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10894,7 +10895,7 @@
         <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10944,7 +10945,7 @@
         <xdr:cNvPr id="8" name="Рисунок 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10994,7 +10995,7 @@
         <xdr:cNvPr id="9" name="Рисунок 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11044,7 +11045,7 @@
         <xdr:cNvPr id="11" name="Рисунок 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11094,7 +11095,7 @@
         <xdr:cNvPr id="12" name="Рисунок 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11149,7 +11150,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11193,7 +11194,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11237,7 +11238,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11281,7 +11282,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11325,7 +11326,7 @@
         <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11369,7 +11370,7 @@
         <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11413,7 +11414,7 @@
         <xdr:cNvPr id="8" name="Рисунок 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11457,7 +11458,7 @@
         <xdr:cNvPr id="10" name="Рисунок 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D7B343C-A3ED-4FC7-9C61-E2FAC866C9AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7B343C-A3ED-4FC7-9C61-E2FAC866C9AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11512,7 +11513,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11562,7 +11563,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11606,7 +11607,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11650,7 +11651,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11700,7 +11701,7 @@
         <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11744,7 +11745,7 @@
         <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11788,7 +11789,7 @@
         <xdr:cNvPr id="8" name="Рисунок 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11832,7 +11833,7 @@
         <xdr:cNvPr id="9" name="Рисунок 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11881,7 +11882,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11925,7 +11926,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11960,7 +11961,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4560100</xdr:colOff>
+      <xdr:colOff>4283875</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
@@ -11969,7 +11970,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12018,7 +12019,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{054E37CF-64A3-416F-807D-1909E1878560}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{054E37CF-64A3-416F-807D-1909E1878560}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12062,7 +12063,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46D16BBE-77A1-4FB5-B99E-BD4C46623750}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D16BBE-77A1-4FB5-B99E-BD4C46623750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12111,7 +12112,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12160,7 +12161,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12204,7 +12205,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12248,7 +12249,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12292,7 +12293,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12341,7 +12342,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12385,7 +12386,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12429,7 +12430,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12501,7 +12502,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12534,9 +12535,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12569,6 +12587,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -12744,21 +12779,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -12766,7 +12801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -12777,7 +12812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -12788,7 +12823,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -12796,7 +12831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -12804,7 +12839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -12812,7 +12847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -12820,7 +12855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -12831,7 +12866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -12839,7 +12874,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -12847,7 +12882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
@@ -12855,7 +12890,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
@@ -12863,7 +12898,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
@@ -12871,7 +12906,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
@@ -12879,7 +12914,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -12887,7 +12922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -12895,7 +12930,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -12903,7 +12938,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -12911,7 +12946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -12919,7 +12954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -12927,7 +12962,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -12935,7 +12970,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -12943,7 +12978,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -12951,7 +12986,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
@@ -12962,7 +12997,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -12970,7 +13005,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -12978,7 +13013,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -12986,7 +13021,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -12994,7 +13029,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
@@ -13002,7 +13037,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
@@ -13010,7 +13045,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -13018,7 +13053,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
@@ -13029,7 +13064,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
@@ -13037,7 +13072,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
@@ -13045,7 +13080,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>71</v>
       </c>
@@ -13053,7 +13088,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
@@ -13061,7 +13096,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>76</v>
       </c>
@@ -13069,7 +13104,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
@@ -13077,7 +13112,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
@@ -13085,7 +13120,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>83</v>
       </c>
@@ -13096,7 +13131,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>85</v>
       </c>
@@ -13104,7 +13139,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>86</v>
       </c>
@@ -13112,12 +13147,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>90</v>
       </c>
@@ -13125,7 +13160,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>93</v>
       </c>
@@ -13133,7 +13168,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>94</v>
       </c>
@@ -13141,7 +13176,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>96</v>
       </c>
@@ -13149,7 +13184,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>98</v>
       </c>
@@ -13157,7 +13192,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>100</v>
       </c>
@@ -13165,7 +13200,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>102</v>
       </c>
@@ -13173,7 +13208,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>104</v>
       </c>
@@ -13181,7 +13216,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>106</v>
       </c>
@@ -13189,7 +13224,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>108</v>
       </c>
@@ -13197,7 +13232,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>111</v>
       </c>
@@ -13205,7 +13240,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>113</v>
       </c>
@@ -13213,12 +13248,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>115</v>
       </c>
@@ -13226,7 +13261,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>117</v>
       </c>
@@ -13234,7 +13269,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>126</v>
       </c>
@@ -13242,17 +13277,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>130</v>
       </c>
@@ -13260,32 +13295,32 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>137</v>
       </c>
@@ -13293,12 +13328,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>140</v>
       </c>
@@ -13306,59 +13341,59 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="42" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
     </row>
-    <row r="89" spans="1:2" ht="51" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="52.5" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
     </row>
-    <row r="91" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="42" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
     </row>
-    <row r="93" spans="1:2" ht="51" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="52.5" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
     </row>
-    <row r="95" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="42" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
     </row>
-    <row r="97" spans="1:1" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" ht="42" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C27" r:id="rId1"/>
+    <hyperlink ref="C27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -13367,50 +13402,50 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="135" t="s">
         <v>533</v>
       </c>
       <c r="B1" s="81"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="132">
         <v>4</v>
       </c>
       <c r="B2" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="193" t="s">
+      <c r="C2" s="185" t="s">
         <v>300</v>
       </c>
       <c r="D2" s="86"/>
       <c r="E2" s="87"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="83">
         <v>5</v>
       </c>
       <c r="B3" s="88" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="191"/>
+      <c r="C3" s="186"/>
       <c r="D3" s="89" t="s">
         <v>308</v>
       </c>
@@ -13418,38 +13453,38 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="83">
         <v>6</v>
       </c>
       <c r="B4" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="191" t="s">
+      <c r="C4" s="186" t="s">
         <v>309</v>
       </c>
       <c r="D4" s="89"/>
       <c r="E4" s="90"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="83">
         <v>7</v>
       </c>
       <c r="B5" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="191"/>
+      <c r="C5" s="186"/>
       <c r="D5" s="89"/>
       <c r="E5" s="90"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="83">
         <v>8</v>
       </c>
       <c r="B6" s="91" t="s">
         <v>396</v>
       </c>
-      <c r="C6" s="191"/>
+      <c r="C6" s="186"/>
       <c r="D6" s="89" t="s">
         <v>437</v>
       </c>
@@ -13457,29 +13492,29 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="83">
         <v>9</v>
       </c>
       <c r="B7" s="140" t="s">
         <v>437</v>
       </c>
-      <c r="C7" s="191"/>
+      <c r="C7" s="186"/>
       <c r="D7" s="89"/>
       <c r="E7" s="90"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="83">
         <v>10</v>
       </c>
       <c r="B8" s="142" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="192"/>
+      <c r="C8" s="196"/>
       <c r="D8" s="138"/>
       <c r="E8" s="139"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="83">
         <v>11</v>
       </c>
@@ -13495,7 +13530,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="83">
         <v>12</v>
       </c>
@@ -13506,7 +13541,7 @@
       <c r="D10" s="89"/>
       <c r="E10" s="90"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="83">
         <v>13</v>
       </c>
@@ -13517,7 +13552,7 @@
       <c r="D11" s="89"/>
       <c r="E11" s="90"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="83">
         <v>14</v>
       </c>
@@ -13528,7 +13563,7 @@
       <c r="D12" s="89"/>
       <c r="E12" s="90"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="83">
         <v>15</v>
       </c>
@@ -13541,7 +13576,7 @@
       </c>
       <c r="E13" s="90"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="83">
         <v>16</v>
       </c>
@@ -13552,7 +13587,7 @@
       <c r="D14" s="89"/>
       <c r="E14" s="90"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="83">
         <v>17</v>
       </c>
@@ -13563,7 +13598,7 @@
       <c r="D15" s="138"/>
       <c r="E15" s="139"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="83">
         <v>18</v>
       </c>
@@ -13580,7 +13615,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="83">
         <v>19</v>
       </c>
@@ -13591,7 +13626,7 @@
       <c r="D17" s="89"/>
       <c r="E17" s="90"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="83">
         <v>20</v>
       </c>
@@ -13602,7 +13637,7 @@
       <c r="D18" s="89"/>
       <c r="E18" s="90"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="83">
         <v>21</v>
       </c>
@@ -13617,7 +13652,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="83">
         <v>22</v>
       </c>
@@ -13628,31 +13663,31 @@
       <c r="D20" s="89"/>
       <c r="E20" s="90"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="194">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="190">
         <v>23</v>
       </c>
       <c r="B21" s="140" t="s">
         <v>532</v>
       </c>
       <c r="C21" s="188"/>
-      <c r="D21" s="185" t="s">
+      <c r="D21" s="193" t="s">
         <v>679</v>
       </c>
-      <c r="E21" s="186" t="s">
+      <c r="E21" s="194" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="194"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="190"/>
       <c r="B22" s="140" t="s">
         <v>497</v>
       </c>
       <c r="C22" s="188"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="186"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="193"/>
+      <c r="E22" s="194"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="83">
         <v>24</v>
       </c>
@@ -13663,20 +13698,20 @@
       <c r="D23" s="138"/>
       <c r="E23" s="139"/>
     </row>
-    <row r="24" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="83">
         <v>25</v>
       </c>
       <c r="B24" s="91" t="s">
         <v>639</v>
       </c>
-      <c r="C24" s="195" t="s">
+      <c r="C24" s="191" t="s">
         <v>511</v>
       </c>
       <c r="D24" s="89"/>
       <c r="E24" s="90"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="115">
         <v>26</v>
       </c>
@@ -13687,7 +13722,7 @@
       <c r="D25" s="89"/>
       <c r="E25" s="90"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="83">
         <v>27</v>
       </c>
@@ -13698,7 +13733,7 @@
       <c r="D26" s="89"/>
       <c r="E26" s="90"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="83">
         <v>28</v>
       </c>
@@ -13709,7 +13744,7 @@
       <c r="D27" s="89"/>
       <c r="E27" s="90"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="83">
         <v>29</v>
       </c>
@@ -13722,7 +13757,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="83">
         <v>30</v>
       </c>
@@ -13733,24 +13768,24 @@
       <c r="D29" s="89"/>
       <c r="E29" s="90"/>
     </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="84">
         <v>31</v>
       </c>
       <c r="B30" s="141" t="s">
         <v>686</v>
       </c>
-      <c r="C30" s="196"/>
+      <c r="C30" s="192"/>
       <c r="D30" s="77"/>
       <c r="E30" s="92"/>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="135" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="84">
         <v>1</v>
       </c>
@@ -13763,7 +13798,7 @@
       <c r="D33" s="86"/>
       <c r="E33" s="87"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="134">
         <v>2</v>
       </c>
@@ -13774,7 +13809,7 @@
       <c r="D34" s="89"/>
       <c r="E34" s="90"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="134">
         <v>3</v>
       </c>
@@ -13789,7 +13824,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="134">
         <v>4</v>
       </c>
@@ -13800,7 +13835,7 @@
       <c r="D36" s="89"/>
       <c r="E36" s="90"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="134">
         <v>5</v>
       </c>
@@ -13811,7 +13846,7 @@
       <c r="D37" s="89"/>
       <c r="E37" s="90"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="134">
         <v>6</v>
       </c>
@@ -13822,7 +13857,7 @@
       <c r="D38" s="89"/>
       <c r="E38" s="90"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="134">
         <v>7</v>
       </c>
@@ -13833,7 +13868,7 @@
       <c r="D39" s="138"/>
       <c r="E39" s="139"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="134">
         <v>8</v>
       </c>
@@ -13844,7 +13879,7 @@
       <c r="D40" s="89"/>
       <c r="E40" s="90"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="134">
         <v>9</v>
       </c>
@@ -13855,7 +13890,7 @@
       <c r="D41" s="89"/>
       <c r="E41" s="90"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="134">
         <v>10</v>
       </c>
@@ -13873,7 +13908,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="134">
         <v>11</v>
       </c>
@@ -13886,7 +13921,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="134">
         <v>12</v>
       </c>
@@ -13899,7 +13934,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="134">
         <v>13</v>
       </c>
@@ -13912,7 +13947,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="134">
         <v>14</v>
       </c>
@@ -13925,7 +13960,7 @@
       <c r="D46" s="138"/>
       <c r="E46" s="139"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="134">
         <v>15</v>
       </c>
@@ -13938,7 +13973,7 @@
       <c r="D47" s="89"/>
       <c r="E47" s="87"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="134">
         <v>16</v>
       </c>
@@ -13951,7 +13986,7 @@
       <c r="D48" s="89"/>
       <c r="E48" s="90"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="134">
         <v>17</v>
       </c>
@@ -13964,7 +13999,7 @@
       <c r="D49" s="89"/>
       <c r="E49" s="90"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="134">
         <v>18</v>
       </c>
@@ -13977,7 +14012,7 @@
       <c r="D50" s="89"/>
       <c r="E50" s="90"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="134">
         <v>19</v>
       </c>
@@ -13990,7 +14025,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="134">
         <v>20</v>
       </c>
@@ -14003,7 +14038,7 @@
       <c r="D52" s="89"/>
       <c r="E52" s="90"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="134">
         <v>21</v>
       </c>
@@ -14019,7 +14054,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="84">
         <v>22</v>
       </c>
@@ -14035,7 +14070,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="134">
         <v>23</v>
       </c>
@@ -14051,7 +14086,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="134">
         <v>24</v>
       </c>
@@ -14067,7 +14102,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="134">
         <v>25</v>
       </c>
@@ -14080,7 +14115,7 @@
       <c r="D57" s="89"/>
       <c r="E57" s="90"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="134">
         <v>26</v>
       </c>
@@ -14093,7 +14128,7 @@
       <c r="D58" s="89"/>
       <c r="E58" s="90"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="134">
         <v>27</v>
       </c>
@@ -14104,7 +14139,7 @@
       <c r="D59" s="89"/>
       <c r="E59" s="90"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="134">
         <v>28</v>
       </c>
@@ -14119,7 +14154,7 @@
       </c>
       <c r="E60" s="139"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="134">
         <v>29</v>
       </c>
@@ -14130,7 +14165,7 @@
       <c r="D61" s="89"/>
       <c r="E61" s="90"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="134">
         <v>30</v>
       </c>
@@ -14141,13 +14176,13 @@
       <c r="D62" s="138"/>
       <c r="E62" s="139"/>
     </row>
-    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="135" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="84">
         <v>1</v>
       </c>
@@ -14158,31 +14193,31 @@
       <c r="D65" s="86"/>
       <c r="E65" s="87"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="134">
         <v>2</v>
       </c>
       <c r="B66" s="91" t="s">
         <v>949</v>
       </c>
-      <c r="C66" s="190" t="s">
+      <c r="C66" s="195" t="s">
         <v>950</v>
       </c>
       <c r="D66" s="89"/>
       <c r="E66" s="90"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="134">
         <v>3</v>
       </c>
       <c r="B67" s="91" t="s">
         <v>949</v>
       </c>
-      <c r="C67" s="190"/>
+      <c r="C67" s="195"/>
       <c r="D67" s="89"/>
       <c r="E67" s="90"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="134">
         <v>4</v>
       </c>
@@ -14191,7 +14226,7 @@
       <c r="D68" s="89"/>
       <c r="E68" s="90"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="134">
         <v>5</v>
       </c>
@@ -14200,7 +14235,7 @@
       <c r="D69" s="138"/>
       <c r="E69" s="139"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="134">
         <v>6</v>
       </c>
@@ -14209,7 +14244,7 @@
       <c r="D70" s="89"/>
       <c r="E70" s="90"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="134">
         <v>7</v>
       </c>
@@ -14222,7 +14257,7 @@
       <c r="D71" s="89"/>
       <c r="E71" s="90"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="134">
         <v>8</v>
       </c>
@@ -14231,7 +14266,7 @@
       <c r="D72" s="89"/>
       <c r="E72" s="90"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="134">
         <v>9</v>
       </c>
@@ -14240,7 +14275,7 @@
       <c r="D73" s="89"/>
       <c r="E73" s="90"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="134">
         <v>10</v>
       </c>
@@ -14253,7 +14288,7 @@
       <c r="D74" s="89"/>
       <c r="E74" s="90"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="134">
         <v>11</v>
       </c>
@@ -14269,7 +14304,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="134">
         <v>12</v>
       </c>
@@ -14278,7 +14313,7 @@
       <c r="D76" s="138"/>
       <c r="E76" s="139"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="134">
         <v>13</v>
       </c>
@@ -14291,7 +14326,7 @@
       <c r="D77" s="89"/>
       <c r="E77" s="87"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="134">
         <v>14</v>
       </c>
@@ -14300,7 +14335,7 @@
       <c r="D78" s="89"/>
       <c r="E78" s="90"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="134">
         <v>15</v>
       </c>
@@ -14309,7 +14344,7 @@
       <c r="D79" s="89"/>
       <c r="E79" s="90"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="134">
         <v>16</v>
       </c>
@@ -14318,7 +14353,7 @@
       <c r="D80" s="89"/>
       <c r="E80" s="90"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="134">
         <v>17</v>
       </c>
@@ -14327,7 +14362,7 @@
       <c r="D81" s="89"/>
       <c r="E81" s="90"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="134">
         <v>18</v>
       </c>
@@ -14340,7 +14375,7 @@
       <c r="D82" s="89"/>
       <c r="E82" s="90"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="134">
         <v>19</v>
       </c>
@@ -14349,7 +14384,7 @@
       <c r="D83" s="89"/>
       <c r="E83" s="90"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="134">
         <v>20</v>
       </c>
@@ -14358,7 +14393,7 @@
       <c r="D84" s="86"/>
       <c r="E84" s="87"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="134">
         <v>21</v>
       </c>
@@ -14367,7 +14402,7 @@
       <c r="D85" s="89"/>
       <c r="E85" s="90"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="134">
         <v>22</v>
       </c>
@@ -14376,7 +14411,7 @@
       <c r="D86" s="89"/>
       <c r="E86" s="90"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="134">
         <v>23</v>
       </c>
@@ -14389,7 +14424,7 @@
       <c r="D87" s="89"/>
       <c r="E87" s="90"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="134">
         <v>24</v>
       </c>
@@ -14398,7 +14433,7 @@
       <c r="D88" s="89"/>
       <c r="E88" s="90"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="134">
         <v>25</v>
       </c>
@@ -14407,7 +14442,7 @@
       <c r="D89" s="89"/>
       <c r="E89" s="90"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="134">
         <v>26</v>
       </c>
@@ -14420,7 +14455,7 @@
       <c r="D90" s="138"/>
       <c r="E90" s="139"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="134">
         <v>27</v>
       </c>
@@ -14433,7 +14468,7 @@
       <c r="D91" s="86"/>
       <c r="E91" s="87"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="134">
         <v>28</v>
       </c>
@@ -14446,7 +14481,7 @@
       <c r="D92" s="89"/>
       <c r="E92" s="90"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="134">
         <v>29</v>
       </c>
@@ -14459,7 +14494,7 @@
       <c r="D93" s="89"/>
       <c r="E93" s="90"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="134">
         <v>30</v>
       </c>
@@ -14472,7 +14507,7 @@
       <c r="D94" s="89"/>
       <c r="E94" s="90"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="134">
         <v>31</v>
       </c>
@@ -14483,13 +14518,13 @@
       <c r="D95" s="138"/>
       <c r="E95" s="139"/>
     </row>
-    <row r="96" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="97" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="135" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="84">
         <v>1</v>
       </c>
@@ -14502,7 +14537,7 @@
       <c r="D98" s="86"/>
       <c r="E98" s="87"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="134">
         <v>2</v>
       </c>
@@ -14511,7 +14546,7 @@
       <c r="D99" s="138"/>
       <c r="E99" s="139"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="134">
         <v>3</v>
       </c>
@@ -14524,7 +14559,7 @@
       <c r="D100" s="89"/>
       <c r="E100" s="90"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="134">
         <v>4</v>
       </c>
@@ -14533,7 +14568,7 @@
       <c r="D101" s="89"/>
       <c r="E101" s="90"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="134">
         <v>5</v>
       </c>
@@ -14542,7 +14577,7 @@
       <c r="D102" s="89"/>
       <c r="E102" s="90"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="134">
         <v>6</v>
       </c>
@@ -14551,7 +14586,7 @@
       <c r="D103" s="89"/>
       <c r="E103" s="90"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="134">
         <v>7</v>
       </c>
@@ -14560,7 +14595,7 @@
       <c r="D104" s="89"/>
       <c r="E104" s="90"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="134">
         <v>8</v>
       </c>
@@ -14573,7 +14608,7 @@
       <c r="D105" s="89"/>
       <c r="E105" s="90"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="134">
         <v>9</v>
       </c>
@@ -14586,7 +14621,7 @@
       <c r="D106" s="138"/>
       <c r="E106" s="139"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="134">
         <v>10</v>
       </c>
@@ -14599,7 +14634,7 @@
       <c r="D107" s="89"/>
       <c r="E107" s="87"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="134">
         <v>11</v>
       </c>
@@ -14608,7 +14643,7 @@
       <c r="D108" s="89"/>
       <c r="E108" s="90"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="134">
         <v>12</v>
       </c>
@@ -14617,7 +14652,7 @@
       <c r="D109" s="89"/>
       <c r="E109" s="90"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="134">
         <v>13</v>
       </c>
@@ -14626,7 +14661,7 @@
       <c r="D110" s="89"/>
       <c r="E110" s="90"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="134">
         <v>14</v>
       </c>
@@ -14635,7 +14670,7 @@
       <c r="D111" s="89"/>
       <c r="E111" s="90"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="134">
         <v>15</v>
       </c>
@@ -14644,7 +14679,7 @@
       <c r="D112" s="89"/>
       <c r="E112" s="90"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="134">
         <v>16</v>
       </c>
@@ -14653,7 +14688,7 @@
       <c r="D113" s="89"/>
       <c r="E113" s="90"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="134">
         <v>17</v>
       </c>
@@ -14662,7 +14697,7 @@
       <c r="D114" s="86"/>
       <c r="E114" s="87"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="134">
         <v>18</v>
       </c>
@@ -14671,7 +14706,7 @@
       <c r="D115" s="89"/>
       <c r="E115" s="90"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="134">
         <v>19</v>
       </c>
@@ -14680,7 +14715,7 @@
       <c r="D116" s="89"/>
       <c r="E116" s="90"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="134">
         <v>20</v>
       </c>
@@ -14689,7 +14724,7 @@
       <c r="D117" s="89"/>
       <c r="E117" s="90"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="134">
         <v>21</v>
       </c>
@@ -14698,7 +14733,7 @@
       <c r="D118" s="89"/>
       <c r="E118" s="90"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="134">
         <v>22</v>
       </c>
@@ -14707,7 +14742,7 @@
       <c r="D119" s="89"/>
       <c r="E119" s="90"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="134">
         <v>23</v>
       </c>
@@ -14716,7 +14751,7 @@
       <c r="D120" s="138"/>
       <c r="E120" s="139"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="134">
         <v>24</v>
       </c>
@@ -14725,7 +14760,7 @@
       <c r="D121" s="86"/>
       <c r="E121" s="87"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="134">
         <v>25</v>
       </c>
@@ -14734,7 +14769,7 @@
       <c r="D122" s="89"/>
       <c r="E122" s="90"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="134">
         <v>26</v>
       </c>
@@ -14743,7 +14778,7 @@
       <c r="D123" s="89"/>
       <c r="E123" s="90"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="134">
         <v>27</v>
       </c>
@@ -14752,7 +14787,7 @@
       <c r="D124" s="89"/>
       <c r="E124" s="90"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="134">
         <v>28</v>
       </c>
@@ -14761,7 +14796,7 @@
       <c r="D125" s="89"/>
       <c r="E125" s="90"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="134">
         <v>29</v>
       </c>
@@ -14770,7 +14805,7 @@
       <c r="D126" s="89"/>
       <c r="E126" s="90"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="134">
         <v>30</v>
       </c>
@@ -14779,7 +14814,7 @@
       <c r="D127" s="138"/>
       <c r="E127" s="139"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="134">
         <v>31</v>
       </c>
@@ -14790,20 +14825,20 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C4:C8"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C16:C23"/>
     <mergeCell ref="C33:C39"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="C24:C30"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C4:C8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://ru.hexlet.io/courses/html"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://ru.hexlet.io/courses/html"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://ru.hexlet.io/courses/html" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://ru.hexlet.io/courses/html" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -14812,29 +14847,29 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.33203125" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" style="149" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="149" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>304</v>
       </c>
@@ -14851,7 +14886,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>306</v>
       </c>
@@ -14868,7 +14903,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>336</v>
       </c>
@@ -14885,7 +14920,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>363</v>
       </c>
@@ -14902,7 +14937,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>382</v>
       </c>
@@ -14922,7 +14957,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>384</v>
       </c>
@@ -14942,7 +14977,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>386</v>
       </c>
@@ -14959,7 +14994,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>407</v>
       </c>
@@ -14979,7 +15014,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>423</v>
       </c>
@@ -14993,13 +15028,13 @@
         <v>962</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>534</v>
       </c>
       <c r="B11" s="197"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>434</v>
       </c>
@@ -15007,7 +15042,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>438</v>
       </c>
@@ -15015,7 +15050,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>444</v>
       </c>
@@ -15023,7 +15058,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>465</v>
       </c>
@@ -15031,13 +15066,13 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>966</v>
       </c>
       <c r="B16" s="198"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>484</v>
       </c>
@@ -15045,7 +15080,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>486</v>
       </c>
@@ -15053,7 +15088,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>494</v>
       </c>
@@ -15061,7 +15096,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>541</v>
       </c>
@@ -15069,12 +15104,12 @@
         <v>542</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>613</v>
       </c>
@@ -15082,13 +15117,13 @@
         <v>614</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>703</v>
       </c>
       <c r="B23" s="197"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>740</v>
       </c>
@@ -15096,12 +15131,12 @@
         <v>405</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>963</v>
       </c>
@@ -15109,12 +15144,12 @@
         <v>964</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1022</v>
       </c>
@@ -15129,30 +15164,30 @@
     <mergeCell ref="B15:B16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" location="textarea" display="https://validator.w3.org/nu/ - textarea"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A12" r:id="rId11"/>
-    <hyperlink ref="A13" r:id="rId12" location="комментарии"/>
-    <hyperlink ref="B13" r:id="rId13" display="https://github.com/airbnb/javascript/"/>
-    <hyperlink ref="A14" r:id="rId14"/>
-    <hyperlink ref="A15" r:id="rId15"/>
-    <hyperlink ref="A17" r:id="rId16"/>
-    <hyperlink ref="A18" r:id="rId17"/>
-    <hyperlink ref="A19" r:id="rId18" location="svg-color"/>
-    <hyperlink ref="A20" r:id="rId19"/>
-    <hyperlink ref="A21" r:id="rId20"/>
-    <hyperlink ref="A22" r:id="rId21"/>
-    <hyperlink ref="A24" r:id="rId22"/>
-    <hyperlink ref="A26" r:id="rId23"/>
-    <hyperlink ref="A27" r:id="rId24"/>
+    <hyperlink ref="A1" r:id="rId1" location="textarea" display="https://validator.w3.org/nu/ - textarea" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{00000000-0004-0000-0A00-000005000000}"/>
+    <hyperlink ref="A7" r:id="rId7" xr:uid="{00000000-0004-0000-0A00-000006000000}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{00000000-0004-0000-0A00-000007000000}"/>
+    <hyperlink ref="A9" r:id="rId9" xr:uid="{00000000-0004-0000-0A00-000008000000}"/>
+    <hyperlink ref="A10" r:id="rId10" xr:uid="{00000000-0004-0000-0A00-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0A00-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" location="комментарии" xr:uid="{00000000-0004-0000-0A00-00000B000000}"/>
+    <hyperlink ref="B13" r:id="rId13" display="https://github.com/airbnb/javascript/" xr:uid="{00000000-0004-0000-0A00-00000C000000}"/>
+    <hyperlink ref="A14" r:id="rId14" xr:uid="{00000000-0004-0000-0A00-00000D000000}"/>
+    <hyperlink ref="A15" r:id="rId15" xr:uid="{00000000-0004-0000-0A00-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0A00-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0A00-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" location="svg-color" xr:uid="{00000000-0004-0000-0A00-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0A00-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{00000000-0004-0000-0A00-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{00000000-0004-0000-0A00-000014000000}"/>
+    <hyperlink ref="A24" r:id="rId22" xr:uid="{00000000-0004-0000-0A00-000015000000}"/>
+    <hyperlink ref="A26" r:id="rId23" xr:uid="{00000000-0004-0000-0A00-000016000000}"/>
+    <hyperlink ref="A27" r:id="rId24" xr:uid="{00000000-0004-0000-0A00-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
@@ -15160,20 +15195,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -15184,7 +15219,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -15192,7 +15227,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -15200,7 +15235,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -15208,7 +15243,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -15216,7 +15251,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -15224,7 +15259,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -15232,7 +15267,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -15240,7 +15275,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -15248,7 +15283,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -15256,7 +15291,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -15264,7 +15299,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -15272,7 +15307,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -15280,7 +15315,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -15288,7 +15323,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -15296,7 +15331,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -15304,7 +15339,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -15312,7 +15347,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -15320,7 +15355,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -15328,7 +15363,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -15336,7 +15371,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -15344,22 +15379,22 @@
         <v>731</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -15372,21 +15407,21 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>797</v>
       </c>
@@ -15401,20 +15436,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>765</v>
       </c>
@@ -15425,7 +15460,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>766</v>
       </c>
@@ -15436,7 +15471,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>768</v>
       </c>
@@ -15447,7 +15482,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="150" t="s">
         <v>786</v>
       </c>
@@ -15455,7 +15490,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="151" t="s">
         <v>770</v>
       </c>
@@ -15466,7 +15501,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>926</v>
       </c>
@@ -15477,7 +15512,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>772</v>
       </c>
@@ -15488,7 +15523,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>774</v>
       </c>
@@ -15499,7 +15534,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="152" t="s">
         <v>775</v>
       </c>
@@ -15510,7 +15545,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>777</v>
       </c>
@@ -15521,7 +15556,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="148" t="s">
         <v>802</v>
       </c>
@@ -15532,7 +15567,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="153" t="s">
         <v>917</v>
       </c>
@@ -15540,7 +15575,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>778</v>
       </c>
@@ -15551,7 +15586,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="152" t="s">
         <v>913</v>
       </c>
@@ -15562,7 +15597,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="152" t="s">
         <v>780</v>
       </c>
@@ -15573,7 +15608,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>782</v>
       </c>
@@ -15584,7 +15619,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>784</v>
       </c>
@@ -15595,7 +15630,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>789</v>
       </c>
@@ -15606,7 +15641,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>790</v>
       </c>
@@ -15617,7 +15652,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="152" t="s">
         <v>793</v>
       </c>
@@ -15628,7 +15663,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>795</v>
       </c>
@@ -15639,7 +15674,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>800</v>
       </c>
@@ -15650,7 +15685,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="150" t="s">
         <v>935</v>
       </c>
@@ -15658,7 +15693,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>915</v>
       </c>
@@ -15669,7 +15704,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>909</v>
       </c>
@@ -15680,7 +15715,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="150" t="s">
         <v>912</v>
       </c>
@@ -15688,7 +15723,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>919</v>
       </c>
@@ -15699,7 +15734,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>924</v>
       </c>
@@ -15710,7 +15745,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="150" t="s">
         <v>925</v>
       </c>
@@ -15718,7 +15753,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="150" t="s">
         <v>927</v>
       </c>
@@ -15726,7 +15761,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>928</v>
       </c>
@@ -15737,7 +15772,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>931</v>
       </c>
@@ -15748,7 +15783,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" s="150" t="s">
         <v>933</v>
       </c>
@@ -15756,42 +15791,42 @@
         <v>834</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>922</v>
       </c>
@@ -15799,7 +15834,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>799</v>
       </c>
@@ -15807,7 +15842,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>920</v>
       </c>
@@ -15815,7 +15850,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>921</v>
       </c>
@@ -15823,307 +15858,307 @@
         <v>845</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>906</v>
       </c>
@@ -16136,27 +16171,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.6640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="30.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>158</v>
       </c>
@@ -16179,7 +16214,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>159</v>
       </c>
@@ -16202,7 +16237,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="177" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="177" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="12"/>
       <c r="C3" s="11"/>
@@ -16213,7 +16248,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="48"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>160</v>
       </c>
@@ -16234,7 +16269,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>161</v>
       </c>
@@ -16248,12 +16283,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H6" s="19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>173</v>
       </c>
@@ -16264,7 +16299,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>171</v>
       </c>
@@ -16281,7 +16316,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>175</v>
       </c>
@@ -16295,7 +16330,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>176</v>
       </c>
@@ -16313,7 +16348,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>180</v>
       </c>
@@ -16324,7 +16359,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>182</v>
       </c>
@@ -16335,7 +16370,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="21" t="s">
         <v>183</v>
@@ -16347,7 +16382,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="21" t="s">
         <v>184</v>
@@ -16356,19 +16391,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="21" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="21" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="21" t="s">
         <v>189</v>
@@ -16383,7 +16418,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
         <v>190</v>
@@ -16392,7 +16427,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>191</v>
       </c>
@@ -16403,19 +16438,19 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="21" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="21" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>198</v>
       </c>
@@ -16423,7 +16458,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="21" t="s">
         <v>259</v>
@@ -16435,7 +16470,7 @@
       <c r="G23" s="46"/>
       <c r="I23" s="46"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="51" t="s">
         <v>287</v>
       </c>
@@ -16455,7 +16490,7 @@
       <c r="G24" s="50"/>
       <c r="I24" s="50"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="51"/>
       <c r="B25" s="21" t="s">
         <v>292</v>
@@ -16469,7 +16504,7 @@
       <c r="G25" s="50"/>
       <c r="I25" s="50"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="51"/>
       <c r="B26" s="21" t="s">
         <v>294</v>
@@ -16481,13 +16516,13 @@
       <c r="G26" s="50"/>
       <c r="I26" s="50"/>
     </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="G27" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>195</v>
       </c>
@@ -16501,7 +16536,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="C29" s="27" t="s">
         <v>202</v>
@@ -16516,7 +16551,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="30" t="s">
         <v>206</v>
       </c>
@@ -16528,7 +16563,7 @@
       </c>
       <c r="F30" s="32"/>
     </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="27" t="s">
         <v>209</v>
       </c>
@@ -16539,7 +16574,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="33" t="s">
         <v>212</v>
       </c>
@@ -16553,7 +16588,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
         <v>217</v>
       </c>
@@ -16564,7 +16599,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
         <v>223</v>
       </c>
@@ -16577,12 +16612,12 @@
       <c r="E34" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="F34" s="165" t="s">
+      <c r="F34" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="G34" s="166"/>
-    </row>
-    <row r="35" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G34" s="167"/>
+    </row>
+    <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
         <v>228</v>
       </c>
@@ -16598,7 +16633,7 @@
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="47"/>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
@@ -16607,7 +16642,7 @@
       <c r="G36" s="36"/>
       <c r="I36" s="47"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>260</v>
       </c>
@@ -16620,7 +16655,7 @@
       <c r="G37" s="36"/>
       <c r="I37" s="47"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D38" s="9" t="s">
         <v>129</v>
       </c>
@@ -16628,17 +16663,17 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C39" s="9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C40" s="9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C41" s="9" t="s">
         <v>222</v>
       </c>
@@ -16646,8 +16681,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="69" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="9" t="s">
         <v>232</v>
       </c>
@@ -16664,8 +16699,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="71" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="164" t="s">
         <v>239</v>
       </c>
@@ -16679,7 +16714,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="164"/>
       <c r="C72" s="33" t="s">
         <v>243</v>
@@ -16694,13 +16729,13 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="164"/>
       <c r="C73" s="41" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="49"/>
       <c r="C79" s="49"/>
       <c r="D79" s="49"/>
@@ -16709,8 +16744,8 @@
       <c r="G79" s="49"/>
       <c r="I79" s="49"/>
     </row>
-    <row r="81" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="164" t="s">
         <v>249</v>
       </c>
@@ -16719,7 +16754,7 @@
       </c>
       <c r="E82" s="42"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="164"/>
       <c r="C83" s="44" t="s">
         <v>251</v>
@@ -16729,7 +16764,7 @@
       </c>
       <c r="E83" s="164"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="164"/>
       <c r="C84" s="44" t="s">
         <v>252</v>
@@ -16739,14 +16774,14 @@
       </c>
       <c r="E84" s="164"/>
     </row>
-    <row r="85" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="164"/>
       <c r="C85" s="45" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="164" t="s">
         <v>262</v>
       </c>
@@ -16754,19 +16789,19 @@
         <v>263</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="164"/>
       <c r="C89" s="44" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="164"/>
       <c r="C90" s="44" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="164"/>
       <c r="C91" s="44" t="s">
         <v>266</v>
@@ -16778,15 +16813,15 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="164"/>
       <c r="C92" s="45" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="93" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B94" s="167" t="s">
+    <row r="93" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="165" t="s">
         <v>276</v>
       </c>
       <c r="C94" s="43" t="s">
@@ -16797,14 +16832,14 @@
       </c>
       <c r="E94" s="164"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B95" s="167"/>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="165"/>
       <c r="C95" s="44" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B96" s="167"/>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="165"/>
       <c r="C96" s="44" t="s">
         <v>278</v>
       </c>
@@ -16813,8 +16848,8 @@
       </c>
       <c r="E96" s="164"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B97" s="167"/>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="165"/>
       <c r="C97" s="44" t="s">
         <v>280</v>
       </c>
@@ -16826,8 +16861,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="167"/>
+    <row r="98" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="165"/>
       <c r="C98" s="45" t="s">
         <v>283</v>
       </c>
@@ -16839,18 +16874,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="B82:B85"/>
     <mergeCell ref="D94:E94"/>
     <mergeCell ref="B88:B92"/>
     <mergeCell ref="D96:E96"/>
     <mergeCell ref="D97:E97"/>
     <mergeCell ref="D98:F98"/>
     <mergeCell ref="B94:B98"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="B82:B85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16860,29 +16895,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="54" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="122" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="53" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="53" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="106" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="66.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="53" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="53" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="106" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>318</v>
       </c>
@@ -16898,7 +16933,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
         <v>368</v>
       </c>
@@ -16919,7 +16954,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>337</v>
       </c>
@@ -16937,7 +16972,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
         <v>346</v>
       </c>
@@ -16956,7 +16991,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
         <v>350</v>
       </c>
@@ -16972,7 +17007,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>339</v>
       </c>
@@ -16991,7 +17026,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
         <v>302</v>
       </c>
@@ -17010,7 +17045,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
         <v>319</v>
       </c>
@@ -17026,7 +17061,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
         <v>322</v>
       </c>
@@ -17042,7 +17077,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>347</v>
       </c>
@@ -17058,7 +17093,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>354</v>
       </c>
@@ -17076,7 +17111,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
         <v>342</v>
       </c>
@@ -17091,7 +17126,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>315</v>
       </c>
@@ -17106,7 +17141,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
         <v>324</v>
       </c>
@@ -17121,7 +17156,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
         <v>310</v>
       </c>
@@ -17132,7 +17167,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>338</v>
       </c>
@@ -17143,7 +17178,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
         <v>344</v>
       </c>
@@ -17157,7 +17192,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
         <v>303</v>
       </c>
@@ -17168,7 +17203,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
         <v>320</v>
       </c>
@@ -17179,7 +17214,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
         <v>326</v>
       </c>
@@ -17190,7 +17225,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
         <v>330</v>
       </c>
@@ -17201,7 +17236,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
         <v>333</v>
       </c>
@@ -17212,7 +17247,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
         <v>332</v>
       </c>
@@ -17223,7 +17258,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
         <v>329</v>
       </c>
@@ -17234,7 +17269,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
         <v>352</v>
       </c>
@@ -17242,7 +17277,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
         <v>331</v>
       </c>
@@ -17250,7 +17285,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
         <v>314</v>
       </c>
@@ -17258,7 +17293,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="168" t="s">
         <v>355</v>
       </c>
@@ -17266,43 +17301,43 @@
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="168"/>
       <c r="B29" s="53" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="168"/>
       <c r="B30" s="53" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="168"/>
       <c r="B31" s="53" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="168"/>
       <c r="B32" s="53" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="168"/>
       <c r="B33" s="53" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="168"/>
       <c r="B34" s="59" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="25.2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A35" s="57" t="s">
         <v>359</v>
       </c>
@@ -17310,7 +17345,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="22.2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A36" s="101" t="s">
         <v>364</v>
       </c>
@@ -17318,7 +17353,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="25.2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
         <v>365</v>
       </c>
@@ -17326,7 +17361,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="62" t="s">
         <v>366</v>
       </c>
@@ -17334,7 +17369,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="62" t="s">
         <v>369</v>
       </c>
@@ -17342,7 +17377,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="62" t="s">
         <v>370</v>
       </c>
@@ -17350,7 +17385,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="62" t="s">
         <v>371</v>
       </c>
@@ -17358,7 +17393,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="64" t="s">
         <v>372</v>
       </c>
@@ -17366,7 +17401,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="54" t="s">
         <v>373</v>
       </c>
@@ -17374,7 +17409,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="57" t="s">
         <v>375</v>
       </c>
@@ -17382,7 +17417,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
         <v>377</v>
       </c>
@@ -17390,7 +17425,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="s">
         <v>379</v>
       </c>
@@ -17398,7 +17433,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
         <v>381</v>
       </c>
@@ -17406,7 +17441,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="54" t="s">
         <v>388</v>
       </c>
@@ -17414,7 +17449,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="54" t="s">
         <v>391</v>
       </c>
@@ -17422,7 +17457,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="54" t="s">
         <v>392</v>
       </c>
@@ -17430,7 +17465,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="54" t="s">
         <v>394</v>
       </c>
@@ -17438,7 +17473,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="54" t="s">
         <v>401</v>
       </c>
@@ -17446,7 +17481,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="54" t="s">
         <v>458</v>
       </c>
@@ -17454,7 +17489,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="54" t="s">
         <v>459</v>
       </c>
@@ -17462,7 +17497,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="54" t="s">
         <v>460</v>
       </c>
@@ -17470,7 +17505,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="25.2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A56" s="57" t="s">
         <v>467</v>
       </c>
@@ -17478,7 +17513,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="54" t="s">
         <v>468</v>
       </c>
@@ -17486,7 +17521,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="54" t="s">
         <v>471</v>
       </c>
@@ -17494,7 +17529,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="54" t="s">
         <v>474</v>
       </c>
@@ -17502,7 +17537,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="54" t="s">
         <v>475</v>
       </c>
@@ -17510,7 +17545,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="54" t="s">
         <v>479</v>
       </c>
@@ -17518,7 +17553,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="54" t="s">
         <v>582</v>
       </c>
@@ -17526,7 +17561,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="54" t="s">
         <v>589</v>
       </c>
@@ -17534,7 +17569,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="54" t="s">
         <v>592</v>
       </c>
@@ -17542,7 +17577,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="171" t="s">
         <v>974</v>
       </c>
@@ -17550,372 +17585,372 @@
         <v>976</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="171"/>
       <c r="B66" s="170"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="54" t="s">
         <v>313</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B27">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B27">
     <sortCondition ref="A2"/>
   </sortState>
   <mergeCells count="4">
@@ -17932,24 +17967,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AI245"/>
   <sheetViews>
     <sheetView topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="96" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="68" customWidth="1"/>
-    <col min="3" max="3" width="100.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="96" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="100.5703125" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AE1" t="s">
         <v>796</v>
       </c>
@@ -17957,7 +17992,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="178" t="s">
         <v>658</v>
       </c>
@@ -17974,7 +18009,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="179"/>
       <c r="B3" s="69" t="s">
         <v>421</v>
@@ -17995,7 +18030,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="179"/>
       <c r="B4" s="69" t="s">
         <v>297</v>
@@ -18007,7 +18042,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="179"/>
       <c r="B5" s="69" t="s">
         <v>642</v>
@@ -18022,7 +18057,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="179"/>
       <c r="B6" s="69" t="s">
         <v>644</v>
@@ -18034,7 +18069,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B7" s="69"/>
       <c r="AE7" s="5" t="s">
         <v>943</v>
@@ -18043,7 +18078,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B8" s="70" t="s">
         <v>398</v>
       </c>
@@ -18054,7 +18089,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B9" s="70" t="s">
         <v>680</v>
       </c>
@@ -18062,7 +18097,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B10" s="70" t="s">
         <v>681</v>
       </c>
@@ -18070,7 +18105,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B11" s="70" t="s">
         <v>685</v>
       </c>
@@ -18078,7 +18113,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B12" s="70" t="s">
         <v>691</v>
       </c>
@@ -18086,7 +18121,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="183" t="s">
         <v>984</v>
       </c>
@@ -18097,7 +18132,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="184"/>
       <c r="B14" s="70" t="s">
         <v>988</v>
@@ -18106,7 +18141,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="184"/>
       <c r="B15" s="70" t="s">
         <v>987</v>
@@ -18115,7 +18150,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="184"/>
       <c r="B16" s="70" t="s">
         <v>986</v>
@@ -18124,7 +18159,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="184"/>
       <c r="B17" s="70" t="s">
         <v>985</v>
@@ -18133,7 +18168,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="175" t="s">
         <v>400</v>
       </c>
@@ -18144,7 +18179,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="175"/>
       <c r="B19" s="71" t="s">
         <v>482</v>
@@ -18153,7 +18188,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="175"/>
       <c r="B20" s="71" t="s">
         <v>544</v>
@@ -18162,7 +18197,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="175"/>
       <c r="B21" s="71" t="s">
         <v>1020</v>
@@ -18171,7 +18206,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="175"/>
       <c r="B22" s="71" t="s">
         <v>548</v>
@@ -18180,7 +18215,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="159"/>
       <c r="B23" s="71" t="s">
         <v>1016</v>
@@ -18189,7 +18224,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="159"/>
       <c r="B24" s="71" t="s">
         <v>1018</v>
@@ -18198,7 +18233,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="98"/>
       <c r="B25" s="71" t="s">
         <v>550</v>
@@ -18207,7 +18242,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="70" t="s">
         <v>403</v>
       </c>
@@ -18215,7 +18250,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="70" t="s">
         <v>405</v>
       </c>
@@ -18226,7 +18261,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="70" t="s">
         <v>409</v>
       </c>
@@ -18237,7 +18272,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="70" t="s">
         <v>491</v>
       </c>
@@ -18248,7 +18283,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="70" t="s">
         <v>410</v>
       </c>
@@ -18256,7 +18291,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="70" t="s">
         <v>412</v>
       </c>
@@ -18264,7 +18299,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="70" t="s">
         <v>414</v>
       </c>
@@ -18272,7 +18307,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="71" t="s">
         <v>416</v>
       </c>
@@ -18280,7 +18315,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="70" t="s">
         <v>419</v>
       </c>
@@ -18288,7 +18323,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="70" t="s">
         <v>422</v>
       </c>
@@ -18296,7 +18331,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="70" t="s">
         <v>425</v>
       </c>
@@ -18304,12 +18339,12 @@
         <v>426</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="70" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="176" t="s">
         <v>610</v>
       </c>
@@ -18320,7 +18355,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="177"/>
       <c r="B39" s="113" t="s">
         <v>577</v>
@@ -18329,7 +18364,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="177"/>
       <c r="B40" s="113" t="s">
         <v>611</v>
@@ -18338,7 +18373,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="177"/>
       <c r="B41" s="113" t="s">
         <v>436</v>
@@ -18347,7 +18382,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="177"/>
       <c r="B42" s="113" t="s">
         <v>1010</v>
@@ -18356,7 +18391,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="177"/>
       <c r="B43" s="113" t="s">
         <v>1012</v>
@@ -18365,7 +18400,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="177"/>
       <c r="B44" s="113" t="s">
         <v>708</v>
@@ -18374,7 +18409,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="177"/>
       <c r="B45" s="113" t="s">
         <v>612</v>
@@ -18383,7 +18418,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="117"/>
       <c r="B46" s="70" t="s">
         <v>683</v>
@@ -18392,14 +18427,14 @@
         <v>695</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="117"/>
       <c r="B47" s="116" t="s">
         <v>684</v>
       </c>
       <c r="C47" s="112"/>
     </row>
-    <row r="48" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B48" s="71" t="s">
         <v>428</v>
       </c>
@@ -18407,7 +18442,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" s="71" t="s">
         <v>429</v>
       </c>
@@ -18415,7 +18450,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" s="71" t="s">
         <v>431</v>
       </c>
@@ -18423,10 +18458,10 @@
         <v>432</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="71"/>
     </row>
-    <row r="52" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A52" s="174" t="s">
         <v>538</v>
       </c>
@@ -18437,7 +18472,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="174"/>
       <c r="B53" s="71" t="s">
         <v>537</v>
@@ -18446,7 +18481,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="174"/>
       <c r="B54" s="71" t="s">
         <v>535</v>
@@ -18455,11 +18490,11 @@
         <v>539</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" s="71"/>
       <c r="C55" s="66"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" s="71" t="s">
         <v>436</v>
       </c>
@@ -18467,7 +18502,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="71" t="s">
         <v>453</v>
       </c>
@@ -18475,7 +18510,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" s="70" t="s">
         <v>489</v>
       </c>
@@ -18483,7 +18518,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="45.75" x14ac:dyDescent="0.25">
       <c r="B59" s="71" t="s">
         <v>495</v>
       </c>
@@ -18491,7 +18526,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" s="70" t="s">
         <v>521</v>
       </c>
@@ -18499,11 +18534,11 @@
         <v>520</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61" s="70"/>
       <c r="C61" s="109"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" s="70" t="s">
         <v>601</v>
       </c>
@@ -18511,7 +18546,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" s="70" t="s">
         <v>602</v>
       </c>
@@ -18519,7 +18554,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" s="70" t="s">
         <v>604</v>
       </c>
@@ -18527,7 +18562,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="70" t="s">
         <v>606</v>
       </c>
@@ -18535,7 +18570,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="70" t="s">
         <v>615</v>
       </c>
@@ -18543,7 +18578,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="70" t="s">
         <v>617</v>
       </c>
@@ -18551,7 +18586,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="70" t="s">
         <v>619</v>
       </c>
@@ -18559,7 +18594,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="70" t="s">
         <v>621</v>
       </c>
@@ -18567,27 +18602,27 @@
         <v>622</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="70" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="70" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="70" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="70" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="70" t="s">
         <v>1009</v>
       </c>
@@ -18595,17 +18630,17 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="70" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="70" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="70" t="s">
         <v>992</v>
       </c>
@@ -18613,7 +18648,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="70" t="s">
         <v>994</v>
       </c>
@@ -18621,7 +18656,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="70" t="s">
         <v>996</v>
       </c>
@@ -18629,7 +18664,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="70" t="s">
         <v>998</v>
       </c>
@@ -18637,7 +18672,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B81" s="70" t="s">
         <v>1000</v>
       </c>
@@ -18645,10 +18680,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B82" s="70"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B83" s="70" t="s">
         <v>640</v>
       </c>
@@ -18656,7 +18691,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B84" s="70" t="s">
         <v>646</v>
       </c>
@@ -18664,7 +18699,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="180" t="s">
         <v>661</v>
       </c>
@@ -18675,7 +18710,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A86" s="181"/>
       <c r="B86" s="120" t="s">
         <v>650</v>
@@ -18684,7 +18719,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="181"/>
       <c r="B87" s="120" t="s">
         <v>656</v>
@@ -18693,7 +18728,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="181"/>
       <c r="B88" s="123" t="s">
         <v>653</v>
@@ -18702,7 +18737,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="181"/>
       <c r="B89" s="120" t="s">
         <v>654</v>
@@ -18711,7 +18746,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="181"/>
       <c r="B90" s="120" t="s">
         <v>742</v>
@@ -18720,7 +18755,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="181"/>
       <c r="B91" s="124" t="s">
         <v>659</v>
@@ -18729,7 +18764,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="181"/>
       <c r="B92" s="124" t="s">
         <v>662</v>
@@ -18738,7 +18773,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="181"/>
       <c r="B93" s="124" t="s">
         <v>664</v>
@@ -18747,7 +18782,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="181"/>
       <c r="B94" s="124" t="s">
         <v>666</v>
@@ -18756,7 +18791,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="182"/>
       <c r="B95" s="125" t="s">
         <v>668</v>
@@ -18765,7 +18800,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="127"/>
       <c r="B96" s="118" t="s">
         <v>670</v>
@@ -18774,14 +18809,14 @@
         <v>674</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="128"/>
       <c r="B97" s="124" t="s">
         <v>671</v>
       </c>
       <c r="C97" s="173"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="128"/>
       <c r="B98" s="124" t="s">
         <v>734</v>
@@ -18790,7 +18825,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="128"/>
       <c r="B99" s="124" t="s">
         <v>736</v>
@@ -18799,7 +18834,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="128"/>
       <c r="B100" s="124" t="s">
         <v>672</v>
@@ -18808,7 +18843,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="128"/>
       <c r="B101" s="124" t="s">
         <v>675</v>
@@ -18817,7 +18852,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="128"/>
       <c r="B102" s="123" t="s">
         <v>677</v>
@@ -18826,7 +18861,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="130"/>
       <c r="B103" s="125" t="s">
         <v>732</v>
@@ -18835,7 +18870,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B104" s="70" t="s">
         <v>696</v>
       </c>
@@ -18844,7 +18879,7 @@
       </c>
       <c r="D104" s="89"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B105" s="70" t="s">
         <v>705</v>
       </c>
@@ -18852,7 +18887,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106" s="70" t="s">
         <v>708</v>
       </c>
@@ -18860,12 +18895,12 @@
         <v>707</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B107" s="70" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108" s="70" t="s">
         <v>744</v>
       </c>
@@ -18873,400 +18908,400 @@
         <v>745</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B109" s="70"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="70"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="70"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="70"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="70"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="70"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="70"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="70"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="70"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="70"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="70"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="70"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="70"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="70"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" s="70"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" s="70"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="70"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="70"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="70"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="70"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="70"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="70"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="70"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="70"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="70"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="70"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" s="70"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" s="70"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" s="70"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="70"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="70"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" s="70"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" s="70"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="70"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" s="70"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" s="70"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" s="70"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" s="70"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" s="70"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="70"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" s="70"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" s="70"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" s="70"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" s="70"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" s="70"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" s="70"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" s="70"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" s="70"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="70"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" s="70"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" s="70"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" s="70"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" s="70"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" s="70"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" s="70"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" s="70"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" s="70"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" s="70"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" s="70"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" s="70"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" s="70"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" s="70"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" s="70"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" s="70"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" s="70"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" s="70"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" s="70"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" s="70"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" s="70"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" s="70"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" s="70"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" s="70"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" s="70"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" s="70"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" s="70"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" s="70"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" s="70"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" s="70"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" s="70"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" s="70"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" s="70"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" s="70"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" s="70"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" s="70"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" s="70"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" s="70"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" s="70"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" s="70"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" s="70"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" s="70"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" s="70"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" s="70"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" s="70"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" s="70"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" s="70"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" s="70"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" s="70"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" s="70"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" s="70"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" s="70"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" s="70"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" s="70"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" s="70"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" s="70"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" s="70"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" s="70"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" s="70"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" s="70"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" s="70"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" s="70"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" s="70"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" s="70"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" s="70"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" s="70"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" s="70"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" s="70"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" s="70"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" s="70"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" s="70"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" s="70"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" s="70"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" s="70"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" s="70"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" s="70"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" s="70"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" s="70"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" s="70"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" s="70"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" s="70"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" s="70"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" s="70"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" s="70"/>
     </row>
   </sheetData>
@@ -19280,9 +19315,9 @@
     <mergeCell ref="A13:A17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AE6" r:id="rId1" display="/@import"/>
-    <hyperlink ref="AE7" r:id="rId2" display="/@import"/>
-    <hyperlink ref="AF7" r:id="rId3" display="/@import"/>
+    <hyperlink ref="AE6" r:id="rId1" display="/@import" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="AE7" r:id="rId2" display="/@import" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="AF7" r:id="rId3" display="/@import" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -19292,20 +19327,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B387"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" style="76" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41" style="76" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>443</v>
       </c>
@@ -19313,7 +19348,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
         <v>441</v>
       </c>
@@ -19321,7 +19356,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
         <v>446</v>
       </c>
@@ -19329,7 +19364,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="75" t="s">
         <v>448</v>
       </c>
@@ -19337,7 +19372,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="75" t="s">
         <v>450</v>
       </c>
@@ -19345,7 +19380,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
         <v>971</v>
       </c>
@@ -19353,74 +19388,74 @@
         <v>968</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="75" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="75" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="75" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="75" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="75" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="75" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="75"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="75"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="75"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="75"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="75"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="75"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="75"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="75"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="75" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="75" t="s">
         <v>524</v>
       </c>
@@ -19428,7 +19463,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="75" t="s">
         <v>700</v>
       </c>
@@ -19436,7 +19471,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="75" t="s">
         <v>698</v>
       </c>
@@ -19444,27 +19479,27 @@
         <v>699</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="75" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="75" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="75" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="75" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="75" t="s">
         <v>501</v>
       </c>
@@ -19472,7 +19507,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="75" t="s">
         <v>505</v>
       </c>
@@ -19480,12 +19515,12 @@
         <v>503</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="75" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="75" t="s">
         <v>508</v>
       </c>
@@ -19493,12 +19528,12 @@
         <v>510</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="75" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="75" t="s">
         <v>514</v>
       </c>
@@ -19506,12 +19541,12 @@
         <v>515</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="75" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="75" t="s">
         <v>518</v>
       </c>
@@ -19519,17 +19554,17 @@
         <v>517</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="75" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="75" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="75" t="s">
         <v>525</v>
       </c>
@@ -19537,1048 +19572,1048 @@
         <v>526</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="75"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="75"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="75"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="75"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="75"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="75"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="75"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="75"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="75"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="75"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="75"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="75"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="75"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="75"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="75"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="75"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="75"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="75"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="75"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="75"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="75"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="75"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="75"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="75"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="75"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="75"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="75"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="75"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="75"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="75"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="75"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="75"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="75"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="75"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="75"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="75"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="75"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="75"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="75"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="75"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="75"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="75"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="75"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="75"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="75"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="75"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="75"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="75"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="75"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="75"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="75"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="75"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="75"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="75"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="75"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="75"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="75"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="75"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="75"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="75"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="75"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="75"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="75"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="75"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="75"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="75"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="75"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="75"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="75"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="75"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="75"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="75"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="75"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="75"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="75"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="75"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="75"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="75"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="75"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="75"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="75"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="75"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="75"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="75"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="75"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="75"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="75"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="75"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="75"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="75"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="75"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="75"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="75"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="75"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="75"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="75"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="75"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="75"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="75"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="75"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="75"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="75"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="75"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="75"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="75"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="75"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="75"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="75"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="75"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="75"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="75"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="75"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="75"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="75"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="75"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="75"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="75"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="75"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="75"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="75"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="75"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="75"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="75"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="75"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="75"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="75"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="75"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="75"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="75"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="75"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="75"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="75"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="75"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="75"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="75"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="75"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="75"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="75"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="75"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="75"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="75"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="75"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="75"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="75"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="75"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="75"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="75"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="75"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="75"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="75"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="75"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="75"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="75"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="75"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="75"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="75"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="75"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="75"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="75"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="75"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="75"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="75"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="75"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="75"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="75"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="75"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="75"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="75"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="75"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="75"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="75"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="75"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="75"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="75"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="75"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="75"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="75"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="75"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="75"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="75"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="75"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="75"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="75"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="75"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="75"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="75"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="75"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="75"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="75"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="75"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="75"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="75"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="75"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="75"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="75"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="75"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="75"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="75"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="75"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="75"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="75"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="75"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="75"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="75"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="75"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="75"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="75"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="75"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="75"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="75"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="75"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="75"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="75"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="75"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="75"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="75"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="75"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="75"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="75"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="75"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="75"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="75"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="75"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="75"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="75"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="75"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="75"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="75"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="75"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="75"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="75"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="75"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="75"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="75"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="75"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="75"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="75"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="75"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="75"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="75"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="75"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="75"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="75"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="75"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="75"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="75"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="75"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="75"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="75"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="75"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="75"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="75"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="75"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="75"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="75"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="75"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="75"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="75"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="75"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="75"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="75"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="75"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="75"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="75"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="75"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="75"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="75"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="75"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="75"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="75"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="75"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="75"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="75"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="75"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="75"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="75"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="75"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="75"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="75"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="75"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="75"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="75"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="75"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="75"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="75"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="75"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="75"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="75"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="75"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="75"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="75"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="75"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="75"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="75"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="75"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="75"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="75"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="75"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="75"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="75"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="75"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="75"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="75"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="75"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="75"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="75"/>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="75"/>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="75"/>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="75"/>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="75"/>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="75"/>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="75"/>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="75"/>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="75"/>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="75"/>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="75"/>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="75"/>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="75"/>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="75"/>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="75"/>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="75"/>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="75"/>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="75"/>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="75"/>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="75"/>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="75"/>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="75"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="75"/>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="75"/>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="75"/>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="75"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="75"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="75"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="75"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="75"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="75"/>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="75"/>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="75"/>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="75"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="75"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="75"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="75"/>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="75"/>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="75"/>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="75"/>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="75"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Global_Objects/String/slice"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Global_Objects/String/padStart"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Global_Objects/String/slice" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Global_Objects/String/padStart" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -20587,20 +20622,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1096</v>
       </c>
@@ -20608,7 +20643,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1025</v>
       </c>
@@ -20616,7 +20651,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1032</v>
       </c>
@@ -20624,12 +20659,12 @@
         <v>569</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1027</v>
       </c>
@@ -20637,7 +20672,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1028</v>
       </c>
@@ -20645,7 +20680,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1034</v>
       </c>
@@ -20653,7 +20688,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1033</v>
       </c>
@@ -20661,87 +20696,87 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>1097</v>
       </c>
@@ -20749,7 +20784,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1093</v>
       </c>
@@ -20765,20 +20800,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="162" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="162" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="85" style="163" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="162" t="s">
         <v>1052</v>
       </c>
@@ -20786,7 +20821,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="162" t="s">
         <v>1054</v>
       </c>
@@ -20794,7 +20829,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="162" t="s">
         <v>1055</v>
       </c>
@@ -20802,7 +20837,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="162" t="s">
         <v>1057</v>
       </c>
@@ -20810,7 +20845,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="162" t="s">
         <v>1059</v>
       </c>
@@ -20818,7 +20853,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="162" t="s">
         <v>1061</v>
       </c>
@@ -20826,7 +20861,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="162" t="s">
         <v>1064</v>
       </c>
@@ -20834,7 +20869,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="162" t="s">
         <v>1065</v>
       </c>
@@ -20842,7 +20877,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="162" t="s">
         <v>1067</v>
       </c>
@@ -20850,7 +20885,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="162" t="s">
         <v>1069</v>
       </c>
@@ -20858,7 +20893,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="162" t="s">
         <v>1071</v>
       </c>
@@ -20866,7 +20901,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="162" t="s">
         <v>1073</v>
       </c>
@@ -20874,7 +20909,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="162" t="s">
         <v>1075</v>
       </c>
@@ -20882,7 +20917,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="162" t="s">
         <v>1077</v>
       </c>
@@ -20890,7 +20925,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="162" t="s">
         <v>1079</v>
       </c>
@@ -20898,7 +20933,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="162" t="s">
         <v>1081</v>
       </c>
@@ -20906,7 +20941,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="162" t="s">
         <v>1083</v>
       </c>
@@ -20914,7 +20949,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="162" t="s">
         <v>1086</v>
       </c>
@@ -20922,7 +20957,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="162" t="s">
         <v>1088</v>
       </c>
@@ -20937,20 +20972,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="75"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="75"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
         <v>528</v>
       </c>
@@ -20958,7 +20993,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
         <v>531</v>
       </c>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F757AD-1895-4216-9BAE-1A08B83D4FC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310C1654-85D8-4280-9D21-E17FFE598270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="525" windowWidth="14880" windowHeight="13005" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="675" yWindow="1395" windowWidth="13800" windowHeight="13005" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="1" r:id="rId1"/>
@@ -1451,7 +1451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="1109">
   <si>
     <t>максимальное значение переменной</t>
   </si>
@@ -8887,6 +8887,30 @@
   </si>
   <si>
     <t>.mousemove()</t>
+  </si>
+  <si>
+    <t>var ctx = canvas.getContext()</t>
+  </si>
+  <si>
+    <t>ctx.fillRect(0, 0, 0, 0)</t>
+  </si>
+  <si>
+    <t>ctx.fillStyle = "Red"</t>
+  </si>
+  <si>
+    <t>ctx.strokeRect(10, 10, 100, 20)</t>
+  </si>
+  <si>
+    <t>ctx.strokeStyle/ctx.lineWidth</t>
+  </si>
+  <si>
+    <t>ctx.fill(); -&gt;</t>
+  </si>
+  <si>
+    <t>ctx.arc(50, 50, 20, 0, Math.PI / 2, false)</t>
+  </si>
+  <si>
+    <t>circle, false - по часовой стрелке</t>
   </si>
 </sst>
 </file>
@@ -10313,13 +10337,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10373,10 +10397,10 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10388,6 +10412,18 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10395,18 +10431,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11961,7 +11985,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4283875</xdr:colOff>
+      <xdr:colOff>4074325</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
@@ -11988,6 +12012,50 @@
         <a:xfrm>
           <a:off x="2141220" y="2910840"/>
           <a:ext cx="4897285" cy="1310640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2076450</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3657402</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14CF271A-1DA6-4675-A1AA-56E936A73EEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="7924800"/>
+          <a:ext cx="1580952" cy="1266667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13432,7 +13500,7 @@
       <c r="B2" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="193" t="s">
         <v>300</v>
       </c>
       <c r="D2" s="86"/>
@@ -13445,7 +13513,7 @@
       <c r="B3" s="88" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="186"/>
+      <c r="C3" s="191"/>
       <c r="D3" s="89" t="s">
         <v>308</v>
       </c>
@@ -13460,7 +13528,7 @@
       <c r="B4" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="191" t="s">
         <v>309</v>
       </c>
       <c r="D4" s="89"/>
@@ -13473,7 +13541,7 @@
       <c r="B5" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="186"/>
+      <c r="C5" s="191"/>
       <c r="D5" s="89"/>
       <c r="E5" s="90"/>
     </row>
@@ -13484,7 +13552,7 @@
       <c r="B6" s="91" t="s">
         <v>396</v>
       </c>
-      <c r="C6" s="186"/>
+      <c r="C6" s="191"/>
       <c r="D6" s="89" t="s">
         <v>437</v>
       </c>
@@ -13499,7 +13567,7 @@
       <c r="B7" s="140" t="s">
         <v>437</v>
       </c>
-      <c r="C7" s="186"/>
+      <c r="C7" s="191"/>
       <c r="D7" s="89"/>
       <c r="E7" s="90"/>
     </row>
@@ -13510,7 +13578,7 @@
       <c r="B8" s="142" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="196"/>
+      <c r="C8" s="192"/>
       <c r="D8" s="138"/>
       <c r="E8" s="139"/>
     </row>
@@ -13664,28 +13732,28 @@
       <c r="E20" s="90"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="190">
+      <c r="A21" s="194">
         <v>23</v>
       </c>
       <c r="B21" s="140" t="s">
         <v>532</v>
       </c>
       <c r="C21" s="188"/>
-      <c r="D21" s="193" t="s">
+      <c r="D21" s="185" t="s">
         <v>679</v>
       </c>
-      <c r="E21" s="194" t="s">
+      <c r="E21" s="186" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="190"/>
+      <c r="A22" s="194"/>
       <c r="B22" s="140" t="s">
         <v>497</v>
       </c>
       <c r="C22" s="188"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="194"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="186"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="83">
@@ -13705,7 +13773,7 @@
       <c r="B24" s="91" t="s">
         <v>639</v>
       </c>
-      <c r="C24" s="191" t="s">
+      <c r="C24" s="195" t="s">
         <v>511</v>
       </c>
       <c r="D24" s="89"/>
@@ -13775,7 +13843,7 @@
       <c r="B30" s="141" t="s">
         <v>686</v>
       </c>
-      <c r="C30" s="192"/>
+      <c r="C30" s="196"/>
       <c r="D30" s="77"/>
       <c r="E30" s="92"/>
     </row>
@@ -14200,7 +14268,7 @@
       <c r="B66" s="91" t="s">
         <v>949</v>
       </c>
-      <c r="C66" s="195" t="s">
+      <c r="C66" s="190" t="s">
         <v>950</v>
       </c>
       <c r="D66" s="89"/>
@@ -14213,7 +14281,7 @@
       <c r="B67" s="91" t="s">
         <v>949</v>
       </c>
-      <c r="C67" s="195"/>
+      <c r="C67" s="190"/>
       <c r="D67" s="89"/>
       <c r="E67" s="90"/>
     </row>
@@ -14825,16 +14893,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C16:C23"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C24:C30"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="C9:C15"/>
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C16:C23"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C24:C30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://ru.hexlet.io/courses/html" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
@@ -16175,7 +16243,7 @@
   <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16612,10 +16680,10 @@
       <c r="E34" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="F34" s="166" t="s">
+      <c r="F34" s="165" t="s">
         <v>227</v>
       </c>
-      <c r="G34" s="167"/>
+      <c r="G34" s="166"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
@@ -16821,7 +16889,7 @@
     </row>
     <row r="93" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="165" t="s">
+      <c r="B94" s="167" t="s">
         <v>276</v>
       </c>
       <c r="C94" s="43" t="s">
@@ -16833,13 +16901,13 @@
       <c r="E94" s="164"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="165"/>
+      <c r="B95" s="167"/>
       <c r="C95" s="44" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="165"/>
+      <c r="B96" s="167"/>
       <c r="C96" s="44" t="s">
         <v>278</v>
       </c>
@@ -16849,7 +16917,7 @@
       <c r="E96" s="164"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="165"/>
+      <c r="B97" s="167"/>
       <c r="C97" s="44" t="s">
         <v>280</v>
       </c>
@@ -16862,7 +16930,7 @@
       </c>
     </row>
     <row r="98" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="165"/>
+      <c r="B98" s="167"/>
       <c r="C98" s="45" t="s">
         <v>283</v>
       </c>
@@ -16874,18 +16942,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="B94:B98"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="B71:B73"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="B82:B85"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="B94:B98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16898,8 +16966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19330,13 +19398,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B387"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" style="76" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" style="76" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="89.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19576,22 +19644,40 @@
       <c r="A42" s="75"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="75"/>
+      <c r="A43" s="75" t="s">
+        <v>1101</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="75"/>
+      <c r="A44" s="75" t="s">
+        <v>1102</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="75"/>
+      <c r="A45" s="75" t="s">
+        <v>1103</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="75"/>
+      <c r="A46" s="75" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1105</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="75"/>
+      <c r="A47" s="75" t="s">
+        <v>1106</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="75"/>
+      <c r="A48" s="75" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1108</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="75"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310C1654-85D8-4280-9D21-E17FFE598270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65ADBE1-9C5B-4638-9943-12A4FF3A21DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="1395" windowWidth="13800" windowHeight="13005" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="1935" windowWidth="15930" windowHeight="13005" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="1" r:id="rId1"/>
@@ -8859,9 +8859,6 @@
     <t>arr.join(' ')</t>
   </si>
   <si>
-    <t>prompt()/confirm()/alert()</t>
-  </si>
-  <si>
     <t>.shift()/.unshift()/.join()</t>
   </si>
   <si>
@@ -8911,6 +8908,9 @@
   </si>
   <si>
     <t>circle, false - по часовой стрелке</t>
+  </si>
+  <si>
+    <t>prompt(title, [default])/confirm()/alert()</t>
   </si>
 </sst>
 </file>
@@ -10337,13 +10337,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10397,10 +10397,10 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10412,18 +10412,6 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10431,6 +10419,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -13500,7 +13500,7 @@
       <c r="B2" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="193" t="s">
+      <c r="C2" s="185" t="s">
         <v>300</v>
       </c>
       <c r="D2" s="86"/>
@@ -13513,7 +13513,7 @@
       <c r="B3" s="88" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="191"/>
+      <c r="C3" s="186"/>
       <c r="D3" s="89" t="s">
         <v>308</v>
       </c>
@@ -13528,7 +13528,7 @@
       <c r="B4" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="191" t="s">
+      <c r="C4" s="186" t="s">
         <v>309</v>
       </c>
       <c r="D4" s="89"/>
@@ -13541,7 +13541,7 @@
       <c r="B5" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="191"/>
+      <c r="C5" s="186"/>
       <c r="D5" s="89"/>
       <c r="E5" s="90"/>
     </row>
@@ -13552,7 +13552,7 @@
       <c r="B6" s="91" t="s">
         <v>396</v>
       </c>
-      <c r="C6" s="191"/>
+      <c r="C6" s="186"/>
       <c r="D6" s="89" t="s">
         <v>437</v>
       </c>
@@ -13567,7 +13567,7 @@
       <c r="B7" s="140" t="s">
         <v>437</v>
       </c>
-      <c r="C7" s="191"/>
+      <c r="C7" s="186"/>
       <c r="D7" s="89"/>
       <c r="E7" s="90"/>
     </row>
@@ -13578,7 +13578,7 @@
       <c r="B8" s="142" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="192"/>
+      <c r="C8" s="196"/>
       <c r="D8" s="138"/>
       <c r="E8" s="139"/>
     </row>
@@ -13732,28 +13732,28 @@
       <c r="E20" s="90"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="194">
+      <c r="A21" s="190">
         <v>23</v>
       </c>
       <c r="B21" s="140" t="s">
         <v>532</v>
       </c>
       <c r="C21" s="188"/>
-      <c r="D21" s="185" t="s">
+      <c r="D21" s="193" t="s">
         <v>679</v>
       </c>
-      <c r="E21" s="186" t="s">
+      <c r="E21" s="194" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="194"/>
+      <c r="A22" s="190"/>
       <c r="B22" s="140" t="s">
         <v>497</v>
       </c>
       <c r="C22" s="188"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="186"/>
+      <c r="D22" s="193"/>
+      <c r="E22" s="194"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="83">
@@ -13773,7 +13773,7 @@
       <c r="B24" s="91" t="s">
         <v>639</v>
       </c>
-      <c r="C24" s="195" t="s">
+      <c r="C24" s="191" t="s">
         <v>511</v>
       </c>
       <c r="D24" s="89"/>
@@ -13843,7 +13843,7 @@
       <c r="B30" s="141" t="s">
         <v>686</v>
       </c>
-      <c r="C30" s="196"/>
+      <c r="C30" s="192"/>
       <c r="D30" s="77"/>
       <c r="E30" s="92"/>
     </row>
@@ -14268,7 +14268,7 @@
       <c r="B66" s="91" t="s">
         <v>949</v>
       </c>
-      <c r="C66" s="190" t="s">
+      <c r="C66" s="195" t="s">
         <v>950</v>
       </c>
       <c r="D66" s="89"/>
@@ -14281,7 +14281,7 @@
       <c r="B67" s="91" t="s">
         <v>949</v>
       </c>
-      <c r="C67" s="190"/>
+      <c r="C67" s="195"/>
       <c r="D67" s="89"/>
       <c r="E67" s="90"/>
     </row>
@@ -14893,16 +14893,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C4:C8"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C16:C23"/>
     <mergeCell ref="C33:C39"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="C24:C30"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C4:C8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://ru.hexlet.io/courses/html" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
@@ -16680,10 +16680,10 @@
       <c r="E34" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="F34" s="165" t="s">
+      <c r="F34" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="G34" s="166"/>
+      <c r="G34" s="167"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
@@ -16889,7 +16889,7 @@
     </row>
     <row r="93" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="167" t="s">
+      <c r="B94" s="165" t="s">
         <v>276</v>
       </c>
       <c r="C94" s="43" t="s">
@@ -16901,13 +16901,13 @@
       <c r="E94" s="164"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="167"/>
+      <c r="B95" s="165"/>
       <c r="C95" s="44" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="167"/>
+      <c r="B96" s="165"/>
       <c r="C96" s="44" t="s">
         <v>278</v>
       </c>
@@ -16917,7 +16917,7 @@
       <c r="E96" s="164"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="167"/>
+      <c r="B97" s="165"/>
       <c r="C97" s="44" t="s">
         <v>280</v>
       </c>
@@ -16930,7 +16930,7 @@
       </c>
     </row>
     <row r="98" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="167"/>
+      <c r="B98" s="165"/>
       <c r="C98" s="45" t="s">
         <v>283</v>
       </c>
@@ -16942,18 +16942,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="B82:B85"/>
     <mergeCell ref="D94:E94"/>
     <mergeCell ref="B88:B92"/>
     <mergeCell ref="D96:E96"/>
     <mergeCell ref="D97:E97"/>
     <mergeCell ref="D98:F98"/>
     <mergeCell ref="B94:B98"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="B82:B85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19398,8 +19398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19473,22 +19473,22 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
-        <v>1091</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="75" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="75" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="75" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -19645,38 +19645,38 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="75" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="75" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="75" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="75" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B46" t="s">
         <v>1104</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="75" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="75" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B48" t="s">
         <v>1107</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -20723,7 +20723,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B1" t="s">
         <v>1024</v>
@@ -20829,7 +20829,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -20864,18 +20864,18 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B27" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B28" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65ADBE1-9C5B-4638-9943-12A4FF3A21DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="1935" windowWidth="15930" windowHeight="13005" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="132" yWindow="1932" windowWidth="15936" windowHeight="13008" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="1" r:id="rId1"/>
@@ -27,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,12 +66,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="C4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -269,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="H4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
+    <comment ref="H6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -321,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+    <comment ref="H8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -362,7 +361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
+    <comment ref="B22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -376,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
+    <comment ref="D28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -391,7 +390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
+    <comment ref="E29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -406,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
+    <comment ref="F29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -517,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
+    <comment ref="C30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -543,7 +542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
+    <comment ref="D30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -569,7 +568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
+    <comment ref="E30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -584,7 +583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
+    <comment ref="C33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -599,7 +598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
+    <comment ref="D33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -625,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
+    <comment ref="D35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -645,7 +644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
+    <comment ref="E35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -665,7 +664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
+    <comment ref="C39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -691,7 +690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
+    <comment ref="C40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -705,7 +704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
+    <comment ref="C41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -731,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
+    <comment ref="C97" authorId="0">
       <text>
         <r>
           <rPr>
@@ -751,12 +750,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="A27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -796,7 +795,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="B34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -813,7 +812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="A36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -860,7 +859,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="B37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -894,7 +893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="A47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -927,12 +926,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="B5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -949,7 +948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1062,7 +1061,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1087,7 +1086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="B30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1109,7 +1108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="B33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1132,7 +1131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="A38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1154,7 +1153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+    <comment ref="B54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1173,7 +1172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+    <comment ref="B57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1330,7 +1329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+    <comment ref="B58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1349,7 +1348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B95" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
+    <comment ref="B95" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1367,7 +1366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B107" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
+    <comment ref="B107" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1451,7 +1450,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="1113">
   <si>
     <t>максимальное значение переменной</t>
   </si>
@@ -8912,11 +8911,23 @@
   <si>
     <t>prompt(title, [default])/confirm()/alert()</t>
   </si>
+  <si>
+    <t>ctx.clearRect(0, 0, 0, 0)</t>
+  </si>
+  <si>
+    <t>.keydown()</t>
+  </si>
+  <si>
+    <t>ctx.fillText('', x, y)</t>
+  </si>
+  <si>
+    <t>ctx.textBaseline='top','bottom','middle' / ctx.font = "20px Courier"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0&quot;р.&quot;"/>
   </numFmts>
@@ -10337,13 +10348,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10397,10 +10408,10 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10412,6 +10423,18 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10419,18 +10442,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10477,7 +10488,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10521,7 +10532,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10570,7 +10581,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10619,7 +10630,7 @@
         <xdr:cNvPr id="10" name="Рисунок 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10669,7 +10680,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10719,7 +10730,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10769,7 +10780,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10819,7 +10830,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10869,7 +10880,7 @@
         <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10919,7 +10930,7 @@
         <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10969,7 +10980,7 @@
         <xdr:cNvPr id="8" name="Рисунок 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11019,7 +11030,7 @@
         <xdr:cNvPr id="9" name="Рисунок 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11069,7 +11080,7 @@
         <xdr:cNvPr id="11" name="Рисунок 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11119,7 +11130,7 @@
         <xdr:cNvPr id="12" name="Рисунок 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11174,7 +11185,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11218,7 +11229,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11262,7 +11273,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11306,7 +11317,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11350,7 +11361,7 @@
         <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11394,7 +11405,7 @@
         <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11438,7 +11449,7 @@
         <xdr:cNvPr id="8" name="Рисунок 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11482,7 +11493,7 @@
         <xdr:cNvPr id="10" name="Рисунок 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7B343C-A3ED-4FC7-9C61-E2FAC866C9AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D7B343C-A3ED-4FC7-9C61-E2FAC866C9AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11537,7 +11548,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11587,7 +11598,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11631,7 +11642,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11675,7 +11686,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11725,7 +11736,7 @@
         <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11769,7 +11780,7 @@
         <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11813,7 +11824,7 @@
         <xdr:cNvPr id="8" name="Рисунок 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11857,7 +11868,7 @@
         <xdr:cNvPr id="9" name="Рисунок 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11906,7 +11917,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11950,7 +11961,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11994,7 +12005,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12038,7 +12049,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14CF271A-1DA6-4675-A1AA-56E936A73EEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14CF271A-1DA6-4675-A1AA-56E936A73EEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12087,7 +12098,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{054E37CF-64A3-416F-807D-1909E1878560}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{054E37CF-64A3-416F-807D-1909E1878560}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12117,13 +12128,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>1892</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12131,7 +12142,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D16BBE-77A1-4FB5-B99E-BD4C46623750}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46D16BBE-77A1-4FB5-B99E-BD4C46623750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12180,7 +12191,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12229,7 +12240,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12273,7 +12284,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12317,7 +12328,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12361,7 +12372,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12410,7 +12421,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12454,7 +12465,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12498,7 +12509,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12570,7 +12581,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12603,26 +12614,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12655,23 +12649,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -12847,21 +12824,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -12869,7 +12846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -12880,7 +12857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -12891,7 +12868,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -12899,7 +12876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -12907,7 +12884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -12915,7 +12892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -12923,7 +12900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -12934,7 +12911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -12942,7 +12919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -12950,7 +12927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
@@ -12958,7 +12935,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
@@ -12966,7 +12943,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
@@ -12974,7 +12951,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
@@ -12982,7 +12959,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -12990,7 +12967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -12998,7 +12975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -13006,7 +12983,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -13014,7 +12991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -13022,7 +12999,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -13030,7 +13007,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -13038,7 +13015,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -13046,7 +13023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -13054,7 +13031,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
@@ -13065,7 +13042,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -13073,7 +13050,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -13081,7 +13058,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -13089,7 +13066,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -13097,7 +13074,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
@@ -13105,7 +13082,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
@@ -13113,7 +13090,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -13121,7 +13098,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
@@ -13132,7 +13109,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
@@ -13140,7 +13117,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
@@ -13148,7 +13125,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>71</v>
       </c>
@@ -13156,7 +13133,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
@@ -13164,7 +13141,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>76</v>
       </c>
@@ -13172,7 +13149,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
@@ -13180,7 +13157,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
@@ -13188,7 +13165,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>83</v>
       </c>
@@ -13199,7 +13176,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>85</v>
       </c>
@@ -13207,7 +13184,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>86</v>
       </c>
@@ -13215,12 +13192,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>90</v>
       </c>
@@ -13228,7 +13205,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>93</v>
       </c>
@@ -13236,7 +13213,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>94</v>
       </c>
@@ -13244,7 +13221,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>96</v>
       </c>
@@ -13252,7 +13229,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>98</v>
       </c>
@@ -13260,7 +13237,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>100</v>
       </c>
@@ -13268,7 +13245,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>102</v>
       </c>
@@ -13276,7 +13253,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>104</v>
       </c>
@@ -13284,7 +13261,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>106</v>
       </c>
@@ -13292,7 +13269,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>108</v>
       </c>
@@ -13300,7 +13277,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>111</v>
       </c>
@@ -13308,7 +13285,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>113</v>
       </c>
@@ -13316,12 +13293,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>115</v>
       </c>
@@ -13329,7 +13306,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>117</v>
       </c>
@@ -13337,7 +13314,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>126</v>
       </c>
@@ -13345,17 +13322,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>130</v>
       </c>
@@ -13363,32 +13340,32 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>137</v>
       </c>
@@ -13396,12 +13373,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>140</v>
       </c>
@@ -13409,59 +13386,59 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
     </row>
-    <row r="89" spans="1:2" ht="52.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="51" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="8"/>
     </row>
-    <row r="91" spans="1:2" ht="42" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="8"/>
     </row>
-    <row r="93" spans="1:2" ht="52.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="51" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="8"/>
     </row>
-    <row r="95" spans="1:2" ht="42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="8"/>
     </row>
-    <row r="97" spans="1:1" ht="42" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C27" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -13470,50 +13447,50 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="135" t="s">
         <v>533</v>
       </c>
       <c r="B1" s="81"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="132">
         <v>4</v>
       </c>
       <c r="B2" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="193" t="s">
         <v>300</v>
       </c>
       <c r="D2" s="86"/>
       <c r="E2" s="87"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="83">
         <v>5</v>
       </c>
       <c r="B3" s="88" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="186"/>
+      <c r="C3" s="191"/>
       <c r="D3" s="89" t="s">
         <v>308</v>
       </c>
@@ -13521,38 +13498,38 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="83">
         <v>6</v>
       </c>
       <c r="B4" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="191" t="s">
         <v>309</v>
       </c>
       <c r="D4" s="89"/>
       <c r="E4" s="90"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="83">
         <v>7</v>
       </c>
       <c r="B5" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="186"/>
+      <c r="C5" s="191"/>
       <c r="D5" s="89"/>
       <c r="E5" s="90"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="83">
         <v>8</v>
       </c>
       <c r="B6" s="91" t="s">
         <v>396</v>
       </c>
-      <c r="C6" s="186"/>
+      <c r="C6" s="191"/>
       <c r="D6" s="89" t="s">
         <v>437</v>
       </c>
@@ -13560,29 +13537,29 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="83">
         <v>9</v>
       </c>
       <c r="B7" s="140" t="s">
         <v>437</v>
       </c>
-      <c r="C7" s="186"/>
+      <c r="C7" s="191"/>
       <c r="D7" s="89"/>
       <c r="E7" s="90"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="83">
         <v>10</v>
       </c>
       <c r="B8" s="142" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="196"/>
+      <c r="C8" s="192"/>
       <c r="D8" s="138"/>
       <c r="E8" s="139"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="83">
         <v>11</v>
       </c>
@@ -13598,7 +13575,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="83">
         <v>12</v>
       </c>
@@ -13609,7 +13586,7 @@
       <c r="D10" s="89"/>
       <c r="E10" s="90"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="83">
         <v>13</v>
       </c>
@@ -13620,7 +13597,7 @@
       <c r="D11" s="89"/>
       <c r="E11" s="90"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="83">
         <v>14</v>
       </c>
@@ -13631,7 +13608,7 @@
       <c r="D12" s="89"/>
       <c r="E12" s="90"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="83">
         <v>15</v>
       </c>
@@ -13644,7 +13621,7 @@
       </c>
       <c r="E13" s="90"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="83">
         <v>16</v>
       </c>
@@ -13655,7 +13632,7 @@
       <c r="D14" s="89"/>
       <c r="E14" s="90"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="83">
         <v>17</v>
       </c>
@@ -13666,7 +13643,7 @@
       <c r="D15" s="138"/>
       <c r="E15" s="139"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="83">
         <v>18</v>
       </c>
@@ -13683,7 +13660,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="83">
         <v>19</v>
       </c>
@@ -13694,7 +13671,7 @@
       <c r="D17" s="89"/>
       <c r="E17" s="90"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="83">
         <v>20</v>
       </c>
@@ -13705,7 +13682,7 @@
       <c r="D18" s="89"/>
       <c r="E18" s="90"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="83">
         <v>21</v>
       </c>
@@ -13720,7 +13697,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="83">
         <v>22</v>
       </c>
@@ -13731,31 +13708,31 @@
       <c r="D20" s="89"/>
       <c r="E20" s="90"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="190">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="194">
         <v>23</v>
       </c>
       <c r="B21" s="140" t="s">
         <v>532</v>
       </c>
       <c r="C21" s="188"/>
-      <c r="D21" s="193" t="s">
+      <c r="D21" s="185" t="s">
         <v>679</v>
       </c>
-      <c r="E21" s="194" t="s">
+      <c r="E21" s="186" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="190"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="194"/>
       <c r="B22" s="140" t="s">
         <v>497</v>
       </c>
       <c r="C22" s="188"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="194"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="185"/>
+      <c r="E22" s="186"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="83">
         <v>24</v>
       </c>
@@ -13766,20 +13743,20 @@
       <c r="D23" s="138"/>
       <c r="E23" s="139"/>
     </row>
-    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="83">
         <v>25</v>
       </c>
       <c r="B24" s="91" t="s">
         <v>639</v>
       </c>
-      <c r="C24" s="191" t="s">
+      <c r="C24" s="195" t="s">
         <v>511</v>
       </c>
       <c r="D24" s="89"/>
       <c r="E24" s="90"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="115">
         <v>26</v>
       </c>
@@ -13790,7 +13767,7 @@
       <c r="D25" s="89"/>
       <c r="E25" s="90"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="83">
         <v>27</v>
       </c>
@@ -13801,7 +13778,7 @@
       <c r="D26" s="89"/>
       <c r="E26" s="90"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="83">
         <v>28</v>
       </c>
@@ -13812,7 +13789,7 @@
       <c r="D27" s="89"/>
       <c r="E27" s="90"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="83">
         <v>29</v>
       </c>
@@ -13825,7 +13802,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="83">
         <v>30</v>
       </c>
@@ -13836,24 +13813,24 @@
       <c r="D29" s="89"/>
       <c r="E29" s="90"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="84">
         <v>31</v>
       </c>
       <c r="B30" s="141" t="s">
         <v>686</v>
       </c>
-      <c r="C30" s="192"/>
+      <c r="C30" s="196"/>
       <c r="D30" s="77"/>
       <c r="E30" s="92"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="135" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="84">
         <v>1</v>
       </c>
@@ -13866,7 +13843,7 @@
       <c r="D33" s="86"/>
       <c r="E33" s="87"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="134">
         <v>2</v>
       </c>
@@ -13877,7 +13854,7 @@
       <c r="D34" s="89"/>
       <c r="E34" s="90"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="134">
         <v>3</v>
       </c>
@@ -13892,7 +13869,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="134">
         <v>4</v>
       </c>
@@ -13903,7 +13880,7 @@
       <c r="D36" s="89"/>
       <c r="E36" s="90"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="134">
         <v>5</v>
       </c>
@@ -13914,7 +13891,7 @@
       <c r="D37" s="89"/>
       <c r="E37" s="90"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="134">
         <v>6</v>
       </c>
@@ -13925,7 +13902,7 @@
       <c r="D38" s="89"/>
       <c r="E38" s="90"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="134">
         <v>7</v>
       </c>
@@ -13936,7 +13913,7 @@
       <c r="D39" s="138"/>
       <c r="E39" s="139"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="134">
         <v>8</v>
       </c>
@@ -13947,7 +13924,7 @@
       <c r="D40" s="89"/>
       <c r="E40" s="90"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="134">
         <v>9</v>
       </c>
@@ -13958,7 +13935,7 @@
       <c r="D41" s="89"/>
       <c r="E41" s="90"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="134">
         <v>10</v>
       </c>
@@ -13976,7 +13953,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="134">
         <v>11</v>
       </c>
@@ -13989,7 +13966,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="134">
         <v>12</v>
       </c>
@@ -14002,7 +13979,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="134">
         <v>13</v>
       </c>
@@ -14015,7 +13992,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="134">
         <v>14</v>
       </c>
@@ -14028,7 +14005,7 @@
       <c r="D46" s="138"/>
       <c r="E46" s="139"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="134">
         <v>15</v>
       </c>
@@ -14041,7 +14018,7 @@
       <c r="D47" s="89"/>
       <c r="E47" s="87"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="134">
         <v>16</v>
       </c>
@@ -14054,7 +14031,7 @@
       <c r="D48" s="89"/>
       <c r="E48" s="90"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="134">
         <v>17</v>
       </c>
@@ -14067,7 +14044,7 @@
       <c r="D49" s="89"/>
       <c r="E49" s="90"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="134">
         <v>18</v>
       </c>
@@ -14080,7 +14057,7 @@
       <c r="D50" s="89"/>
       <c r="E50" s="90"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="134">
         <v>19</v>
       </c>
@@ -14093,7 +14070,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="134">
         <v>20</v>
       </c>
@@ -14106,7 +14083,7 @@
       <c r="D52" s="89"/>
       <c r="E52" s="90"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="134">
         <v>21</v>
       </c>
@@ -14122,7 +14099,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="84">
         <v>22</v>
       </c>
@@ -14138,7 +14115,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="134">
         <v>23</v>
       </c>
@@ -14154,7 +14131,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="134">
         <v>24</v>
       </c>
@@ -14170,7 +14147,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="134">
         <v>25</v>
       </c>
@@ -14183,7 +14160,7 @@
       <c r="D57" s="89"/>
       <c r="E57" s="90"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="134">
         <v>26</v>
       </c>
@@ -14196,7 +14173,7 @@
       <c r="D58" s="89"/>
       <c r="E58" s="90"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="134">
         <v>27</v>
       </c>
@@ -14207,7 +14184,7 @@
       <c r="D59" s="89"/>
       <c r="E59" s="90"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="134">
         <v>28</v>
       </c>
@@ -14222,7 +14199,7 @@
       </c>
       <c r="E60" s="139"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="134">
         <v>29</v>
       </c>
@@ -14233,7 +14210,7 @@
       <c r="D61" s="89"/>
       <c r="E61" s="90"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="134">
         <v>30</v>
       </c>
@@ -14244,13 +14221,13 @@
       <c r="D62" s="138"/>
       <c r="E62" s="139"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="135" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="84">
         <v>1</v>
       </c>
@@ -14261,31 +14238,31 @@
       <c r="D65" s="86"/>
       <c r="E65" s="87"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="134">
         <v>2</v>
       </c>
       <c r="B66" s="91" t="s">
         <v>949</v>
       </c>
-      <c r="C66" s="195" t="s">
+      <c r="C66" s="190" t="s">
         <v>950</v>
       </c>
       <c r="D66" s="89"/>
       <c r="E66" s="90"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="134">
         <v>3</v>
       </c>
       <c r="B67" s="91" t="s">
         <v>949</v>
       </c>
-      <c r="C67" s="195"/>
+      <c r="C67" s="190"/>
       <c r="D67" s="89"/>
       <c r="E67" s="90"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="134">
         <v>4</v>
       </c>
@@ -14294,7 +14271,7 @@
       <c r="D68" s="89"/>
       <c r="E68" s="90"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="134">
         <v>5</v>
       </c>
@@ -14303,7 +14280,7 @@
       <c r="D69" s="138"/>
       <c r="E69" s="139"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="134">
         <v>6</v>
       </c>
@@ -14312,7 +14289,7 @@
       <c r="D70" s="89"/>
       <c r="E70" s="90"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="134">
         <v>7</v>
       </c>
@@ -14325,7 +14302,7 @@
       <c r="D71" s="89"/>
       <c r="E71" s="90"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="134">
         <v>8</v>
       </c>
@@ -14334,7 +14311,7 @@
       <c r="D72" s="89"/>
       <c r="E72" s="90"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="134">
         <v>9</v>
       </c>
@@ -14343,7 +14320,7 @@
       <c r="D73" s="89"/>
       <c r="E73" s="90"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="134">
         <v>10</v>
       </c>
@@ -14356,7 +14333,7 @@
       <c r="D74" s="89"/>
       <c r="E74" s="90"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="134">
         <v>11</v>
       </c>
@@ -14372,7 +14349,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="134">
         <v>12</v>
       </c>
@@ -14381,7 +14358,7 @@
       <c r="D76" s="138"/>
       <c r="E76" s="139"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="134">
         <v>13</v>
       </c>
@@ -14394,7 +14371,7 @@
       <c r="D77" s="89"/>
       <c r="E77" s="87"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="134">
         <v>14</v>
       </c>
@@ -14403,7 +14380,7 @@
       <c r="D78" s="89"/>
       <c r="E78" s="90"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="134">
         <v>15</v>
       </c>
@@ -14412,7 +14389,7 @@
       <c r="D79" s="89"/>
       <c r="E79" s="90"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="134">
         <v>16</v>
       </c>
@@ -14421,7 +14398,7 @@
       <c r="D80" s="89"/>
       <c r="E80" s="90"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="134">
         <v>17</v>
       </c>
@@ -14430,7 +14407,7 @@
       <c r="D81" s="89"/>
       <c r="E81" s="90"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="134">
         <v>18</v>
       </c>
@@ -14443,7 +14420,7 @@
       <c r="D82" s="89"/>
       <c r="E82" s="90"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="134">
         <v>19</v>
       </c>
@@ -14452,7 +14429,7 @@
       <c r="D83" s="89"/>
       <c r="E83" s="90"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="134">
         <v>20</v>
       </c>
@@ -14461,7 +14438,7 @@
       <c r="D84" s="86"/>
       <c r="E84" s="87"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="134">
         <v>21</v>
       </c>
@@ -14470,7 +14447,7 @@
       <c r="D85" s="89"/>
       <c r="E85" s="90"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="134">
         <v>22</v>
       </c>
@@ -14479,7 +14456,7 @@
       <c r="D86" s="89"/>
       <c r="E86" s="90"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="134">
         <v>23</v>
       </c>
@@ -14492,7 +14469,7 @@
       <c r="D87" s="89"/>
       <c r="E87" s="90"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="134">
         <v>24</v>
       </c>
@@ -14501,7 +14478,7 @@
       <c r="D88" s="89"/>
       <c r="E88" s="90"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="134">
         <v>25</v>
       </c>
@@ -14510,7 +14487,7 @@
       <c r="D89" s="89"/>
       <c r="E89" s="90"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="134">
         <v>26</v>
       </c>
@@ -14523,7 +14500,7 @@
       <c r="D90" s="138"/>
       <c r="E90" s="139"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="134">
         <v>27</v>
       </c>
@@ -14536,7 +14513,7 @@
       <c r="D91" s="86"/>
       <c r="E91" s="87"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="134">
         <v>28</v>
       </c>
@@ -14549,7 +14526,7 @@
       <c r="D92" s="89"/>
       <c r="E92" s="90"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="134">
         <v>29</v>
       </c>
@@ -14562,7 +14539,7 @@
       <c r="D93" s="89"/>
       <c r="E93" s="90"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="134">
         <v>30</v>
       </c>
@@ -14575,7 +14552,7 @@
       <c r="D94" s="89"/>
       <c r="E94" s="90"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="134">
         <v>31</v>
       </c>
@@ -14586,13 +14563,13 @@
       <c r="D95" s="138"/>
       <c r="E95" s="139"/>
     </row>
-    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="97" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="135" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="84">
         <v>1</v>
       </c>
@@ -14605,7 +14582,7 @@
       <c r="D98" s="86"/>
       <c r="E98" s="87"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="134">
         <v>2</v>
       </c>
@@ -14614,7 +14591,7 @@
       <c r="D99" s="138"/>
       <c r="E99" s="139"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="134">
         <v>3</v>
       </c>
@@ -14627,7 +14604,7 @@
       <c r="D100" s="89"/>
       <c r="E100" s="90"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="134">
         <v>4</v>
       </c>
@@ -14636,7 +14613,7 @@
       <c r="D101" s="89"/>
       <c r="E101" s="90"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="134">
         <v>5</v>
       </c>
@@ -14645,7 +14622,7 @@
       <c r="D102" s="89"/>
       <c r="E102" s="90"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="134">
         <v>6</v>
       </c>
@@ -14654,7 +14631,7 @@
       <c r="D103" s="89"/>
       <c r="E103" s="90"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="134">
         <v>7</v>
       </c>
@@ -14663,7 +14640,7 @@
       <c r="D104" s="89"/>
       <c r="E104" s="90"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="134">
         <v>8</v>
       </c>
@@ -14676,7 +14653,7 @@
       <c r="D105" s="89"/>
       <c r="E105" s="90"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="134">
         <v>9</v>
       </c>
@@ -14689,7 +14666,7 @@
       <c r="D106" s="138"/>
       <c r="E106" s="139"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="134">
         <v>10</v>
       </c>
@@ -14702,7 +14679,7 @@
       <c r="D107" s="89"/>
       <c r="E107" s="87"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="134">
         <v>11</v>
       </c>
@@ -14711,7 +14688,7 @@
       <c r="D108" s="89"/>
       <c r="E108" s="90"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="134">
         <v>12</v>
       </c>
@@ -14720,7 +14697,7 @@
       <c r="D109" s="89"/>
       <c r="E109" s="90"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="134">
         <v>13</v>
       </c>
@@ -14729,7 +14706,7 @@
       <c r="D110" s="89"/>
       <c r="E110" s="90"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="134">
         <v>14</v>
       </c>
@@ -14738,7 +14715,7 @@
       <c r="D111" s="89"/>
       <c r="E111" s="90"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="134">
         <v>15</v>
       </c>
@@ -14747,7 +14724,7 @@
       <c r="D112" s="89"/>
       <c r="E112" s="90"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="134">
         <v>16</v>
       </c>
@@ -14756,7 +14733,7 @@
       <c r="D113" s="89"/>
       <c r="E113" s="90"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="134">
         <v>17</v>
       </c>
@@ -14765,7 +14742,7 @@
       <c r="D114" s="86"/>
       <c r="E114" s="87"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="134">
         <v>18</v>
       </c>
@@ -14774,7 +14751,7 @@
       <c r="D115" s="89"/>
       <c r="E115" s="90"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="134">
         <v>19</v>
       </c>
@@ -14783,7 +14760,7 @@
       <c r="D116" s="89"/>
       <c r="E116" s="90"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="134">
         <v>20</v>
       </c>
@@ -14792,7 +14769,7 @@
       <c r="D117" s="89"/>
       <c r="E117" s="90"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="134">
         <v>21</v>
       </c>
@@ -14801,7 +14778,7 @@
       <c r="D118" s="89"/>
       <c r="E118" s="90"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="134">
         <v>22</v>
       </c>
@@ -14810,7 +14787,7 @@
       <c r="D119" s="89"/>
       <c r="E119" s="90"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="134">
         <v>23</v>
       </c>
@@ -14819,7 +14796,7 @@
       <c r="D120" s="138"/>
       <c r="E120" s="139"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="134">
         <v>24</v>
       </c>
@@ -14828,7 +14805,7 @@
       <c r="D121" s="86"/>
       <c r="E121" s="87"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="134">
         <v>25</v>
       </c>
@@ -14837,7 +14814,7 @@
       <c r="D122" s="89"/>
       <c r="E122" s="90"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="134">
         <v>26</v>
       </c>
@@ -14846,7 +14823,7 @@
       <c r="D123" s="89"/>
       <c r="E123" s="90"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="134">
         <v>27</v>
       </c>
@@ -14855,7 +14832,7 @@
       <c r="D124" s="89"/>
       <c r="E124" s="90"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="134">
         <v>28</v>
       </c>
@@ -14864,7 +14841,7 @@
       <c r="D125" s="89"/>
       <c r="E125" s="90"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="134">
         <v>29</v>
       </c>
@@ -14873,7 +14850,7 @@
       <c r="D126" s="89"/>
       <c r="E126" s="90"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="134">
         <v>30</v>
       </c>
@@ -14882,7 +14859,7 @@
       <c r="D127" s="138"/>
       <c r="E127" s="139"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="134">
         <v>31</v>
       </c>
@@ -14893,20 +14870,20 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C16:C23"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C24:C30"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="C9:C15"/>
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C16:C23"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C24:C30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://ru.hexlet.io/courses/html" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://ru.hexlet.io/courses/html" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://ru.hexlet.io/courses/html"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://ru.hexlet.io/courses/html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -14915,29 +14892,29 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="149" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.33203125" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="149" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>304</v>
       </c>
@@ -14954,7 +14931,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>306</v>
       </c>
@@ -14971,7 +14948,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>336</v>
       </c>
@@ -14988,7 +14965,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>363</v>
       </c>
@@ -15005,7 +14982,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>382</v>
       </c>
@@ -15025,7 +15002,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>384</v>
       </c>
@@ -15045,7 +15022,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>386</v>
       </c>
@@ -15062,7 +15039,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>407</v>
       </c>
@@ -15082,7 +15059,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>423</v>
       </c>
@@ -15096,13 +15073,13 @@
         <v>962</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>534</v>
       </c>
       <c r="B11" s="197"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>434</v>
       </c>
@@ -15110,7 +15087,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>438</v>
       </c>
@@ -15118,7 +15095,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>444</v>
       </c>
@@ -15126,7 +15103,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>465</v>
       </c>
@@ -15134,13 +15111,13 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>966</v>
       </c>
       <c r="B16" s="198"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>484</v>
       </c>
@@ -15148,7 +15125,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>486</v>
       </c>
@@ -15156,7 +15133,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>494</v>
       </c>
@@ -15164,7 +15141,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>541</v>
       </c>
@@ -15172,12 +15149,12 @@
         <v>542</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>613</v>
       </c>
@@ -15185,13 +15162,13 @@
         <v>614</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>703</v>
       </c>
       <c r="B23" s="197"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>740</v>
       </c>
@@ -15199,12 +15176,12 @@
         <v>405</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>963</v>
       </c>
@@ -15212,12 +15189,12 @@
         <v>964</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1022</v>
       </c>
@@ -15232,30 +15209,30 @@
     <mergeCell ref="B15:B16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" location="textarea" display="https://validator.w3.org/nu/ - textarea" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{00000000-0004-0000-0A00-000005000000}"/>
-    <hyperlink ref="A7" r:id="rId7" xr:uid="{00000000-0004-0000-0A00-000006000000}"/>
-    <hyperlink ref="A8" r:id="rId8" xr:uid="{00000000-0004-0000-0A00-000007000000}"/>
-    <hyperlink ref="A9" r:id="rId9" xr:uid="{00000000-0004-0000-0A00-000008000000}"/>
-    <hyperlink ref="A10" r:id="rId10" xr:uid="{00000000-0004-0000-0A00-000009000000}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0A00-00000A000000}"/>
-    <hyperlink ref="A13" r:id="rId12" location="комментарии" xr:uid="{00000000-0004-0000-0A00-00000B000000}"/>
-    <hyperlink ref="B13" r:id="rId13" display="https://github.com/airbnb/javascript/" xr:uid="{00000000-0004-0000-0A00-00000C000000}"/>
-    <hyperlink ref="A14" r:id="rId14" xr:uid="{00000000-0004-0000-0A00-00000D000000}"/>
-    <hyperlink ref="A15" r:id="rId15" xr:uid="{00000000-0004-0000-0A00-00000E000000}"/>
-    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0A00-00000F000000}"/>
-    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0A00-000010000000}"/>
-    <hyperlink ref="A19" r:id="rId18" location="svg-color" xr:uid="{00000000-0004-0000-0A00-000011000000}"/>
-    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0A00-000012000000}"/>
-    <hyperlink ref="A21" r:id="rId20" xr:uid="{00000000-0004-0000-0A00-000013000000}"/>
-    <hyperlink ref="A22" r:id="rId21" xr:uid="{00000000-0004-0000-0A00-000014000000}"/>
-    <hyperlink ref="A24" r:id="rId22" xr:uid="{00000000-0004-0000-0A00-000015000000}"/>
-    <hyperlink ref="A26" r:id="rId23" xr:uid="{00000000-0004-0000-0A00-000016000000}"/>
-    <hyperlink ref="A27" r:id="rId24" xr:uid="{00000000-0004-0000-0A00-000017000000}"/>
+    <hyperlink ref="A1" r:id="rId1" location="textarea" display="https://validator.w3.org/nu/ - textarea"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
+    <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12" location="комментарии"/>
+    <hyperlink ref="B13" r:id="rId13" display="https://github.com/airbnb/javascript/"/>
+    <hyperlink ref="A14" r:id="rId14"/>
+    <hyperlink ref="A15" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18" location="svg-color"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A24" r:id="rId22"/>
+    <hyperlink ref="A26" r:id="rId23"/>
+    <hyperlink ref="A27" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
@@ -15263,20 +15240,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -15287,7 +15264,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -15295,7 +15272,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -15303,7 +15280,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -15311,7 +15288,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -15319,7 +15296,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -15327,7 +15304,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -15335,7 +15312,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -15343,7 +15320,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -15351,7 +15328,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -15359,7 +15336,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -15367,7 +15344,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -15375,7 +15352,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -15383,7 +15360,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -15391,7 +15368,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -15399,7 +15376,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -15407,7 +15384,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -15415,7 +15392,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -15423,7 +15400,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -15431,7 +15408,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -15439,7 +15416,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -15447,22 +15424,22 @@
         <v>731</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -15475,21 +15452,21 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>797</v>
       </c>
@@ -15504,20 +15481,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>765</v>
       </c>
@@ -15528,7 +15505,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>766</v>
       </c>
@@ -15539,7 +15516,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>768</v>
       </c>
@@ -15550,7 +15527,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="150" t="s">
         <v>786</v>
       </c>
@@ -15558,7 +15535,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="151" t="s">
         <v>770</v>
       </c>
@@ -15569,7 +15546,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>926</v>
       </c>
@@ -15580,7 +15557,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>772</v>
       </c>
@@ -15591,7 +15568,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>774</v>
       </c>
@@ -15602,7 +15579,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="152" t="s">
         <v>775</v>
       </c>
@@ -15613,7 +15590,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>777</v>
       </c>
@@ -15624,7 +15601,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="148" t="s">
         <v>802</v>
       </c>
@@ -15635,7 +15612,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="153" t="s">
         <v>917</v>
       </c>
@@ -15643,7 +15620,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>778</v>
       </c>
@@ -15654,7 +15631,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="152" t="s">
         <v>913</v>
       </c>
@@ -15665,7 +15642,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="152" t="s">
         <v>780</v>
       </c>
@@ -15676,7 +15653,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>782</v>
       </c>
@@ -15687,7 +15664,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>784</v>
       </c>
@@ -15698,7 +15675,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>789</v>
       </c>
@@ -15709,7 +15686,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>790</v>
       </c>
@@ -15720,7 +15697,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="152" t="s">
         <v>793</v>
       </c>
@@ -15731,7 +15708,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>795</v>
       </c>
@@ -15742,7 +15719,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>800</v>
       </c>
@@ -15753,7 +15730,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" s="150" t="s">
         <v>935</v>
       </c>
@@ -15761,7 +15738,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>915</v>
       </c>
@@ -15772,7 +15749,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>909</v>
       </c>
@@ -15783,7 +15760,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="150" t="s">
         <v>912</v>
       </c>
@@ -15791,7 +15768,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>919</v>
       </c>
@@ -15802,7 +15779,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>924</v>
       </c>
@@ -15813,7 +15790,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="150" t="s">
         <v>925</v>
       </c>
@@ -15821,7 +15798,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" s="150" t="s">
         <v>927</v>
       </c>
@@ -15829,7 +15806,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>928</v>
       </c>
@@ -15840,7 +15817,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>931</v>
       </c>
@@ -15851,7 +15828,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" s="150" t="s">
         <v>933</v>
       </c>
@@ -15859,42 +15836,42 @@
         <v>834</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>922</v>
       </c>
@@ -15902,7 +15879,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>799</v>
       </c>
@@ -15910,7 +15887,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>920</v>
       </c>
@@ -15918,7 +15895,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>921</v>
       </c>
@@ -15926,307 +15903,307 @@
         <v>845</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
         <v>906</v>
       </c>
@@ -16239,27 +16216,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="30.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>158</v>
       </c>
@@ -16282,7 +16259,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>159</v>
       </c>
@@ -16305,7 +16282,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="177" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="177" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
       <c r="B3" s="12"/>
       <c r="C3" s="11"/>
@@ -16316,7 +16293,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="48"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>160</v>
       </c>
@@ -16337,7 +16314,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>161</v>
       </c>
@@ -16351,12 +16328,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H6" s="19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>173</v>
       </c>
@@ -16367,7 +16344,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>171</v>
       </c>
@@ -16384,7 +16361,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>175</v>
       </c>
@@ -16398,7 +16375,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>176</v>
       </c>
@@ -16416,7 +16393,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>180</v>
       </c>
@@ -16427,7 +16404,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>182</v>
       </c>
@@ -16438,7 +16415,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="21" t="s">
         <v>183</v>
@@ -16450,7 +16427,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="B14" s="21" t="s">
         <v>184</v>
@@ -16459,19 +16436,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
       <c r="B15" s="21" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="21" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="21" t="s">
         <v>189</v>
@@ -16486,7 +16463,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
         <v>190</v>
@@ -16495,7 +16472,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>191</v>
       </c>
@@ -16506,19 +16483,19 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="23"/>
       <c r="B20" s="21" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="21" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>198</v>
       </c>
@@ -16526,7 +16503,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="24"/>
       <c r="B23" s="21" t="s">
         <v>259</v>
@@ -16538,7 +16515,7 @@
       <c r="G23" s="46"/>
       <c r="I23" s="46"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="51" t="s">
         <v>287</v>
       </c>
@@ -16558,7 +16535,7 @@
       <c r="G24" s="50"/>
       <c r="I24" s="50"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="51"/>
       <c r="B25" s="21" t="s">
         <v>292</v>
@@ -16572,7 +16549,7 @@
       <c r="G25" s="50"/>
       <c r="I25" s="50"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="51"/>
       <c r="B26" s="21" t="s">
         <v>294</v>
@@ -16584,13 +16561,13 @@
       <c r="G26" s="50"/>
       <c r="I26" s="50"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20"/>
       <c r="G27" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
         <v>195</v>
       </c>
@@ -16604,7 +16581,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
       <c r="C29" s="27" t="s">
         <v>202</v>
@@ -16619,7 +16596,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="30" t="s">
         <v>206</v>
       </c>
@@ -16631,7 +16608,7 @@
       </c>
       <c r="F30" s="32"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="27" t="s">
         <v>209</v>
       </c>
@@ -16642,7 +16619,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C32" s="33" t="s">
         <v>212</v>
       </c>
@@ -16656,7 +16633,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="9" t="s">
         <v>217</v>
       </c>
@@ -16667,7 +16644,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="9" t="s">
         <v>223</v>
       </c>
@@ -16680,12 +16657,12 @@
       <c r="E34" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="F34" s="166" t="s">
+      <c r="F34" s="165" t="s">
         <v>227</v>
       </c>
-      <c r="G34" s="167"/>
-    </row>
-    <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="166"/>
+    </row>
+    <row r="35" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="9" t="s">
         <v>228</v>
       </c>
@@ -16701,7 +16678,7 @@
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="47"/>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
@@ -16710,7 +16687,7 @@
       <c r="G36" s="36"/>
       <c r="I36" s="47"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>260</v>
       </c>
@@ -16723,7 +16700,7 @@
       <c r="G37" s="36"/>
       <c r="I37" s="47"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D38" s="9" t="s">
         <v>129</v>
       </c>
@@ -16731,17 +16708,17 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C39" s="9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C40" s="9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C41" s="9" t="s">
         <v>222</v>
       </c>
@@ -16749,8 +16726,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="9" t="s">
         <v>232</v>
       </c>
@@ -16767,8 +16744,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="164" t="s">
         <v>239</v>
       </c>
@@ -16782,7 +16759,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="164"/>
       <c r="C72" s="33" t="s">
         <v>243</v>
@@ -16797,13 +16774,13 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="164"/>
       <c r="C73" s="41" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="49"/>
       <c r="C79" s="49"/>
       <c r="D79" s="49"/>
@@ -16812,8 +16789,8 @@
       <c r="G79" s="49"/>
       <c r="I79" s="49"/>
     </row>
-    <row r="81" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="164" t="s">
         <v>249</v>
       </c>
@@ -16822,7 +16799,7 @@
       </c>
       <c r="E82" s="42"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="164"/>
       <c r="C83" s="44" t="s">
         <v>251</v>
@@ -16832,7 +16809,7 @@
       </c>
       <c r="E83" s="164"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="164"/>
       <c r="C84" s="44" t="s">
         <v>252</v>
@@ -16842,14 +16819,14 @@
       </c>
       <c r="E84" s="164"/>
     </row>
-    <row r="85" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B85" s="164"/>
       <c r="C85" s="45" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="164" t="s">
         <v>262</v>
       </c>
@@ -16857,19 +16834,19 @@
         <v>263</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="164"/>
       <c r="C89" s="44" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="164"/>
       <c r="C90" s="44" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="164"/>
       <c r="C91" s="44" t="s">
         <v>266</v>
@@ -16881,15 +16858,15 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B92" s="164"/>
       <c r="C92" s="45" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="93" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="165" t="s">
+    <row r="93" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B94" s="167" t="s">
         <v>276</v>
       </c>
       <c r="C94" s="43" t="s">
@@ -16900,14 +16877,14 @@
       </c>
       <c r="E94" s="164"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="165"/>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B95" s="167"/>
       <c r="C95" s="44" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="165"/>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B96" s="167"/>
       <c r="C96" s="44" t="s">
         <v>278</v>
       </c>
@@ -16916,8 +16893,8 @@
       </c>
       <c r="E96" s="164"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="165"/>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B97" s="167"/>
       <c r="C97" s="44" t="s">
         <v>280</v>
       </c>
@@ -16929,8 +16906,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="165"/>
+    <row r="98" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="167"/>
       <c r="C98" s="45" t="s">
         <v>283</v>
       </c>
@@ -16942,18 +16919,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="B94:B98"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="B71:B73"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="B82:B85"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="B94:B98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16963,29 +16940,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="54" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="122" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="53" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="53" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="66.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="53" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="53" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="66.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
         <v>318</v>
       </c>
@@ -17001,7 +16978,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54" t="s">
         <v>368</v>
       </c>
@@ -17022,7 +16999,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="54" t="s">
         <v>337</v>
       </c>
@@ -17040,7 +17017,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="54" t="s">
         <v>346</v>
       </c>
@@ -17059,7 +17036,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="54" t="s">
         <v>350</v>
       </c>
@@ -17075,7 +17052,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="54" t="s">
         <v>339</v>
       </c>
@@ -17094,7 +17071,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="54" t="s">
         <v>302</v>
       </c>
@@ -17113,7 +17090,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="54" t="s">
         <v>319</v>
       </c>
@@ -17129,7 +17106,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="54" t="s">
         <v>322</v>
       </c>
@@ -17145,7 +17122,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="54" t="s">
         <v>347</v>
       </c>
@@ -17161,7 +17138,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="54" t="s">
         <v>354</v>
       </c>
@@ -17179,7 +17156,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="54" t="s">
         <v>342</v>
       </c>
@@ -17194,7 +17171,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="54" t="s">
         <v>315</v>
       </c>
@@ -17209,7 +17186,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="54" t="s">
         <v>324</v>
       </c>
@@ -17224,7 +17201,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="54" t="s">
         <v>310</v>
       </c>
@@ -17235,7 +17212,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="54" t="s">
         <v>338</v>
       </c>
@@ -17246,7 +17223,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="54" t="s">
         <v>344</v>
       </c>
@@ -17260,7 +17237,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="54" t="s">
         <v>303</v>
       </c>
@@ -17271,7 +17248,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="54" t="s">
         <v>320</v>
       </c>
@@ -17282,7 +17259,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="54" t="s">
         <v>326</v>
       </c>
@@ -17293,7 +17270,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="54" t="s">
         <v>330</v>
       </c>
@@ -17304,7 +17281,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="54" t="s">
         <v>333</v>
       </c>
@@ -17315,7 +17292,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="54" t="s">
         <v>332</v>
       </c>
@@ -17326,7 +17303,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="54" t="s">
         <v>329</v>
       </c>
@@ -17337,7 +17314,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="54" t="s">
         <v>352</v>
       </c>
@@ -17345,7 +17322,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="54" t="s">
         <v>331</v>
       </c>
@@ -17353,7 +17330,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="54" t="s">
         <v>314</v>
       </c>
@@ -17361,7 +17338,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="168" t="s">
         <v>355</v>
       </c>
@@ -17369,43 +17346,43 @@
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="168"/>
       <c r="B29" s="53" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="168"/>
       <c r="B30" s="53" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="168"/>
       <c r="B31" s="53" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="168"/>
       <c r="B32" s="53" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="168"/>
       <c r="B33" s="53" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="168"/>
       <c r="B34" s="59" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="25.2" x14ac:dyDescent="0.35">
       <c r="A35" s="57" t="s">
         <v>359</v>
       </c>
@@ -17413,7 +17390,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="22.2" x14ac:dyDescent="0.35">
       <c r="A36" s="101" t="s">
         <v>364</v>
       </c>
@@ -17421,7 +17398,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="25.2" x14ac:dyDescent="0.35">
       <c r="A37" s="60" t="s">
         <v>365</v>
       </c>
@@ -17429,7 +17406,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="62" t="s">
         <v>366</v>
       </c>
@@ -17437,7 +17414,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="62" t="s">
         <v>369</v>
       </c>
@@ -17445,7 +17422,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="62" t="s">
         <v>370</v>
       </c>
@@ -17453,7 +17430,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="62" t="s">
         <v>371</v>
       </c>
@@ -17461,7 +17438,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="64" t="s">
         <v>372</v>
       </c>
@@ -17469,7 +17446,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="54" t="s">
         <v>373</v>
       </c>
@@ -17477,7 +17454,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="57" t="s">
         <v>375</v>
       </c>
@@ -17485,7 +17462,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="54" t="s">
         <v>377</v>
       </c>
@@ -17493,7 +17470,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="54" t="s">
         <v>379</v>
       </c>
@@ -17501,7 +17478,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="54" t="s">
         <v>381</v>
       </c>
@@ -17509,7 +17486,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="54" t="s">
         <v>388</v>
       </c>
@@ -17517,7 +17494,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="54" t="s">
         <v>391</v>
       </c>
@@ -17525,7 +17502,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="54" t="s">
         <v>392</v>
       </c>
@@ -17533,7 +17510,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="54" t="s">
         <v>394</v>
       </c>
@@ -17541,7 +17518,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="54" t="s">
         <v>401</v>
       </c>
@@ -17549,7 +17526,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="54" t="s">
         <v>458</v>
       </c>
@@ -17557,7 +17534,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="54" t="s">
         <v>459</v>
       </c>
@@ -17565,7 +17542,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="54" t="s">
         <v>460</v>
       </c>
@@ -17573,7 +17550,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="25.2" x14ac:dyDescent="0.35">
       <c r="A56" s="57" t="s">
         <v>467</v>
       </c>
@@ -17581,7 +17558,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="54" t="s">
         <v>468</v>
       </c>
@@ -17589,7 +17566,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="54" t="s">
         <v>471</v>
       </c>
@@ -17597,7 +17574,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="54" t="s">
         <v>474</v>
       </c>
@@ -17605,7 +17582,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="54" t="s">
         <v>475</v>
       </c>
@@ -17613,7 +17590,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="54" t="s">
         <v>479</v>
       </c>
@@ -17621,7 +17598,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="54" t="s">
         <v>582</v>
       </c>
@@ -17629,7 +17606,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="54" t="s">
         <v>589</v>
       </c>
@@ -17637,7 +17614,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="54" t="s">
         <v>592</v>
       </c>
@@ -17645,7 +17622,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="171" t="s">
         <v>974</v>
       </c>
@@ -17653,372 +17630,372 @@
         <v>976</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="171"/>
       <c r="B66" s="170"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="54" t="s">
         <v>313</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B27">
+  <sortState ref="A2:B27">
     <sortCondition ref="A2"/>
   </sortState>
   <mergeCells count="4">
@@ -18035,24 +18012,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI245"/>
   <sheetViews>
     <sheetView topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="96" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="68" customWidth="1"/>
-    <col min="3" max="3" width="100.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="96" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="68" customWidth="1"/>
+    <col min="3" max="3" width="100.5546875" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AE1" t="s">
         <v>796</v>
       </c>
@@ -18060,7 +18037,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="178" t="s">
         <v>658</v>
       </c>
@@ -18077,7 +18054,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="179"/>
       <c r="B3" s="69" t="s">
         <v>421</v>
@@ -18098,7 +18075,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="179"/>
       <c r="B4" s="69" t="s">
         <v>297</v>
@@ -18110,7 +18087,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="179"/>
       <c r="B5" s="69" t="s">
         <v>642</v>
@@ -18125,7 +18102,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="179"/>
       <c r="B6" s="69" t="s">
         <v>644</v>
@@ -18137,7 +18114,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B7" s="69"/>
       <c r="AE7" s="5" t="s">
         <v>943</v>
@@ -18146,7 +18123,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B8" s="70" t="s">
         <v>398</v>
       </c>
@@ -18157,7 +18134,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B9" s="70" t="s">
         <v>680</v>
       </c>
@@ -18165,7 +18142,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B10" s="70" t="s">
         <v>681</v>
       </c>
@@ -18173,7 +18150,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B11" s="70" t="s">
         <v>685</v>
       </c>
@@ -18181,7 +18158,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B12" s="70" t="s">
         <v>691</v>
       </c>
@@ -18189,7 +18166,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="183" t="s">
         <v>984</v>
       </c>
@@ -18200,7 +18177,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="184"/>
       <c r="B14" s="70" t="s">
         <v>988</v>
@@ -18209,7 +18186,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="184"/>
       <c r="B15" s="70" t="s">
         <v>987</v>
@@ -18218,7 +18195,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="184"/>
       <c r="B16" s="70" t="s">
         <v>986</v>
@@ -18227,7 +18204,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="184"/>
       <c r="B17" s="70" t="s">
         <v>985</v>
@@ -18236,7 +18213,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="175" t="s">
         <v>400</v>
       </c>
@@ -18247,7 +18224,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="175"/>
       <c r="B19" s="71" t="s">
         <v>482</v>
@@ -18256,7 +18233,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="175"/>
       <c r="B20" s="71" t="s">
         <v>544</v>
@@ -18265,7 +18242,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="175"/>
       <c r="B21" s="71" t="s">
         <v>1020</v>
@@ -18274,7 +18251,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="175"/>
       <c r="B22" s="71" t="s">
         <v>548</v>
@@ -18283,7 +18260,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="159"/>
       <c r="B23" s="71" t="s">
         <v>1016</v>
@@ -18292,7 +18269,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="159"/>
       <c r="B24" s="71" t="s">
         <v>1018</v>
@@ -18301,7 +18278,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="98"/>
       <c r="B25" s="71" t="s">
         <v>550</v>
@@ -18310,7 +18287,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26" s="70" t="s">
         <v>403</v>
       </c>
@@ -18318,7 +18295,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" s="70" t="s">
         <v>405</v>
       </c>
@@ -18329,7 +18306,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" s="70" t="s">
         <v>409</v>
       </c>
@@ -18340,7 +18317,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="70" t="s">
         <v>491</v>
       </c>
@@ -18351,7 +18328,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="70" t="s">
         <v>410</v>
       </c>
@@ -18359,7 +18336,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" s="70" t="s">
         <v>412</v>
       </c>
@@ -18367,7 +18344,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" s="70" t="s">
         <v>414</v>
       </c>
@@ -18375,7 +18352,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B33" s="71" t="s">
         <v>416</v>
       </c>
@@ -18383,7 +18360,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" s="70" t="s">
         <v>419</v>
       </c>
@@ -18391,7 +18368,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35" s="70" t="s">
         <v>422</v>
       </c>
@@ -18399,7 +18376,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36" s="70" t="s">
         <v>425</v>
       </c>
@@ -18407,12 +18384,12 @@
         <v>426</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B37" s="70" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="176" t="s">
         <v>610</v>
       </c>
@@ -18423,7 +18400,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="177"/>
       <c r="B39" s="113" t="s">
         <v>577</v>
@@ -18432,7 +18409,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="177"/>
       <c r="B40" s="113" t="s">
         <v>611</v>
@@ -18441,7 +18418,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="177"/>
       <c r="B41" s="113" t="s">
         <v>436</v>
@@ -18450,7 +18427,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="177"/>
       <c r="B42" s="113" t="s">
         <v>1010</v>
@@ -18459,7 +18436,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="177"/>
       <c r="B43" s="113" t="s">
         <v>1012</v>
@@ -18468,7 +18445,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="177"/>
       <c r="B44" s="113" t="s">
         <v>708</v>
@@ -18477,7 +18454,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="177"/>
       <c r="B45" s="113" t="s">
         <v>612</v>
@@ -18486,7 +18463,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="117"/>
       <c r="B46" s="70" t="s">
         <v>683</v>
@@ -18495,14 +18472,14 @@
         <v>695</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="117"/>
       <c r="B47" s="116" t="s">
         <v>684</v>
       </c>
       <c r="C47" s="112"/>
     </row>
-    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B48" s="71" t="s">
         <v>428</v>
       </c>
@@ -18510,7 +18487,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B49" s="71" t="s">
         <v>429</v>
       </c>
@@ -18518,7 +18495,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B50" s="71" t="s">
         <v>431</v>
       </c>
@@ -18526,10 +18503,10 @@
         <v>432</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B51" s="71"/>
     </row>
-    <row r="52" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A52" s="174" t="s">
         <v>538</v>
       </c>
@@ -18540,7 +18517,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="174"/>
       <c r="B53" s="71" t="s">
         <v>537</v>
@@ -18549,7 +18526,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="174"/>
       <c r="B54" s="71" t="s">
         <v>535</v>
@@ -18558,11 +18535,11 @@
         <v>539</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B55" s="71"/>
       <c r="C55" s="66"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B56" s="71" t="s">
         <v>436</v>
       </c>
@@ -18570,7 +18547,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B57" s="71" t="s">
         <v>453</v>
       </c>
@@ -18578,7 +18555,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B58" s="70" t="s">
         <v>489</v>
       </c>
@@ -18586,7 +18563,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="B59" s="71" t="s">
         <v>495</v>
       </c>
@@ -18594,7 +18571,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B60" s="70" t="s">
         <v>521</v>
       </c>
@@ -18602,11 +18579,11 @@
         <v>520</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B61" s="70"/>
       <c r="C61" s="109"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B62" s="70" t="s">
         <v>601</v>
       </c>
@@ -18614,7 +18591,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B63" s="70" t="s">
         <v>602</v>
       </c>
@@ -18622,7 +18599,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B64" s="70" t="s">
         <v>604</v>
       </c>
@@ -18630,7 +18607,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="70" t="s">
         <v>606</v>
       </c>
@@ -18638,7 +18615,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="70" t="s">
         <v>615</v>
       </c>
@@ -18646,7 +18623,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="70" t="s">
         <v>617</v>
       </c>
@@ -18654,7 +18631,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="70" t="s">
         <v>619</v>
       </c>
@@ -18662,7 +18639,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="70" t="s">
         <v>621</v>
       </c>
@@ -18670,27 +18647,27 @@
         <v>622</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="70" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="70" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="70" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="70" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="70" t="s">
         <v>1009</v>
       </c>
@@ -18698,17 +18675,17 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="70" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="70" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="70" t="s">
         <v>992</v>
       </c>
@@ -18716,7 +18693,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="70" t="s">
         <v>994</v>
       </c>
@@ -18724,7 +18701,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="70" t="s">
         <v>996</v>
       </c>
@@ -18732,7 +18709,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" s="70" t="s">
         <v>998</v>
       </c>
@@ -18740,7 +18717,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B81" s="70" t="s">
         <v>1000</v>
       </c>
@@ -18748,10 +18725,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B82" s="70"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B83" s="70" t="s">
         <v>640</v>
       </c>
@@ -18759,7 +18736,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B84" s="70" t="s">
         <v>646</v>
       </c>
@@ -18767,7 +18744,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="180" t="s">
         <v>661</v>
       </c>
@@ -18778,7 +18755,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A86" s="181"/>
       <c r="B86" s="120" t="s">
         <v>650</v>
@@ -18787,7 +18764,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="181"/>
       <c r="B87" s="120" t="s">
         <v>656</v>
@@ -18796,7 +18773,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="181"/>
       <c r="B88" s="123" t="s">
         <v>653</v>
@@ -18805,7 +18782,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="181"/>
       <c r="B89" s="120" t="s">
         <v>654</v>
@@ -18814,7 +18791,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="181"/>
       <c r="B90" s="120" t="s">
         <v>742</v>
@@ -18823,7 +18800,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="181"/>
       <c r="B91" s="124" t="s">
         <v>659</v>
@@ -18832,7 +18809,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="181"/>
       <c r="B92" s="124" t="s">
         <v>662</v>
@@ -18841,7 +18818,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="181"/>
       <c r="B93" s="124" t="s">
         <v>664</v>
@@ -18850,7 +18827,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="181"/>
       <c r="B94" s="124" t="s">
         <v>666</v>
@@ -18859,7 +18836,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="182"/>
       <c r="B95" s="125" t="s">
         <v>668</v>
@@ -18868,7 +18845,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="127"/>
       <c r="B96" s="118" t="s">
         <v>670</v>
@@ -18877,14 +18854,14 @@
         <v>674</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="128"/>
       <c r="B97" s="124" t="s">
         <v>671</v>
       </c>
       <c r="C97" s="173"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="128"/>
       <c r="B98" s="124" t="s">
         <v>734</v>
@@ -18893,7 +18870,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="128"/>
       <c r="B99" s="124" t="s">
         <v>736</v>
@@ -18902,7 +18879,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="128"/>
       <c r="B100" s="124" t="s">
         <v>672</v>
@@ -18911,7 +18888,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="128"/>
       <c r="B101" s="124" t="s">
         <v>675</v>
@@ -18920,7 +18897,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="128"/>
       <c r="B102" s="123" t="s">
         <v>677</v>
@@ -18929,7 +18906,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="130"/>
       <c r="B103" s="125" t="s">
         <v>732</v>
@@ -18938,7 +18915,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B104" s="70" t="s">
         <v>696</v>
       </c>
@@ -18947,7 +18924,7 @@
       </c>
       <c r="D104" s="89"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B105" s="70" t="s">
         <v>705</v>
       </c>
@@ -18955,7 +18932,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B106" s="70" t="s">
         <v>708</v>
       </c>
@@ -18963,12 +18940,12 @@
         <v>707</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B107" s="70" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B108" s="70" t="s">
         <v>744</v>
       </c>
@@ -18976,400 +18953,400 @@
         <v>745</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B109" s="70"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" s="70"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="70"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="70"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" s="70"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" s="70"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" s="70"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" s="70"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" s="70"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" s="70"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124" s="70"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" s="70"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" s="70"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" s="70"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128" s="70"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" s="70"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" s="70"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" s="70"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" s="70"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" s="70"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" s="70"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" s="70"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" s="70"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" s="70"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" s="70"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" s="70"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" s="70"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" s="70"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" s="70"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" s="70"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" s="70"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" s="70"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" s="70"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" s="70"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" s="70"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" s="70"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" s="70"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" s="70"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" s="70"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" s="70"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" s="70"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" s="70"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" s="70"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" s="70"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" s="70"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" s="70"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" s="70"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" s="70"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162" s="70"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163" s="70"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164" s="70"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165" s="70"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" s="70"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167" s="70"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168" s="70"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169" s="70"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170" s="70"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171" s="70"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B172" s="70"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173" s="70"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B174" s="70"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175" s="70"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B176" s="70"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177" s="70"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" s="70"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" s="70"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180" s="70"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" s="70"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" s="70"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" s="70"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" s="70"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185" s="70"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186" s="70"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" s="70"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188" s="70"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189" s="70"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190" s="70"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191" s="70"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192" s="70"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" s="70"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" s="70"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" s="70"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" s="70"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" s="70"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" s="70"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" s="70"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" s="70"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201" s="70"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B202" s="70"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" s="70"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B204" s="70"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B205" s="70"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B206" s="70"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B207" s="70"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B208" s="70"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" s="70"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B210" s="70"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" s="70"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212" s="70"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" s="70"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B214" s="70"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215" s="70"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216" s="70"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B217" s="70"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218" s="70"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219" s="70"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B220" s="70"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221" s="70"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B222" s="70"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B223" s="70"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B224" s="70"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" s="70"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B226" s="70"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" s="70"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" s="70"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" s="70"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" s="70"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" s="70"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B232" s="70"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B233" s="70"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B234" s="70"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B235" s="70"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B236" s="70"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B237" s="70"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B238" s="70"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B239" s="70"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B240" s="70"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B241" s="70"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B242" s="70"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B243" s="70"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B244" s="70"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B245" s="70"/>
     </row>
   </sheetData>
@@ -19383,9 +19360,9 @@
     <mergeCell ref="A13:A17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AE6" r:id="rId1" display="/@import" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="AE7" r:id="rId2" display="/@import" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="AF7" r:id="rId3" display="/@import" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="AE6" r:id="rId1" display="/@import"/>
+    <hyperlink ref="AE7" r:id="rId2" display="/@import"/>
+    <hyperlink ref="AF7" r:id="rId3" display="/@import"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -19395,20 +19372,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B387"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.140625" style="76" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" style="76" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="74" t="s">
         <v>443</v>
       </c>
@@ -19416,7 +19393,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
         <v>441</v>
       </c>
@@ -19424,7 +19401,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="75" t="s">
         <v>446</v>
       </c>
@@ -19432,7 +19409,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="75" t="s">
         <v>448</v>
       </c>
@@ -19440,7 +19417,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="75" t="s">
         <v>450</v>
       </c>
@@ -19448,7 +19425,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="76" t="s">
         <v>971</v>
       </c>
@@ -19456,74 +19433,74 @@
         <v>968</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="75" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="75" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="75" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="75" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="75" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="75" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="75" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="75"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="75"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="75"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="75"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="75"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="75"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="75"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="75"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="75"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="75" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="75" t="s">
         <v>524</v>
       </c>
@@ -19531,7 +19508,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="75" t="s">
         <v>700</v>
       </c>
@@ -19539,7 +19516,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="75" t="s">
         <v>698</v>
       </c>
@@ -19547,27 +19524,27 @@
         <v>699</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="75" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="75" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="75" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="75" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="75" t="s">
         <v>501</v>
       </c>
@@ -19575,7 +19552,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="75" t="s">
         <v>505</v>
       </c>
@@ -19583,12 +19560,12 @@
         <v>503</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="75" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="75" t="s">
         <v>508</v>
       </c>
@@ -19596,12 +19573,12 @@
         <v>510</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="75" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="75" t="s">
         <v>514</v>
       </c>
@@ -19609,12 +19586,12 @@
         <v>515</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="75" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="75" t="s">
         <v>518</v>
       </c>
@@ -19622,17 +19599,17 @@
         <v>517</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="75" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="75" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="75" t="s">
         <v>525</v>
       </c>
@@ -19640,1066 +19617,1076 @@
         <v>526</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="75"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="75" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="75" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="75" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="75" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="75" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="75" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="75" t="s">
         <v>1103</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="75" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="75" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="75" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="75" t="s">
         <v>1106</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="75"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="75"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="75" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="75"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="75"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="75"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="75"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="75"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="75"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="75"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="75"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="75"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="75"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="75"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="75"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="75"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="75"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="75"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="75"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="75"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="75"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="75"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="75"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="75"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="75"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="75"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="75"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="75"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="75"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="75"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="75"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="75"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="75"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="75"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="75"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="75"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="75"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="75"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="75"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="75"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="75"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="75"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="75"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="75"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="75"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="75"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="75"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="75"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="75"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="75"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="75"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="75"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="75"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="75"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="75"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="75"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="75"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="75"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="75"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="75"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="75"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="75"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="75"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="75"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="75"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="75"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="75"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="75"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="75"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="75"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="75"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="75"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="75"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="75"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="75"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="75"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="75"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="75"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="75"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="75"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="75"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="75"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="75"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="75"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="75"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="75"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="75"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="75"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="75"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="75"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="75"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="75"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="75"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="75"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="75"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="75"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="75"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="75"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="75"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="75"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="75"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="75"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="75"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="75"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="75"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="75"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="75"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="75"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="75"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="75"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="75"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="75"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="75"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="75"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="75"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="75"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="75"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="75"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="75"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="75"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="75"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="75"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="75"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="75"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="75"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="75"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="75"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="75"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="75"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="75"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="75"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="75"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="75"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="75"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="75"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="75"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="75"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="75"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="75"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="75"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="75"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="75"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="75"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="75"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="75"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="75"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="75"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="75"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="75"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="75"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="75"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="75"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="75"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="75"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="75"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="75"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="75"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="75"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="75"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="75"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="75"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="75"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="75"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="75"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="75"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="75"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="75"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="75"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="75"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="75"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="75"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="75"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="75"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="75"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="75"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="75"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="75"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="75"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="75"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="75"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="75"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="75"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="75"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="75"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="75"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="75"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="75"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="75"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="75"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="75"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="75"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="75"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="75"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="75"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="75"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="75"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="75"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="75"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="75"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="75"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="75"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="75"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="75"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="75"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="75"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="75"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="75"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="75"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="75"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="75"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="75"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="75"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="75"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="75"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="75"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="75"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="75"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="75"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="75"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="75"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="75"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="75"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="75"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="75"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="75"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="75"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="75"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="75"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="75"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="75"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="75"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="75"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="75"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="75"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="75"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="75"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="75"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="75"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="75"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="75"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="75"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="75"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="75"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="75"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="75"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="75"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="75"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="75"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="75"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="75"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="75"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="75"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="75"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="75"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" s="75"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" s="75"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" s="75"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" s="75"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" s="75"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" s="75"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" s="75"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" s="75"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" s="75"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" s="75"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" s="75"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" s="75"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" s="75"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" s="75"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" s="75"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" s="75"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" s="75"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" s="75"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" s="75"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" s="75"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" s="75"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" s="75"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" s="75"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" s="75"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" s="75"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" s="75"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" s="75"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" s="75"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" s="75"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" s="75"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" s="75"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" s="75"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" s="75"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" s="75"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" s="75"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" s="75"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" s="75"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" s="75"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" s="75"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" s="75"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" s="75"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" s="75"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" s="75"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" s="75"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" s="75"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347" s="75"/>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348" s="75"/>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349" s="75"/>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350" s="75"/>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351" s="75"/>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352" s="75"/>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" s="75"/>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354" s="75"/>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355" s="75"/>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356" s="75"/>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357" s="75"/>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358" s="75"/>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359" s="75"/>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360" s="75"/>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361" s="75"/>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" s="75"/>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363" s="75"/>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364" s="75"/>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" s="75"/>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366" s="75"/>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367" s="75"/>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368" s="75"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369" s="75"/>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370" s="75"/>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371" s="75"/>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372" s="75"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373" s="75"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374" s="75"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375" s="75"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376" s="75"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377" s="75"/>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378" s="75"/>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379" s="75"/>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380" s="75"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381" s="75"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382" s="75"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383" s="75"/>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384" s="75"/>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385" s="75"/>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386" s="75"/>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387" s="75"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388" s="75"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Global_Objects/String/slice" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Global_Objects/String/padStart" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Global_Objects/String/slice"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Global_Objects/String/padStart"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -20708,20 +20695,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1095</v>
       </c>
@@ -20729,7 +20716,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1025</v>
       </c>
@@ -20737,7 +20724,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1032</v>
       </c>
@@ -20745,12 +20732,12 @@
         <v>569</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1027</v>
       </c>
@@ -20758,7 +20745,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1028</v>
       </c>
@@ -20766,7 +20753,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1034</v>
       </c>
@@ -20774,7 +20761,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>1033</v>
       </c>
@@ -20782,99 +20769,104 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>1094</v>
       </c>
     </row>
@@ -20886,20 +20878,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="162" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" style="162" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="85" style="163" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="162" t="s">
         <v>1052</v>
       </c>
@@ -20907,7 +20899,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="162" t="s">
         <v>1054</v>
       </c>
@@ -20915,7 +20907,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="162" t="s">
         <v>1055</v>
       </c>
@@ -20923,7 +20915,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="162" t="s">
         <v>1057</v>
       </c>
@@ -20931,7 +20923,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="162" t="s">
         <v>1059</v>
       </c>
@@ -20939,7 +20931,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="162" t="s">
         <v>1061</v>
       </c>
@@ -20947,7 +20939,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="162" t="s">
         <v>1064</v>
       </c>
@@ -20955,7 +20947,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="162" t="s">
         <v>1065</v>
       </c>
@@ -20963,7 +20955,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="162" t="s">
         <v>1067</v>
       </c>
@@ -20971,7 +20963,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="162" t="s">
         <v>1069</v>
       </c>
@@ -20979,7 +20971,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="162" t="s">
         <v>1071</v>
       </c>
@@ -20987,7 +20979,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="162" t="s">
         <v>1073</v>
       </c>
@@ -20995,7 +20987,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="162" t="s">
         <v>1075</v>
       </c>
@@ -21003,7 +20995,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="162" t="s">
         <v>1077</v>
       </c>
@@ -21011,7 +21003,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="162" t="s">
         <v>1079</v>
       </c>
@@ -21019,7 +21011,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="162" t="s">
         <v>1081</v>
       </c>
@@ -21027,7 +21019,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="162" t="s">
         <v>1083</v>
       </c>
@@ -21035,7 +21027,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="162" t="s">
         <v>1086</v>
       </c>
@@ -21043,7 +21035,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="162" t="s">
         <v>1088</v>
       </c>
@@ -21058,20 +21050,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="75"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="75"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="75" t="s">
         <v>528</v>
       </c>
@@ -21079,7 +21071,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
         <v>531</v>
       </c>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728D27D2-4504-4716-8905-0AE27DC13E13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6608490-4732-4419-AE1E-F4586882CB5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="645" windowWidth="15930" windowHeight="13005" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="810" windowWidth="15930" windowHeight="13005" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Ё" sheetId="11" r:id="rId12"/>
     <sheet name="settings" sheetId="12" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1451,7 +1451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="1118">
   <si>
     <t>максимальное значение переменной</t>
   </si>
@@ -4458,9 +4458,6 @@
   </si>
   <si>
     <t>«запросить» и вывести на экран любой символ из кодировки ASCII</t>
-  </si>
-  <si>
-    <t>toUpperCase</t>
   </si>
   <si>
     <t>которая принимает на вход строку и возвращает такую же, но со всеми буквами в верхнем регистре</t>
@@ -8926,6 +8923,21 @@
   </si>
   <si>
     <t>Object.assign(dest, [src1, src2, src3...])</t>
+  </si>
+  <si>
+    <t>Symbol.for(key)  /  Symbol.keyFor(sym)</t>
+  </si>
+  <si>
+    <t>let a = Symbol('id')</t>
+  </si>
+  <si>
+    <t>.toUpperCase</t>
+  </si>
+  <si>
+    <t>округляет число до n знаков после запятой</t>
+  </si>
+  <si>
+    <t>num.toFixed(n)</t>
   </si>
 </sst>
 </file>
@@ -10352,13 +10364,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10412,10 +10424,10 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10427,6 +10439,18 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10434,18 +10458,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -13680,7 +13692,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="135" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B1" s="81"/>
     </row>
@@ -13691,7 +13703,7 @@
       <c r="B2" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="193" t="s">
         <v>300</v>
       </c>
       <c r="D2" s="86"/>
@@ -13704,7 +13716,7 @@
       <c r="B3" s="88" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="186"/>
+      <c r="C3" s="191"/>
       <c r="D3" s="89" t="s">
         <v>308</v>
       </c>
@@ -13719,7 +13731,7 @@
       <c r="B4" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="191" t="s">
         <v>309</v>
       </c>
       <c r="D4" s="89"/>
@@ -13732,7 +13744,7 @@
       <c r="B5" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="186"/>
+      <c r="C5" s="191"/>
       <c r="D5" s="89"/>
       <c r="E5" s="90"/>
     </row>
@@ -13743,7 +13755,7 @@
       <c r="B6" s="91" t="s">
         <v>396</v>
       </c>
-      <c r="C6" s="186"/>
+      <c r="C6" s="191"/>
       <c r="D6" s="89" t="s">
         <v>437</v>
       </c>
@@ -13758,7 +13770,7 @@
       <c r="B7" s="140" t="s">
         <v>437</v>
       </c>
-      <c r="C7" s="186"/>
+      <c r="C7" s="191"/>
       <c r="D7" s="89"/>
       <c r="E7" s="90"/>
     </row>
@@ -13769,7 +13781,7 @@
       <c r="B8" s="142" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="196"/>
+      <c r="C8" s="192"/>
       <c r="D8" s="138"/>
       <c r="E8" s="139"/>
     </row>
@@ -13778,10 +13790,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="143" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C9" s="187" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D9" s="86"/>
       <c r="E9" s="87"/>
@@ -13794,7 +13806,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="93" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C10" s="188"/>
       <c r="D10" s="89"/>
@@ -13805,7 +13817,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="93" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C11" s="188"/>
       <c r="D11" s="89"/>
@@ -13816,7 +13828,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="93" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C12" s="188"/>
       <c r="D12" s="89"/>
@@ -13827,11 +13839,11 @@
         <v>15</v>
       </c>
       <c r="B13" s="93" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C13" s="188"/>
       <c r="D13" s="89" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E13" s="90"/>
     </row>
@@ -13840,7 +13852,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="140" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C14" s="188"/>
       <c r="D14" s="89"/>
@@ -13851,7 +13863,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="142" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C15" s="189"/>
       <c r="D15" s="138"/>
@@ -13862,16 +13874,16 @@
         <v>18</v>
       </c>
       <c r="B16" s="143" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C16" s="187" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D16" s="86" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E16" s="87" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -13879,7 +13891,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="93" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C17" s="188"/>
       <c r="D17" s="89"/>
@@ -13890,7 +13902,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="93" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C18" s="188"/>
       <c r="D18" s="89"/>
@@ -13901,14 +13913,14 @@
         <v>21</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C19" s="188"/>
       <c r="D19" s="89" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E19" s="90" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -13916,42 +13928,42 @@
         <v>22</v>
       </c>
       <c r="B20" s="93" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C20" s="188"/>
       <c r="D20" s="89"/>
       <c r="E20" s="90"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="190">
+      <c r="A21" s="194">
         <v>23</v>
       </c>
       <c r="B21" s="140" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C21" s="188"/>
-      <c r="D21" s="193" t="s">
-        <v>679</v>
-      </c>
-      <c r="E21" s="194" t="s">
-        <v>543</v>
+      <c r="D21" s="185" t="s">
+        <v>678</v>
+      </c>
+      <c r="E21" s="186" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="190"/>
+      <c r="A22" s="194"/>
       <c r="B22" s="140" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C22" s="188"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="194"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="186"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="83">
         <v>24</v>
       </c>
       <c r="B23" s="142" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C23" s="189"/>
       <c r="D23" s="138"/>
@@ -13962,10 +13974,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>639</v>
-      </c>
-      <c r="C24" s="191" t="s">
-        <v>511</v>
+        <v>638</v>
+      </c>
+      <c r="C24" s="195" t="s">
+        <v>510</v>
       </c>
       <c r="D24" s="89"/>
       <c r="E24" s="90"/>
@@ -13975,7 +13987,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="91" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C25" s="188"/>
       <c r="D25" s="89"/>
@@ -13986,7 +13998,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C26" s="188"/>
       <c r="D26" s="89"/>
@@ -13997,7 +14009,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="91" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C27" s="188"/>
       <c r="D27" s="89"/>
@@ -14010,10 +14022,10 @@
       <c r="B28" s="91"/>
       <c r="C28" s="188"/>
       <c r="D28" s="89" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E28" s="90" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -14021,7 +14033,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="140" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C29" s="188"/>
       <c r="D29" s="89"/>
@@ -14032,16 +14044,16 @@
         <v>31</v>
       </c>
       <c r="B30" s="141" t="s">
-        <v>686</v>
-      </c>
-      <c r="C30" s="192"/>
+        <v>685</v>
+      </c>
+      <c r="C30" s="196"/>
       <c r="D30" s="77"/>
       <c r="E30" s="92"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="135" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -14049,10 +14061,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="136" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C33" s="187" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D33" s="86"/>
       <c r="E33" s="87"/>
@@ -14062,7 +14074,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="91" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C34" s="188"/>
       <c r="D34" s="89"/>
@@ -14073,14 +14085,14 @@
         <v>3</v>
       </c>
       <c r="B35" s="91" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C35" s="188"/>
       <c r="D35" s="89" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E35" s="90" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -14088,7 +14100,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="91" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C36" s="188"/>
       <c r="D36" s="89"/>
@@ -14099,7 +14111,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="91" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C37" s="188"/>
       <c r="D37" s="89"/>
@@ -14110,7 +14122,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="140" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C38" s="188"/>
       <c r="D38" s="89"/>
@@ -14121,7 +14133,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="142" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C39" s="189"/>
       <c r="D39" s="138"/>
@@ -14132,7 +14144,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="91" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C40" s="89"/>
       <c r="D40" s="89"/>
@@ -14143,7 +14155,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="91" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C41" s="89"/>
       <c r="D41" s="89"/>
@@ -14154,17 +14166,17 @@
         <v>10</v>
       </c>
       <c r="B42" s="91" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C42" s="89"/>
       <c r="D42" s="89" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E42" s="90" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F42" s="78" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -14174,10 +14186,10 @@
       <c r="B43" s="91"/>
       <c r="C43" s="89"/>
       <c r="D43" s="89" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E43" s="90" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -14187,10 +14199,10 @@
       <c r="B44" s="91"/>
       <c r="C44" s="89"/>
       <c r="D44" s="89" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E44" s="90" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -14200,10 +14212,10 @@
       <c r="B45" s="140"/>
       <c r="C45" s="89"/>
       <c r="D45" s="89" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E45" s="90" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -14211,7 +14223,7 @@
         <v>14</v>
       </c>
       <c r="B46" s="142" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C46" s="147" t="s">
         <v>300</v>
@@ -14224,10 +14236,10 @@
         <v>15</v>
       </c>
       <c r="B47" s="89" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C47" s="89" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D47" s="89"/>
       <c r="E47" s="87"/>
@@ -14237,10 +14249,10 @@
         <v>16</v>
       </c>
       <c r="B48" s="89" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C48" s="89" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D48" s="89"/>
       <c r="E48" s="90"/>
@@ -14250,10 +14262,10 @@
         <v>17</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D49" s="89"/>
       <c r="E49" s="90"/>
@@ -14263,10 +14275,10 @@
         <v>18</v>
       </c>
       <c r="B50" s="89" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C50" s="89" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D50" s="89"/>
       <c r="E50" s="90"/>
@@ -14278,10 +14290,10 @@
       <c r="B51" s="91"/>
       <c r="C51" s="89"/>
       <c r="D51" s="89" t="s">
+        <v>748</v>
+      </c>
+      <c r="E51" s="90" t="s">
         <v>749</v>
-      </c>
-      <c r="E51" s="90" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -14289,10 +14301,10 @@
         <v>20</v>
       </c>
       <c r="B52" s="140" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C52" s="89" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D52" s="89"/>
       <c r="E52" s="90"/>
@@ -14302,15 +14314,15 @@
         <v>21</v>
       </c>
       <c r="B53" s="142" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C53" s="138" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D53" s="138"/>
       <c r="E53" s="139"/>
       <c r="I53" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -14318,15 +14330,15 @@
         <v>22</v>
       </c>
       <c r="B54" s="89" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C54" s="89" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D54" s="86"/>
       <c r="E54" s="87"/>
       <c r="I54" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -14334,15 +14346,15 @@
         <v>23</v>
       </c>
       <c r="B55" s="89" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C55" s="89" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D55" s="89"/>
       <c r="E55" s="90"/>
       <c r="I55" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -14350,15 +14362,15 @@
         <v>24</v>
       </c>
       <c r="B56" s="91" t="s">
+        <v>761</v>
+      </c>
+      <c r="C56" s="145" t="s">
         <v>762</v>
-      </c>
-      <c r="C56" s="145" t="s">
-        <v>763</v>
       </c>
       <c r="D56" s="89"/>
       <c r="E56" s="90"/>
       <c r="I56" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -14366,10 +14378,10 @@
         <v>25</v>
       </c>
       <c r="B57" s="91" t="s">
+        <v>761</v>
+      </c>
+      <c r="C57" s="145" t="s">
         <v>762</v>
-      </c>
-      <c r="C57" s="145" t="s">
-        <v>763</v>
       </c>
       <c r="D57" s="89"/>
       <c r="E57" s="90"/>
@@ -14379,10 +14391,10 @@
         <v>26</v>
       </c>
       <c r="B58" s="91" t="s">
+        <v>761</v>
+      </c>
+      <c r="C58" s="145" t="s">
         <v>762</v>
-      </c>
-      <c r="C58" s="145" t="s">
-        <v>763</v>
       </c>
       <c r="D58" s="89"/>
       <c r="E58" s="90"/>
@@ -14392,7 +14404,7 @@
         <v>27</v>
       </c>
       <c r="B59" s="140" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C59" s="89"/>
       <c r="D59" s="89"/>
@@ -14403,13 +14415,13 @@
         <v>28</v>
       </c>
       <c r="B60" s="142" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C60" s="138" t="s">
         <v>300</v>
       </c>
       <c r="D60" s="138" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E60" s="139"/>
     </row>
@@ -14418,7 +14430,7 @@
         <v>29</v>
       </c>
       <c r="B61" s="91" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C61" s="89"/>
       <c r="D61" s="89"/>
@@ -14429,7 +14441,7 @@
         <v>30</v>
       </c>
       <c r="B62" s="137" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C62" s="138"/>
       <c r="D62" s="138"/>
@@ -14438,7 +14450,7 @@
     <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="135" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -14446,7 +14458,7 @@
         <v>1</v>
       </c>
       <c r="B65" s="136" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C65" s="154"/>
       <c r="D65" s="86"/>
@@ -14457,10 +14469,10 @@
         <v>2</v>
       </c>
       <c r="B66" s="91" t="s">
+        <v>948</v>
+      </c>
+      <c r="C66" s="190" t="s">
         <v>949</v>
-      </c>
-      <c r="C66" s="195" t="s">
-        <v>950</v>
       </c>
       <c r="D66" s="89"/>
       <c r="E66" s="90"/>
@@ -14470,9 +14482,9 @@
         <v>3</v>
       </c>
       <c r="B67" s="91" t="s">
-        <v>949</v>
-      </c>
-      <c r="C67" s="195"/>
+        <v>948</v>
+      </c>
+      <c r="C67" s="190"/>
       <c r="D67" s="89"/>
       <c r="E67" s="90"/>
     </row>
@@ -14508,10 +14520,10 @@
         <v>7</v>
       </c>
       <c r="B71" s="91" t="s">
+        <v>948</v>
+      </c>
+      <c r="C71" s="89" t="s">
         <v>949</v>
-      </c>
-      <c r="C71" s="89" t="s">
-        <v>950</v>
       </c>
       <c r="D71" s="89"/>
       <c r="E71" s="90"/>
@@ -14539,10 +14551,10 @@
         <v>10</v>
       </c>
       <c r="B74" s="128" t="s">
+        <v>950</v>
+      </c>
+      <c r="C74" s="89" t="s">
         <v>951</v>
-      </c>
-      <c r="C74" s="89" t="s">
-        <v>952</v>
       </c>
       <c r="D74" s="89"/>
       <c r="E74" s="90"/>
@@ -14552,15 +14564,15 @@
         <v>11</v>
       </c>
       <c r="B75" s="157" t="s">
+        <v>950</v>
+      </c>
+      <c r="C75" s="89" t="s">
         <v>951</v>
-      </c>
-      <c r="C75" s="89" t="s">
-        <v>952</v>
       </c>
       <c r="D75" s="89"/>
       <c r="E75" s="90"/>
       <c r="F75" s="78" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -14577,10 +14589,10 @@
         <v>13</v>
       </c>
       <c r="B77" s="128" t="s">
+        <v>950</v>
+      </c>
+      <c r="C77" s="89" t="s">
         <v>951</v>
-      </c>
-      <c r="C77" s="89" t="s">
-        <v>952</v>
       </c>
       <c r="D77" s="89"/>
       <c r="E77" s="87"/>
@@ -14626,10 +14638,10 @@
         <v>18</v>
       </c>
       <c r="B82" s="157" t="s">
+        <v>950</v>
+      </c>
+      <c r="C82" s="89" t="s">
         <v>951</v>
-      </c>
-      <c r="C82" s="89" t="s">
-        <v>952</v>
       </c>
       <c r="D82" s="89"/>
       <c r="E82" s="90"/>
@@ -14675,10 +14687,10 @@
         <v>23</v>
       </c>
       <c r="B87" s="128" t="s">
+        <v>950</v>
+      </c>
+      <c r="C87" s="89" t="s">
         <v>951</v>
-      </c>
-      <c r="C87" s="89" t="s">
-        <v>952</v>
       </c>
       <c r="D87" s="89"/>
       <c r="E87" s="90"/>
@@ -14706,10 +14718,10 @@
         <v>26</v>
       </c>
       <c r="B90" s="142" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C90" s="138" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D90" s="138"/>
       <c r="E90" s="139"/>
@@ -14719,10 +14731,10 @@
         <v>27</v>
       </c>
       <c r="B91" s="136" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C91" s="86" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D91" s="86"/>
       <c r="E91" s="87"/>
@@ -14732,10 +14744,10 @@
         <v>28</v>
       </c>
       <c r="B92" s="91" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C92" s="89" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D92" s="89"/>
       <c r="E92" s="90"/>
@@ -14745,10 +14757,10 @@
         <v>29</v>
       </c>
       <c r="B93" s="91" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C93" s="89" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D93" s="89"/>
       <c r="E93" s="90"/>
@@ -14758,10 +14770,10 @@
         <v>30</v>
       </c>
       <c r="B94" s="91" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C94" s="89" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D94" s="89"/>
       <c r="E94" s="90"/>
@@ -14772,7 +14784,7 @@
       </c>
       <c r="B95" s="137"/>
       <c r="C95" s="138" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D95" s="138"/>
       <c r="E95" s="139"/>
@@ -14780,7 +14792,7 @@
     <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="135" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -14788,10 +14800,10 @@
         <v>1</v>
       </c>
       <c r="B98" s="158" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C98" s="86" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D98" s="86"/>
       <c r="E98" s="87"/>
@@ -14810,10 +14822,10 @@
         <v>3</v>
       </c>
       <c r="B100" s="91" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C100" s="86" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D100" s="89"/>
       <c r="E100" s="90"/>
@@ -14859,10 +14871,10 @@
         <v>8</v>
       </c>
       <c r="B105" s="157" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C105" s="89" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D105" s="89"/>
       <c r="E105" s="90"/>
@@ -14872,10 +14884,10 @@
         <v>9</v>
       </c>
       <c r="B106" s="160" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C106" s="138" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D106" s="138"/>
       <c r="E106" s="139"/>
@@ -14885,10 +14897,10 @@
         <v>10</v>
       </c>
       <c r="B107" s="128" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C107" s="86" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D107" s="89"/>
       <c r="E107" s="87"/>
@@ -15084,16 +15096,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C16:C23"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C24:C30"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="C9:C15"/>
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C16:C23"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C24:C30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://ru.hexlet.io/courses/html" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
@@ -15136,13 +15148,13 @@
         <v>305</v>
       </c>
       <c r="C2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D2" t="s">
         <v>623</v>
       </c>
-      <c r="D2" t="s">
-        <v>624</v>
-      </c>
       <c r="E2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -15153,13 +15165,13 @@
         <v>307</v>
       </c>
       <c r="C3" t="s">
+        <v>624</v>
+      </c>
+      <c r="D3" t="s">
         <v>625</v>
       </c>
-      <c r="D3" t="s">
-        <v>626</v>
-      </c>
       <c r="E3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -15167,16 +15179,16 @@
         <v>336</v>
       </c>
       <c r="C4" t="s">
+        <v>626</v>
+      </c>
+      <c r="D4" t="s">
         <v>627</v>
       </c>
-      <c r="D4" t="s">
-        <v>628</v>
-      </c>
       <c r="E4" t="s">
+        <v>751</v>
+      </c>
+      <c r="F4" s="149" t="s">
         <v>752</v>
-      </c>
-      <c r="F4" s="149" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -15184,16 +15196,16 @@
         <v>363</v>
       </c>
       <c r="C5" t="s">
+        <v>628</v>
+      </c>
+      <c r="D5" t="s">
         <v>629</v>
       </c>
-      <c r="D5" t="s">
-        <v>630</v>
-      </c>
       <c r="E5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F5" s="149" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -15204,16 +15216,16 @@
         <v>383</v>
       </c>
       <c r="C6" t="s">
+        <v>630</v>
+      </c>
+      <c r="D6" t="s">
         <v>631</v>
       </c>
-      <c r="D6" t="s">
-        <v>632</v>
-      </c>
       <c r="E6" t="s">
+        <v>754</v>
+      </c>
+      <c r="F6" s="149" t="s">
         <v>755</v>
-      </c>
-      <c r="F6" s="149" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -15224,16 +15236,16 @@
         <v>385</v>
       </c>
       <c r="C7" t="s">
+        <v>632</v>
+      </c>
+      <c r="D7" t="s">
         <v>633</v>
       </c>
-      <c r="D7" t="s">
-        <v>634</v>
-      </c>
       <c r="E7" t="s">
+        <v>758</v>
+      </c>
+      <c r="F7" s="149" t="s">
         <v>759</v>
-      </c>
-      <c r="F7" s="149" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -15244,13 +15256,13 @@
         <v>387</v>
       </c>
       <c r="C8" t="s">
+        <v>634</v>
+      </c>
+      <c r="D8" t="s">
         <v>635</v>
       </c>
-      <c r="D8" t="s">
-        <v>636</v>
-      </c>
       <c r="E8" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -15261,16 +15273,16 @@
         <v>408</v>
       </c>
       <c r="C9" t="s">
+        <v>636</v>
+      </c>
+      <c r="D9" t="s">
         <v>637</v>
       </c>
-      <c r="D9" t="s">
-        <v>638</v>
-      </c>
       <c r="E9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F9" s="149" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -15281,15 +15293,15 @@
         <v>424</v>
       </c>
       <c r="E10" t="s">
+        <v>960</v>
+      </c>
+      <c r="F10" s="149" t="s">
         <v>961</v>
-      </c>
-      <c r="F10" s="149" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B11" s="197"/>
     </row>
@@ -15311,45 +15323,45 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B14" s="53" t="s">
         <v>444</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B15" s="198" t="s">
         <v>465</v>
-      </c>
-      <c r="B15" s="198" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B16" s="198"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B17" s="53" t="s">
         <v>484</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B18" s="53" t="s">
         <v>486</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B19" s="53" t="s">
         <v>405</v>
@@ -15357,34 +15369,34 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B20" s="53" t="s">
         <v>541</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B22" s="197" t="s">
         <v>613</v>
-      </c>
-      <c r="B22" s="197" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B23" s="197"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B24" s="53" t="s">
         <v>405</v>
@@ -15392,28 +15404,28 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="B26" s="53" t="s">
         <v>963</v>
-      </c>
-      <c r="B26" s="53" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B28" s="58" t="s">
         <v>1020</v>
-      </c>
-      <c r="B28" s="58" t="s">
-        <v>1021</v>
       </c>
     </row>
   </sheetData>
@@ -15472,10 +15484,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -15483,7 +15495,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -15491,7 +15503,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -15499,7 +15511,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -15507,7 +15519,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -15515,7 +15527,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -15523,7 +15535,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -15531,7 +15543,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -15539,7 +15551,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -15547,7 +15559,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -15555,7 +15567,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -15563,7 +15575,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -15571,7 +15583,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -15579,7 +15591,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -15587,7 +15599,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -15595,7 +15607,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -15603,7 +15615,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -15611,7 +15623,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -15619,7 +15631,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -15627,7 +15639,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -15635,7 +15647,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -15677,15 +15689,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B11" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
   </sheetData>
@@ -15710,716 +15722,716 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B1" s="150" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B2" s="150" t="s">
         <v>766</v>
       </c>
-      <c r="B2" s="150" t="s">
-        <v>767</v>
-      </c>
       <c r="D2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B3" s="150" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="150" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="151" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B5" s="150" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B6" s="150" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B7" s="150" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D7" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B8" s="150" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="152" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B9" s="150" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B10" s="150" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="148" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B11" s="150" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="153" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B12" s="150" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B13" s="150" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D13" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="152" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B14" s="150" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="152" t="s">
+        <v>779</v>
+      </c>
+      <c r="B15" s="150" t="s">
         <v>780</v>
       </c>
-      <c r="B15" s="150" t="s">
-        <v>781</v>
-      </c>
       <c r="D15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B16" s="150" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D16" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B17" s="150" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B18" s="150" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>789</v>
+      </c>
+      <c r="B19" s="150" t="s">
         <v>790</v>
       </c>
-      <c r="B19" s="150" t="s">
-        <v>791</v>
-      </c>
       <c r="D19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="152" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B20" s="150" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B21" s="150" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>799</v>
+      </c>
+      <c r="B22" s="150" t="s">
         <v>800</v>
       </c>
-      <c r="B22" s="150" t="s">
-        <v>801</v>
-      </c>
       <c r="D22" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="150" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D23" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B24" s="150" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D24" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>908</v>
+      </c>
+      <c r="B25" s="150" t="s">
         <v>909</v>
       </c>
-      <c r="B25" s="150" t="s">
-        <v>910</v>
-      </c>
       <c r="D25" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="150" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D26" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B27" s="150" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B28" s="150" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D28" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="150" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D29" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="150" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D30" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>927</v>
+      </c>
+      <c r="B31" s="150" t="s">
         <v>928</v>
       </c>
-      <c r="B31" s="150" t="s">
-        <v>929</v>
-      </c>
       <c r="D31" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>930</v>
+      </c>
+      <c r="B32" s="150" t="s">
         <v>931</v>
       </c>
-      <c r="B32" s="150" t="s">
-        <v>932</v>
-      </c>
       <c r="D32" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" s="150" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D33" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D41" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D42" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D43" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D44" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="95" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="96" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
   </sheetData>
@@ -16871,10 +16883,10 @@
       <c r="E34" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="F34" s="166" t="s">
+      <c r="F34" s="165" t="s">
         <v>227</v>
       </c>
-      <c r="G34" s="167"/>
+      <c r="G34" s="166"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
@@ -17080,7 +17092,7 @@
     </row>
     <row r="93" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="165" t="s">
+      <c r="B94" s="167" t="s">
         <v>276</v>
       </c>
       <c r="C94" s="43" t="s">
@@ -17092,13 +17104,13 @@
       <c r="E94" s="164"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="165"/>
+      <c r="B95" s="167"/>
       <c r="C95" s="44" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="165"/>
+      <c r="B96" s="167"/>
       <c r="C96" s="44" t="s">
         <v>278</v>
       </c>
@@ -17108,7 +17120,7 @@
       <c r="E96" s="164"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="165"/>
+      <c r="B97" s="167"/>
       <c r="C97" s="44" t="s">
         <v>280</v>
       </c>
@@ -17121,7 +17133,7 @@
       </c>
     </row>
     <row r="98" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="165"/>
+      <c r="B98" s="167"/>
       <c r="C98" s="45" t="s">
         <v>283</v>
       </c>
@@ -17133,18 +17145,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="B94:B98"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="B71:B73"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="B82:B85"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="B94:B98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17183,13 +17195,13 @@
       <c r="E1" s="55"/>
       <c r="F1" s="55"/>
       <c r="G1" s="105" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1" s="102" t="s">
+        <v>554</v>
+      </c>
+      <c r="I1" s="102" t="s">
         <v>555</v>
-      </c>
-      <c r="I1" s="102" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17200,17 +17212,17 @@
         <v>343</v>
       </c>
       <c r="E2" s="169" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F2" s="103"/>
       <c r="G2" s="106" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I2" s="53" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -17218,17 +17230,17 @@
         <v>337</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E3" s="169"/>
       <c r="F3" s="104" t="s">
         <v>372</v>
       </c>
       <c r="G3" s="107" t="s">
+        <v>557</v>
+      </c>
+      <c r="H3" t="s">
         <v>558</v>
-      </c>
-      <c r="H3" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -17241,13 +17253,13 @@
       <c r="E4" s="169"/>
       <c r="F4" s="104"/>
       <c r="G4" s="106" t="s">
+        <v>559</v>
+      </c>
+      <c r="H4" t="s">
         <v>560</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>561</v>
-      </c>
-      <c r="I4" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -17260,10 +17272,10 @@
       <c r="E5" s="169"/>
       <c r="F5" s="104"/>
       <c r="G5" s="106" t="s">
+        <v>562</v>
+      </c>
+      <c r="I5" t="s">
         <v>563</v>
-      </c>
-      <c r="I5" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -17276,13 +17288,13 @@
       <c r="E6" s="169"/>
       <c r="F6" s="104"/>
       <c r="G6" s="106" t="s">
+        <v>564</v>
+      </c>
+      <c r="H6" t="s">
+        <v>566</v>
+      </c>
+      <c r="I6" t="s">
         <v>565</v>
-      </c>
-      <c r="H6" t="s">
-        <v>567</v>
-      </c>
-      <c r="I6" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -17298,10 +17310,10 @@
         <v>143</v>
       </c>
       <c r="H7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -17314,10 +17326,10 @@
       <c r="E8" s="169"/>
       <c r="F8" s="104"/>
       <c r="G8" s="106" t="s">
+        <v>567</v>
+      </c>
+      <c r="H8" t="s">
         <v>568</v>
-      </c>
-      <c r="H8" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -17330,10 +17342,10 @@
       <c r="E9" s="169"/>
       <c r="F9" s="104"/>
       <c r="G9" s="106" t="s">
+        <v>570</v>
+      </c>
+      <c r="H9" t="s">
         <v>571</v>
-      </c>
-      <c r="H9" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -17346,10 +17358,10 @@
       <c r="E10" s="169"/>
       <c r="F10" s="104"/>
       <c r="G10" s="106" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -17364,10 +17376,10 @@
         <v>372</v>
       </c>
       <c r="G11" s="106" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -17375,14 +17387,14 @@
         <v>342</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E12" s="169"/>
       <c r="G12" s="106" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -17394,10 +17406,10 @@
       </c>
       <c r="E13" s="169"/>
       <c r="G13" s="107" t="s">
+        <v>576</v>
+      </c>
+      <c r="H13" t="s">
         <v>577</v>
-      </c>
-      <c r="H13" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -17409,10 +17421,10 @@
       </c>
       <c r="E14" s="169"/>
       <c r="G14" s="106" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -17431,10 +17443,10 @@
         <v>338</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G16" s="106" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -17445,10 +17457,10 @@
         <v>345</v>
       </c>
       <c r="G17" s="106" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -17459,7 +17471,7 @@
         <v>312</v>
       </c>
       <c r="G18" s="106" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -17470,7 +17482,7 @@
         <v>317</v>
       </c>
       <c r="G19" s="106" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -17478,10 +17490,10 @@
         <v>326</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G20" s="106" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -17492,7 +17504,7 @@
         <v>328</v>
       </c>
       <c r="G21" s="106" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -17503,7 +17515,7 @@
         <v>397</v>
       </c>
       <c r="G22" s="106" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -17514,7 +17526,7 @@
         <v>334</v>
       </c>
       <c r="G23" s="106" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -17533,7 +17545,7 @@
         <v>352</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -17549,7 +17561,7 @@
         <v>314</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17563,13 +17575,13 @@
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="168"/>
       <c r="B29" s="53" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="168"/>
       <c r="B30" s="53" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -17609,7 +17621,7 @@
         <v>364</v>
       </c>
       <c r="B36" s="100" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
@@ -17617,7 +17629,7 @@
         <v>365</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -17633,7 +17645,7 @@
         <v>369</v>
       </c>
       <c r="B39" s="63" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -17641,7 +17653,7 @@
         <v>370</v>
       </c>
       <c r="B40" s="63" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -17649,7 +17661,7 @@
         <v>371</v>
       </c>
       <c r="B41" s="63" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -17657,7 +17669,7 @@
         <v>372</v>
       </c>
       <c r="B42" s="65" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -17697,7 +17709,7 @@
         <v>381</v>
       </c>
       <c r="B47" s="53" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -17742,106 +17754,106 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="54" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B53" s="53" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="54" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B54" s="53" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="54" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B55" s="53" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A56" s="57" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B56" s="58" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="54" t="s">
+        <v>467</v>
+      </c>
+      <c r="B57" s="53" t="s">
         <v>468</v>
-      </c>
-      <c r="B57" s="53" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="54" t="s">
+        <v>470</v>
+      </c>
+      <c r="B58" s="53" t="s">
         <v>471</v>
-      </c>
-      <c r="B58" s="53" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="54" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B59" s="53" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="54" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B60" s="53" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="54" t="s">
+        <v>478</v>
+      </c>
+      <c r="B61" s="53" t="s">
         <v>479</v>
-      </c>
-      <c r="B61" s="53" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="54" t="s">
+        <v>581</v>
+      </c>
+      <c r="B62" s="53" t="s">
         <v>582</v>
-      </c>
-      <c r="B62" s="53" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="54" t="s">
+        <v>588</v>
+      </c>
+      <c r="B63" s="53" t="s">
         <v>589</v>
-      </c>
-      <c r="B63" s="53" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="54" t="s">
+        <v>591</v>
+      </c>
+      <c r="B64" s="108" t="s">
         <v>592</v>
-      </c>
-      <c r="B64" s="108" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="171" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B65" s="170" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -18245,15 +18257,15 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AE1" t="s">
+        <v>795</v>
+      </c>
+      <c r="AG1" t="s">
         <v>796</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="178" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B2" s="69" t="s">
         <v>420</v>
@@ -18262,10 +18274,10 @@
         <v>295</v>
       </c>
       <c r="AE2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AG2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
@@ -18277,16 +18289,16 @@
         <v>296</v>
       </c>
       <c r="AE3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AG3" t="s">
+        <v>957</v>
+      </c>
+      <c r="AH3" t="s">
         <v>958</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>959</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -18298,43 +18310,43 @@
         <v>298</v>
       </c>
       <c r="AE4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="179"/>
       <c r="B5" s="69" t="s">
+        <v>641</v>
+      </c>
+      <c r="C5" t="s">
         <v>642</v>
       </c>
-      <c r="C5" t="s">
-        <v>643</v>
-      </c>
       <c r="AE5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AF5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="179"/>
       <c r="B6" s="69" t="s">
+        <v>643</v>
+      </c>
+      <c r="C6" s="96" t="s">
         <v>644</v>
       </c>
-      <c r="C6" s="96" t="s">
-        <v>645</v>
-      </c>
       <c r="AE6" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B7" s="69"/>
       <c r="AE7" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="AF7" s="5" t="s">
         <v>943</v>
-      </c>
-      <c r="AF7" s="5" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -18345,86 +18357,86 @@
         <v>399</v>
       </c>
       <c r="AE8" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B9" s="70" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B10" s="70" t="s">
+        <v>680</v>
+      </c>
+      <c r="C10" t="s">
         <v>681</v>
-      </c>
-      <c r="C10" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B11" s="70" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B12" s="70" t="s">
+        <v>690</v>
+      </c>
+      <c r="C12" t="s">
         <v>691</v>
-      </c>
-      <c r="C12" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="183" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C13" s="133" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="184"/>
       <c r="B14" s="70" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C14" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="184"/>
       <c r="B15" s="70" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C15" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="184"/>
       <c r="B16" s="70" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C16" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="184"/>
       <c r="B17" s="70" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C17" s="110" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -18435,70 +18447,70 @@
         <v>400</v>
       </c>
       <c r="C18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="175"/>
       <c r="B19" s="71" t="s">
+        <v>481</v>
+      </c>
+      <c r="C19" s="72" t="s">
         <v>482</v>
-      </c>
-      <c r="C19" s="72" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="175"/>
       <c r="B20" s="71" t="s">
+        <v>543</v>
+      </c>
+      <c r="C20" s="97" t="s">
         <v>544</v>
-      </c>
-      <c r="C20" s="97" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="175"/>
       <c r="B21" s="71" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C21" s="97" t="s">
         <v>1018</v>
-      </c>
-      <c r="C21" s="97" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="175"/>
       <c r="B22" s="71" t="s">
+        <v>547</v>
+      </c>
+      <c r="C22" s="99" t="s">
         <v>548</v>
-      </c>
-      <c r="C22" s="99" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="159"/>
       <c r="B23" s="71" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C23" s="99" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="159"/>
       <c r="B24" s="71" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C24" s="99" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="98"/>
       <c r="B25" s="71" t="s">
+        <v>549</v>
+      </c>
+      <c r="C25" s="99" t="s">
         <v>550</v>
-      </c>
-      <c r="C25" s="99" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -18517,7 +18529,7 @@
         <v>406</v>
       </c>
       <c r="H27" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -18525,21 +18537,21 @@
         <v>409</v>
       </c>
       <c r="C28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="70" t="s">
+        <v>490</v>
+      </c>
+      <c r="C29" t="s">
         <v>491</v>
       </c>
-      <c r="C29" t="s">
-        <v>492</v>
-      </c>
       <c r="H29" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -18600,12 +18612,12 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="70" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="176" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B38" s="113" t="s">
         <v>405</v>
@@ -18617,19 +18629,19 @@
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="177"/>
       <c r="B39" s="113" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C39" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="177"/>
       <c r="B40" s="113" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C40" s="110" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -18638,58 +18650,58 @@
         <v>436</v>
       </c>
       <c r="C41" s="111" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="177"/>
       <c r="B42" s="113" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C42" s="110" t="s">
         <v>1008</v>
-      </c>
-      <c r="C42" s="110" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="177"/>
       <c r="B43" s="113" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C43" s="111" t="s">
         <v>1010</v>
-      </c>
-      <c r="C43" s="111" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="177"/>
       <c r="B44" s="113" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C44" s="111" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="177"/>
       <c r="B45" s="113" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C45" s="112" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="117"/>
       <c r="B46" s="70" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C46" s="112" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="117"/>
       <c r="B47" s="116" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C47" s="112"/>
     </row>
@@ -18722,31 +18734,31 @@
     </row>
     <row r="52" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A52" s="174" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B52" s="71" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C52" s="95" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="174"/>
       <c r="B53" s="71" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C53" s="99" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="174"/>
       <c r="B54" s="71" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C54" s="94" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -18758,39 +18770,39 @@
         <v>436</v>
       </c>
       <c r="C56" s="133" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="71" t="s">
+        <v>452</v>
+      </c>
+      <c r="C57" s="72" t="s">
         <v>453</v>
-      </c>
-      <c r="C57" s="72" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" s="70" t="s">
+        <v>488</v>
+      </c>
+      <c r="C58" t="s">
         <v>489</v>
-      </c>
-      <c r="C58" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="45.75" x14ac:dyDescent="0.25">
       <c r="B59" s="71" t="s">
+        <v>494</v>
+      </c>
+      <c r="C59" s="79" t="s">
         <v>495</v>
-      </c>
-      <c r="C59" s="79" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" s="70" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C60" s="109" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -18799,144 +18811,144 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" s="70" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C62" s="76" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" s="70" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C63" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" s="70" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C64" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="70" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C65" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="70" t="s">
+        <v>614</v>
+      </c>
+      <c r="C66" t="s">
         <v>615</v>
-      </c>
-      <c r="C66" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="70" t="s">
+        <v>616</v>
+      </c>
+      <c r="C67" s="96" t="s">
         <v>617</v>
-      </c>
-      <c r="C67" s="96" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="70" t="s">
+        <v>618</v>
+      </c>
+      <c r="C68" t="s">
         <v>619</v>
-      </c>
-      <c r="C68" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="70" t="s">
+        <v>620</v>
+      </c>
+      <c r="C69" t="s">
         <v>621</v>
-      </c>
-      <c r="C69" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="70" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="70" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="70" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="70" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C74" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="70" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="70" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="70" t="s">
+        <v>989</v>
+      </c>
+      <c r="C77" t="s">
         <v>990</v>
-      </c>
-      <c r="C77" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="C78" t="s">
         <v>992</v>
-      </c>
-      <c r="C78" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="70" t="s">
+        <v>993</v>
+      </c>
+      <c r="C79" t="s">
         <v>994</v>
-      </c>
-      <c r="C79" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="C80" t="s">
         <v>996</v>
-      </c>
-      <c r="C80" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B81" s="70" t="s">
+        <v>997</v>
+      </c>
+      <c r="C81" t="s">
         <v>998</v>
-      </c>
-      <c r="C81" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -18944,227 +18956,227 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B83" s="70" t="s">
+        <v>639</v>
+      </c>
+      <c r="C83" s="114" t="s">
         <v>640</v>
-      </c>
-      <c r="C83" s="114" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B84" s="70" t="s">
+        <v>645</v>
+      </c>
+      <c r="C84" s="76" t="s">
         <v>646</v>
-      </c>
-      <c r="C84" s="76" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="180" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B85" s="118" t="s">
+        <v>647</v>
+      </c>
+      <c r="C85" s="119" t="s">
         <v>648</v>
-      </c>
-      <c r="C85" s="119" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A86" s="181"/>
       <c r="B86" s="120" t="s">
+        <v>649</v>
+      </c>
+      <c r="C86" s="121" t="s">
         <v>650</v>
-      </c>
-      <c r="C86" s="121" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="181"/>
       <c r="B87" s="120" t="s">
+        <v>655</v>
+      </c>
+      <c r="C87" s="122" t="s">
         <v>656</v>
-      </c>
-      <c r="C87" s="122" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="181"/>
       <c r="B88" s="123" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C88" s="90" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="181"/>
       <c r="B89" s="120" t="s">
+        <v>653</v>
+      </c>
+      <c r="C89" s="122" t="s">
         <v>654</v>
-      </c>
-      <c r="C89" s="122" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="181"/>
       <c r="B90" s="120" t="s">
+        <v>741</v>
+      </c>
+      <c r="C90" s="122" t="s">
         <v>742</v>
-      </c>
-      <c r="C90" s="122" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="181"/>
       <c r="B91" s="124" t="s">
+        <v>658</v>
+      </c>
+      <c r="C91" s="90" t="s">
         <v>659</v>
-      </c>
-      <c r="C91" s="90" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="181"/>
       <c r="B92" s="124" t="s">
+        <v>661</v>
+      </c>
+      <c r="C92" s="90" t="s">
         <v>662</v>
-      </c>
-      <c r="C92" s="90" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="181"/>
       <c r="B93" s="124" t="s">
+        <v>663</v>
+      </c>
+      <c r="C93" s="90" t="s">
         <v>664</v>
-      </c>
-      <c r="C93" s="90" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="181"/>
       <c r="B94" s="124" t="s">
+        <v>665</v>
+      </c>
+      <c r="C94" s="90" t="s">
         <v>666</v>
-      </c>
-      <c r="C94" s="90" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="182"/>
       <c r="B95" s="125" t="s">
+        <v>667</v>
+      </c>
+      <c r="C95" s="126" t="s">
         <v>668</v>
-      </c>
-      <c r="C95" s="126" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="127"/>
       <c r="B96" s="118" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C96" s="172" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="128"/>
       <c r="B97" s="124" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C97" s="173"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="128"/>
       <c r="B98" s="124" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C98" s="146" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="128"/>
       <c r="B99" s="124" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C99" s="146" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="128"/>
       <c r="B100" s="124" t="s">
+        <v>671</v>
+      </c>
+      <c r="C100" s="129" t="s">
         <v>672</v>
-      </c>
-      <c r="C100" s="129" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="128"/>
       <c r="B101" s="124" t="s">
+        <v>674</v>
+      </c>
+      <c r="C101" s="129" t="s">
         <v>675</v>
-      </c>
-      <c r="C101" s="129" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="128"/>
       <c r="B102" s="123" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C102" s="129" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="130"/>
       <c r="B103" s="125" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C103" s="131" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B104" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="C104" s="144" t="s">
         <v>696</v>
-      </c>
-      <c r="C104" s="144" t="s">
-        <v>697</v>
       </c>
       <c r="D104" s="89"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B105" s="70" t="s">
+        <v>704</v>
+      </c>
+      <c r="C105" s="145" t="s">
         <v>705</v>
-      </c>
-      <c r="C105" s="145" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106" s="70" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C106" s="145" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B107" s="70" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108" s="70" t="s">
+        <v>743</v>
+      </c>
+      <c r="C108" s="148" t="s">
         <v>744</v>
-      </c>
-      <c r="C108" s="148" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -19589,8 +19601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19601,7 +19613,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B1" t="s">
         <v>440</v>
@@ -19609,81 +19621,86 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B2" t="s">
         <v>441</v>
-      </c>
-      <c r="B2" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
+        <v>445</v>
+      </c>
+      <c r="B3" t="s">
         <v>446</v>
-      </c>
-      <c r="B3" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="75" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4" t="s">
         <v>448</v>
-      </c>
-      <c r="B4" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="75" t="s">
+        <v>449</v>
+      </c>
+      <c r="B5" t="s">
         <v>450</v>
-      </c>
-      <c r="B5" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B6" t="s">
         <v>1111</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="75" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="75" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="75" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="75" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="75" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="75" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="75"/>
+      <c r="A14" s="75" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
@@ -19711,124 +19728,124 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="75" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="75" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B24" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="75" t="s">
+        <v>699</v>
+      </c>
+      <c r="B25" t="s">
         <v>700</v>
-      </c>
-      <c r="B25" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="75" t="s">
+        <v>697</v>
+      </c>
+      <c r="B26" t="s">
         <v>698</v>
-      </c>
-      <c r="B26" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="75" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="75" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="75" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="75" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="75" t="s">
+        <v>500</v>
+      </c>
+      <c r="B31" t="s">
         <v>501</v>
-      </c>
-      <c r="B31" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="75" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B32" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="75" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="75" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B34" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="75" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="75" t="s">
+        <v>513</v>
+      </c>
+      <c r="B36" s="80" t="s">
         <v>514</v>
-      </c>
-      <c r="B36" s="80" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="75" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="75" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B38" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="75" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="75" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="75" t="s">
+        <v>524</v>
+      </c>
+      <c r="B41" t="s">
         <v>525</v>
-      </c>
-      <c r="B41" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -19836,51 +19853,51 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="75" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="75" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="75" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="75" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="75" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B47" t="s">
         <v>1101</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="75" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="75" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B49" t="s">
         <v>1104</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="75" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B50" t="s">
         <v>1109</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -19891,11 +19908,16 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="75" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="75" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="75"/>
+      <c r="B54" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="75"/>
@@ -20926,164 +20948,164 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B6" t="s">
         <v>1026</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B7" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B8" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B28" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B29" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
   </sheetData>
@@ -21109,154 +21131,154 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="162" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B1" s="161" t="s">
         <v>1050</v>
-      </c>
-      <c r="B1" s="161" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="162" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B2" s="163" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="162" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B3" s="163" t="s">
         <v>1053</v>
-      </c>
-      <c r="B3" s="163" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="162" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B4" s="163" t="s">
         <v>1055</v>
-      </c>
-      <c r="B4" s="163" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="162" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B5" s="163" t="s">
         <v>1057</v>
-      </c>
-      <c r="B5" s="163" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="162" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B6" s="163" t="s">
         <v>1059</v>
-      </c>
-      <c r="B6" s="163" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="162" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B7" s="163" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="162" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B8" s="163" t="s">
         <v>1063</v>
-      </c>
-      <c r="B8" s="163" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="162" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B9" s="163" t="s">
         <v>1065</v>
-      </c>
-      <c r="B9" s="163" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="162" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B11" s="163" t="s">
         <v>1067</v>
-      </c>
-      <c r="B11" s="163" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="162" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B12" s="163" t="s">
         <v>1069</v>
-      </c>
-      <c r="B12" s="163" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="162" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B13" s="163" t="s">
         <v>1071</v>
-      </c>
-      <c r="B13" s="163" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="162" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B14" s="163" t="s">
         <v>1073</v>
-      </c>
-      <c r="B14" s="163" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="162" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B15" s="163" t="s">
         <v>1075</v>
-      </c>
-      <c r="B15" s="163" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="162" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B16" s="163" t="s">
         <v>1077</v>
-      </c>
-      <c r="B16" s="163" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="162" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B17" s="163" t="s">
         <v>1079</v>
-      </c>
-      <c r="B17" s="163" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="162" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B18" s="163" t="s">
         <v>1081</v>
-      </c>
-      <c r="B18" s="163" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="162" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B19" s="163" t="s">
         <v>1084</v>
-      </c>
-      <c r="B19" s="163" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="162" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B20" s="163" t="s">
         <v>1086</v>
-      </c>
-      <c r="B20" s="163" t="s">
-        <v>1087</v>
       </c>
     </row>
   </sheetData>
@@ -21281,18 +21303,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
+        <v>527</v>
+      </c>
+      <c r="B1" t="s">
         <v>528</v>
-      </c>
-      <c r="B1" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85753EA8-4D15-420A-BA83-A0928814AB4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A71D21-C5FB-496B-8DC5-5591D18659E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="900" windowWidth="15930" windowHeight="13005" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="675" windowWidth="15930" windowHeight="13005" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="1" r:id="rId1"/>
@@ -1454,7 +1454,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="1135">
   <si>
     <t>максимальное значение переменной</t>
   </si>
@@ -8980,6 +8980,15 @@
   </si>
   <si>
     <t>возвращает массив ключей.массив значений.массив пар [ключ, значение].</t>
+  </si>
+  <si>
+    <t>let json = JSON.stringify(value[, replacer, space])</t>
+  </si>
+  <si>
+    <t>let value = JSON.parse(str, [reviver]);</t>
+  </si>
+  <si>
+    <t>метод toJSON для преобразования в JSON. JSON.stringify автоматически вызывает его, если он есть</t>
   </si>
 </sst>
 </file>
@@ -10393,13 +10402,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10453,10 +10462,10 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10468,6 +10477,18 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10475,18 +10496,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -13908,7 +13917,7 @@
       <c r="B2" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="193" t="s">
         <v>300</v>
       </c>
       <c r="D2" s="86"/>
@@ -13921,7 +13930,7 @@
       <c r="B3" s="88" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="186"/>
+      <c r="C3" s="191"/>
       <c r="D3" s="89" t="s">
         <v>308</v>
       </c>
@@ -13936,7 +13945,7 @@
       <c r="B4" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="191" t="s">
         <v>309</v>
       </c>
       <c r="D4" s="89"/>
@@ -13949,7 +13958,7 @@
       <c r="B5" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="186"/>
+      <c r="C5" s="191"/>
       <c r="D5" s="89"/>
       <c r="E5" s="90"/>
     </row>
@@ -13960,7 +13969,7 @@
       <c r="B6" s="91" t="s">
         <v>396</v>
       </c>
-      <c r="C6" s="186"/>
+      <c r="C6" s="191"/>
       <c r="D6" s="89" t="s">
         <v>437</v>
       </c>
@@ -13975,7 +13984,7 @@
       <c r="B7" s="140" t="s">
         <v>437</v>
       </c>
-      <c r="C7" s="186"/>
+      <c r="C7" s="191"/>
       <c r="D7" s="89"/>
       <c r="E7" s="90"/>
     </row>
@@ -13986,7 +13995,7 @@
       <c r="B8" s="142" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="196"/>
+      <c r="C8" s="192"/>
       <c r="D8" s="138"/>
       <c r="E8" s="139"/>
     </row>
@@ -14140,28 +14149,28 @@
       <c r="E20" s="90"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="190">
+      <c r="A21" s="194">
         <v>23</v>
       </c>
       <c r="B21" s="140" t="s">
         <v>529</v>
       </c>
       <c r="C21" s="188"/>
-      <c r="D21" s="193" t="s">
+      <c r="D21" s="185" t="s">
         <v>676</v>
       </c>
-      <c r="E21" s="194" t="s">
+      <c r="E21" s="186" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="190"/>
+      <c r="A22" s="194"/>
       <c r="B22" s="140" t="s">
         <v>494</v>
       </c>
       <c r="C22" s="188"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="194"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="186"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="83">
@@ -14181,7 +14190,7 @@
       <c r="B24" s="91" t="s">
         <v>636</v>
       </c>
-      <c r="C24" s="191" t="s">
+      <c r="C24" s="195" t="s">
         <v>508</v>
       </c>
       <c r="D24" s="89"/>
@@ -14251,7 +14260,7 @@
       <c r="B30" s="141" t="s">
         <v>683</v>
       </c>
-      <c r="C30" s="192"/>
+      <c r="C30" s="196"/>
       <c r="D30" s="77"/>
       <c r="E30" s="92"/>
     </row>
@@ -14676,7 +14685,7 @@
       <c r="B66" s="91" t="s">
         <v>946</v>
       </c>
-      <c r="C66" s="195" t="s">
+      <c r="C66" s="190" t="s">
         <v>947</v>
       </c>
       <c r="D66" s="89"/>
@@ -14689,7 +14698,7 @@
       <c r="B67" s="91" t="s">
         <v>946</v>
       </c>
-      <c r="C67" s="195"/>
+      <c r="C67" s="190"/>
       <c r="D67" s="89"/>
       <c r="E67" s="90"/>
     </row>
@@ -15301,16 +15310,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C16:C23"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C24:C30"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="C9:C15"/>
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C16:C23"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C24:C30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://ru.hexlet.io/courses/html" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
@@ -17088,10 +17097,10 @@
       <c r="E34" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="F34" s="166" t="s">
+      <c r="F34" s="165" t="s">
         <v>227</v>
       </c>
-      <c r="G34" s="167"/>
+      <c r="G34" s="166"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
@@ -17297,7 +17306,7 @@
     </row>
     <row r="93" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="165" t="s">
+      <c r="B94" s="167" t="s">
         <v>276</v>
       </c>
       <c r="C94" s="43" t="s">
@@ -17309,13 +17318,13 @@
       <c r="E94" s="164"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="165"/>
+      <c r="B95" s="167"/>
       <c r="C95" s="44" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="165"/>
+      <c r="B96" s="167"/>
       <c r="C96" s="44" t="s">
         <v>278</v>
       </c>
@@ -17325,7 +17334,7 @@
       <c r="E96" s="164"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="165"/>
+      <c r="B97" s="167"/>
       <c r="C97" s="44" t="s">
         <v>280</v>
       </c>
@@ -17338,7 +17347,7 @@
       </c>
     </row>
     <row r="98" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="165"/>
+      <c r="B98" s="167"/>
       <c r="C98" s="45" t="s">
         <v>283</v>
       </c>
@@ -17350,18 +17359,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="B94:B98"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="B71:B73"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="B82:B85"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="B94:B98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19806,14 +19815,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="76.28515625" style="76" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -20191,10 +20200,17 @@
       <c r="A67" s="75"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="75"/>
+      <c r="A68" s="75" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1134</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="75"/>
+      <c r="A69" s="75" t="s">
+        <v>1133</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="75"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A71D21-C5FB-496B-8DC5-5591D18659E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10C03CC-4747-44FF-8CB4-08A1E8669FE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="675" windowWidth="15930" windowHeight="13005" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1095" windowWidth="15930" windowHeight="13110" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Ё" sheetId="11" r:id="rId12"/>
     <sheet name="settings" sheetId="12" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -8824,9 +8824,6 @@
     <t>setTimeout(func, time) / clearTimeout()</t>
   </si>
   <si>
-    <t>setInterval(func, interval)</t>
-  </si>
-  <si>
     <t>.mousemove()</t>
   </si>
   <si>
@@ -8989,6 +8986,9 @@
   </si>
   <si>
     <t>метод toJSON для преобразования в JSON. JSON.stringify автоматически вызывает его, если он есть</t>
+  </si>
+  <si>
+    <t>setInterval(func, interval) / clearInterval(timerId)</t>
   </si>
 </sst>
 </file>
@@ -10402,13 +10402,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10462,10 +10462,10 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10477,18 +10477,6 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10496,6 +10484,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -13917,7 +13917,7 @@
       <c r="B2" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="193" t="s">
+      <c r="C2" s="185" t="s">
         <v>300</v>
       </c>
       <c r="D2" s="86"/>
@@ -13930,7 +13930,7 @@
       <c r="B3" s="88" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="191"/>
+      <c r="C3" s="186"/>
       <c r="D3" s="89" t="s">
         <v>308</v>
       </c>
@@ -13945,7 +13945,7 @@
       <c r="B4" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="191" t="s">
+      <c r="C4" s="186" t="s">
         <v>309</v>
       </c>
       <c r="D4" s="89"/>
@@ -13958,7 +13958,7 @@
       <c r="B5" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="191"/>
+      <c r="C5" s="186"/>
       <c r="D5" s="89"/>
       <c r="E5" s="90"/>
     </row>
@@ -13969,7 +13969,7 @@
       <c r="B6" s="91" t="s">
         <v>396</v>
       </c>
-      <c r="C6" s="191"/>
+      <c r="C6" s="186"/>
       <c r="D6" s="89" t="s">
         <v>437</v>
       </c>
@@ -13984,7 +13984,7 @@
       <c r="B7" s="140" t="s">
         <v>437</v>
       </c>
-      <c r="C7" s="191"/>
+      <c r="C7" s="186"/>
       <c r="D7" s="89"/>
       <c r="E7" s="90"/>
     </row>
@@ -13995,7 +13995,7 @@
       <c r="B8" s="142" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="192"/>
+      <c r="C8" s="196"/>
       <c r="D8" s="138"/>
       <c r="E8" s="139"/>
     </row>
@@ -14149,28 +14149,28 @@
       <c r="E20" s="90"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="194">
+      <c r="A21" s="190">
         <v>23</v>
       </c>
       <c r="B21" s="140" t="s">
         <v>529</v>
       </c>
       <c r="C21" s="188"/>
-      <c r="D21" s="185" t="s">
+      <c r="D21" s="193" t="s">
         <v>676</v>
       </c>
-      <c r="E21" s="186" t="s">
+      <c r="E21" s="194" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="194"/>
+      <c r="A22" s="190"/>
       <c r="B22" s="140" t="s">
         <v>494</v>
       </c>
       <c r="C22" s="188"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="186"/>
+      <c r="D22" s="193"/>
+      <c r="E22" s="194"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="83">
@@ -14190,7 +14190,7 @@
       <c r="B24" s="91" t="s">
         <v>636</v>
       </c>
-      <c r="C24" s="195" t="s">
+      <c r="C24" s="191" t="s">
         <v>508</v>
       </c>
       <c r="D24" s="89"/>
@@ -14260,7 +14260,7 @@
       <c r="B30" s="141" t="s">
         <v>683</v>
       </c>
-      <c r="C30" s="196"/>
+      <c r="C30" s="192"/>
       <c r="D30" s="77"/>
       <c r="E30" s="92"/>
     </row>
@@ -14685,7 +14685,7 @@
       <c r="B66" s="91" t="s">
         <v>946</v>
       </c>
-      <c r="C66" s="190" t="s">
+      <c r="C66" s="195" t="s">
         <v>947</v>
       </c>
       <c r="D66" s="89"/>
@@ -14698,7 +14698,7 @@
       <c r="B67" s="91" t="s">
         <v>946</v>
       </c>
-      <c r="C67" s="190"/>
+      <c r="C67" s="195"/>
       <c r="D67" s="89"/>
       <c r="E67" s="90"/>
     </row>
@@ -15310,16 +15310,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C4:C8"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C16:C23"/>
     <mergeCell ref="C33:C39"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="C24:C30"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C4:C8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://ru.hexlet.io/courses/html" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
@@ -17097,10 +17097,10 @@
       <c r="E34" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="F34" s="165" t="s">
+      <c r="F34" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="G34" s="166"/>
+      <c r="G34" s="167"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
@@ -17306,7 +17306,7 @@
     </row>
     <row r="93" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="167" t="s">
+      <c r="B94" s="165" t="s">
         <v>276</v>
       </c>
       <c r="C94" s="43" t="s">
@@ -17318,13 +17318,13 @@
       <c r="E94" s="164"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="167"/>
+      <c r="B95" s="165"/>
       <c r="C95" s="44" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="167"/>
+      <c r="B96" s="165"/>
       <c r="C96" s="44" t="s">
         <v>278</v>
       </c>
@@ -17334,7 +17334,7 @@
       <c r="E96" s="164"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="167"/>
+      <c r="B97" s="165"/>
       <c r="C97" s="44" t="s">
         <v>280</v>
       </c>
@@ -17347,7 +17347,7 @@
       </c>
     </row>
     <row r="98" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="167"/>
+      <c r="B98" s="165"/>
       <c r="C98" s="45" t="s">
         <v>283</v>
       </c>
@@ -17359,18 +17359,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="B82:B85"/>
     <mergeCell ref="D94:E94"/>
     <mergeCell ref="B88:B92"/>
     <mergeCell ref="D96:E96"/>
     <mergeCell ref="D97:E97"/>
     <mergeCell ref="D98:F98"/>
     <mergeCell ref="B94:B98"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="B82:B85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19816,7 +19816,7 @@
   <dimension ref="A1:B397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19827,7 +19827,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B1" t="s">
         <v>440</v>
@@ -19835,7 +19835,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B2" t="s">
         <v>441</v>
@@ -19843,7 +19843,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B3" t="s">
         <v>444</v>
@@ -19867,60 +19867,60 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="75" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="75" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="75" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="75" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="75" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="75" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="75" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="75" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B15" t="s">
         <v>1126</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="75" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="75" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -19930,38 +19930,38 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="75" t="s">
-        <v>1089</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="75" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B20" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="75" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B21" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="75" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="75" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="75" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -20112,51 +20112,51 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="75" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="75" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="75" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="75" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="75" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B56" t="s">
         <v>1094</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="75" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="75" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B58" t="s">
         <v>1097</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="75" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B59" t="s">
         <v>1101</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -20167,33 +20167,33 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="75" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="75" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B63" t="s">
         <v>1105</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="75" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="75" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="75" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B66" t="s">
         <v>1130</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -20201,15 +20201,15 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="75" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B68" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="75" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -21329,7 +21329,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -21349,7 +21349,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10C03CC-4747-44FF-8CB4-08A1E8669FE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE65E1C6-6713-4676-A714-EE6AB0D61FB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1095" windowWidth="15930" windowHeight="13110" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="795" windowWidth="15930" windowHeight="13080" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="1" r:id="rId1"/>
@@ -10402,13 +10402,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10462,10 +10462,10 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10477,6 +10477,18 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10484,18 +10496,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -13917,7 +13917,7 @@
       <c r="B2" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="193" t="s">
         <v>300</v>
       </c>
       <c r="D2" s="86"/>
@@ -13930,7 +13930,7 @@
       <c r="B3" s="88" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="186"/>
+      <c r="C3" s="191"/>
       <c r="D3" s="89" t="s">
         <v>308</v>
       </c>
@@ -13945,7 +13945,7 @@
       <c r="B4" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="191" t="s">
         <v>309</v>
       </c>
       <c r="D4" s="89"/>
@@ -13958,7 +13958,7 @@
       <c r="B5" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="186"/>
+      <c r="C5" s="191"/>
       <c r="D5" s="89"/>
       <c r="E5" s="90"/>
     </row>
@@ -13969,7 +13969,7 @@
       <c r="B6" s="91" t="s">
         <v>396</v>
       </c>
-      <c r="C6" s="186"/>
+      <c r="C6" s="191"/>
       <c r="D6" s="89" t="s">
         <v>437</v>
       </c>
@@ -13984,7 +13984,7 @@
       <c r="B7" s="140" t="s">
         <v>437</v>
       </c>
-      <c r="C7" s="186"/>
+      <c r="C7" s="191"/>
       <c r="D7" s="89"/>
       <c r="E7" s="90"/>
     </row>
@@ -13995,7 +13995,7 @@
       <c r="B8" s="142" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="196"/>
+      <c r="C8" s="192"/>
       <c r="D8" s="138"/>
       <c r="E8" s="139"/>
     </row>
@@ -14149,28 +14149,28 @@
       <c r="E20" s="90"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="190">
+      <c r="A21" s="194">
         <v>23</v>
       </c>
       <c r="B21" s="140" t="s">
         <v>529</v>
       </c>
       <c r="C21" s="188"/>
-      <c r="D21" s="193" t="s">
+      <c r="D21" s="185" t="s">
         <v>676</v>
       </c>
-      <c r="E21" s="194" t="s">
+      <c r="E21" s="186" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="190"/>
+      <c r="A22" s="194"/>
       <c r="B22" s="140" t="s">
         <v>494</v>
       </c>
       <c r="C22" s="188"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="194"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="186"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="83">
@@ -14190,7 +14190,7 @@
       <c r="B24" s="91" t="s">
         <v>636</v>
       </c>
-      <c r="C24" s="191" t="s">
+      <c r="C24" s="195" t="s">
         <v>508</v>
       </c>
       <c r="D24" s="89"/>
@@ -14260,7 +14260,7 @@
       <c r="B30" s="141" t="s">
         <v>683</v>
       </c>
-      <c r="C30" s="192"/>
+      <c r="C30" s="196"/>
       <c r="D30" s="77"/>
       <c r="E30" s="92"/>
     </row>
@@ -14685,7 +14685,7 @@
       <c r="B66" s="91" t="s">
         <v>946</v>
       </c>
-      <c r="C66" s="195" t="s">
+      <c r="C66" s="190" t="s">
         <v>947</v>
       </c>
       <c r="D66" s="89"/>
@@ -14698,7 +14698,7 @@
       <c r="B67" s="91" t="s">
         <v>946</v>
       </c>
-      <c r="C67" s="195"/>
+      <c r="C67" s="190"/>
       <c r="D67" s="89"/>
       <c r="E67" s="90"/>
     </row>
@@ -15310,16 +15310,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C16:C23"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C24:C30"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="C9:C15"/>
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C16:C23"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C24:C30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://ru.hexlet.io/courses/html" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
@@ -17097,10 +17097,10 @@
       <c r="E34" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="F34" s="166" t="s">
+      <c r="F34" s="165" t="s">
         <v>227</v>
       </c>
-      <c r="G34" s="167"/>
+      <c r="G34" s="166"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
@@ -17306,7 +17306,7 @@
     </row>
     <row r="93" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="165" t="s">
+      <c r="B94" s="167" t="s">
         <v>276</v>
       </c>
       <c r="C94" s="43" t="s">
@@ -17318,13 +17318,13 @@
       <c r="E94" s="164"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="165"/>
+      <c r="B95" s="167"/>
       <c r="C95" s="44" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="165"/>
+      <c r="B96" s="167"/>
       <c r="C96" s="44" t="s">
         <v>278</v>
       </c>
@@ -17334,7 +17334,7 @@
       <c r="E96" s="164"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="165"/>
+      <c r="B97" s="167"/>
       <c r="C97" s="44" t="s">
         <v>280</v>
       </c>
@@ -17347,7 +17347,7 @@
       </c>
     </row>
     <row r="98" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="165"/>
+      <c r="B98" s="167"/>
       <c r="C98" s="45" t="s">
         <v>283</v>
       </c>
@@ -17359,18 +17359,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="B94:B98"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="B71:B73"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="B82:B85"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="B94:B98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19815,8 +19815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE65E1C6-6713-4676-A714-EE6AB0D61FB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E7DBD6-108D-43BF-A550-D132285A626D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="795" windowWidth="15930" windowHeight="13080" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="870" windowWidth="15930" windowHeight="13110" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="1" r:id="rId1"/>
@@ -9663,7 +9663,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9679,6 +9679,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10028,7 +10034,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10402,13 +10408,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10462,10 +10468,10 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10477,18 +10483,6 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10498,12 +10492,25 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -13917,7 +13924,7 @@
       <c r="B2" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="193" t="s">
+      <c r="C2" s="185" t="s">
         <v>300</v>
       </c>
       <c r="D2" s="86"/>
@@ -13930,7 +13937,7 @@
       <c r="B3" s="88" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="191"/>
+      <c r="C3" s="186"/>
       <c r="D3" s="89" t="s">
         <v>308</v>
       </c>
@@ -13945,7 +13952,7 @@
       <c r="B4" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="191" t="s">
+      <c r="C4" s="186" t="s">
         <v>309</v>
       </c>
       <c r="D4" s="89"/>
@@ -13958,7 +13965,7 @@
       <c r="B5" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="191"/>
+      <c r="C5" s="186"/>
       <c r="D5" s="89"/>
       <c r="E5" s="90"/>
     </row>
@@ -13969,7 +13976,7 @@
       <c r="B6" s="91" t="s">
         <v>396</v>
       </c>
-      <c r="C6" s="191"/>
+      <c r="C6" s="186"/>
       <c r="D6" s="89" t="s">
         <v>437</v>
       </c>
@@ -13984,7 +13991,7 @@
       <c r="B7" s="140" t="s">
         <v>437</v>
       </c>
-      <c r="C7" s="191"/>
+      <c r="C7" s="186"/>
       <c r="D7" s="89"/>
       <c r="E7" s="90"/>
     </row>
@@ -13995,7 +14002,7 @@
       <c r="B8" s="142" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="192"/>
+      <c r="C8" s="196"/>
       <c r="D8" s="138"/>
       <c r="E8" s="139"/>
     </row>
@@ -14149,28 +14156,28 @@
       <c r="E20" s="90"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="194">
+      <c r="A21" s="190">
         <v>23</v>
       </c>
       <c r="B21" s="140" t="s">
         <v>529</v>
       </c>
       <c r="C21" s="188"/>
-      <c r="D21" s="185" t="s">
+      <c r="D21" s="193" t="s">
         <v>676</v>
       </c>
-      <c r="E21" s="186" t="s">
+      <c r="E21" s="194" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="194"/>
+      <c r="A22" s="190"/>
       <c r="B22" s="140" t="s">
         <v>494</v>
       </c>
       <c r="C22" s="188"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="186"/>
+      <c r="D22" s="193"/>
+      <c r="E22" s="194"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="83">
@@ -14190,7 +14197,7 @@
       <c r="B24" s="91" t="s">
         <v>636</v>
       </c>
-      <c r="C24" s="195" t="s">
+      <c r="C24" s="191" t="s">
         <v>508</v>
       </c>
       <c r="D24" s="89"/>
@@ -14260,7 +14267,7 @@
       <c r="B30" s="141" t="s">
         <v>683</v>
       </c>
-      <c r="C30" s="196"/>
+      <c r="C30" s="192"/>
       <c r="D30" s="77"/>
       <c r="E30" s="92"/>
     </row>
@@ -14685,7 +14692,7 @@
       <c r="B66" s="91" t="s">
         <v>946</v>
       </c>
-      <c r="C66" s="190" t="s">
+      <c r="C66" s="195" t="s">
         <v>947</v>
       </c>
       <c r="D66" s="89"/>
@@ -14698,7 +14705,7 @@
       <c r="B67" s="91" t="s">
         <v>946</v>
       </c>
-      <c r="C67" s="190"/>
+      <c r="C67" s="195"/>
       <c r="D67" s="89"/>
       <c r="E67" s="90"/>
     </row>
@@ -15310,16 +15317,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C4:C8"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C16:C23"/>
     <mergeCell ref="C33:C39"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="C24:C30"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C4:C8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://ru.hexlet.io/courses/html" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
@@ -15336,7 +15343,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15483,7 +15490,7 @@
       <c r="A9" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="199" t="s">
         <v>408</v>
       </c>
       <c r="C9" t="s">
@@ -17097,10 +17104,10 @@
       <c r="E34" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="F34" s="165" t="s">
+      <c r="F34" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="G34" s="166"/>
+      <c r="G34" s="167"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
@@ -17306,7 +17313,7 @@
     </row>
     <row r="93" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="167" t="s">
+      <c r="B94" s="165" t="s">
         <v>276</v>
       </c>
       <c r="C94" s="43" t="s">
@@ -17318,13 +17325,13 @@
       <c r="E94" s="164"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="167"/>
+      <c r="B95" s="165"/>
       <c r="C95" s="44" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="167"/>
+      <c r="B96" s="165"/>
       <c r="C96" s="44" t="s">
         <v>278</v>
       </c>
@@ -17334,7 +17341,7 @@
       <c r="E96" s="164"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="167"/>
+      <c r="B97" s="165"/>
       <c r="C97" s="44" t="s">
         <v>280</v>
       </c>
@@ -17347,7 +17354,7 @@
       </c>
     </row>
     <row r="98" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="167"/>
+      <c r="B98" s="165"/>
       <c r="C98" s="45" t="s">
         <v>283</v>
       </c>
@@ -17359,18 +17366,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="B82:B85"/>
     <mergeCell ref="D94:E94"/>
     <mergeCell ref="B88:B92"/>
     <mergeCell ref="D96:E96"/>
     <mergeCell ref="D97:E97"/>
     <mergeCell ref="D98:F98"/>
     <mergeCell ref="B94:B98"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="B82:B85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17383,8 +17390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18455,8 +18462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AI245"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19815,7 +19822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E7DBD6-108D-43BF-A550-D132285A626D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB575116-7519-480B-98E7-7C8FAE1B5145}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="870" windowWidth="15930" windowHeight="13110" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5055" yWindow="2340" windowWidth="15930" windowHeight="12465" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="1" r:id="rId1"/>
@@ -1454,7 +1454,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="1145">
   <si>
     <t>максимальное значение переменной</t>
   </si>
@@ -8989,6 +8989,39 @@
   </si>
   <si>
     <t>setInterval(func, interval) / clearInterval(timerId)</t>
+  </si>
+  <si>
+    <t>explainshell.com</t>
+  </si>
+  <si>
+    <t>покажет удобное интерактивное описание.</t>
+  </si>
+  <si>
+    <t>https://ru.wikipedia.org/wiki/FHS</t>
+  </si>
+  <si>
+    <t>файловая система UNIX</t>
+  </si>
+  <si>
+    <t>head, tail</t>
+  </si>
+  <si>
+    <t>показать n строк, -n / tail -f ждёт появления новых строк</t>
+  </si>
+  <si>
+    <t>grep</t>
+  </si>
+  <si>
+    <t>поиск по файлу или файлам определенного текста
+(-B, --before-context)(-A, --after-context) (-C, --context)
+-R, которая говорит о том, что надо искать внутри директории + путь до файла
+Если добавить опцию n, то дополнительно отобразится номер строки.</t>
+  </si>
+  <si>
+    <t>vim</t>
+  </si>
+  <si>
+    <t>редактирование файлов i - режим ввода, : режим командной строки :q! :wq :w</t>
   </si>
 </sst>
 </file>
@@ -10034,7 +10067,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10405,6 +10438,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10510,7 +10544,9 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -13897,7 +13933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A127" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
@@ -13924,7 +13960,7 @@
       <c r="B2" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="186" t="s">
         <v>300</v>
       </c>
       <c r="D2" s="86"/>
@@ -13937,7 +13973,7 @@
       <c r="B3" s="88" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="186"/>
+      <c r="C3" s="187"/>
       <c r="D3" s="89" t="s">
         <v>308</v>
       </c>
@@ -13952,7 +13988,7 @@
       <c r="B4" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="187" t="s">
         <v>309</v>
       </c>
       <c r="D4" s="89"/>
@@ -13965,7 +14001,7 @@
       <c r="B5" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="186"/>
+      <c r="C5" s="187"/>
       <c r="D5" s="89"/>
       <c r="E5" s="90"/>
     </row>
@@ -13976,7 +14012,7 @@
       <c r="B6" s="91" t="s">
         <v>396</v>
       </c>
-      <c r="C6" s="186"/>
+      <c r="C6" s="187"/>
       <c r="D6" s="89" t="s">
         <v>437</v>
       </c>
@@ -13991,7 +14027,7 @@
       <c r="B7" s="140" t="s">
         <v>437</v>
       </c>
-      <c r="C7" s="186"/>
+      <c r="C7" s="187"/>
       <c r="D7" s="89"/>
       <c r="E7" s="90"/>
     </row>
@@ -14002,7 +14038,7 @@
       <c r="B8" s="142" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="196"/>
+      <c r="C8" s="197"/>
       <c r="D8" s="138"/>
       <c r="E8" s="139"/>
     </row>
@@ -14013,7 +14049,7 @@
       <c r="B9" s="143" t="s">
         <v>449</v>
       </c>
-      <c r="C9" s="187" t="s">
+      <c r="C9" s="188" t="s">
         <v>508</v>
       </c>
       <c r="D9" s="86"/>
@@ -14029,7 +14065,7 @@
       <c r="B10" s="93" t="s">
         <v>449</v>
       </c>
-      <c r="C10" s="188"/>
+      <c r="C10" s="189"/>
       <c r="D10" s="89"/>
       <c r="E10" s="90"/>
     </row>
@@ -14040,7 +14076,7 @@
       <c r="B11" s="93" t="s">
         <v>449</v>
       </c>
-      <c r="C11" s="188"/>
+      <c r="C11" s="189"/>
       <c r="D11" s="89"/>
       <c r="E11" s="90"/>
     </row>
@@ -14051,7 +14087,7 @@
       <c r="B12" s="93" t="s">
         <v>449</v>
       </c>
-      <c r="C12" s="188"/>
+      <c r="C12" s="189"/>
       <c r="D12" s="89"/>
       <c r="E12" s="90"/>
     </row>
@@ -14062,7 +14098,7 @@
       <c r="B13" s="93" t="s">
         <v>494</v>
       </c>
-      <c r="C13" s="188"/>
+      <c r="C13" s="189"/>
       <c r="D13" s="89" t="s">
         <v>501</v>
       </c>
@@ -14075,7 +14111,7 @@
       <c r="B14" s="140" t="s">
         <v>501</v>
       </c>
-      <c r="C14" s="188"/>
+      <c r="C14" s="189"/>
       <c r="D14" s="89"/>
       <c r="E14" s="90"/>
     </row>
@@ -14086,7 +14122,7 @@
       <c r="B15" s="142" t="s">
         <v>524</v>
       </c>
-      <c r="C15" s="189"/>
+      <c r="C15" s="190"/>
       <c r="D15" s="138"/>
       <c r="E15" s="139"/>
     </row>
@@ -14097,7 +14133,7 @@
       <c r="B16" s="143" t="s">
         <v>529</v>
       </c>
-      <c r="C16" s="187" t="s">
+      <c r="C16" s="188" t="s">
         <v>508</v>
       </c>
       <c r="D16" s="86" t="s">
@@ -14114,7 +14150,7 @@
       <c r="B17" s="93" t="s">
         <v>529</v>
       </c>
-      <c r="C17" s="188"/>
+      <c r="C17" s="189"/>
       <c r="D17" s="89"/>
       <c r="E17" s="90"/>
     </row>
@@ -14125,7 +14161,7 @@
       <c r="B18" s="93" t="s">
         <v>529</v>
       </c>
-      <c r="C18" s="188"/>
+      <c r="C18" s="189"/>
       <c r="D18" s="89"/>
       <c r="E18" s="90"/>
     </row>
@@ -14136,7 +14172,7 @@
       <c r="B19" s="93" t="s">
         <v>529</v>
       </c>
-      <c r="C19" s="188"/>
+      <c r="C19" s="189"/>
       <c r="D19" s="89" t="s">
         <v>676</v>
       </c>
@@ -14151,33 +14187,33 @@
       <c r="B20" s="93" t="s">
         <v>529</v>
       </c>
-      <c r="C20" s="188"/>
+      <c r="C20" s="189"/>
       <c r="D20" s="89"/>
       <c r="E20" s="90"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="190">
+      <c r="A21" s="191">
         <v>23</v>
       </c>
       <c r="B21" s="140" t="s">
         <v>529</v>
       </c>
-      <c r="C21" s="188"/>
-      <c r="D21" s="193" t="s">
+      <c r="C21" s="189"/>
+      <c r="D21" s="194" t="s">
         <v>676</v>
       </c>
-      <c r="E21" s="194" t="s">
+      <c r="E21" s="195" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="190"/>
+      <c r="A22" s="191"/>
       <c r="B22" s="140" t="s">
         <v>494</v>
       </c>
-      <c r="C22" s="188"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="194"/>
+      <c r="C22" s="189"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="195"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="83">
@@ -14186,7 +14222,7 @@
       <c r="B23" s="142" t="s">
         <v>494</v>
       </c>
-      <c r="C23" s="189"/>
+      <c r="C23" s="190"/>
       <c r="D23" s="138"/>
       <c r="E23" s="139"/>
     </row>
@@ -14197,7 +14233,7 @@
       <c r="B24" s="91" t="s">
         <v>636</v>
       </c>
-      <c r="C24" s="191" t="s">
+      <c r="C24" s="192" t="s">
         <v>508</v>
       </c>
       <c r="D24" s="89"/>
@@ -14210,7 +14246,7 @@
       <c r="B25" s="91" t="s">
         <v>636</v>
       </c>
-      <c r="C25" s="188"/>
+      <c r="C25" s="189"/>
       <c r="D25" s="89"/>
       <c r="E25" s="90"/>
     </row>
@@ -14221,7 +14257,7 @@
       <c r="B26" s="91" t="s">
         <v>636</v>
       </c>
-      <c r="C26" s="188"/>
+      <c r="C26" s="189"/>
       <c r="D26" s="89"/>
       <c r="E26" s="90"/>
     </row>
@@ -14232,7 +14268,7 @@
       <c r="B27" s="91" t="s">
         <v>636</v>
       </c>
-      <c r="C27" s="188"/>
+      <c r="C27" s="189"/>
       <c r="D27" s="89"/>
       <c r="E27" s="90"/>
     </row>
@@ -14241,7 +14277,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="91"/>
-      <c r="C28" s="188"/>
+      <c r="C28" s="189"/>
       <c r="D28" s="89" t="s">
         <v>676</v>
       </c>
@@ -14256,7 +14292,7 @@
       <c r="B29" s="140" t="s">
         <v>494</v>
       </c>
-      <c r="C29" s="188"/>
+      <c r="C29" s="189"/>
       <c r="D29" s="89"/>
       <c r="E29" s="90"/>
     </row>
@@ -14267,7 +14303,7 @@
       <c r="B30" s="141" t="s">
         <v>683</v>
       </c>
-      <c r="C30" s="192"/>
+      <c r="C30" s="193"/>
       <c r="D30" s="77"/>
       <c r="E30" s="92"/>
     </row>
@@ -14284,7 +14320,7 @@
       <c r="B33" s="136" t="s">
         <v>683</v>
       </c>
-      <c r="C33" s="187" t="s">
+      <c r="C33" s="188" t="s">
         <v>508</v>
       </c>
       <c r="D33" s="86"/>
@@ -14297,7 +14333,7 @@
       <c r="B34" s="91" t="s">
         <v>683</v>
       </c>
-      <c r="C34" s="188"/>
+      <c r="C34" s="189"/>
       <c r="D34" s="89"/>
       <c r="E34" s="90"/>
     </row>
@@ -14308,7 +14344,7 @@
       <c r="B35" s="91" t="s">
         <v>683</v>
       </c>
-      <c r="C35" s="188"/>
+      <c r="C35" s="189"/>
       <c r="D35" s="89" t="s">
         <v>494</v>
       </c>
@@ -14323,7 +14359,7 @@
       <c r="B36" s="91" t="s">
         <v>701</v>
       </c>
-      <c r="C36" s="188"/>
+      <c r="C36" s="189"/>
       <c r="D36" s="89"/>
       <c r="E36" s="90"/>
     </row>
@@ -14334,7 +14370,7 @@
       <c r="B37" s="91" t="s">
         <v>701</v>
       </c>
-      <c r="C37" s="188"/>
+      <c r="C37" s="189"/>
       <c r="D37" s="89"/>
       <c r="E37" s="90"/>
     </row>
@@ -14345,7 +14381,7 @@
       <c r="B38" s="140" t="s">
         <v>701</v>
       </c>
-      <c r="C38" s="188"/>
+      <c r="C38" s="189"/>
       <c r="D38" s="89"/>
       <c r="E38" s="90"/>
     </row>
@@ -14356,7 +14392,7 @@
       <c r="B39" s="142" t="s">
         <v>494</v>
       </c>
-      <c r="C39" s="189"/>
+      <c r="C39" s="190"/>
       <c r="D39" s="138"/>
       <c r="E39" s="139"/>
     </row>
@@ -14692,7 +14728,7 @@
       <c r="B66" s="91" t="s">
         <v>946</v>
       </c>
-      <c r="C66" s="195" t="s">
+      <c r="C66" s="196" t="s">
         <v>947</v>
       </c>
       <c r="D66" s="89"/>
@@ -14705,7 +14741,7 @@
       <c r="B67" s="91" t="s">
         <v>946</v>
       </c>
-      <c r="C67" s="195"/>
+      <c r="C67" s="196"/>
       <c r="D67" s="89"/>
       <c r="E67" s="90"/>
     </row>
@@ -15340,349 +15376,366 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="B1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="149" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="149" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="C2" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>620</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>621</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="C3" s="53" t="s">
         <v>307</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>622</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>623</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>624</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>625</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>749</v>
       </c>
-      <c r="F4" s="149" t="s">
+      <c r="G4" s="149" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>626</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>627</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>751</v>
       </c>
-      <c r="F5" s="149" t="s">
+      <c r="G5" s="149" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="C6" s="53" t="s">
         <v>383</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>628</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>629</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>752</v>
       </c>
-      <c r="F6" s="149" t="s">
+      <c r="G6" s="149" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="C7" s="53" t="s">
         <v>385</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>630</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>631</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>756</v>
       </c>
-      <c r="F7" s="149" t="s">
+      <c r="G7" s="149" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="C8" s="53" t="s">
         <v>387</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>632</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>633</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="B9" s="199" t="s">
+      <c r="C9" s="164" t="s">
         <v>408</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>634</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>635</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>758</v>
       </c>
-      <c r="F9" s="149" t="s">
+      <c r="G9" s="149" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="B10" s="197" t="s">
+      <c r="C10" s="198" t="s">
         <v>424</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>958</v>
       </c>
-      <c r="F10" s="149" t="s">
+      <c r="G10" s="149" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="B11" s="197"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="C11" s="198"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="C12" s="53" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="C13" s="73" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="C14" s="53" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1